--- a/leagues/0755 Fantasy Football 2025.xlsx
+++ b/leagues/0755 Fantasy Football 2025.xlsx
@@ -11,16 +11,17 @@
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
-    <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
-    <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
-    <sheet name="Biggest Upsets" sheetId="7" r:id="rId7"/>
+    <sheet name="Record Odds" sheetId="5" r:id="rId5"/>
+    <sheet name="Louie Power Index" sheetId="6" r:id="rId6"/>
+    <sheet name="LPI By Week" sheetId="7" r:id="rId7"/>
+    <sheet name="Biggest Upsets" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="73">
   <si>
     <t>Michael, The Baker</t>
   </si>
@@ -34,7 +35,7 @@
     <t>All my homies hate Dallas</t>
   </si>
   <si>
-    <t>Patrick's Stars</t>
+    <t>Mr Steinfeld's Stars</t>
   </si>
   <si>
     <t>Dak Stinks</t>
@@ -52,10 +53,13 @@
     <t>AJ's Awesome Team</t>
   </si>
   <si>
-    <t>0-1-0</t>
-  </si>
-  <si>
-    <t>1-0-0</t>
+    <t>1-1-0</t>
+  </si>
+  <si>
+    <t>2-0-0</t>
+  </si>
+  <si>
+    <t>0-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -76,37 +80,112 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>Place 1</t>
-  </si>
-  <si>
-    <t>Place 2</t>
-  </si>
-  <si>
-    <t>Place 3</t>
-  </si>
-  <si>
-    <t>Place 4</t>
-  </si>
-  <si>
-    <t>Place 5</t>
-  </si>
-  <si>
-    <t>Place 6</t>
-  </si>
-  <si>
-    <t>Place 7</t>
-  </si>
-  <si>
-    <t>Place 8</t>
-  </si>
-  <si>
-    <t>Place 9</t>
-  </si>
-  <si>
-    <t>Place 10</t>
-  </si>
-  <si>
-    <t>Chance of making playoffs</t>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Current_Record</t>
+  </si>
+  <si>
+    <t>Current_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Score</t>
+  </si>
+  <si>
+    <t>Total_Points_For</t>
+  </si>
+  <si>
+    <t>Playoff_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Expected_Final_Record</t>
+  </si>
+  <si>
+    <t>Most_Likely_Record</t>
+  </si>
+  <si>
+    <t>2-0</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>9.5-4.5</t>
+  </si>
+  <si>
+    <t>8.2-5.8</t>
+  </si>
+  <si>
+    <t>7.9-6.1</t>
+  </si>
+  <si>
+    <t>7.6-6.4</t>
+  </si>
+  <si>
+    <t>7.0-7.0</t>
+  </si>
+  <si>
+    <t>6.7-7.3</t>
+  </si>
+  <si>
+    <t>6.5-7.5</t>
+  </si>
+  <si>
+    <t>4.2-9.8</t>
+  </si>
+  <si>
+    <t>4.1-9.9</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>4-10</t>
   </si>
   <si>
     <t>Louie Power Index (LPI)</t>
@@ -115,7 +194,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
     <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
   </si>
   <si>
     <t>Week</t>
@@ -552,7 +655,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -564,7 +667,7 @@
         <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -578,28 +681,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -622,7 +725,7 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -642,34 +745,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -680,31 +783,31 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -721,16 +824,16 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
@@ -739,7 +842,7 @@
         <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -785,31 +888,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -823,19 +926,19 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
@@ -844,7 +947,7 @@
         <v>11</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -858,19 +961,19 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
@@ -879,7 +982,7 @@
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -897,13 +1000,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -914,7 +1017,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -925,13 +1028,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -939,10 +1042,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -953,10 +1056,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -967,13 +1070,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -981,13 +1084,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -995,13 +1098,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1009,13 +1112,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1023,13 +1126,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1037,10 +1140,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -1061,16 +1164,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1081,10 +1184,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -1095,16 +1198,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="D3">
-        <v>-0.09999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1112,13 +1215,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="D4">
-        <v>-0.2</v>
+        <v>-0.8</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -1129,16 +1232,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="D5">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1146,13 +1249,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1163,13 +1266,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0.4</v>
-      </c>
-      <c r="D7">
-        <v>0.4</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1180,16 +1283,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>-0.7</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1197,13 +1300,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="D9">
-        <v>0.3</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1214,16 +1317,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1234,13 +1337,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1258,40 +1361,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1299,265 +1402,265 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>74.85000000000001</v>
+        <v>42.9</v>
       </c>
       <c r="C2">
-        <v>24.66</v>
+        <v>21.2</v>
       </c>
       <c r="D2">
-        <v>0.49</v>
+        <v>14.2</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>94.90000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>21.05</v>
+        <v>19.6</v>
       </c>
       <c r="C3">
-        <v>39.93</v>
+        <v>19.3</v>
       </c>
       <c r="D3">
-        <v>28.2</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>8.74</v>
+        <v>12.7</v>
       </c>
       <c r="F3">
-        <v>1.8</v>
+        <v>10.1</v>
       </c>
       <c r="G3">
-        <v>0.24</v>
+        <v>8.9</v>
       </c>
       <c r="H3">
-        <v>0.04</v>
+        <v>6.3</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L3">
-        <v>99.95999999999999</v>
+        <v>85.59999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>3.5</v>
+        <v>11.8</v>
       </c>
       <c r="C4">
-        <v>23.87</v>
+        <v>12.1</v>
       </c>
       <c r="D4">
-        <v>34.86</v>
+        <v>17.6</v>
       </c>
       <c r="E4">
-        <v>24.45</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>10.03</v>
+        <v>15.1</v>
       </c>
       <c r="G4">
-        <v>2.79</v>
+        <v>12.5</v>
       </c>
       <c r="H4">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="I4">
+        <v>4.2</v>
+      </c>
+      <c r="J4">
+        <v>1.5</v>
+      </c>
+      <c r="K4">
         <v>0.5</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
       <c r="L4">
-        <v>99.50000000000001</v>
+        <v>84.09999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>0.5499999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="C5">
-        <v>8.51</v>
+        <v>17.3</v>
       </c>
       <c r="D5">
-        <v>22.59</v>
+        <v>15.9</v>
       </c>
       <c r="E5">
-        <v>30.29</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>23.64</v>
+        <v>15.1</v>
       </c>
       <c r="G5">
-        <v>10.78</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H5">
-        <v>3.19</v>
+        <v>8.5</v>
       </c>
       <c r="I5">
-        <v>0.41</v>
+        <v>5.3</v>
       </c>
       <c r="J5">
-        <v>0.04</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L5">
-        <v>96.36</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.05</v>
+        <v>7.9</v>
       </c>
       <c r="C6">
-        <v>2.53</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>10.1</v>
+        <v>14.1</v>
       </c>
       <c r="E6">
-        <v>22.03</v>
+        <v>17</v>
       </c>
       <c r="F6">
-        <v>28.61</v>
+        <v>12.3</v>
       </c>
       <c r="G6">
-        <v>22.76</v>
+        <v>12.9</v>
       </c>
       <c r="H6">
-        <v>10.64</v>
+        <v>10.4</v>
       </c>
       <c r="I6">
-        <v>2.83</v>
+        <v>8.1</v>
       </c>
       <c r="J6">
-        <v>0.45</v>
+        <v>4.2</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="L6">
-        <v>86.08000000000001</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="C7">
-        <v>0.47</v>
+        <v>6.3</v>
       </c>
       <c r="D7">
-        <v>3.14</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>10.7</v>
+        <v>11.2</v>
       </c>
       <c r="F7">
-        <v>22.32</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>28.28</v>
+        <v>19.4</v>
       </c>
       <c r="H7">
-        <v>22.07</v>
+        <v>16</v>
       </c>
       <c r="I7">
-        <v>10.79</v>
+        <v>13</v>
       </c>
       <c r="J7">
-        <v>2.22</v>
+        <v>5.6</v>
       </c>
       <c r="K7">
-        <v>0.01</v>
+        <v>2.3</v>
       </c>
       <c r="L7">
-        <v>64.91</v>
+        <v>63.1</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="C8">
-        <v>0.03</v>
+        <v>5.7</v>
       </c>
       <c r="D8">
-        <v>0.59</v>
+        <v>8.6</v>
       </c>
       <c r="E8">
-        <v>3.23</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>10.62</v>
+        <v>12.6</v>
       </c>
       <c r="G8">
-        <v>23.65</v>
+        <v>11.9</v>
       </c>
       <c r="H8">
-        <v>30.24</v>
+        <v>16.2</v>
       </c>
       <c r="I8">
-        <v>22.37</v>
+        <v>16.1</v>
       </c>
       <c r="J8">
-        <v>8.780000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K8">
-        <v>0.49</v>
+        <v>6.2</v>
       </c>
       <c r="L8">
-        <v>38.12</v>
+        <v>51.7</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1565,113 +1668,113 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="D9">
-        <v>0.03</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>0.5499999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="F9">
-        <v>2.85</v>
+        <v>12</v>
       </c>
       <c r="G9">
-        <v>10.09</v>
+        <v>15.5</v>
       </c>
       <c r="H9">
-        <v>24.68</v>
+        <v>16.4</v>
       </c>
       <c r="I9">
-        <v>34.82</v>
+        <v>19.6</v>
       </c>
       <c r="J9">
-        <v>22.89</v>
+        <v>10.8</v>
       </c>
       <c r="K9">
-        <v>4.09</v>
+        <v>4.3</v>
       </c>
       <c r="L9">
-        <v>13.52</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E10">
-        <v>0.01</v>
+        <v>1.2</v>
       </c>
       <c r="F10">
-        <v>0.13</v>
+        <v>1.8</v>
       </c>
       <c r="G10">
-        <v>1.41</v>
+        <v>3.2</v>
       </c>
       <c r="H10">
-        <v>8.640000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="I10">
-        <v>28.09</v>
+        <v>13.8</v>
       </c>
       <c r="J10">
-        <v>41.32</v>
+        <v>30.9</v>
       </c>
       <c r="K10">
-        <v>20.4</v>
+        <v>40.6</v>
       </c>
       <c r="L10">
-        <v>1.55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I11">
-        <v>0.6899999999999999</v>
+        <v>13.8</v>
       </c>
       <c r="J11">
-        <v>24.3</v>
+        <v>32.2</v>
       </c>
       <c r="K11">
-        <v>75.01000000000001</v>
+        <v>42.5</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1680,6 +1783,305 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>129.3</v>
+      </c>
+      <c r="E2">
+        <v>258.6</v>
+      </c>
+      <c r="F2">
+        <v>94.89999999999999</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>131.98</v>
+      </c>
+      <c r="E3">
+        <v>263.96</v>
+      </c>
+      <c r="F3">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>116.24</v>
+      </c>
+      <c r="E4">
+        <v>232.48</v>
+      </c>
+      <c r="F4">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>124.26</v>
+      </c>
+      <c r="E5">
+        <v>248.52</v>
+      </c>
+      <c r="F5">
+        <v>83.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>119.48</v>
+      </c>
+      <c r="E6">
+        <v>238.96</v>
+      </c>
+      <c r="F6">
+        <v>75.2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>115.24</v>
+      </c>
+      <c r="E7">
+        <v>230.48</v>
+      </c>
+      <c r="F7">
+        <v>63.1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>112.52</v>
+      </c>
+      <c r="E8">
+        <v>225.04</v>
+      </c>
+      <c r="F8">
+        <v>51.7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <v>113.36</v>
+      </c>
+      <c r="E9">
+        <v>226.72</v>
+      </c>
+      <c r="F9">
+        <v>48.9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>100.93</v>
+      </c>
+      <c r="E10">
+        <v>201.86</v>
+      </c>
+      <c r="F10">
+        <v>7.000000000000001</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>99.05000000000001</v>
+      </c>
+      <c r="E11">
+        <v>198.1</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -1689,16 +2091,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1706,16 +2108,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1723,16 +2125,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1740,16 +2142,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1760,13 +2162,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1774,16 +2176,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="E6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1791,16 +2193,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7">
-        <v>0</v>
+      <c r="E7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1808,16 +2210,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>-1</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1825,16 +2227,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="E9">
-        <v>0</v>
+      <c r="E9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1842,16 +2244,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E10">
-        <v>0</v>
+      <c r="E10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1862,144 +2264,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>-1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>-4</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>-7</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>-10</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2009,33 +2280,223 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>-4</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>-7</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10">
+        <v>-5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>-10</v>
+      </c>
+      <c r="C11">
+        <v>-6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>-5</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/0755 Fantasy Football 2025.xlsx
+++ b/leagues/0755 Fantasy Football 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="83">
   <si>
     <t>Michael, The Baker</t>
   </si>
@@ -149,25 +149,25 @@
     <t>8.2-5.8</t>
   </si>
   <si>
-    <t>7.9-6.1</t>
+    <t>7.8-6.2</t>
   </si>
   <si>
     <t>7.6-6.4</t>
   </si>
   <si>
-    <t>7.0-7.0</t>
-  </si>
-  <si>
-    <t>6.7-7.3</t>
-  </si>
-  <si>
-    <t>6.5-7.5</t>
-  </si>
-  <si>
-    <t>4.2-9.8</t>
-  </si>
-  <si>
-    <t>4.1-9.9</t>
+    <t>6.9-7.1</t>
+  </si>
+  <si>
+    <t>6.8-7.2</t>
+  </si>
+  <si>
+    <t>6.6-7.4</t>
+  </si>
+  <si>
+    <t>4.3-9.7</t>
+  </si>
+  <si>
+    <t>4.0-10.0</t>
   </si>
   <si>
     <t>10-4</t>
@@ -182,16 +182,46 @@
     <t>6-8</t>
   </si>
   <si>
-    <t>5-9</t>
-  </si>
-  <si>
     <t>4-10</t>
   </si>
   <si>
+    <t>Owners</t>
+  </si>
+  <si>
     <t>Louie Power Index (LPI)</t>
   </si>
   <si>
     <t>Change From Last Week</t>
+  </si>
+  <si>
+    <t>Robbie Wilston</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
+    <t>Jacob Nichols</t>
+  </si>
+  <si>
+    <t>Anthony Rizzo</t>
+  </si>
+  <si>
+    <t>Jaime Cunningham</t>
+  </si>
+  <si>
+    <t>Marvin Ta</t>
+  </si>
+  <si>
+    <t>Grace Olenzak</t>
+  </si>
+  <si>
+    <t>Kyle R</t>
+  </si>
+  <si>
+    <t>Gigi Boguski</t>
+  </si>
+  <si>
+    <t>Abhishek Joshi</t>
   </si>
   <si>
     <t>↑9</t>
@@ -1402,113 +1432,113 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>42.9</v>
+        <v>41.8</v>
       </c>
       <c r="C2">
-        <v>21.2</v>
+        <v>20.6</v>
       </c>
       <c r="D2">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="E2">
-        <v>8.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="F2">
-        <v>4.2</v>
+        <v>5.9</v>
       </c>
       <c r="G2">
         <v>3.7</v>
       </c>
       <c r="H2">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="I2">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="J2">
         <v>0.5</v>
       </c>
       <c r="K2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>94.90000000000001</v>
+        <v>96.09999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>19.6</v>
+        <v>10.2</v>
       </c>
       <c r="C3">
-        <v>19.3</v>
+        <v>14.4</v>
       </c>
       <c r="D3">
+        <v>16.4</v>
+      </c>
+      <c r="E3">
         <v>15</v>
       </c>
-      <c r="E3">
-        <v>12.7</v>
-      </c>
       <c r="F3">
-        <v>10.1</v>
+        <v>16.3</v>
       </c>
       <c r="G3">
-        <v>8.9</v>
+        <v>12.6</v>
       </c>
       <c r="H3">
-        <v>6.3</v>
+        <v>7.4</v>
       </c>
       <c r="I3">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="J3">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="K3">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="L3">
-        <v>85.59999999999999</v>
+        <v>84.90000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>11.8</v>
+        <v>20.2</v>
       </c>
       <c r="C4">
-        <v>12.1</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>17.6</v>
+        <v>15.1</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>11.7</v>
       </c>
       <c r="F4">
-        <v>15.1</v>
+        <v>9.4</v>
       </c>
       <c r="G4">
-        <v>12.5</v>
+        <v>8.1</v>
       </c>
       <c r="H4">
-        <v>9.699999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I4">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="J4">
         <v>1.5</v>
       </c>
       <c r="K4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="L4">
-        <v>84.09999999999999</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1516,37 +1546,37 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>9.9</v>
+        <v>11.8</v>
       </c>
       <c r="C5">
-        <v>17.3</v>
+        <v>13.2</v>
       </c>
       <c r="D5">
-        <v>15.9</v>
+        <v>15.2</v>
       </c>
       <c r="E5">
+        <v>16.3</v>
+      </c>
+      <c r="F5">
         <v>16</v>
       </c>
-      <c r="F5">
-        <v>15.1</v>
-      </c>
       <c r="G5">
-        <v>9.300000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="H5">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="I5">
-        <v>5.3</v>
+        <v>6.9</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K5">
         <v>0.7</v>
       </c>
       <c r="L5">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1554,37 +1584,37 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>7.9</v>
+        <v>6.6</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>12.9</v>
       </c>
       <c r="D6">
-        <v>14.1</v>
+        <v>13.5</v>
       </c>
       <c r="E6">
-        <v>17</v>
+        <v>15.9</v>
       </c>
       <c r="F6">
-        <v>12.3</v>
+        <v>13.1</v>
       </c>
       <c r="G6">
-        <v>12.9</v>
+        <v>13.3</v>
       </c>
       <c r="H6">
-        <v>10.4</v>
+        <v>10.8</v>
       </c>
       <c r="I6">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J6">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K6">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L6">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1592,37 +1622,37 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="C7">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E7">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="F7">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="G7">
-        <v>19.4</v>
+        <v>16.9</v>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>17.7</v>
       </c>
       <c r="I7">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="J7">
-        <v>5.6</v>
+        <v>7.3</v>
       </c>
       <c r="K7">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>63.1</v>
+        <v>59.8</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1630,37 +1660,37 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="D8">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="F8">
-        <v>12.6</v>
+        <v>10.4</v>
       </c>
       <c r="G8">
-        <v>11.9</v>
+        <v>14.4</v>
       </c>
       <c r="H8">
-        <v>16.2</v>
+        <v>16.5</v>
       </c>
       <c r="I8">
-        <v>16.1</v>
+        <v>16.8</v>
       </c>
       <c r="J8">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K8">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="L8">
-        <v>51.7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1668,37 +1698,37 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="E9">
-        <v>7.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="G9">
-        <v>15.5</v>
+        <v>14.4</v>
       </c>
       <c r="H9">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="I9">
-        <v>19.6</v>
+        <v>17.5</v>
       </c>
       <c r="J9">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="K9">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L9">
-        <v>48.9</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1706,37 +1736,37 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D10">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="F10">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="G10">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="I10">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="J10">
-        <v>30.9</v>
+        <v>32.8</v>
       </c>
       <c r="K10">
-        <v>40.6</v>
+        <v>37.6</v>
       </c>
       <c r="L10">
-        <v>7</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1750,31 +1780,31 @@
         <v>0.3</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E11">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="F11">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="G11">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H11">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="I11">
-        <v>13.8</v>
+        <v>11.6</v>
       </c>
       <c r="J11">
-        <v>32.2</v>
+        <v>29.9</v>
       </c>
       <c r="K11">
-        <v>42.5</v>
+        <v>47.4</v>
       </c>
       <c r="L11">
-        <v>6</v>
+        <v>5.3</v>
       </c>
     </row>
   </sheetData>
@@ -1833,7 +1863,7 @@
         <v>258.6</v>
       </c>
       <c r="F2">
-        <v>94.89999999999999</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
@@ -1844,22 +1874,22 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>131.98</v>
+        <v>116.24</v>
       </c>
       <c r="E3">
-        <v>263.96</v>
+        <v>232.48</v>
       </c>
       <c r="F3">
-        <v>85.59999999999999</v>
+        <v>84.89999999999999</v>
       </c>
       <c r="G3" t="s">
         <v>41</v>
@@ -1870,22 +1900,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D4">
-        <v>116.24</v>
+        <v>131.98</v>
       </c>
       <c r="E4">
-        <v>232.48</v>
+        <v>263.96</v>
       </c>
       <c r="F4">
-        <v>84.09999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="G4" t="s">
         <v>41</v>
@@ -1911,7 +1941,7 @@
         <v>248.52</v>
       </c>
       <c r="F5">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="G5" t="s">
         <v>42</v>
@@ -1937,7 +1967,7 @@
         <v>238.96</v>
       </c>
       <c r="F6">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="G6" t="s">
         <v>43</v>
@@ -1963,7 +1993,7 @@
         <v>230.48</v>
       </c>
       <c r="F7">
-        <v>63.1</v>
+        <v>59.8</v>
       </c>
       <c r="G7" t="s">
         <v>44</v>
@@ -1989,13 +2019,13 @@
         <v>225.04</v>
       </c>
       <c r="F8">
-        <v>51.7</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2015,7 +2045,7 @@
         <v>226.72</v>
       </c>
       <c r="F9">
-        <v>48.9</v>
+        <v>50.2</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2041,7 +2071,7 @@
         <v>201.86</v>
       </c>
       <c r="F10">
-        <v>7.000000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="G10" t="s">
         <v>47</v>
@@ -2067,13 +2097,13 @@
         <v>198.1</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="G11" t="s">
         <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2083,194 +2113,227 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6">
         <v>-1</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
       <c r="E6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7">
         <v>-1</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
       <c r="E7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8">
         <v>-1</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9">
         <v>-1</v>
       </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
       <c r="E9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10">
         <v>-5</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11">
         <v>-6</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" t="s">
-        <v>63</v>
+      <c r="F11" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2288,10 +2351,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>56</v>
@@ -2308,7 +2371,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2322,7 +2385,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2336,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2350,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2364,7 +2427,7 @@
         <v>-1</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2378,7 +2441,7 @@
         <v>-1</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2392,7 +2455,7 @@
         <v>-1</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2406,7 +2469,7 @@
         <v>-1</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2420,7 +2483,7 @@
         <v>-5</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2434,7 +2497,7 @@
         <v>-6</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2452,25 +2515,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/0755 Fantasy Football 2025.xlsx
+++ b/leagues/0755 Fantasy Football 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="86">
   <si>
     <t>Michael, The Baker</t>
   </si>
@@ -53,13 +53,16 @@
     <t>AJ's Awesome Team</t>
   </si>
   <si>
-    <t>1-1-0</t>
-  </si>
-  <si>
-    <t>2-0-0</t>
-  </si>
-  <si>
-    <t>0-2-0</t>
+    <t>2-1-0</t>
+  </si>
+  <si>
+    <t>1-2-0</t>
+  </si>
+  <si>
+    <t>3-0-0</t>
+  </si>
+  <si>
+    <t>0-3-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -134,45 +137,48 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>2-0</t>
-  </si>
-  <si>
-    <t>1-1</t>
-  </si>
-  <si>
-    <t>0-2</t>
-  </si>
-  <si>
-    <t>9.5-4.5</t>
-  </si>
-  <si>
-    <t>8.2-5.8</t>
-  </si>
-  <si>
-    <t>7.8-6.2</t>
-  </si>
-  <si>
-    <t>7.6-6.4</t>
-  </si>
-  <si>
-    <t>6.9-7.1</t>
-  </si>
-  <si>
-    <t>6.8-7.2</t>
+    <t>3-0</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>9.7-4.3</t>
+  </si>
+  <si>
+    <t>8.6-5.4</t>
+  </si>
+  <si>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>7.4-6.6</t>
   </si>
   <si>
     <t>6.6-7.4</t>
   </si>
   <si>
-    <t>4.3-9.7</t>
-  </si>
-  <si>
-    <t>4.0-10.0</t>
+    <t>6.0-8.0</t>
+  </si>
+  <si>
+    <t>5.9-8.1</t>
+  </si>
+  <si>
+    <t>3.7-10.3</t>
   </si>
   <si>
     <t>10-4</t>
   </si>
   <si>
+    <t>9-5</t>
+  </si>
+  <si>
     <t>8-6</t>
   </si>
   <si>
@@ -200,55 +206,58 @@
     <t>Prahlad Singh</t>
   </si>
   <si>
+    <t>Grace Olenzak</t>
+  </si>
+  <si>
+    <t>Anthony Rizzo</t>
+  </si>
+  <si>
+    <t>Jaime Cunningham</t>
+  </si>
+  <si>
+    <t>Gigi Boguski</t>
+  </si>
+  <si>
     <t>Jacob Nichols</t>
   </si>
   <si>
-    <t>Anthony Rizzo</t>
-  </si>
-  <si>
-    <t>Jaime Cunningham</t>
+    <t>Kyle R</t>
+  </si>
+  <si>
+    <t>Abhishek Joshi</t>
   </si>
   <si>
     <t>Marvin Ta</t>
   </si>
   <si>
-    <t>Grace Olenzak</t>
-  </si>
-  <si>
-    <t>Kyle R</t>
-  </si>
-  <si>
-    <t>Gigi Boguski</t>
-  </si>
-  <si>
-    <t>Abhishek Joshi</t>
-  </si>
-  <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↑6</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓3</t>
   </si>
   <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
     <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
   </si>
   <si>
     <t>Week</t>
@@ -673,13 +682,13 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -688,13 +697,13 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -705,34 +714,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -749,7 +758,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -758,7 +767,7 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
         <v>10</v>
@@ -775,31 +784,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K5" t="s">
         <v>10</v>
@@ -813,13 +822,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -828,13 +837,13 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
         <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" t="s">
-        <v>11</v>
       </c>
       <c r="K6" t="s">
         <v>10</v>
@@ -848,28 +857,28 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
         <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" t="s">
-        <v>11</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
@@ -883,31 +892,31 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -915,34 +924,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -953,28 +962,28 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
       <c r="G10" t="s">
         <v>10</v>
       </c>
       <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
         <v>12</v>
       </c>
-      <c r="I10" t="s">
-        <v>11</v>
-      </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
         <v>10</v>
@@ -991,19 +1000,19 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
@@ -1012,7 +1021,7 @@
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1030,13 +1039,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1047,10 +1056,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1061,10 +1070,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1072,13 +1081,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1089,10 +1098,10 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1100,13 +1109,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1114,10 +1123,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1128,10 +1137,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1142,13 +1151,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1156,13 +1165,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1173,10 +1182,10 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1194,16 +1203,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1211,16 +1220,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="D2">
-        <v>-0.6000000000000001</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1228,13 +1237,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="D3">
-        <v>0.3</v>
+        <v>-0.1000000000000001</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1245,16 +1254,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="D4">
-        <v>-0.8</v>
+        <v>-0.2</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1262,13 +1271,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="D5">
-        <v>0.2</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1279,13 +1288,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1296,16 +1305,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1313,16 +1322,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1333,13 +1342,13 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="D9">
-        <v>-0.09999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1347,16 +1356,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1364,16 +1373,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1391,382 +1400,382 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>41.8</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>20.6</v>
       </c>
       <c r="D2">
-        <v>14.6</v>
+        <v>15.1</v>
       </c>
       <c r="E2">
-        <v>9.5</v>
+        <v>6.6</v>
       </c>
       <c r="F2">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="H2">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="I2">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="J2">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>96.09999999999999</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>10.2</v>
+        <v>19.8</v>
       </c>
       <c r="C3">
-        <v>14.4</v>
+        <v>26.7</v>
       </c>
       <c r="D3">
-        <v>16.4</v>
+        <v>18.8</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>13.2</v>
       </c>
       <c r="F3">
-        <v>16.3</v>
+        <v>8.1</v>
       </c>
       <c r="G3">
-        <v>12.6</v>
+        <v>6.3</v>
       </c>
       <c r="H3">
-        <v>7.4</v>
+        <v>3.6</v>
       </c>
       <c r="I3">
-        <v>5.4</v>
+        <v>1.9</v>
       </c>
       <c r="J3">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="K3">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="L3">
-        <v>84.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>20.2</v>
+        <v>12.8</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>15.2</v>
       </c>
       <c r="D4">
-        <v>15.1</v>
+        <v>17.9</v>
       </c>
       <c r="E4">
-        <v>11.7</v>
+        <v>13.7</v>
       </c>
       <c r="F4">
-        <v>9.4</v>
+        <v>11.6</v>
       </c>
       <c r="G4">
-        <v>8.1</v>
+        <v>10.5</v>
       </c>
       <c r="H4">
-        <v>8.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="I4">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="J4">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="K4">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L4">
-        <v>83.5</v>
+        <v>81.7</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>11.8</v>
+        <v>2.9</v>
       </c>
       <c r="C5">
-        <v>13.2</v>
+        <v>9.5</v>
       </c>
       <c r="D5">
-        <v>15.2</v>
+        <v>10.6</v>
       </c>
       <c r="E5">
-        <v>16.3</v>
+        <v>16.9</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="G5">
-        <v>10.8</v>
+        <v>15.8</v>
       </c>
       <c r="H5">
-        <v>7.6</v>
+        <v>12.5</v>
       </c>
       <c r="I5">
-        <v>6.9</v>
+        <v>8.6</v>
       </c>
       <c r="J5">
-        <v>1.5</v>
+        <v>5.7</v>
       </c>
       <c r="K5">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="L5">
-        <v>83.3</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B6">
+        <v>7.3</v>
+      </c>
+      <c r="C6">
+        <v>9.6</v>
+      </c>
+      <c r="D6">
+        <v>11.8</v>
+      </c>
+      <c r="E6">
+        <v>14.1</v>
+      </c>
+      <c r="F6">
+        <v>13.9</v>
+      </c>
+      <c r="G6">
+        <v>12.5</v>
+      </c>
+      <c r="H6">
+        <v>12.2</v>
+      </c>
+      <c r="I6">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="J6">
         <v>6.6</v>
       </c>
-      <c r="C6">
-        <v>12.9</v>
-      </c>
-      <c r="D6">
-        <v>13.5</v>
-      </c>
-      <c r="E6">
-        <v>15.9</v>
-      </c>
-      <c r="F6">
-        <v>13.1</v>
-      </c>
-      <c r="G6">
-        <v>13.3</v>
-      </c>
-      <c r="H6">
-        <v>10.8</v>
-      </c>
-      <c r="I6">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="J6">
-        <v>4.1</v>
-      </c>
       <c r="K6">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L6">
-        <v>75.3</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="C7">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="D7">
-        <v>8.199999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E7">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="F7">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>16.9</v>
+        <v>13.4</v>
       </c>
       <c r="H7">
-        <v>17.7</v>
+        <v>13.4</v>
       </c>
       <c r="I7">
-        <v>13.2</v>
+        <v>14.7</v>
       </c>
       <c r="J7">
-        <v>7.3</v>
+        <v>11.6</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="L7">
-        <v>59.8</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="C8">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="E8">
-        <v>9.5</v>
+        <v>10.2</v>
       </c>
       <c r="F8">
-        <v>10.4</v>
+        <v>11.8</v>
       </c>
       <c r="G8">
-        <v>14.4</v>
+        <v>13.6</v>
       </c>
       <c r="H8">
-        <v>16.5</v>
+        <v>14.9</v>
       </c>
       <c r="I8">
-        <v>16.8</v>
+        <v>11.8</v>
       </c>
       <c r="J8">
-        <v>9.199999999999999</v>
+        <v>12.2</v>
       </c>
       <c r="K8">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="L8">
-        <v>53</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="D9">
-        <v>7.6</v>
+        <v>4.4</v>
       </c>
       <c r="E9">
-        <v>9.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="F9">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>14.4</v>
+        <v>11.7</v>
       </c>
       <c r="H9">
-        <v>16.6</v>
+        <v>14.1</v>
       </c>
       <c r="I9">
-        <v>17.5</v>
+        <v>18.1</v>
       </c>
       <c r="J9">
-        <v>11.3</v>
+        <v>18.7</v>
       </c>
       <c r="K9">
-        <v>4.4</v>
+        <v>12</v>
       </c>
       <c r="L9">
-        <v>50.2</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="C10">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>4.4</v>
       </c>
       <c r="E10">
-        <v>1.7</v>
+        <v>6.1</v>
       </c>
       <c r="F10">
-        <v>2.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>12.6</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>16.7</v>
       </c>
       <c r="I10">
-        <v>14</v>
+        <v>19.8</v>
       </c>
       <c r="J10">
-        <v>32.8</v>
+        <v>21.2</v>
       </c>
       <c r="K10">
-        <v>37.6</v>
+        <v>7.3</v>
       </c>
       <c r="L10">
-        <v>8.6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1777,34 +1786,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="E11">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="F11">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H11">
-        <v>5.8</v>
+        <v>3.6</v>
       </c>
       <c r="I11">
-        <v>11.6</v>
+        <v>8.9</v>
       </c>
       <c r="J11">
-        <v>29.9</v>
+        <v>18.5</v>
       </c>
       <c r="K11">
-        <v>47.4</v>
+        <v>65.7</v>
       </c>
       <c r="L11">
-        <v>5.3</v>
+        <v>3.3</v>
       </c>
     </row>
   </sheetData>
@@ -1822,262 +1831,262 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>129.3</v>
+        <v>128.4</v>
       </c>
       <c r="E2">
-        <v>258.6</v>
+        <v>385.2</v>
       </c>
       <c r="F2">
-        <v>96.09999999999999</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>116.24</v>
+        <v>126.4133333333333</v>
       </c>
       <c r="E3">
-        <v>232.48</v>
+        <v>379.24</v>
       </c>
       <c r="F3">
-        <v>84.89999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4">
-        <v>131.98</v>
+        <v>121.2533333333333</v>
       </c>
       <c r="E4">
-        <v>263.96</v>
+        <v>363.76</v>
       </c>
       <c r="F4">
-        <v>83.5</v>
+        <v>81.69999999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5">
-        <v>124.26</v>
+        <v>115.1666666666667</v>
       </c>
       <c r="E5">
-        <v>248.52</v>
+        <v>345.5</v>
       </c>
       <c r="F5">
-        <v>83.3</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D6">
-        <v>119.48</v>
+        <v>116.8866666666667</v>
       </c>
       <c r="E6">
-        <v>238.96</v>
+        <v>350.66</v>
       </c>
       <c r="F6">
-        <v>75.3</v>
+        <v>69.19999999999999</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D7">
-        <v>115.24</v>
+        <v>116.8933333333333</v>
       </c>
       <c r="E7">
-        <v>230.48</v>
+        <v>350.68</v>
       </c>
       <c r="F7">
-        <v>59.8</v>
+        <v>56.2</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D8">
-        <v>112.52</v>
+        <v>119.1466666666667</v>
       </c>
       <c r="E8">
-        <v>225.04</v>
+        <v>357.44</v>
       </c>
       <c r="F8">
+        <v>55.60000000000001</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
         <v>53</v>
-      </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D9">
-        <v>113.36</v>
+        <v>108.56</v>
       </c>
       <c r="E9">
-        <v>226.72</v>
+        <v>325.68</v>
       </c>
       <c r="F9">
-        <v>50.2</v>
+        <v>37.1</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D10">
-        <v>100.93</v>
+        <v>112.7533333333333</v>
       </c>
       <c r="E10">
-        <v>201.86</v>
+        <v>338.26</v>
       </c>
       <c r="F10">
-        <v>8.6</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2085,25 +2094,25 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>99.05000000000001</v>
+        <v>99.44666666666667</v>
       </c>
       <c r="E11">
-        <v>198.1</v>
+        <v>298.34</v>
       </c>
       <c r="F11">
-        <v>5.3</v>
+        <v>3.3</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2121,19 +2130,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2144,16 +2153,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2164,16 +2173,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2181,19 +2190,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2204,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -2224,16 +2233,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2241,19 +2250,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2261,19 +2270,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2284,16 +2293,16 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2301,19 +2310,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D10">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2321,19 +2330,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D11">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2343,24 +2352,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2370,11 +2382,14 @@
       <c r="C2">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2384,25 +2399,31 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2412,11 +2433,14 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2426,39 +2450,48 @@
       <c r="C6">
         <v>-1</v>
       </c>
-      <c r="D6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>-5</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>-1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
       <c r="C8">
-        <v>-1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>-2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2468,36 +2501,45 @@
       <c r="C9">
         <v>-1</v>
       </c>
-      <c r="D9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9">
+        <v>-2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
+        <v>-10</v>
+      </c>
+      <c r="C10">
+        <v>-6</v>
+      </c>
+      <c r="D10">
+        <v>-4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
         <v>-1</v>
       </c>
-      <c r="C10">
+      <c r="D11">
         <v>-5</v>
       </c>
-      <c r="D10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>-10</v>
-      </c>
-      <c r="C11">
-        <v>-6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>73</v>
+      <c r="E11" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2507,7 +2549,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2515,25 +2557,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2541,24 +2583,76 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>-4</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>-1</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>-5</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>

--- a/leagues/0755 Fantasy Football 2025.xlsx
+++ b/leagues/0755 Fantasy Football 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="88">
   <si>
     <t>Michael, The Baker</t>
   </si>
@@ -53,16 +53,19 @@
     <t>AJ's Awesome Team</t>
   </si>
   <si>
-    <t>2-1-0</t>
-  </si>
-  <si>
-    <t>1-2-0</t>
-  </si>
-  <si>
-    <t>3-0-0</t>
-  </si>
-  <si>
-    <t>0-3-0</t>
+    <t>3-1-0</t>
+  </si>
+  <si>
+    <t>2-2-0</t>
+  </si>
+  <si>
+    <t>1-3-0</t>
+  </si>
+  <si>
+    <t>4-0-0</t>
+  </si>
+  <si>
+    <t>0-4-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -137,43 +140,40 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>3-0</t>
-  </si>
-  <si>
-    <t>2-1</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>0-3</t>
-  </si>
-  <si>
-    <t>9.7-4.3</t>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>9.3-4.7</t>
   </si>
   <si>
     <t>8.6-5.4</t>
   </si>
   <si>
-    <t>8.0-6.0</t>
-  </si>
-  <si>
-    <t>7.4-6.6</t>
-  </si>
-  <si>
-    <t>6.6-7.4</t>
-  </si>
-  <si>
-    <t>6.0-8.0</t>
-  </si>
-  <si>
-    <t>5.9-8.1</t>
-  </si>
-  <si>
-    <t>3.7-10.3</t>
-  </si>
-  <si>
-    <t>10-4</t>
+    <t>7.9-6.1</t>
+  </si>
+  <si>
+    <t>7.3-6.7</t>
+  </si>
+  <si>
+    <t>7.0-7.0</t>
+  </si>
+  <si>
+    <t>6.9-7.1</t>
+  </si>
+  <si>
+    <t>6.4-7.6</t>
+  </si>
+  <si>
+    <t>5.3-8.7</t>
+  </si>
+  <si>
+    <t>4.8-9.2</t>
   </si>
   <si>
     <t>9-5</t>
@@ -188,6 +188,9 @@
     <t>6-8</t>
   </si>
   <si>
+    <t>5-9</t>
+  </si>
+  <si>
     <t>4-10</t>
   </si>
   <si>
@@ -200,57 +203,57 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Anthony Rizzo</t>
+  </si>
+  <si>
     <t>Robbie Wilston</t>
   </si>
   <si>
+    <t>Kyle R</t>
+  </si>
+  <si>
+    <t>Grace Olenzak</t>
+  </si>
+  <si>
     <t>Prahlad Singh</t>
   </si>
   <si>
-    <t>Grace Olenzak</t>
-  </si>
-  <si>
-    <t>Anthony Rizzo</t>
+    <t>Gigi Boguski</t>
+  </si>
+  <si>
+    <t>Jacob Nichols</t>
   </si>
   <si>
     <t>Jaime Cunningham</t>
   </si>
   <si>
-    <t>Gigi Boguski</t>
-  </si>
-  <si>
-    <t>Jacob Nichols</t>
-  </si>
-  <si>
-    <t>Kyle R</t>
-  </si>
-  <si>
     <t>Abhishek Joshi</t>
   </si>
   <si>
     <t>Marvin Ta</t>
   </si>
   <si>
-    <t>0</t>
+    <t>↑11</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↑2</t>
+    <t>↑8</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
     <t>↓4</t>
   </si>
   <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -258,6 +261,9 @@
   </si>
   <si>
     <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
   <si>
     <t>Week</t>
@@ -682,7 +688,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -703,7 +709,7 @@
         <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -714,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
@@ -749,31 +755,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
         <v>10</v>
@@ -784,7 +790,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -793,16 +799,16 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -819,31 +825,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K6" t="s">
         <v>10</v>
@@ -854,7 +860,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -863,22 +869,22 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
@@ -889,13 +895,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -904,7 +910,7 @@
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
         <v>11</v>
@@ -924,34 +930,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -959,31 +965,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K10" t="s">
         <v>10</v>
@@ -994,22 +1000,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
@@ -1018,7 +1024,7 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K11" t="s">
         <v>11</v>
@@ -1039,13 +1045,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1053,13 +1059,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1067,13 +1073,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1081,13 +1087,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1095,13 +1101,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1109,13 +1115,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1123,13 +1129,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1137,13 +1143,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1151,13 +1157,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1165,13 +1171,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1182,10 +1188,10 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1203,16 +1209,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1220,16 +1226,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="D2">
-        <v>-0.7999999999999998</v>
+        <v>-0.1000000000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1237,13 +1243,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="D3">
-        <v>-0.1000000000000001</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1254,16 +1260,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="D4">
-        <v>-0.2</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1271,13 +1277,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="D5">
-        <v>-0.3999999999999999</v>
+        <v>-0.8999999999999999</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1288,16 +1294,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="D6">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1305,13 +1311,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1325,10 +1331,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="D8">
-        <v>0.3999999999999999</v>
+        <v>-0.2</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -1339,13 +1345,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="D9">
-        <v>0.3</v>
+        <v>-0.3</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -1356,16 +1362,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1373,16 +1379,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1400,230 +1406,230 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>47.7</v>
       </c>
       <c r="C2">
-        <v>20.6</v>
+        <v>22.6</v>
       </c>
       <c r="D2">
-        <v>15.1</v>
+        <v>12.8</v>
       </c>
       <c r="E2">
-        <v>6.6</v>
+        <v>7.7</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>3.9</v>
       </c>
       <c r="G2">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H2">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="I2">
         <v>0.7</v>
       </c>
       <c r="J2">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>97.40000000000001</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>19.8</v>
+        <v>21.1</v>
       </c>
       <c r="C3">
-        <v>26.7</v>
+        <v>25.1</v>
       </c>
       <c r="D3">
-        <v>18.8</v>
+        <v>19.4</v>
       </c>
       <c r="E3">
-        <v>13.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F3">
-        <v>8.1</v>
+        <v>10.6</v>
       </c>
       <c r="G3">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="H3">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I3">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="J3">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="K3">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
-        <v>92.90000000000001</v>
+        <v>91.59999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>12.8</v>
+        <v>11.2</v>
       </c>
       <c r="C4">
-        <v>15.2</v>
+        <v>13.3</v>
       </c>
       <c r="D4">
-        <v>17.9</v>
+        <v>15.5</v>
       </c>
       <c r="E4">
-        <v>13.7</v>
+        <v>16.4</v>
       </c>
       <c r="F4">
-        <v>11.6</v>
+        <v>12.5</v>
       </c>
       <c r="G4">
-        <v>10.5</v>
+        <v>9.1</v>
       </c>
       <c r="H4">
-        <v>7.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I4">
-        <v>5.8</v>
+        <v>7.7</v>
       </c>
       <c r="J4">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K4">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L4">
-        <v>81.7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
+        <v>7.8</v>
+      </c>
+      <c r="C5">
+        <v>11.3</v>
+      </c>
+      <c r="D5">
+        <v>13.3</v>
+      </c>
+      <c r="E5">
+        <v>14.6</v>
+      </c>
+      <c r="F5">
+        <v>13.6</v>
+      </c>
+      <c r="G5">
+        <v>12.7</v>
+      </c>
+      <c r="H5">
+        <v>9.4</v>
+      </c>
+      <c r="I5">
+        <v>8.1</v>
+      </c>
+      <c r="J5">
+        <v>6.3</v>
+      </c>
+      <c r="K5">
         <v>2.9</v>
       </c>
-      <c r="C5">
-        <v>9.5</v>
-      </c>
-      <c r="D5">
-        <v>10.6</v>
-      </c>
-      <c r="E5">
-        <v>16.9</v>
-      </c>
-      <c r="F5">
-        <v>15.9</v>
-      </c>
-      <c r="G5">
-        <v>15.8</v>
-      </c>
-      <c r="H5">
-        <v>12.5</v>
-      </c>
-      <c r="I5">
-        <v>8.6</v>
-      </c>
-      <c r="J5">
-        <v>5.7</v>
-      </c>
-      <c r="K5">
-        <v>1.6</v>
-      </c>
       <c r="L5">
-        <v>71.59999999999999</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>7.3</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D6">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="E6">
-        <v>14.1</v>
+        <v>12.4</v>
       </c>
       <c r="F6">
-        <v>13.9</v>
+        <v>14.7</v>
       </c>
       <c r="G6">
-        <v>12.5</v>
+        <v>14.2</v>
       </c>
       <c r="H6">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="I6">
-        <v>9.699999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="J6">
-        <v>6.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K6">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="L6">
-        <v>69.2</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1631,189 +1637,189 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="C7">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>12.8</v>
+      </c>
+      <c r="F7">
+        <v>12.4</v>
+      </c>
+      <c r="G7">
+        <v>13.2</v>
+      </c>
+      <c r="H7">
+        <v>14.5</v>
+      </c>
+      <c r="I7">
+        <v>11.7</v>
+      </c>
+      <c r="J7">
         <v>9.699999999999999</v>
       </c>
-      <c r="E7">
-        <v>11.1</v>
-      </c>
-      <c r="F7">
-        <v>13</v>
-      </c>
-      <c r="G7">
-        <v>13.4</v>
-      </c>
-      <c r="H7">
-        <v>13.4</v>
-      </c>
-      <c r="I7">
-        <v>14.7</v>
-      </c>
-      <c r="J7">
-        <v>11.6</v>
-      </c>
       <c r="K7">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="L7">
-        <v>56.2</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="E8">
-        <v>10.2</v>
+        <v>11.2</v>
       </c>
       <c r="F8">
-        <v>11.8</v>
+        <v>13.6</v>
       </c>
       <c r="G8">
-        <v>13.6</v>
+        <v>13</v>
       </c>
       <c r="H8">
-        <v>14.9</v>
+        <v>13.3</v>
       </c>
       <c r="I8">
-        <v>11.8</v>
+        <v>12.7</v>
       </c>
       <c r="J8">
-        <v>12.2</v>
+        <v>11.5</v>
       </c>
       <c r="K8">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="L8">
-        <v>55.6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="C9">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D9">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="E9">
-        <v>7.4</v>
+        <v>10.2</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G9">
-        <v>11.7</v>
+        <v>14.9</v>
       </c>
       <c r="H9">
-        <v>14.1</v>
+        <v>17.7</v>
       </c>
       <c r="I9">
-        <v>18.1</v>
+        <v>16.1</v>
       </c>
       <c r="J9">
-        <v>18.7</v>
+        <v>13.7</v>
       </c>
       <c r="K9">
-        <v>12</v>
+        <v>5.7</v>
       </c>
       <c r="L9">
-        <v>37.1</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="D10">
-        <v>4.4</v>
+        <v>2.1</v>
       </c>
       <c r="E10">
-        <v>6.1</v>
+        <v>3.4</v>
       </c>
       <c r="F10">
-        <v>8.699999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="G10">
-        <v>12.6</v>
+        <v>8.6</v>
       </c>
       <c r="H10">
-        <v>16.7</v>
+        <v>11.7</v>
       </c>
       <c r="I10">
-        <v>19.8</v>
+        <v>17.3</v>
       </c>
       <c r="J10">
-        <v>21.2</v>
+        <v>24.1</v>
       </c>
       <c r="K10">
-        <v>7.3</v>
+        <v>26.4</v>
       </c>
       <c r="L10">
-        <v>35</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D11">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="E11">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="G11">
-        <v>1.5</v>
+        <v>5.1</v>
       </c>
       <c r="H11">
-        <v>3.6</v>
+        <v>7.7</v>
       </c>
       <c r="I11">
-        <v>8.9</v>
+        <v>12.6</v>
       </c>
       <c r="J11">
-        <v>18.5</v>
+        <v>20.9</v>
       </c>
       <c r="K11">
-        <v>65.7</v>
+        <v>48.1</v>
       </c>
       <c r="L11">
-        <v>3.3</v>
+        <v>10.7</v>
       </c>
     </row>
   </sheetData>
@@ -1831,74 +1837,74 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
-        <v>128.4</v>
+        <v>137.48</v>
       </c>
       <c r="E2">
-        <v>385.2</v>
+        <v>549.9200000000001</v>
       </c>
       <c r="F2">
-        <v>97.39999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="G2" t="s">
         <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="D3">
-        <v>126.4133333333333</v>
+        <v>124.79</v>
       </c>
       <c r="E3">
-        <v>379.24</v>
+        <v>499.16</v>
       </c>
       <c r="F3">
-        <v>92.90000000000001</v>
+        <v>91.60000000000001</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
@@ -1909,22 +1915,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
       </c>
       <c r="C4">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="D4">
-        <v>121.2533333333333</v>
+        <v>116.54</v>
       </c>
       <c r="E4">
-        <v>363.76</v>
+        <v>466.16</v>
       </c>
       <c r="F4">
-        <v>81.69999999999999</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
         <v>44</v>
@@ -1935,51 +1941,51 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>115.1666666666667</v>
+        <v>123.515</v>
       </c>
       <c r="E5">
-        <v>345.5</v>
+        <v>494.06</v>
       </c>
       <c r="F5">
-        <v>71.59999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>116.8866666666667</v>
+        <v>118.3</v>
       </c>
       <c r="E6">
-        <v>350.66</v>
+        <v>473.2</v>
       </c>
       <c r="F6">
-        <v>69.19999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
         <v>53</v>
@@ -1993,45 +1999,45 @@
         <v>40</v>
       </c>
       <c r="C7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>116.8933333333333</v>
+        <v>116.115</v>
       </c>
       <c r="E7">
-        <v>350.68</v>
+        <v>464.46</v>
       </c>
       <c r="F7">
-        <v>56.2</v>
+        <v>59.5</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="D8">
-        <v>119.1466666666667</v>
+        <v>124.79</v>
       </c>
       <c r="E8">
-        <v>357.44</v>
+        <v>499.16</v>
       </c>
       <c r="F8">
-        <v>55.60000000000001</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
         <v>53</v>
@@ -2039,80 +2045,80 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>40</v>
       </c>
       <c r="C9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>108.56</v>
+        <v>113.665</v>
       </c>
       <c r="E9">
-        <v>325.68</v>
+        <v>454.66</v>
       </c>
       <c r="F9">
-        <v>37.1</v>
+        <v>46.8</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="D10">
-        <v>112.7533333333333</v>
+        <v>108.795</v>
       </c>
       <c r="E10">
-        <v>338.26</v>
+        <v>435.1800000000001</v>
       </c>
       <c r="F10">
-        <v>35</v>
+        <v>20.5</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D11">
-        <v>99.44666666666667</v>
+        <v>99.715</v>
       </c>
       <c r="E11">
-        <v>298.34</v>
+        <v>398.86</v>
       </c>
       <c r="F11">
-        <v>3.3</v>
+        <v>10.7</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2130,19 +2136,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2150,19 +2156,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2170,19 +2176,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2190,19 +2196,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2210,19 +2216,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2230,19 +2236,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2253,16 +2259,16 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2273,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D8">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2290,19 +2296,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D9">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2313,16 +2319,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D10">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2333,16 +2339,16 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D11">
-        <v>-5</v>
+        <v>-13</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2352,112 +2358,130 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>80</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>-4</v>
-      </c>
       <c r="C3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="C4">
         <v>-1</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-2</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>-4</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>-1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2470,11 +2494,14 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -2487,28 +2514,34 @@
       <c r="D8">
         <v>-2</v>
       </c>
-      <c r="E8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
         <v>5</v>
-      </c>
-      <c r="B9">
-        <v>-7</v>
       </c>
       <c r="C9">
         <v>-1</v>
       </c>
       <c r="D9">
-        <v>-2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>-4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2521,11 +2554,14 @@
       <c r="D10">
         <v>-4</v>
       </c>
-      <c r="E10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10">
+        <v>-10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2538,8 +2574,11 @@
       <c r="D11">
         <v>-5</v>
       </c>
-      <c r="E11" t="s">
-        <v>75</v>
+      <c r="E11">
+        <v>-13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2557,25 +2596,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/0755 Fantasy Football 2025.xlsx
+++ b/leagues/0755 Fantasy Football 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="89">
   <si>
     <t>Michael, The Baker</t>
   </si>
@@ -149,31 +149,37 @@
     <t>1-3</t>
   </si>
   <si>
-    <t>9.3-4.7</t>
-  </si>
-  <si>
-    <t>8.6-5.4</t>
-  </si>
-  <si>
-    <t>7.9-6.1</t>
-  </si>
-  <si>
-    <t>7.3-6.7</t>
-  </si>
-  <si>
-    <t>7.0-7.0</t>
-  </si>
-  <si>
-    <t>6.9-7.1</t>
-  </si>
-  <si>
-    <t>6.4-7.6</t>
-  </si>
-  <si>
-    <t>5.3-8.7</t>
-  </si>
-  <si>
-    <t>4.8-9.2</t>
+    <t>9.3-4.7-0.1</t>
+  </si>
+  <si>
+    <t>8.5-5.4-0.1</t>
+  </si>
+  <si>
+    <t>7.9-6.1-0.1</t>
+  </si>
+  <si>
+    <t>7.2-6.8</t>
+  </si>
+  <si>
+    <t>7.0-7.0-0.1</t>
+  </si>
+  <si>
+    <t>6.8-7.1-0.1</t>
+  </si>
+  <si>
+    <t>6.4-7.5-0.1</t>
+  </si>
+  <si>
+    <t>6.5-7.4-0.1</t>
+  </si>
+  <si>
+    <t>5.3-8.6-0.1</t>
+  </si>
+  <si>
+    <t>4.8-9.2-0.1</t>
+  </si>
+  <si>
+    <t>10-4</t>
   </si>
   <si>
     <t>9-5</t>
@@ -183,9 +189,6 @@
   </si>
   <si>
     <t>7-7</t>
-  </si>
-  <si>
-    <t>6-8</t>
   </si>
   <si>
     <t>5-9</t>
@@ -1447,37 +1450,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>47.7</v>
+        <v>47.2</v>
       </c>
       <c r="C2">
-        <v>22.6</v>
+        <v>23.1</v>
       </c>
       <c r="D2">
-        <v>12.8</v>
+        <v>11.9</v>
       </c>
       <c r="E2">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="F2">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="G2">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H2">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="I2">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="J2">
         <v>0.3</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L2">
-        <v>97.8</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1485,37 +1488,37 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>21.1</v>
+        <v>23.3</v>
       </c>
       <c r="C3">
-        <v>25.1</v>
+        <v>22.3</v>
       </c>
       <c r="D3">
-        <v>19.4</v>
+        <v>16.1</v>
       </c>
       <c r="E3">
-        <v>9.300000000000001</v>
+        <v>13.4</v>
       </c>
       <c r="F3">
-        <v>10.6</v>
+        <v>8.5</v>
       </c>
       <c r="G3">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="H3">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="I3">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="J3">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="L3">
-        <v>91.59999999999999</v>
+        <v>90.3</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1523,37 +1526,37 @@
         <v>1</v>
       </c>
       <c r="B4">
+        <v>8.6</v>
+      </c>
+      <c r="C4">
+        <v>15.8</v>
+      </c>
+      <c r="D4">
+        <v>18.2</v>
+      </c>
+      <c r="E4">
+        <v>13.2</v>
+      </c>
+      <c r="F4">
+        <v>13.2</v>
+      </c>
+      <c r="G4">
         <v>11.2</v>
       </c>
-      <c r="C4">
-        <v>13.3</v>
-      </c>
-      <c r="D4">
-        <v>15.5</v>
-      </c>
-      <c r="E4">
-        <v>16.4</v>
-      </c>
-      <c r="F4">
-        <v>12.5</v>
-      </c>
-      <c r="G4">
-        <v>9.1</v>
-      </c>
       <c r="H4">
-        <v>8.699999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="I4">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="J4">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="K4">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="L4">
-        <v>78</v>
+        <v>80.2</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1561,37 +1564,37 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="C5">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="D5">
         <v>13.3</v>
       </c>
       <c r="E5">
-        <v>14.6</v>
+        <v>12.2</v>
       </c>
       <c r="F5">
-        <v>13.6</v>
+        <v>14.4</v>
       </c>
       <c r="G5">
-        <v>12.7</v>
+        <v>13.3</v>
       </c>
       <c r="H5">
-        <v>9.4</v>
+        <v>10.2</v>
       </c>
       <c r="I5">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J5">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="K5">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="L5">
-        <v>73.3</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1599,37 +1602,37 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="C6">
-        <v>9.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="D6">
-        <v>11.3</v>
+        <v>12.3</v>
       </c>
       <c r="E6">
-        <v>12.4</v>
+        <v>11.8</v>
       </c>
       <c r="F6">
-        <v>14.7</v>
+        <v>11.8</v>
       </c>
       <c r="G6">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="H6">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="I6">
-        <v>10.6</v>
+        <v>11.5</v>
       </c>
       <c r="J6">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="K6">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="L6">
-        <v>65.8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1637,37 +1640,37 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="C7">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="E7">
-        <v>12.8</v>
+        <v>13.6</v>
       </c>
       <c r="F7">
-        <v>12.4</v>
+        <v>11.8</v>
       </c>
       <c r="G7">
-        <v>13.2</v>
+        <v>12.6</v>
       </c>
       <c r="H7">
-        <v>14.5</v>
+        <v>13.4</v>
       </c>
       <c r="I7">
-        <v>11.7</v>
+        <v>13</v>
       </c>
       <c r="J7">
-        <v>9.699999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="K7">
-        <v>4.6</v>
+        <v>5.8</v>
       </c>
       <c r="L7">
-        <v>59.5</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1675,37 +1678,37 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="D8">
-        <v>8.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E8">
+        <v>11.6</v>
+      </c>
+      <c r="F8">
+        <v>13.1</v>
+      </c>
+      <c r="G8">
+        <v>11.3</v>
+      </c>
+      <c r="H8">
+        <v>14.4</v>
+      </c>
+      <c r="I8">
         <v>11.2</v>
       </c>
-      <c r="F8">
-        <v>13.6</v>
-      </c>
-      <c r="G8">
-        <v>13</v>
-      </c>
-      <c r="H8">
-        <v>13.3</v>
-      </c>
-      <c r="I8">
-        <v>12.7</v>
-      </c>
       <c r="J8">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="K8">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="L8">
-        <v>56</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1713,37 +1716,37 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="C9">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D9">
-        <v>5.3</v>
+        <v>7.1</v>
       </c>
       <c r="E9">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>13.6</v>
       </c>
       <c r="G9">
-        <v>14.9</v>
+        <v>14</v>
       </c>
       <c r="H9">
-        <v>17.7</v>
+        <v>16.5</v>
       </c>
       <c r="I9">
-        <v>16.1</v>
+        <v>15.1</v>
       </c>
       <c r="J9">
-        <v>13.7</v>
+        <v>11.6</v>
       </c>
       <c r="K9">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="L9">
-        <v>46.8</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1751,37 +1754,37 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="D10">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="E10">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="F10">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="G10">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="H10">
-        <v>11.7</v>
+        <v>11.2</v>
       </c>
       <c r="I10">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="J10">
-        <v>24.1</v>
+        <v>25.1</v>
       </c>
       <c r="K10">
-        <v>26.4</v>
+        <v>23.9</v>
       </c>
       <c r="L10">
-        <v>20.5</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1789,37 +1792,37 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D11">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="G11">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>7.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I11">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="J11">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="K11">
-        <v>48.1</v>
+        <v>46.4</v>
       </c>
       <c r="L11">
-        <v>10.7</v>
+        <v>11.4</v>
       </c>
     </row>
   </sheetData>
@@ -1878,13 +1881,13 @@
         <v>549.9200000000001</v>
       </c>
       <c r="F2">
-        <v>97.8</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="G2" t="s">
         <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1904,13 +1907,13 @@
         <v>499.16</v>
       </c>
       <c r="F3">
-        <v>91.60000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1930,13 +1933,13 @@
         <v>466.16</v>
       </c>
       <c r="F4">
-        <v>78</v>
+        <v>80.2</v>
       </c>
       <c r="G4" t="s">
         <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1956,13 +1959,13 @@
         <v>494.06</v>
       </c>
       <c r="F5">
-        <v>73.3</v>
+        <v>71.8</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1982,13 +1985,13 @@
         <v>473.2</v>
       </c>
       <c r="F6">
-        <v>65.8</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2008,13 +2011,13 @@
         <v>464.46</v>
       </c>
       <c r="F7">
-        <v>59.5</v>
+        <v>57.59999999999999</v>
       </c>
       <c r="G7" t="s">
         <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2034,13 +2037,13 @@
         <v>499.16</v>
       </c>
       <c r="F8">
-        <v>56.00000000000001</v>
+        <v>55.60000000000001</v>
       </c>
       <c r="G8" t="s">
         <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2060,13 +2063,13 @@
         <v>454.66</v>
       </c>
       <c r="F9">
-        <v>46.8</v>
+        <v>50.3</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2086,13 +2089,13 @@
         <v>435.1800000000001</v>
       </c>
       <c r="F10">
-        <v>20.5</v>
+        <v>22.4</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2112,13 +2115,13 @@
         <v>398.86</v>
       </c>
       <c r="F11">
-        <v>10.7</v>
+        <v>11.4</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2139,16 +2142,16 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2159,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -2168,7 +2171,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2179,7 +2182,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -2188,7 +2191,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2199,7 +2202,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -2208,7 +2211,7 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2219,7 +2222,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -2228,7 +2231,7 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2239,7 +2242,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2248,7 +2251,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2259,7 +2262,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7">
         <v>-1</v>
@@ -2268,7 +2271,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2279,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8">
         <v>-1</v>
@@ -2288,7 +2291,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2299,7 +2302,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D9">
         <v>-4</v>
@@ -2308,7 +2311,7 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2319,7 +2322,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D10">
         <v>-10</v>
@@ -2328,7 +2331,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2339,7 +2342,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D11">
         <v>-13</v>
@@ -2348,7 +2351,7 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2366,19 +2369,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2398,7 +2401,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2418,7 +2421,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2438,7 +2441,7 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2458,7 +2461,7 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2478,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2498,7 +2501,7 @@
         <v>-1</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2518,7 +2521,7 @@
         <v>-1</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2538,7 +2541,7 @@
         <v>-4</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2558,7 +2561,7 @@
         <v>-10</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2578,7 +2581,7 @@
         <v>-13</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2596,25 +2599,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/0755 Fantasy Football 2025.xlsx
+++ b/leagues/0755 Fantasy Football 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="93">
   <si>
     <t>Michael, The Baker</t>
   </si>
@@ -53,19 +53,22 @@
     <t>AJ's Awesome Team</t>
   </si>
   <si>
-    <t>3-1-0</t>
-  </si>
-  <si>
-    <t>2-2-0</t>
-  </si>
-  <si>
-    <t>1-3-0</t>
-  </si>
-  <si>
-    <t>4-0-0</t>
-  </si>
-  <si>
-    <t>0-4-0</t>
+    <t>4-1-0</t>
+  </si>
+  <si>
+    <t>3-2-0</t>
+  </si>
+  <si>
+    <t>2-3-0</t>
+  </si>
+  <si>
+    <t>5-0-0</t>
+  </si>
+  <si>
+    <t>1-4-0</t>
+  </si>
+  <si>
+    <t>0-5-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -140,58 +143,58 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>3-1</t>
-  </si>
-  <si>
-    <t>2-2</t>
-  </si>
-  <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>9.3-4.7-0.1</t>
-  </si>
-  <si>
-    <t>8.5-5.4-0.1</t>
-  </si>
-  <si>
-    <t>7.9-6.1-0.1</t>
-  </si>
-  <si>
-    <t>7.2-6.8</t>
-  </si>
-  <si>
-    <t>7.0-7.0-0.1</t>
-  </si>
-  <si>
-    <t>6.8-7.1-0.1</t>
-  </si>
-  <si>
-    <t>6.4-7.5-0.1</t>
-  </si>
-  <si>
-    <t>6.5-7.4-0.1</t>
-  </si>
-  <si>
-    <t>5.3-8.6-0.1</t>
-  </si>
-  <si>
-    <t>4.8-9.2-0.1</t>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>9.9-4.0-0.1</t>
+  </si>
+  <si>
+    <t>9.5-4.4</t>
+  </si>
+  <si>
+    <t>8.2-5.7-0.1</t>
+  </si>
+  <si>
+    <t>6.9-7.0-0.1</t>
+  </si>
+  <si>
+    <t>6.6-7.4</t>
+  </si>
+  <si>
+    <t>6.2-7.8-0.1</t>
+  </si>
+  <si>
+    <t>6.2-7.7-0.1</t>
+  </si>
+  <si>
+    <t>5.9-8.0-0.1</t>
+  </si>
+  <si>
+    <t>6.1-7.8-0.1</t>
+  </si>
+  <si>
+    <t>4.1-9.9-0.1</t>
   </si>
   <si>
     <t>10-4</t>
   </si>
   <si>
-    <t>9-5</t>
-  </si>
-  <si>
     <t>8-6</t>
   </si>
   <si>
     <t>7-7</t>
   </si>
   <si>
-    <t>5-9</t>
+    <t>6-8</t>
   </si>
   <si>
     <t>4-10</t>
@@ -209,24 +212,24 @@
     <t>Anthony Rizzo</t>
   </si>
   <si>
+    <t>Kyle R</t>
+  </si>
+  <si>
     <t>Robbie Wilston</t>
   </si>
   <si>
-    <t>Kyle R</t>
+    <t>Gigi Boguski</t>
   </si>
   <si>
     <t>Grace Olenzak</t>
   </si>
   <si>
+    <t>Jacob Nichols</t>
+  </si>
+  <si>
     <t>Prahlad Singh</t>
   </si>
   <si>
-    <t>Gigi Boguski</t>
-  </si>
-  <si>
-    <t>Jacob Nichols</t>
-  </si>
-  <si>
     <t>Jaime Cunningham</t>
   </si>
   <si>
@@ -236,27 +239,33 @@
     <t>Marvin Ta</t>
   </si>
   <si>
-    <t>↑11</t>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑8</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↑1</t>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓2</t>
   </si>
   <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -267,6 +276,9 @@
   </si>
   <si>
     <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
   </si>
   <si>
     <t>Week</t>
@@ -703,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -738,16 +750,16 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
         <v>11</v>
@@ -758,34 +770,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -808,10 +820,10 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -834,7 +846,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -843,16 +855,16 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
       <c r="J6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K6" t="s">
         <v>10</v>
@@ -878,16 +890,16 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
@@ -898,13 +910,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -913,19 +925,19 @@
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -933,34 +945,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
         <v>14</v>
       </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1003,34 +1015,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1048,13 +1060,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1062,10 +1074,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1076,13 +1088,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1090,10 +1102,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1104,13 +1116,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1121,10 +1133,10 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1132,13 +1144,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1146,13 +1158,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1163,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1174,13 +1186,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1188,13 +1200,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1212,16 +1224,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1232,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D2">
-        <v>-0.1000000000000001</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1249,7 +1261,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="D3">
         <v>-0.3999999999999999</v>
@@ -1263,16 +1275,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="D4">
-        <v>0.2000000000000002</v>
+        <v>-1.3</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1280,16 +1292,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="D5">
-        <v>-0.8999999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1297,13 +1309,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="D6">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1314,16 +1326,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1331,13 +1343,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="D8">
-        <v>-0.2</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -1348,16 +1360,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="D9">
-        <v>-0.3</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1365,13 +1377,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>0.6000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1391,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1409,40 +1421,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1450,37 +1462,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>47.2</v>
+        <v>52.2</v>
       </c>
       <c r="C2">
-        <v>23.1</v>
+        <v>30.3</v>
       </c>
       <c r="D2">
-        <v>11.9</v>
+        <v>10.2</v>
       </c>
       <c r="E2">
-        <v>8.1</v>
+        <v>3.8</v>
       </c>
       <c r="F2">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H2">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="I2">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="J2">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="K2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>97.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1488,37 +1500,37 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>23.3</v>
+        <v>35.4</v>
       </c>
       <c r="C3">
-        <v>22.3</v>
+        <v>35.9</v>
       </c>
       <c r="D3">
-        <v>16.1</v>
+        <v>14.8</v>
       </c>
       <c r="E3">
-        <v>13.4</v>
+        <v>7.1</v>
       </c>
       <c r="F3">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="G3">
-        <v>6.7</v>
+        <v>2.1</v>
       </c>
       <c r="H3">
-        <v>4.4</v>
+        <v>0.4</v>
       </c>
       <c r="I3">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>90.3</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1526,265 +1538,265 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>8.6</v>
+        <v>7.3</v>
       </c>
       <c r="C4">
-        <v>15.8</v>
+        <v>14.7</v>
       </c>
       <c r="D4">
-        <v>18.2</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>13.2</v>
+        <v>18.1</v>
       </c>
       <c r="F4">
-        <v>13.2</v>
+        <v>12.1</v>
       </c>
       <c r="G4">
-        <v>11.2</v>
+        <v>9.6</v>
       </c>
       <c r="H4">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="I4">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="J4">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="K4">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L4">
-        <v>80.2</v>
+        <v>86.8</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>7.2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>11.4</v>
+        <v>5.2</v>
       </c>
       <c r="D5">
-        <v>13.3</v>
+        <v>10.4</v>
       </c>
       <c r="E5">
-        <v>12.2</v>
+        <v>14.6</v>
       </c>
       <c r="F5">
-        <v>14.4</v>
+        <v>14.1</v>
       </c>
       <c r="G5">
-        <v>13.3</v>
+        <v>17.1</v>
       </c>
       <c r="H5">
-        <v>10.2</v>
+        <v>14.3</v>
       </c>
       <c r="I5">
-        <v>8.300000000000001</v>
+        <v>14.2</v>
       </c>
       <c r="J5">
-        <v>6</v>
+        <v>7.3</v>
       </c>
       <c r="K5">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="L5">
-        <v>71.8</v>
+        <v>62.4</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="C6">
-        <v>8.9</v>
+        <v>4.4</v>
       </c>
       <c r="D6">
-        <v>12.3</v>
+        <v>10.7</v>
       </c>
       <c r="E6">
-        <v>11.8</v>
+        <v>13</v>
       </c>
       <c r="F6">
-        <v>11.8</v>
+        <v>15.7</v>
       </c>
       <c r="G6">
-        <v>14.1</v>
+        <v>13.4</v>
       </c>
       <c r="H6">
-        <v>12.5</v>
+        <v>13.9</v>
       </c>
       <c r="I6">
-        <v>11.5</v>
+        <v>13.6</v>
       </c>
       <c r="J6">
-        <v>8.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K6">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="L6">
-        <v>63</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0.7</v>
+      </c>
+      <c r="C7">
+        <v>2.6</v>
+      </c>
+      <c r="D7">
+        <v>7.1</v>
+      </c>
+      <c r="E7">
+        <v>10.8</v>
+      </c>
+      <c r="F7">
+        <v>13.1</v>
+      </c>
+      <c r="G7">
+        <v>14.6</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>15.2</v>
+      </c>
+      <c r="J7">
+        <v>14.9</v>
+      </c>
+      <c r="K7">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>3.8</v>
-      </c>
-      <c r="C7">
-        <v>6.4</v>
-      </c>
-      <c r="D7">
-        <v>9.4</v>
-      </c>
-      <c r="E7">
-        <v>13.6</v>
-      </c>
-      <c r="F7">
-        <v>11.8</v>
-      </c>
-      <c r="G7">
-        <v>12.6</v>
-      </c>
-      <c r="H7">
-        <v>13.4</v>
-      </c>
-      <c r="I7">
-        <v>13</v>
-      </c>
-      <c r="J7">
-        <v>10.2</v>
-      </c>
-      <c r="K7">
-        <v>5.8</v>
-      </c>
       <c r="L7">
-        <v>57.6</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>3.9</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>6.9</v>
+        <v>2.8</v>
       </c>
       <c r="D8">
-        <v>8.800000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="E8">
-        <v>11.6</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>13.1</v>
+        <v>12.6</v>
       </c>
       <c r="G8">
-        <v>11.3</v>
+        <v>14.3</v>
       </c>
       <c r="H8">
-        <v>14.4</v>
+        <v>13.6</v>
       </c>
       <c r="I8">
-        <v>11.2</v>
+        <v>14.7</v>
       </c>
       <c r="J8">
-        <v>11.2</v>
+        <v>14.8</v>
       </c>
       <c r="K8">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L8">
-        <v>55.6</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="C9">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="D9">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="F9">
-        <v>13.6</v>
+        <v>13</v>
       </c>
       <c r="G9">
+        <v>13.7</v>
+      </c>
+      <c r="H9">
+        <v>17.1</v>
+      </c>
+      <c r="I9">
+        <v>13.5</v>
+      </c>
+      <c r="J9">
         <v>14</v>
       </c>
-      <c r="H9">
-        <v>16.5</v>
-      </c>
-      <c r="I9">
-        <v>15.1</v>
-      </c>
-      <c r="J9">
-        <v>11.6</v>
-      </c>
       <c r="K9">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="L9">
-        <v>50.3</v>
+        <v>47.9</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C10">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="D10">
-        <v>1.8</v>
+        <v>6.2</v>
       </c>
       <c r="E10">
-        <v>4.1</v>
+        <v>10.2</v>
       </c>
       <c r="F10">
-        <v>6.2</v>
+        <v>12.5</v>
       </c>
       <c r="G10">
-        <v>9.4</v>
+        <v>12.6</v>
       </c>
       <c r="H10">
-        <v>11.2</v>
+        <v>16.5</v>
       </c>
       <c r="I10">
-        <v>17.4</v>
+        <v>15.5</v>
       </c>
       <c r="J10">
-        <v>25.1</v>
+        <v>16.9</v>
       </c>
       <c r="K10">
-        <v>23.9</v>
+        <v>7.4</v>
       </c>
       <c r="L10">
-        <v>22.4</v>
+        <v>43.7</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1795,34 +1807,34 @@
         <v>0.1</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1.7</v>
+      </c>
+      <c r="G11">
         <v>2</v>
       </c>
-      <c r="F11">
-        <v>3.7</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
       <c r="H11">
-        <v>8.199999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="I11">
-        <v>12.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J11">
-        <v>21.1</v>
+        <v>19.5</v>
       </c>
       <c r="K11">
-        <v>46.4</v>
+        <v>61.8</v>
       </c>
       <c r="L11">
-        <v>11.4</v>
+        <v>5.1</v>
       </c>
     </row>
   </sheetData>
@@ -1840,28 +1852,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1869,25 +1881,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D2">
-        <v>137.48</v>
+        <v>140.112</v>
       </c>
       <c r="E2">
-        <v>549.9200000000001</v>
+        <v>700.5600000000001</v>
       </c>
       <c r="F2">
-        <v>97.39999999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1895,25 +1907,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D3">
-        <v>124.79</v>
+        <v>136.064</v>
       </c>
       <c r="E3">
-        <v>499.16</v>
+        <v>680.3199999999999</v>
       </c>
       <c r="F3">
-        <v>90.3</v>
+        <v>98.5</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1921,181 +1933,181 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D4">
-        <v>116.54</v>
+        <v>115.156</v>
       </c>
       <c r="E4">
-        <v>466.16</v>
+        <v>575.78</v>
       </c>
       <c r="F4">
-        <v>80.2</v>
+        <v>86.8</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D5">
-        <v>123.515</v>
+        <v>112.716</v>
       </c>
       <c r="E5">
-        <v>494.06</v>
+        <v>563.5799999999999</v>
       </c>
       <c r="F5">
-        <v>71.8</v>
+        <v>62.4</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D6">
-        <v>118.3</v>
+        <v>120.056</v>
       </c>
       <c r="E6">
-        <v>473.2</v>
+        <v>600.28</v>
       </c>
       <c r="F6">
-        <v>63</v>
+        <v>58.9</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D7">
-        <v>116.115</v>
+        <v>115.52</v>
       </c>
       <c r="E7">
-        <v>464.46</v>
+        <v>577.6</v>
       </c>
       <c r="F7">
-        <v>57.59999999999999</v>
+        <v>48.9</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D8">
-        <v>124.79</v>
+        <v>114.904</v>
       </c>
       <c r="E8">
-        <v>499.16</v>
+        <v>574.52</v>
       </c>
       <c r="F8">
-        <v>55.60000000000001</v>
+        <v>48.7</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D9">
-        <v>113.665</v>
+        <v>126.412</v>
       </c>
       <c r="E9">
-        <v>454.66</v>
+        <v>632.0599999999999</v>
       </c>
       <c r="F9">
-        <v>50.3</v>
+        <v>47.9</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>108.795</v>
+        <v>113.976</v>
       </c>
       <c r="E10">
-        <v>435.1800000000001</v>
+        <v>569.88</v>
       </c>
       <c r="F10">
-        <v>22.4</v>
+        <v>43.7</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2103,25 +2115,25 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D11">
-        <v>99.715</v>
+        <v>97.524</v>
       </c>
       <c r="E11">
-        <v>398.86</v>
+        <v>487.62</v>
       </c>
       <c r="F11">
-        <v>11.4</v>
+        <v>5.1</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2139,19 +2151,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2162,16 +2174,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2179,19 +2191,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2199,19 +2211,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2219,19 +2231,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2239,19 +2251,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2259,19 +2271,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2279,19 +2291,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2302,16 +2314,16 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2322,16 +2334,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D10">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2342,16 +2354,16 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11">
-        <v>-13</v>
+        <v>-17</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2361,30 +2373,33 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>85</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2400,131 +2415,152 @@
       <c r="E2">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>-7</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>-2</v>
+      </c>
+      <c r="E3">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
-      <c r="E3">
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>-7</v>
-      </c>
-      <c r="C4">
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
         <v>-1</v>
       </c>
-      <c r="D4">
-        <v>-2</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
+      <c r="C5">
+        <v>-5</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>-1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>-4</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E7">
         <v>-1</v>
       </c>
-      <c r="F7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7">
+        <v>-4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>-4</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>-2</v>
-      </c>
       <c r="E8">
-        <v>-1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>-5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -2540,11 +2576,14 @@
       <c r="E9">
         <v>-4</v>
       </c>
-      <c r="F9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9">
+        <v>-6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2560,11 +2599,14 @@
       <c r="E10">
         <v>-10</v>
       </c>
-      <c r="F10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10">
+        <v>-14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2580,8 +2622,11 @@
       <c r="E11">
         <v>-13</v>
       </c>
-      <c r="F11" t="s">
-        <v>77</v>
+      <c r="F11">
+        <v>-17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2591,7 +2636,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2599,25 +2644,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2651,22 +2696,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
@@ -2677,24 +2722,50 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>-5</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>8</v>
       </c>
     </row>

--- a/leagues/0755 Fantasy Football 2025.xlsx
+++ b/leagues/0755 Fantasy Football 2025.xlsx
@@ -11,17 +11,18 @@
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
-    <sheet name="Record Odds" sheetId="5" r:id="rId5"/>
-    <sheet name="Louie Power Index" sheetId="6" r:id="rId6"/>
-    <sheet name="LPI By Week" sheetId="7" r:id="rId7"/>
-    <sheet name="Biggest Upsets" sheetId="8" r:id="rId8"/>
+    <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
+    <sheet name="Record Odds" sheetId="6" r:id="rId6"/>
+    <sheet name="Louie Power Index" sheetId="7" r:id="rId7"/>
+    <sheet name="LPI By Week" sheetId="8" r:id="rId8"/>
+    <sheet name="Biggest Upsets" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="99">
   <si>
     <t>Michael, The Baker</t>
   </si>
@@ -122,6 +123,24 @@
     <t>Chance of Making Playoffs</t>
   </si>
   <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -146,40 +165,40 @@
     <t>4-1</t>
   </si>
   <si>
+    <t>2-3</t>
+  </si>
+  <si>
     <t>3-2</t>
   </si>
   <si>
-    <t>2-3</t>
-  </si>
-  <si>
     <t>1-4</t>
   </si>
   <si>
-    <t>9.9-4.0-0.1</t>
-  </si>
-  <si>
-    <t>9.5-4.4</t>
+    <t>10.0-4.0-0.1</t>
+  </si>
+  <si>
+    <t>9.5-4.4-0.1</t>
   </si>
   <si>
     <t>8.2-5.7-0.1</t>
   </si>
   <si>
-    <t>6.9-7.0-0.1</t>
-  </si>
-  <si>
-    <t>6.6-7.4</t>
+    <t>6.6-7.4-0.1</t>
+  </si>
+  <si>
+    <t>6.8-7.1-0.1</t>
+  </si>
+  <si>
+    <t>6.1-7.9-0.1</t>
+  </si>
+  <si>
+    <t>6.2-7.7-0.1</t>
   </si>
   <si>
     <t>6.2-7.8-0.1</t>
   </si>
   <si>
-    <t>6.2-7.7-0.1</t>
-  </si>
-  <si>
-    <t>5.9-8.0-0.1</t>
-  </si>
-  <si>
-    <t>6.1-7.8-0.1</t>
+    <t>6.0-7.9-0.1</t>
   </si>
   <si>
     <t>4.1-9.9-0.1</t>
@@ -188,13 +207,13 @@
     <t>10-4</t>
   </si>
   <si>
-    <t>8-6</t>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>6-8</t>
   </si>
   <si>
     <t>7-7</t>
-  </si>
-  <si>
-    <t>6-8</t>
   </si>
   <si>
     <t>4-10</t>
@@ -1462,37 +1481,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52.2</v>
+        <v>53.3</v>
       </c>
       <c r="C2">
-        <v>30.3</v>
+        <v>29.4</v>
       </c>
       <c r="D2">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="E2">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>99.09999999999999</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1500,37 +1519,37 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>35.4</v>
+        <v>36.1</v>
       </c>
       <c r="C3">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="D3">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="E3">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="G3">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H3">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I3">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="J3">
         <v>0.2</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L3">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1538,227 +1557,227 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>7.3</v>
+        <v>5.8</v>
       </c>
       <c r="C4">
-        <v>14.7</v>
+        <v>17.3</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>26.3</v>
       </c>
       <c r="E4">
-        <v>18.1</v>
+        <v>17.2</v>
       </c>
       <c r="F4">
-        <v>12.1</v>
+        <v>10.3</v>
       </c>
       <c r="G4">
-        <v>9.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H4">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="I4">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="J4">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K4">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L4">
-        <v>86.8</v>
+        <v>86.2</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C5">
+        <v>4.2</v>
+      </c>
+      <c r="D5">
+        <v>11.7</v>
+      </c>
+      <c r="E5">
+        <v>15.2</v>
+      </c>
+      <c r="F5">
+        <v>12.7</v>
+      </c>
+      <c r="G5">
+        <v>13.8</v>
+      </c>
+      <c r="H5">
+        <v>12.5</v>
+      </c>
+      <c r="I5">
+        <v>13.6</v>
+      </c>
+      <c r="J5">
+        <v>9.6</v>
+      </c>
+      <c r="K5">
         <v>5.2</v>
       </c>
-      <c r="D5">
-        <v>10.4</v>
-      </c>
-      <c r="E5">
-        <v>14.6</v>
-      </c>
-      <c r="F5">
-        <v>14.1</v>
-      </c>
-      <c r="G5">
-        <v>17.1</v>
-      </c>
-      <c r="H5">
-        <v>14.3</v>
-      </c>
-      <c r="I5">
-        <v>14.2</v>
-      </c>
-      <c r="J5">
-        <v>7.3</v>
-      </c>
-      <c r="K5">
-        <v>1.8</v>
-      </c>
       <c r="L5">
-        <v>62.4</v>
+        <v>59.1</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="C6">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
       <c r="D6">
-        <v>10.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E6">
-        <v>13</v>
+        <v>13.9</v>
       </c>
       <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="G6">
         <v>15.7</v>
       </c>
-      <c r="G6">
-        <v>13.4</v>
-      </c>
       <c r="H6">
-        <v>13.9</v>
+        <v>17.3</v>
       </c>
       <c r="I6">
-        <v>13.6</v>
+        <v>11.3</v>
       </c>
       <c r="J6">
-        <v>9.699999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="K6">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="L6">
-        <v>58.9</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="C7">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D7">
-        <v>7.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E7">
-        <v>10.8</v>
+        <v>12.2</v>
       </c>
       <c r="F7">
-        <v>13.1</v>
+        <v>14.3</v>
       </c>
       <c r="G7">
-        <v>14.6</v>
+        <v>15.6</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>13.4</v>
       </c>
       <c r="I7">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="J7">
-        <v>14.9</v>
+        <v>9.9</v>
       </c>
       <c r="K7">
-        <v>9</v>
+        <v>6.7</v>
       </c>
       <c r="L7">
-        <v>48.9</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D8">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="E8">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="F8">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="G8">
+        <v>14.7</v>
+      </c>
+      <c r="H8">
         <v>14.3</v>
       </c>
-      <c r="H8">
-        <v>13.6</v>
-      </c>
       <c r="I8">
-        <v>14.7</v>
+        <v>16</v>
       </c>
       <c r="J8">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K8">
-        <v>8.199999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="L8">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="C9">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="E9">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>13.4</v>
       </c>
       <c r="G9">
-        <v>13.7</v>
+        <v>12.5</v>
       </c>
       <c r="H9">
-        <v>17.1</v>
+        <v>16.1</v>
       </c>
       <c r="I9">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="J9">
-        <v>14</v>
+        <v>15.3</v>
       </c>
       <c r="K9">
         <v>7.5</v>
       </c>
       <c r="L9">
-        <v>47.9</v>
+        <v>46.6</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1766,37 +1785,37 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="D10">
-        <v>6.2</v>
+        <v>4.9</v>
       </c>
       <c r="E10">
-        <v>10.2</v>
+        <v>9.4</v>
       </c>
       <c r="F10">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="G10">
-        <v>12.6</v>
+        <v>13.4</v>
       </c>
       <c r="H10">
-        <v>16.5</v>
+        <v>13.6</v>
       </c>
       <c r="I10">
-        <v>15.5</v>
+        <v>16.8</v>
       </c>
       <c r="J10">
-        <v>16.9</v>
+        <v>17.9</v>
       </c>
       <c r="K10">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L10">
-        <v>43.7</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1804,37 +1823,37 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F11">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H11">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="I11">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="J11">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="K11">
-        <v>61.8</v>
+        <v>62.5</v>
       </c>
       <c r="L11">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
     </row>
   </sheetData>
@@ -1843,6 +1862,269 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>59</v>
+      </c>
+      <c r="C2">
+        <v>84.2</v>
+      </c>
+      <c r="D2">
+        <v>92.30000000000001</v>
+      </c>
+      <c r="E2">
+        <v>96.2</v>
+      </c>
+      <c r="F2">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="G2">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>89.60000000000001</v>
+      </c>
+      <c r="C3">
+        <v>83.39999999999999</v>
+      </c>
+      <c r="D3">
+        <v>97.8</v>
+      </c>
+      <c r="E3">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="F3">
+        <v>98</v>
+      </c>
+      <c r="G3">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C4">
+        <v>96.5</v>
+      </c>
+      <c r="D4">
+        <v>66.60000000000001</v>
+      </c>
+      <c r="E4">
+        <v>77.2</v>
+      </c>
+      <c r="F4">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="G4">
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>93.5</v>
+      </c>
+      <c r="C5">
+        <v>56.8</v>
+      </c>
+      <c r="D5">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="E5">
+        <v>46.9</v>
+      </c>
+      <c r="F5">
+        <v>63.7</v>
+      </c>
+      <c r="G5">
+        <v>59.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>28.9</v>
+      </c>
+      <c r="C6">
+        <v>85.3</v>
+      </c>
+      <c r="D6">
+        <v>59.2</v>
+      </c>
+      <c r="E6">
+        <v>72.5</v>
+      </c>
+      <c r="F6">
+        <v>58.7</v>
+      </c>
+      <c r="G6">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>44.8</v>
+      </c>
+      <c r="C7">
+        <v>50.4</v>
+      </c>
+      <c r="D7">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>55.60000000000001</v>
+      </c>
+      <c r="F7">
+        <v>48.8</v>
+      </c>
+      <c r="G7">
+        <v>52.40000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="C8">
+        <v>5.899999999999999</v>
+      </c>
+      <c r="D8">
+        <v>3.7</v>
+      </c>
+      <c r="E8">
+        <v>24.5</v>
+      </c>
+      <c r="F8">
+        <v>50.4</v>
+      </c>
+      <c r="G8">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>3.3</v>
+      </c>
+      <c r="C9">
+        <v>55.2</v>
+      </c>
+      <c r="D9">
+        <v>82.89999999999999</v>
+      </c>
+      <c r="E9">
+        <v>63.8</v>
+      </c>
+      <c r="F9">
+        <v>47.8</v>
+      </c>
+      <c r="G9">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5.2</v>
+      </c>
+      <c r="C10">
+        <v>7.7</v>
+      </c>
+      <c r="D10">
+        <v>53</v>
+      </c>
+      <c r="E10">
+        <v>60.4</v>
+      </c>
+      <c r="F10">
+        <v>44.3</v>
+      </c>
+      <c r="G10">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C11">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="D11">
+        <v>36.9</v>
+      </c>
+      <c r="E11">
+        <v>12.5</v>
+      </c>
+      <c r="F11">
+        <v>4.6</v>
+      </c>
+      <c r="G11">
+        <v>5.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -1855,25 +2137,25 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1881,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>0.8</v>
@@ -1893,13 +2175,13 @@
         <v>700.5600000000001</v>
       </c>
       <c r="F2">
-        <v>99.09999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1907,7 +2189,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>0.8</v>
@@ -1919,13 +2201,13 @@
         <v>680.3199999999999</v>
       </c>
       <c r="F3">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1933,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C4">
         <v>0.8</v>
@@ -1945,143 +2227,143 @@
         <v>575.78</v>
       </c>
       <c r="F4">
-        <v>86.8</v>
+        <v>86.2</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C5">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D5">
-        <v>112.716</v>
+        <v>120.056</v>
       </c>
       <c r="E5">
-        <v>563.5799999999999</v>
+        <v>600.28</v>
       </c>
       <c r="F5">
-        <v>62.4</v>
+        <v>59.09999999999999</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C6">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D6">
-        <v>120.056</v>
+        <v>112.716</v>
       </c>
       <c r="E6">
-        <v>600.28</v>
+        <v>563.5799999999999</v>
       </c>
       <c r="F6">
-        <v>58.9</v>
+        <v>58.59999999999999</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D7">
-        <v>115.52</v>
+        <v>126.412</v>
       </c>
       <c r="E7">
-        <v>577.6</v>
+        <v>632.0599999999999</v>
       </c>
       <c r="F7">
-        <v>48.9</v>
+        <v>54.40000000000001</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>0.4</v>
       </c>
       <c r="D8">
-        <v>114.904</v>
+        <v>115.52</v>
       </c>
       <c r="E8">
-        <v>574.52</v>
+        <v>577.6</v>
       </c>
       <c r="F8">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>126.412</v>
+        <v>114.904</v>
       </c>
       <c r="E9">
-        <v>632.0599999999999</v>
+        <v>574.52</v>
       </c>
       <c r="F9">
-        <v>47.9</v>
+        <v>46.6</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2089,7 +2371,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>0.4</v>
@@ -2101,13 +2383,13 @@
         <v>569.88</v>
       </c>
       <c r="F10">
-        <v>43.7</v>
+        <v>42.9</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2115,7 +2397,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <v>0.2</v>
@@ -2127,13 +2409,13 @@
         <v>487.62</v>
       </c>
       <c r="F11">
-        <v>5.1</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2141,7 +2423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -2154,16 +2436,16 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2174,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D2">
         <v>14</v>
@@ -2183,7 +2465,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2194,7 +2476,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D3">
         <v>12</v>
@@ -2203,7 +2485,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2214,7 +2496,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D4">
         <v>11</v>
@@ -2223,7 +2505,7 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2234,7 +2516,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -2243,7 +2525,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2254,7 +2536,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2263,7 +2545,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2274,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D7">
         <v>-4</v>
@@ -2283,7 +2565,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2294,7 +2576,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D8">
         <v>-5</v>
@@ -2303,7 +2585,7 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2314,7 +2596,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D9">
         <v>-6</v>
@@ -2323,7 +2605,7 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2334,7 +2616,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D10">
         <v>-14</v>
@@ -2343,7 +2625,7 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2354,7 +2636,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D11">
         <v>-17</v>
@@ -2363,7 +2645,7 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2371,7 +2653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -2381,22 +2663,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2419,7 +2701,7 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2442,7 +2724,7 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2465,7 +2747,7 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2488,7 +2770,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2511,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2534,7 +2816,7 @@
         <v>-4</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2557,7 +2839,7 @@
         <v>-5</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2580,7 +2862,7 @@
         <v>-6</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2603,7 +2885,7 @@
         <v>-14</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2626,7 +2908,7 @@
         <v>-17</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2634,7 +2916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -2644,25 +2926,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/0755 Fantasy Football 2025.xlsx
+++ b/leagues/0755 Fantasy Football 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="102">
   <si>
     <t>Michael, The Baker</t>
   </si>
@@ -54,22 +54,19 @@
     <t>AJ's Awesome Team</t>
   </si>
   <si>
-    <t>4-1-0</t>
-  </si>
-  <si>
-    <t>3-2-0</t>
-  </si>
-  <si>
-    <t>2-3-0</t>
-  </si>
-  <si>
-    <t>5-0-0</t>
-  </si>
-  <si>
-    <t>1-4-0</t>
-  </si>
-  <si>
-    <t>0-5-0</t>
+    <t>5-1-0</t>
+  </si>
+  <si>
+    <t>4-2-0</t>
+  </si>
+  <si>
+    <t>2-4-0</t>
+  </si>
+  <si>
+    <t>3-3-0</t>
+  </si>
+  <si>
+    <t>1-5-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -141,6 +138,9 @@
     <t>Week_6</t>
   </si>
   <si>
+    <t>Week_7</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -162,46 +162,49 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>4-1</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>3-2</t>
-  </si>
-  <si>
-    <t>1-4</t>
-  </si>
-  <si>
-    <t>10.0-4.0-0.1</t>
-  </si>
-  <si>
-    <t>9.5-4.4-0.1</t>
-  </si>
-  <si>
-    <t>8.2-5.7-0.1</t>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>10.0-4.0</t>
+  </si>
+  <si>
+    <t>8.8-5.1</t>
+  </si>
+  <si>
+    <t>8.5-5.4</t>
+  </si>
+  <si>
+    <t>7.3-6.7-0.1</t>
+  </si>
+  <si>
+    <t>6.9-7.1</t>
   </si>
   <si>
     <t>6.6-7.4-0.1</t>
   </si>
   <si>
-    <t>6.8-7.1-0.1</t>
-  </si>
-  <si>
-    <t>6.1-7.9-0.1</t>
-  </si>
-  <si>
-    <t>6.2-7.7-0.1</t>
-  </si>
-  <si>
-    <t>6.2-7.8-0.1</t>
-  </si>
-  <si>
-    <t>6.0-7.9-0.1</t>
-  </si>
-  <si>
-    <t>4.1-9.9-0.1</t>
+    <t>6.5-7.5</t>
+  </si>
+  <si>
+    <t>5.8-8.2-0.1</t>
+  </si>
+  <si>
+    <t>5.4-8.5</t>
+  </si>
+  <si>
+    <t>4.0-10.0</t>
   </si>
   <si>
     <t>10-4</t>
@@ -210,10 +213,13 @@
     <t>9-5</t>
   </si>
   <si>
+    <t>7-7</t>
+  </si>
+  <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>7-7</t>
+    <t>5-9</t>
   </si>
   <si>
     <t>4-10</t>
@@ -228,61 +234,61 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Kyle R</t>
+  </si>
+  <si>
     <t>Anthony Rizzo</t>
   </si>
   <si>
-    <t>Kyle R</t>
-  </si>
-  <si>
     <t>Robbie Wilston</t>
   </si>
   <si>
     <t>Gigi Boguski</t>
   </si>
   <si>
+    <t>Jacob Nichols</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
+    <t>Jaime Cunningham</t>
+  </si>
+  <si>
     <t>Grace Olenzak</t>
   </si>
   <si>
-    <t>Jacob Nichols</t>
-  </si>
-  <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
-    <t>Jaime Cunningham</t>
+    <t>Marvin Ta</t>
   </si>
   <si>
     <t>Abhishek Joshi</t>
   </si>
   <si>
-    <t>Marvin Ta</t>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑6</t>
   </si>
   <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓4</t>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓8</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -298,6 +304,9 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
   </si>
   <si>
     <t>Week</t>
@@ -722,10 +731,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -740,10 +749,10 @@
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -760,7 +769,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -769,16 +778,16 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
         <v>11</v>
@@ -798,7 +807,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -807,7 +816,7 @@
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -827,10 +836,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -845,13 +854,13 @@
         <v>14</v>
       </c>
       <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
         <v>11</v>
-      </c>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -859,7 +868,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -868,22 +877,22 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
         <v>10</v>
@@ -903,19 +912,19 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
         <v>10</v>
@@ -929,7 +938,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -944,13 +953,13 @@
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -964,7 +973,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -973,16 +982,16 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
         <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
@@ -991,7 +1000,7 @@
         <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -999,31 +1008,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
+      <c r="J10" t="s">
         <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" t="s">
-        <v>10</v>
       </c>
       <c r="K10" t="s">
         <v>10</v>
@@ -1037,13 +1046,13 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1052,16 +1061,16 @@
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1079,13 +1088,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1093,10 +1102,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1107,13 +1116,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1121,10 +1130,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1138,7 +1147,7 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1149,13 +1158,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1163,13 +1172,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1180,10 +1189,10 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1191,13 +1200,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1205,10 +1214,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1222,10 +1231,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1243,16 +1252,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1263,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D2">
-        <v>-0.2000000000000002</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1280,13 +1289,13 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D3">
-        <v>-0.3999999999999999</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1294,16 +1303,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="D4">
-        <v>-1.3</v>
+        <v>1.7</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1311,16 +1320,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D5">
-        <v>1.7</v>
+        <v>-1.5</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1331,13 +1340,13 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1345,16 +1354,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="D7">
-        <v>0.3999999999999999</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1362,16 +1371,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="D8">
-        <v>-0.7999999999999998</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1379,13 +1388,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="D9">
-        <v>0.1000000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1399,13 +1408,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1416,10 +1425,10 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -1440,40 +1449,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1481,28 +1490,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>53.3</v>
+        <v>60.5</v>
       </c>
       <c r="C2">
-        <v>29.4</v>
+        <v>20.3</v>
       </c>
       <c r="D2">
-        <v>10.1</v>
+        <v>10.6</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="G2">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0.3</v>
       </c>
       <c r="I2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1511,83 +1520,83 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>36.1</v>
+        <v>15.8</v>
       </c>
       <c r="C3">
-        <v>35.8</v>
+        <v>25.4</v>
       </c>
       <c r="D3">
-        <v>14.9</v>
+        <v>23.2</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>14.7</v>
       </c>
       <c r="F3">
-        <v>4.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G3">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="I3">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="J3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>98.40000000000001</v>
+        <v>93.3</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>5.8</v>
+        <v>17.4</v>
       </c>
       <c r="C4">
-        <v>17.3</v>
+        <v>25.6</v>
       </c>
       <c r="D4">
-        <v>26.3</v>
+        <v>19.7</v>
       </c>
       <c r="E4">
-        <v>17.2</v>
+        <v>14.5</v>
       </c>
       <c r="F4">
-        <v>10.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G4">
-        <v>9.300000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="H4">
-        <v>6.6</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="J4">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="K4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L4">
-        <v>86.2</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1595,151 +1604,151 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="C5">
-        <v>4.2</v>
+        <v>11.2</v>
       </c>
       <c r="D5">
-        <v>11.7</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>15.2</v>
+        <v>17.4</v>
       </c>
       <c r="F5">
-        <v>12.7</v>
+        <v>15.8</v>
       </c>
       <c r="G5">
-        <v>13.8</v>
+        <v>16.3</v>
       </c>
       <c r="H5">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="I5">
-        <v>13.6</v>
+        <v>6.5</v>
       </c>
       <c r="J5">
-        <v>9.6</v>
+        <v>4.6</v>
       </c>
       <c r="K5">
-        <v>5.2</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>59.1</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="C6">
-        <v>2.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D6">
-        <v>9.300000000000001</v>
+        <v>14.6</v>
       </c>
       <c r="E6">
-        <v>13.9</v>
+        <v>18.3</v>
       </c>
       <c r="F6">
-        <v>16</v>
+        <v>16.8</v>
       </c>
       <c r="G6">
-        <v>15.7</v>
+        <v>13.2</v>
       </c>
       <c r="H6">
-        <v>17.3</v>
+        <v>10.5</v>
       </c>
       <c r="I6">
-        <v>11.3</v>
+        <v>7.7</v>
       </c>
       <c r="J6">
-        <v>10.4</v>
+        <v>4.8</v>
       </c>
       <c r="K6">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L6">
-        <v>58.6</v>
+        <v>74.90000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C7">
         <v>3.1</v>
       </c>
       <c r="D7">
-        <v>8.800000000000001</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>12.2</v>
+        <v>10.5</v>
       </c>
       <c r="F7">
-        <v>14.3</v>
+        <v>14.6</v>
       </c>
       <c r="G7">
-        <v>15.6</v>
+        <v>16.7</v>
       </c>
       <c r="H7">
-        <v>13.4</v>
+        <v>18.1</v>
       </c>
       <c r="I7">
-        <v>15.6</v>
+        <v>17.1</v>
       </c>
       <c r="J7">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
       <c r="K7">
-        <v>6.7</v>
+        <v>2.9</v>
       </c>
       <c r="L7">
-        <v>54.4</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="C8">
+        <v>2.9</v>
+      </c>
+      <c r="D8">
+        <v>5.5</v>
+      </c>
+      <c r="E8">
+        <v>9.1</v>
+      </c>
+      <c r="F8">
+        <v>14.4</v>
+      </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <v>17.6</v>
+      </c>
+      <c r="I8">
+        <v>16.6</v>
+      </c>
+      <c r="J8">
+        <v>13.8</v>
+      </c>
+      <c r="K8">
         <v>3.4</v>
       </c>
-      <c r="D8">
-        <v>6.3</v>
-      </c>
-      <c r="E8">
-        <v>10.8</v>
-      </c>
-      <c r="F8">
-        <v>12.8</v>
-      </c>
-      <c r="G8">
-        <v>14.7</v>
-      </c>
-      <c r="H8">
-        <v>14.3</v>
-      </c>
-      <c r="I8">
-        <v>16</v>
-      </c>
-      <c r="J8">
-        <v>15</v>
-      </c>
-      <c r="K8">
-        <v>6.2</v>
-      </c>
       <c r="L8">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1747,75 +1756,75 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="D9">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>13.4</v>
+        <v>9.9</v>
       </c>
       <c r="G9">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="H9">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="I9">
-        <v>14.5</v>
+        <v>21.1</v>
       </c>
       <c r="J9">
-        <v>15.3</v>
+        <v>18.1</v>
       </c>
       <c r="K9">
-        <v>7.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L9">
-        <v>46.6</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C10">
+        <v>0.9</v>
+      </c>
+      <c r="D10">
         <v>2.3</v>
       </c>
-      <c r="D10">
-        <v>4.9</v>
-      </c>
       <c r="E10">
-        <v>9.4</v>
+        <v>4.3</v>
       </c>
       <c r="F10">
-        <v>12.4</v>
+        <v>5.7</v>
       </c>
       <c r="G10">
-        <v>13.4</v>
+        <v>10</v>
       </c>
       <c r="H10">
-        <v>13.6</v>
+        <v>13</v>
       </c>
       <c r="I10">
-        <v>16.8</v>
+        <v>17.9</v>
       </c>
       <c r="J10">
-        <v>17.9</v>
+        <v>26.8</v>
       </c>
       <c r="K10">
-        <v>8.800000000000001</v>
+        <v>18.8</v>
       </c>
       <c r="L10">
-        <v>42.9</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1829,31 +1838,31 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E11">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F11">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="G11">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H11">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I11">
-        <v>7.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J11">
-        <v>19.2</v>
+        <v>19.6</v>
       </c>
       <c r="K11">
-        <v>62.5</v>
+        <v>61.9</v>
       </c>
       <c r="L11">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
     </row>
   </sheetData>
@@ -1863,240 +1872,270 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>57.49999999999999</v>
       </c>
       <c r="C2">
-        <v>84.2</v>
+        <v>85.2</v>
       </c>
       <c r="D2">
-        <v>92.30000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="E2">
-        <v>96.2</v>
+        <v>97.3</v>
       </c>
       <c r="F2">
-        <v>99.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G2">
-        <v>99.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>99.7</v>
+      </c>
+      <c r="H2">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>97</v>
+      </c>
+      <c r="D3">
+        <v>71.8</v>
+      </c>
+      <c r="E3">
+        <v>77.7</v>
+      </c>
+      <c r="F3">
+        <v>85.39999999999999</v>
+      </c>
+      <c r="G3">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="H3">
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>89.60000000000001</v>
-      </c>
-      <c r="C3">
-        <v>83.39999999999999</v>
-      </c>
-      <c r="D3">
-        <v>97.8</v>
-      </c>
-      <c r="E3">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="F3">
-        <v>98</v>
-      </c>
-      <c r="G3">
-        <v>98.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="B4">
-        <v>99.90000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="C4">
-        <v>96.5</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="D4">
-        <v>66.60000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E4">
-        <v>77.2</v>
+        <v>91.5</v>
       </c>
       <c r="F4">
-        <v>84.59999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="G4">
-        <v>84.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>93</v>
+      </c>
+      <c r="H4">
+        <v>92.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>27.5</v>
+      </c>
+      <c r="C5">
+        <v>83.89999999999999</v>
+      </c>
+      <c r="D5">
+        <v>59.7</v>
+      </c>
+      <c r="E5">
+        <v>70.89999999999999</v>
+      </c>
+      <c r="F5">
+        <v>60.6</v>
+      </c>
+      <c r="G5">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="H5">
+        <v>76.09999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>49.2</v>
+      </c>
+      <c r="C6">
+        <v>48.2</v>
+      </c>
+      <c r="D6">
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <v>54.3</v>
+      </c>
+      <c r="F6">
+        <v>48.2</v>
+      </c>
+      <c r="G6">
+        <v>78.8</v>
+      </c>
+      <c r="H6">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>93.5</v>
-      </c>
-      <c r="C5">
-        <v>56.8</v>
-      </c>
-      <c r="D5">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="E5">
-        <v>46.9</v>
-      </c>
-      <c r="F5">
-        <v>63.7</v>
-      </c>
-      <c r="G5">
-        <v>59.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>28.9</v>
-      </c>
-      <c r="C6">
-        <v>85.3</v>
-      </c>
-      <c r="D6">
-        <v>59.2</v>
-      </c>
-      <c r="E6">
-        <v>72.5</v>
-      </c>
-      <c r="F6">
-        <v>58.7</v>
-      </c>
-      <c r="G6">
-        <v>59.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B7">
-        <v>44.8</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C7">
-        <v>50.4</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>70.7</v>
       </c>
       <c r="E7">
-        <v>55.60000000000001</v>
+        <v>46.8</v>
       </c>
       <c r="F7">
-        <v>48.8</v>
+        <v>61</v>
       </c>
       <c r="G7">
-        <v>52.40000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>48.6</v>
+      </c>
+      <c r="H7">
+        <v>56.39999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>75.90000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="C8">
-        <v>5.899999999999999</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>3.7</v>
+        <v>53.40000000000001</v>
       </c>
       <c r="E8">
-        <v>24.5</v>
+        <v>62.9</v>
       </c>
       <c r="F8">
-        <v>50.4</v>
+        <v>43.8</v>
       </c>
       <c r="G8">
-        <v>49.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>48.1</v>
+      </c>
+      <c r="H8">
+        <v>47.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="C9">
-        <v>55.2</v>
+        <v>55.50000000000001</v>
       </c>
       <c r="D9">
-        <v>82.89999999999999</v>
+        <v>80.30000000000001</v>
       </c>
       <c r="E9">
-        <v>63.8</v>
+        <v>64.60000000000001</v>
       </c>
       <c r="F9">
-        <v>47.8</v>
+        <v>46.40000000000001</v>
       </c>
       <c r="G9">
-        <v>47.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>36.7</v>
+      </c>
+      <c r="H9">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>5.2</v>
+        <v>75.2</v>
       </c>
       <c r="C10">
-        <v>7.7</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>53</v>
+        <v>2.8</v>
       </c>
       <c r="E10">
-        <v>60.4</v>
+        <v>23</v>
       </c>
       <c r="F10">
-        <v>44.3</v>
+        <v>51.9</v>
       </c>
       <c r="G10">
-        <v>43.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>22.4</v>
+      </c>
+      <c r="H10">
+        <v>20.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2104,19 +2143,22 @@
         <v>99.90000000000001</v>
       </c>
       <c r="C11">
-        <v>74.59999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="D11">
-        <v>36.9</v>
+        <v>34.7</v>
       </c>
       <c r="E11">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="F11">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="G11">
-        <v>5.4</v>
+        <v>4.5</v>
+      </c>
+      <c r="H11">
+        <v>4.2</v>
       </c>
     </row>
   </sheetData>
@@ -2134,7 +2176,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>39</v>
@@ -2166,74 +2208,74 @@
         <v>46</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D2">
-        <v>140.112</v>
+        <v>135.5333333333333</v>
       </c>
       <c r="E2">
-        <v>700.5600000000001</v>
+        <v>813.2</v>
       </c>
       <c r="F2">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
       </c>
       <c r="C3">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D3">
-        <v>136.064</v>
+        <v>116.5766666666667</v>
       </c>
       <c r="E3">
-        <v>680.3199999999999</v>
+        <v>699.46</v>
       </c>
       <c r="F3">
-        <v>98.40000000000001</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4">
-        <v>115.156</v>
+        <v>127.6433333333333</v>
       </c>
       <c r="E4">
-        <v>575.78</v>
+        <v>765.86</v>
       </c>
       <c r="F4">
-        <v>86.2</v>
+        <v>92.5</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2241,48 +2283,48 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>120.056</v>
+        <v>121.2166666666667</v>
       </c>
       <c r="E5">
-        <v>600.28</v>
+        <v>727.3</v>
       </c>
       <c r="F5">
-        <v>59.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6">
-        <v>0.6</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D6">
-        <v>112.716</v>
+        <v>133.63</v>
       </c>
       <c r="E6">
-        <v>563.5799999999999</v>
+        <v>801.78</v>
       </c>
       <c r="F6">
-        <v>58.59999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
         <v>63</v>
@@ -2290,54 +2332,54 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>126.412</v>
+        <v>111.2</v>
       </c>
       <c r="E7">
-        <v>632.0599999999999</v>
+        <v>667.2</v>
       </c>
       <c r="F7">
-        <v>54.40000000000001</v>
+        <v>51.4</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>115.52</v>
+        <v>109.9766666666667</v>
       </c>
       <c r="E8">
-        <v>577.6</v>
+        <v>659.86</v>
       </c>
       <c r="F8">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2345,51 +2387,51 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D9">
-        <v>114.904</v>
+        <v>112.8133333333333</v>
       </c>
       <c r="E9">
-        <v>574.52</v>
+        <v>676.88</v>
       </c>
       <c r="F9">
-        <v>46.6</v>
+        <v>34.5</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D10">
-        <v>113.976</v>
+        <v>104.9</v>
       </c>
       <c r="E10">
-        <v>569.88</v>
+        <v>629.4</v>
       </c>
       <c r="F10">
-        <v>42.9</v>
+        <v>23.5</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2397,25 +2439,25 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D11">
-        <v>97.524</v>
+        <v>100.0466666666667</v>
       </c>
       <c r="E11">
-        <v>487.62</v>
+        <v>600.28</v>
       </c>
       <c r="F11">
-        <v>5.800000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2433,19 +2475,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2453,19 +2495,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2473,19 +2515,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2496,16 +2538,16 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2516,16 +2558,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2533,19 +2575,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2553,19 +2595,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D7">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2573,19 +2615,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D8">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2593,19 +2635,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D9">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2613,19 +2655,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D10">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2633,19 +2675,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D11">
-        <v>-17</v>
+        <v>-22</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2655,79 +2697,88 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>94</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>-7</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <v>-2</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>11</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>-7</v>
-      </c>
-      <c r="C3">
-        <v>-1</v>
-      </c>
-      <c r="D3">
-        <v>-2</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2746,11 +2797,14 @@
       <c r="F4">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2769,146 +2823,167 @@
       <c r="F5">
         <v>7</v>
       </c>
-      <c r="G5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>-2</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>-4</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>-4</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>-5</v>
+      </c>
+      <c r="G7">
+        <v>-2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>-4</v>
+      </c>
+      <c r="F8">
+        <v>-6</v>
+      </c>
+      <c r="G8">
+        <v>-7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B9">
         <v>2</v>
-      </c>
-      <c r="C6">
-        <v>-1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>-2</v>
-      </c>
-      <c r="E7">
-        <v>-1</v>
-      </c>
-      <c r="F7">
-        <v>-4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>-4</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>-5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
       </c>
       <c r="C9">
         <v>-1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>-8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <v>-5</v>
+      </c>
+      <c r="E10">
+        <v>-13</v>
+      </c>
+      <c r="F10">
+        <v>-17</v>
+      </c>
+      <c r="G10">
+        <v>-13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>-10</v>
+      </c>
+      <c r="C11">
+        <v>-6</v>
+      </c>
+      <c r="D11">
         <v>-4</v>
       </c>
-      <c r="F9">
-        <v>-6</v>
-      </c>
-      <c r="G9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+      <c r="E11">
         <v>-10</v>
       </c>
-      <c r="C10">
-        <v>-6</v>
-      </c>
-      <c r="D10">
-        <v>-4</v>
-      </c>
-      <c r="E10">
-        <v>-10</v>
-      </c>
-      <c r="F10">
+      <c r="F11">
         <v>-14</v>
       </c>
-      <c r="G10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>-1</v>
-      </c>
-      <c r="D11">
-        <v>-5</v>
-      </c>
-      <c r="E11">
-        <v>-13</v>
-      </c>
-      <c r="F11">
-        <v>-17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>86</v>
+      <c r="G11">
+        <v>-22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2918,7 +2993,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2926,25 +3001,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2978,25 +3053,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>-22</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>-8</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3004,22 +3079,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
@@ -3030,24 +3105,50 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>-5</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" t="s">
         <v>8</v>
       </c>
     </row>

--- a/leagues/0755 Fantasy Football 2025.xlsx
+++ b/leagues/0755 Fantasy Football 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="102">
   <si>
     <t>Michael, The Baker</t>
   </si>
@@ -39,7 +39,7 @@
     <t>Mr Steinfeld's Stars</t>
   </si>
   <si>
-    <t>Dak Stinks</t>
+    <t>Scrappy Dub</t>
   </si>
   <si>
     <t>Division iPad</t>
@@ -54,19 +54,22 @@
     <t>AJ's Awesome Team</t>
   </si>
   <si>
-    <t>5-1-0</t>
-  </si>
-  <si>
-    <t>4-2-0</t>
-  </si>
-  <si>
-    <t>2-4-0</t>
-  </si>
-  <si>
-    <t>3-3-0</t>
-  </si>
-  <si>
-    <t>1-5-0</t>
+    <t>6-1-0</t>
+  </si>
+  <si>
+    <t>5-2-0</t>
+  </si>
+  <si>
+    <t>3-4-0</t>
+  </si>
+  <si>
+    <t>4-3-0</t>
+  </si>
+  <si>
+    <t>2-5-0</t>
+  </si>
+  <si>
+    <t>1-6-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -141,6 +144,9 @@
     <t>Week_7</t>
   </si>
   <si>
+    <t>Week_8</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -162,55 +168,55 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>5-1</t>
-  </si>
-  <si>
-    <t>4-2</t>
-  </si>
-  <si>
-    <t>3-3</t>
-  </si>
-  <si>
-    <t>2-4</t>
-  </si>
-  <si>
-    <t>1-5</t>
-  </si>
-  <si>
-    <t>10.0-4.0</t>
-  </si>
-  <si>
-    <t>8.8-5.1</t>
-  </si>
-  <si>
-    <t>8.5-5.4</t>
-  </si>
-  <si>
-    <t>7.3-6.7-0.1</t>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>10.1-3.8</t>
+  </si>
+  <si>
+    <t>8.1-5.8-0.1</t>
+  </si>
+  <si>
+    <t>7.7-6.2</t>
+  </si>
+  <si>
+    <t>7.0-6.9</t>
+  </si>
+  <si>
+    <t>7.5-6.5-0.1</t>
   </si>
   <si>
     <t>6.9-7.1</t>
   </si>
   <si>
-    <t>6.6-7.4-0.1</t>
-  </si>
-  <si>
-    <t>6.5-7.5</t>
-  </si>
-  <si>
-    <t>5.8-8.2-0.1</t>
-  </si>
-  <si>
-    <t>5.4-8.5</t>
-  </si>
-  <si>
-    <t>4.0-10.0</t>
+    <t>6.8-7.1-0.1</t>
+  </si>
+  <si>
+    <t>6.1-7.9-0.1</t>
+  </si>
+  <si>
+    <t>5.9-8.0</t>
+  </si>
+  <si>
+    <t>3.6-10.4</t>
   </si>
   <si>
     <t>10-4</t>
   </si>
   <si>
-    <t>9-5</t>
+    <t>8-6</t>
   </si>
   <si>
     <t>7-7</t>
@@ -219,9 +225,6 @@
     <t>6-8</t>
   </si>
   <si>
-    <t>5-9</t>
-  </si>
-  <si>
     <t>4-10</t>
   </si>
   <si>
@@ -234,13 +237,16 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Robbie Wilston</t>
+  </si>
+  <si>
+    <t>Anthony Rizzo</t>
+  </si>
+  <si>
     <t>Kyle R</t>
   </si>
   <si>
-    <t>Anthony Rizzo</t>
-  </si>
-  <si>
-    <t>Robbie Wilston</t>
+    <t>Prahlad Singh</t>
   </si>
   <si>
     <t>Gigi Boguski</t>
@@ -249,46 +255,37 @@
     <t>Jacob Nichols</t>
   </si>
   <si>
-    <t>Prahlad Singh</t>
+    <t>Grace Olenzak</t>
   </si>
   <si>
     <t>Jaime Cunningham</t>
   </si>
   <si>
-    <t>Grace Olenzak</t>
-  </si>
-  <si>
     <t>Marvin Ta</t>
   </si>
   <si>
     <t>Abhishek Joshi</t>
   </si>
   <si>
-    <t>↑5</t>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↑10</t>
+  </si>
+  <si>
+    <t>↓2</t>
   </si>
   <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓8</t>
+    <t>↓10</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -307,6 +304,9 @@
   </si>
   <si>
     <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
   </si>
   <si>
     <t>Week</t>
@@ -731,10 +731,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -746,13 +746,13 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -766,13 +766,13 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -781,16 +781,16 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
       </c>
       <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
         <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -839,7 +839,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -851,13 +851,13 @@
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
         <v>11</v>
@@ -874,7 +874,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -886,7 +886,7 @@
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
@@ -903,16 +903,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -921,16 +921,16 @@
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -944,7 +944,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -956,7 +956,7 @@
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
@@ -973,34 +973,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
         <v>14</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1008,34 +1008,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
       <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
         <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
       </c>
       <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" t="s">
         <v>13</v>
       </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>11</v>
-      </c>
-      <c r="K10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1043,16 +1043,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1061,16 +1061,16 @@
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1088,13 +1088,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1102,10 +1102,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1116,13 +1116,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1130,10 +1130,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1147,10 +1147,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1158,13 +1158,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1186,13 +1186,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1200,10 +1200,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -1214,13 +1214,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1231,10 +1231,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1252,16 +1252,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>-0.5999999999999996</v>
+        <v>-1</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1286,16 +1286,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D3">
-        <v>-0.2999999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1323,13 +1323,13 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D5">
-        <v>-1.5</v>
+        <v>-1.1</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1337,13 +1337,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D6">
-        <v>0.3999999999999999</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1357,10 +1357,10 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="D7">
-        <v>-0.3999999999999999</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1374,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="D8">
         <v>0.3999999999999999</v>
@@ -1391,10 +1391,10 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="D9">
-        <v>0.3999999999999999</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1408,13 +1408,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="D10">
-        <v>-0.7000000000000002</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1431,7 +1431,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1449,40 +1449,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1490,28 +1490,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>60.5</v>
+        <v>73.8</v>
       </c>
       <c r="C2">
-        <v>20.3</v>
+        <v>15.4</v>
       </c>
       <c r="D2">
-        <v>10.6</v>
+        <v>5.8</v>
       </c>
       <c r="E2">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="F2">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1528,37 +1528,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C3">
-        <v>25.4</v>
+        <v>19.4</v>
       </c>
       <c r="D3">
-        <v>23.2</v>
+        <v>18.9</v>
       </c>
       <c r="E3">
-        <v>14.7</v>
+        <v>15.4</v>
       </c>
       <c r="F3">
-        <v>9.199999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>11.3</v>
       </c>
       <c r="H3">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="I3">
-        <v>2.3</v>
+        <v>5.9</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L3">
-        <v>93.3</v>
+        <v>84.90000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1566,227 +1566,227 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>17.4</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>25.6</v>
+        <v>19.1</v>
       </c>
       <c r="D4">
-        <v>19.7</v>
+        <v>16</v>
       </c>
       <c r="E4">
-        <v>14.5</v>
+        <v>17.2</v>
       </c>
       <c r="F4">
-        <v>9.699999999999999</v>
+        <v>10.8</v>
       </c>
       <c r="G4">
-        <v>5.6</v>
+        <v>10.9</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I4">
-        <v>2.4</v>
+        <v>5.9</v>
       </c>
       <c r="J4">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="K4">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="L4">
-        <v>92.5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="C5">
-        <v>11.2</v>
+        <v>13.6</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>14.6</v>
       </c>
       <c r="E5">
-        <v>17.4</v>
+        <v>13.1</v>
       </c>
       <c r="F5">
         <v>15.8</v>
       </c>
       <c r="G5">
-        <v>16.3</v>
+        <v>12.2</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>11.9</v>
       </c>
       <c r="I5">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="J5">
-        <v>4.6</v>
+        <v>5.8</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="L5">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>2.3</v>
       </c>
       <c r="C6">
-        <v>9.699999999999999</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>14.6</v>
+        <v>12.9</v>
       </c>
       <c r="E6">
-        <v>18.3</v>
+        <v>15.1</v>
       </c>
       <c r="F6">
-        <v>16.8</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>13.2</v>
       </c>
       <c r="H6">
-        <v>10.5</v>
+        <v>14.7</v>
       </c>
       <c r="I6">
-        <v>7.7</v>
+        <v>9.1</v>
       </c>
       <c r="J6">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="K6">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="L6">
-        <v>74.90000000000001</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="C7">
-        <v>3.1</v>
+        <v>8.6</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>13.9</v>
       </c>
       <c r="E7">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="F7">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="G7">
-        <v>16.7</v>
+        <v>14.9</v>
       </c>
       <c r="H7">
-        <v>18.1</v>
+        <v>13.8</v>
       </c>
       <c r="I7">
-        <v>17.1</v>
+        <v>10.3</v>
       </c>
       <c r="J7">
-        <v>10.5</v>
+        <v>7.9</v>
       </c>
       <c r="K7">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="L7">
-        <v>51.4</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="C8">
-        <v>2.9</v>
+        <v>7.6</v>
       </c>
       <c r="D8">
-        <v>5.5</v>
+        <v>11.4</v>
       </c>
       <c r="E8">
-        <v>9.1</v>
+        <v>13.5</v>
       </c>
       <c r="F8">
-        <v>14.4</v>
+        <v>12.6</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="H8">
-        <v>17.6</v>
+        <v>13.5</v>
       </c>
       <c r="I8">
-        <v>16.6</v>
+        <v>10.8</v>
       </c>
       <c r="J8">
-        <v>13.8</v>
+        <v>10.3</v>
       </c>
       <c r="K8">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="L8">
-        <v>48.6</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="F9">
-        <v>9.9</v>
+        <v>8.9</v>
       </c>
       <c r="G9">
-        <v>13.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H9">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="I9">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="J9">
-        <v>18.1</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>9.699999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="L9">
-        <v>34.5</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1794,37 +1794,37 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="C10">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="E10">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="F10">
-        <v>5.7</v>
+        <v>7.9</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>10.8</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="I10">
-        <v>17.9</v>
+        <v>22.8</v>
       </c>
       <c r="J10">
-        <v>26.8</v>
+        <v>28.9</v>
       </c>
       <c r="K10">
-        <v>18.8</v>
+        <v>8.9</v>
       </c>
       <c r="L10">
-        <v>23.5</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1841,28 +1841,28 @@
         <v>0.1</v>
       </c>
       <c r="E11">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="F11">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="G11">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H11">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="I11">
-        <v>8.300000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="J11">
-        <v>19.6</v>
+        <v>14.1</v>
       </c>
       <c r="K11">
-        <v>61.9</v>
+        <v>77.7</v>
       </c>
       <c r="L11">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
@@ -1872,270 +1872,300 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>57.49999999999999</v>
+        <v>59.9</v>
       </c>
       <c r="C2">
-        <v>85.2</v>
+        <v>84.7</v>
       </c>
       <c r="D2">
-        <v>92.7</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>97.3</v>
+        <v>96.3</v>
       </c>
       <c r="F2">
         <v>99.40000000000001</v>
       </c>
       <c r="G2">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="H2">
         <v>99.7</v>
       </c>
-      <c r="H2">
-        <v>99.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C3">
-        <v>97</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D3">
-        <v>71.8</v>
+        <v>72.3</v>
       </c>
       <c r="E3">
-        <v>77.7</v>
+        <v>76.8</v>
       </c>
       <c r="F3">
-        <v>85.39999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="G3">
-        <v>94.59999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="H3">
-        <v>93.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I3">
+        <v>84.89999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>89.5</v>
+        <v>87.8</v>
       </c>
       <c r="C4">
-        <v>82.89999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="D4">
-        <v>98.90000000000001</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="E4">
-        <v>91.5</v>
+        <v>91.8</v>
       </c>
       <c r="F4">
-        <v>98.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="G4">
-        <v>93</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="H4">
-        <v>92.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>81.10000000000001</v>
+      </c>
+      <c r="I4">
+        <v>81.89999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>27.5</v>
+        <v>94</v>
       </c>
       <c r="C5">
-        <v>83.89999999999999</v>
+        <v>60.09999999999999</v>
       </c>
       <c r="D5">
-        <v>59.7</v>
+        <v>70.39999999999999</v>
       </c>
       <c r="E5">
-        <v>70.89999999999999</v>
+        <v>48.8</v>
       </c>
       <c r="F5">
-        <v>60.6</v>
+        <v>63.1</v>
       </c>
       <c r="G5">
-        <v>73.59999999999999</v>
+        <v>51.7</v>
       </c>
       <c r="H5">
-        <v>76.09999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>70.5</v>
+      </c>
+      <c r="I5">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>49.2</v>
+        <v>48.2</v>
       </c>
       <c r="C6">
-        <v>48.2</v>
+        <v>47.7</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>37.4</v>
       </c>
       <c r="E6">
-        <v>54.3</v>
+        <v>56.49999999999999</v>
       </c>
       <c r="F6">
-        <v>48.2</v>
+        <v>52.2</v>
       </c>
       <c r="G6">
-        <v>78.8</v>
+        <v>79.10000000000001</v>
       </c>
       <c r="H6">
-        <v>73.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>72.8</v>
+      </c>
+      <c r="I6">
+        <v>71.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>94.09999999999999</v>
+        <v>28.7</v>
       </c>
       <c r="C7">
-        <v>57.99999999999999</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="D7">
-        <v>70.7</v>
+        <v>56.89999999999999</v>
       </c>
       <c r="E7">
-        <v>46.8</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="F7">
-        <v>61</v>
+        <v>54.1</v>
       </c>
       <c r="G7">
-        <v>48.6</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="H7">
-        <v>56.39999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>70.19999999999999</v>
+      </c>
+      <c r="I7">
+        <v>66.90000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>2.9</v>
+      </c>
+      <c r="C8">
+        <v>53.5</v>
+      </c>
+      <c r="D8">
+        <v>83.2</v>
+      </c>
+      <c r="E8">
+        <v>64.3</v>
+      </c>
+      <c r="F8">
+        <v>47</v>
+      </c>
+      <c r="G8">
+        <v>35.5</v>
+      </c>
+      <c r="H8">
+        <v>63.3</v>
+      </c>
+      <c r="I8">
+        <v>62.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>4.2</v>
-      </c>
-      <c r="C8">
+      <c r="B9">
+        <v>4.100000000000001</v>
+      </c>
+      <c r="C9">
         <v>10</v>
       </c>
-      <c r="D8">
-        <v>53.40000000000001</v>
-      </c>
-      <c r="E8">
-        <v>62.9</v>
-      </c>
-      <c r="F8">
-        <v>43.8</v>
-      </c>
-      <c r="G8">
+      <c r="D9">
+        <v>50.7</v>
+      </c>
+      <c r="E9">
+        <v>61.2</v>
+      </c>
+      <c r="F9">
+        <v>44.1</v>
+      </c>
+      <c r="G9">
         <v>48.1</v>
       </c>
-      <c r="H8">
-        <v>47.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>2.9</v>
-      </c>
-      <c r="C9">
-        <v>55.50000000000001</v>
-      </c>
-      <c r="D9">
-        <v>80.30000000000001</v>
-      </c>
-      <c r="E9">
-        <v>64.60000000000001</v>
-      </c>
-      <c r="F9">
-        <v>46.40000000000001</v>
-      </c>
-      <c r="G9">
-        <v>36.7</v>
-      </c>
       <c r="H9">
-        <v>36.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>28.5</v>
+      </c>
+      <c r="I9">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B10">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="D10">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="E10">
-        <v>23</v>
+        <v>20.9</v>
       </c>
       <c r="F10">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="G10">
-        <v>22.4</v>
+        <v>19.9</v>
       </c>
       <c r="H10">
-        <v>20.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>27.5</v>
+      </c>
+      <c r="I10">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2143,22 +2173,25 @@
         <v>99.90000000000001</v>
       </c>
       <c r="C11">
-        <v>73.3</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="D11">
-        <v>34.7</v>
+        <v>35.09999999999999</v>
       </c>
       <c r="E11">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="F11">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>4.2</v>
+        <v>1.4</v>
+      </c>
+      <c r="I11">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>
@@ -2176,28 +2209,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2205,25 +2238,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D2">
-        <v>135.5333333333333</v>
+        <v>132.0914285714286</v>
       </c>
       <c r="E2">
-        <v>813.2</v>
+        <v>924.6400000000001</v>
       </c>
       <c r="F2">
         <v>99.59999999999999</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2231,25 +2264,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C3">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D3">
-        <v>116.5766666666667</v>
+        <v>115.7857142857143</v>
       </c>
       <c r="E3">
-        <v>699.46</v>
+        <v>810.5</v>
       </c>
       <c r="F3">
-        <v>93.30000000000001</v>
+        <v>84.89999999999999</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2257,155 +2290,155 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D4">
-        <v>127.6433333333333</v>
+        <v>122.7542857142857</v>
       </c>
       <c r="E4">
-        <v>765.86</v>
+        <v>859.2799999999999</v>
       </c>
       <c r="F4">
-        <v>92.5</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D5">
-        <v>121.2166666666667</v>
+        <v>128.3885714285714</v>
       </c>
       <c r="E5">
-        <v>727.3</v>
+        <v>898.72</v>
       </c>
       <c r="F5">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6">
-        <v>0.3333333333333333</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D6">
-        <v>133.63</v>
+        <v>114.2371428571429</v>
       </c>
       <c r="E6">
-        <v>801.78</v>
+        <v>799.66</v>
       </c>
       <c r="F6">
-        <v>74.90000000000001</v>
+        <v>71.5</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D7">
-        <v>111.2</v>
+        <v>123.9114285714286</v>
       </c>
       <c r="E7">
-        <v>667.2</v>
+        <v>867.38</v>
       </c>
       <c r="F7">
-        <v>51.4</v>
+        <v>66.5</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D8">
-        <v>109.9766666666667</v>
+        <v>121.62</v>
       </c>
       <c r="E8">
-        <v>659.86</v>
+        <v>851.34</v>
       </c>
       <c r="F8">
-        <v>48.6</v>
+        <v>63.6</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D9">
-        <v>112.8133333333333</v>
+        <v>108.7485714285714</v>
       </c>
       <c r="E9">
-        <v>676.88</v>
+        <v>761.24</v>
       </c>
       <c r="F9">
-        <v>34.5</v>
+        <v>30.6</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2413,25 +2446,25 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D10">
-        <v>104.9</v>
+        <v>106.3514285714286</v>
       </c>
       <c r="E10">
-        <v>629.4</v>
+        <v>744.46</v>
       </c>
       <c r="F10">
-        <v>23.5</v>
+        <v>27.9</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2439,25 +2472,25 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C11">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D11">
-        <v>100.0466666666667</v>
+        <v>98.99142857142856</v>
       </c>
       <c r="E11">
-        <v>600.28</v>
+        <v>692.9399999999999</v>
       </c>
       <c r="F11">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2475,19 +2508,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2495,19 +2528,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2518,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3">
         <v>16</v>
@@ -2527,7 +2560,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2535,19 +2568,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2555,19 +2588,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2575,19 +2608,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2595,19 +2628,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7">
-        <v>-2</v>
-      </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2615,19 +2648,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D8">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2635,19 +2668,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2658,13 +2691,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D10">
-        <v>-13</v>
+        <v>-23</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
         <v>87</v>
@@ -2678,16 +2711,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D11">
-        <v>-22</v>
+        <v>-24</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2697,62 +2730,68 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2774,167 +2813,188 @@
       <c r="G3">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="H3">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>-7</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>-2</v>
+      </c>
+      <c r="E4">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>-4</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>-5</v>
+      </c>
+      <c r="G5">
+        <v>-2</v>
+      </c>
+      <c r="H5">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="I5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
         <v>-1</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>-5</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>0</v>
-      </c>
-      <c r="E5">
-        <v>-1</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>-2</v>
       </c>
       <c r="E6">
         <v>-1</v>
       </c>
       <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>-2</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
         <v>-4</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>2</v>
       </c>
-      <c r="H6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
+      <c r="H7">
         <v>2</v>
       </c>
-      <c r="B7">
-        <v>-4</v>
-      </c>
-      <c r="C7">
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
         <v>2</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>-5</v>
-      </c>
-      <c r="G7">
-        <v>-2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
       </c>
       <c r="C8">
         <v>-1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>-8</v>
+      </c>
+      <c r="H8">
         <v>-6</v>
       </c>
-      <c r="G8">
-        <v>-7</v>
-      </c>
-      <c r="H8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>-1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="G9">
-        <v>-8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-7</v>
+      </c>
+      <c r="H9">
+        <v>-7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2956,11 +3016,14 @@
       <c r="G10">
         <v>-13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10">
+        <v>-23</v>
+      </c>
+      <c r="I10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2982,8 +3045,11 @@
       <c r="G11">
         <v>-22</v>
       </c>
-      <c r="H11" t="s">
-        <v>88</v>
+      <c r="H11">
+        <v>-24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2993,7 +3059,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3079,25 +3145,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
         <v>8</v>
       </c>
-      <c r="E4">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
       <c r="G4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3105,25 +3171,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="F5">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
         <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3131,24 +3197,76 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>-6</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
         <v>3</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>-5</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
         <v>8</v>
       </c>
     </row>

--- a/leagues/0755 Fantasy Football 2025.xlsx
+++ b/leagues/0755 Fantasy Football 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="102">
   <si>
     <t>Michael, The Baker</t>
   </si>
@@ -162,6 +162,9 @@
     <t>Playoff_Chance_Pct</t>
   </si>
   <si>
+    <t>Last_Place_Chance_Pct</t>
+  </si>
+  <si>
     <t>Expected_Final_Record</t>
   </si>
   <si>
@@ -183,34 +186,31 @@
     <t>1-6</t>
   </si>
   <si>
-    <t>10.1-3.8</t>
-  </si>
-  <si>
-    <t>8.1-5.8-0.1</t>
-  </si>
-  <si>
-    <t>7.7-6.2</t>
-  </si>
-  <si>
-    <t>7.0-6.9</t>
-  </si>
-  <si>
-    <t>7.5-6.5-0.1</t>
-  </si>
-  <si>
-    <t>6.9-7.1</t>
-  </si>
-  <si>
-    <t>6.8-7.1-0.1</t>
-  </si>
-  <si>
-    <t>6.1-7.9-0.1</t>
-  </si>
-  <si>
-    <t>5.9-8.0</t>
-  </si>
-  <si>
-    <t>3.6-10.4</t>
+    <t>10.2-3.8</t>
+  </si>
+  <si>
+    <t>8.2-5.8-0.1</t>
+  </si>
+  <si>
+    <t>7.8-6.2</t>
+  </si>
+  <si>
+    <t>7.4-6.5-0.1</t>
+  </si>
+  <si>
+    <t>6.9-7.0</t>
+  </si>
+  <si>
+    <t>6.8-7.1</t>
+  </si>
+  <si>
+    <t>6.0-8.0</t>
+  </si>
+  <si>
+    <t>6.0-7.9</t>
+  </si>
+  <si>
+    <t>3.5-10.4</t>
   </si>
   <si>
     <t>10-4</t>
@@ -225,7 +225,7 @@
     <t>6-8</t>
   </si>
   <si>
-    <t>4-10</t>
+    <t>3-11</t>
   </si>
   <si>
     <t>Owners</t>
@@ -1490,28 +1490,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>73.8</v>
+        <v>72.2</v>
       </c>
       <c r="C2">
-        <v>15.4</v>
+        <v>16.7</v>
       </c>
       <c r="D2">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="E2">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="F2">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="G2">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1528,37 +1528,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="C3">
-        <v>19.4</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>18.9</v>
+        <v>20.7</v>
       </c>
       <c r="E3">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="F3">
-        <v>11.6</v>
+        <v>12.1</v>
       </c>
       <c r="G3">
-        <v>11.3</v>
+        <v>10.4</v>
       </c>
       <c r="H3">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I3">
-        <v>5.9</v>
+        <v>4.4</v>
       </c>
       <c r="J3">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="K3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L3">
-        <v>84.90000000000001</v>
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1566,151 +1566,151 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="C4">
-        <v>19.1</v>
+        <v>20.8</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="E4">
-        <v>17.2</v>
+        <v>14.6</v>
       </c>
       <c r="F4">
-        <v>10.8</v>
+        <v>13.2</v>
       </c>
       <c r="G4">
-        <v>10.9</v>
+        <v>11.4</v>
       </c>
       <c r="H4">
-        <v>8.800000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="I4">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="J4">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="K4">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="L4">
-        <v>81</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="C5">
-        <v>13.6</v>
+        <v>9.6</v>
       </c>
       <c r="D5">
-        <v>14.6</v>
+        <v>14.2</v>
       </c>
       <c r="E5">
-        <v>13.1</v>
+        <v>16.6</v>
       </c>
       <c r="F5">
-        <v>15.8</v>
+        <v>15.2</v>
       </c>
       <c r="G5">
-        <v>12.2</v>
+        <v>15.9</v>
       </c>
       <c r="H5">
-        <v>11.9</v>
+        <v>10.7</v>
       </c>
       <c r="I5">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J5">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="K5">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L5">
-        <v>73</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D6">
-        <v>12.9</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="F6">
-        <v>16</v>
+        <v>16.3</v>
       </c>
       <c r="G6">
-        <v>13.2</v>
+        <v>15</v>
       </c>
       <c r="H6">
-        <v>14.7</v>
+        <v>13.5</v>
       </c>
       <c r="I6">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J6">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="K6">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="L6">
-        <v>71.5</v>
+        <v>69.90000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="C7">
-        <v>8.6</v>
+        <v>10.4</v>
       </c>
       <c r="D7">
+        <v>13.7</v>
+      </c>
+      <c r="E7">
+        <v>12.9</v>
+      </c>
+      <c r="F7">
         <v>13.9</v>
       </c>
-      <c r="E7">
-        <v>12.5</v>
-      </c>
-      <c r="F7">
-        <v>14.8</v>
-      </c>
       <c r="G7">
-        <v>14.9</v>
+        <v>11.9</v>
       </c>
       <c r="H7">
-        <v>13.8</v>
+        <v>14.1</v>
       </c>
       <c r="I7">
         <v>10.3</v>
       </c>
       <c r="J7">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="K7">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="L7">
-        <v>66.5</v>
+        <v>67.2</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1718,37 +1718,37 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="C8">
-        <v>7.6</v>
+        <v>8.9</v>
       </c>
       <c r="D8">
-        <v>11.4</v>
+        <v>10.7</v>
       </c>
       <c r="E8">
         <v>13.5</v>
       </c>
       <c r="F8">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="G8">
-        <v>15.9</v>
+        <v>12.7</v>
       </c>
       <c r="H8">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="I8">
-        <v>10.8</v>
+        <v>12.9</v>
       </c>
       <c r="J8">
-        <v>10.3</v>
+        <v>8</v>
       </c>
       <c r="K8">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L8">
-        <v>63.6</v>
+        <v>62.1</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1756,37 +1756,37 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C9">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="D9">
         <v>3.8</v>
       </c>
       <c r="E9">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="F9">
-        <v>8.9</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>9.300000000000001</v>
+        <v>10.7</v>
       </c>
       <c r="H9">
-        <v>16.5</v>
+        <v>15.3</v>
       </c>
       <c r="I9">
-        <v>21.3</v>
+        <v>20.9</v>
       </c>
       <c r="J9">
-        <v>24</v>
+        <v>27.1</v>
       </c>
       <c r="K9">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="L9">
-        <v>30.6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1794,37 +1794,37 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="D10">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="E10">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="F10">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="G10">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="H10">
-        <v>11.5</v>
+        <v>15.6</v>
       </c>
       <c r="I10">
-        <v>22.8</v>
+        <v>23.5</v>
       </c>
       <c r="J10">
-        <v>28.9</v>
+        <v>24.3</v>
       </c>
       <c r="K10">
-        <v>8.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L10">
-        <v>27.9</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1838,31 +1838,31 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F11">
         <v>0.3</v>
       </c>
       <c r="G11">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H11">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="I11">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="J11">
-        <v>14.1</v>
+        <v>15.9</v>
       </c>
       <c r="K11">
-        <v>77.7</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="L11">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -1909,28 +1909,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>59.9</v>
+        <v>60.7</v>
       </c>
       <c r="C2">
-        <v>84.7</v>
+        <v>83.8</v>
       </c>
       <c r="D2">
-        <v>93</v>
+        <v>92.2</v>
       </c>
       <c r="E2">
-        <v>96.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F2">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="G2">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="H2">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="I2">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1938,28 +1938,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C3">
-        <v>95.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="D3">
-        <v>72.3</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E3">
         <v>76.8</v>
       </c>
       <c r="F3">
-        <v>85.3</v>
+        <v>85.7</v>
       </c>
       <c r="G3">
-        <v>94.3</v>
+        <v>94</v>
       </c>
       <c r="H3">
-        <v>85</v>
+        <v>85.2</v>
       </c>
       <c r="I3">
-        <v>84.89999999999999</v>
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1967,28 +1967,28 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>87.8</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="C4">
-        <v>82.5</v>
+        <v>85.2</v>
       </c>
       <c r="D4">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="E4">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="F4">
         <v>97.89999999999999</v>
       </c>
-      <c r="E4">
-        <v>91.8</v>
-      </c>
-      <c r="F4">
-        <v>97.2</v>
-      </c>
       <c r="G4">
-        <v>92.40000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="H4">
-        <v>81.10000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="I4">
-        <v>81.89999999999999</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1996,28 +1996,28 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>94</v>
+        <v>94.69999999999999</v>
       </c>
       <c r="C5">
-        <v>60.09999999999999</v>
+        <v>57.9</v>
       </c>
       <c r="D5">
-        <v>70.39999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="E5">
-        <v>48.8</v>
+        <v>49</v>
       </c>
       <c r="F5">
-        <v>63.1</v>
+        <v>63.2</v>
       </c>
       <c r="G5">
-        <v>51.7</v>
+        <v>51.1</v>
       </c>
       <c r="H5">
-        <v>70.5</v>
+        <v>72.2</v>
       </c>
       <c r="I5">
-        <v>72.5</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2025,28 +2025,28 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>48.2</v>
+        <v>45.8</v>
       </c>
       <c r="C6">
-        <v>47.7</v>
+        <v>46.8</v>
       </c>
       <c r="D6">
-        <v>37.4</v>
+        <v>39</v>
       </c>
       <c r="E6">
-        <v>56.49999999999999</v>
+        <v>54.50000000000001</v>
       </c>
       <c r="F6">
-        <v>52.2</v>
+        <v>50.3</v>
       </c>
       <c r="G6">
-        <v>79.10000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="H6">
-        <v>72.8</v>
+        <v>74.5</v>
       </c>
       <c r="I6">
-        <v>71.7</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2054,28 +2054,28 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>28.7</v>
+        <v>26.8</v>
       </c>
       <c r="C7">
-        <v>86.09999999999999</v>
+        <v>87.7</v>
       </c>
       <c r="D7">
-        <v>56.89999999999999</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="E7">
-        <v>72.59999999999999</v>
+        <v>71</v>
       </c>
       <c r="F7">
-        <v>54.1</v>
+        <v>57.59999999999999</v>
       </c>
       <c r="G7">
-        <v>75.40000000000001</v>
+        <v>74.7</v>
       </c>
       <c r="H7">
-        <v>70.19999999999999</v>
+        <v>70.89999999999999</v>
       </c>
       <c r="I7">
-        <v>66.90000000000001</v>
+        <v>67.7</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2083,28 +2083,28 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="C8">
-        <v>53.5</v>
+        <v>53.90000000000001</v>
       </c>
       <c r="D8">
-        <v>83.2</v>
+        <v>84.3</v>
       </c>
       <c r="E8">
-        <v>64.3</v>
+        <v>64.8</v>
       </c>
       <c r="F8">
-        <v>47</v>
+        <v>48.2</v>
       </c>
       <c r="G8">
-        <v>35.5</v>
+        <v>34.1</v>
       </c>
       <c r="H8">
-        <v>63.3</v>
+        <v>59.9</v>
       </c>
       <c r="I8">
-        <v>62.2</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2112,28 +2112,28 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>4.100000000000001</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="D9">
-        <v>50.7</v>
+        <v>57.2</v>
       </c>
       <c r="E9">
-        <v>61.2</v>
+        <v>58.59999999999999</v>
       </c>
       <c r="F9">
-        <v>44.1</v>
+        <v>42.7</v>
       </c>
       <c r="G9">
         <v>48.1</v>
       </c>
       <c r="H9">
-        <v>28.5</v>
+        <v>30.2</v>
       </c>
       <c r="I9">
-        <v>30.4</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2141,28 +2141,28 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>74.59999999999999</v>
+        <v>75.5</v>
       </c>
       <c r="C10">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="D10">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="E10">
-        <v>20.9</v>
+        <v>25.2</v>
       </c>
       <c r="F10">
-        <v>51.6</v>
+        <v>51.1</v>
       </c>
       <c r="G10">
-        <v>19.9</v>
+        <v>23.1</v>
       </c>
       <c r="H10">
+        <v>25.9</v>
+      </c>
+      <c r="I10">
         <v>27.5</v>
-      </c>
-      <c r="I10">
-        <v>28.5</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2170,28 +2170,28 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="C11">
-        <v>75.09999999999999</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D11">
-        <v>35.09999999999999</v>
+        <v>32.4</v>
       </c>
       <c r="E11">
-        <v>10.8</v>
+        <v>11.6</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="H11">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="I11">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -2201,13 +2201,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -2232,13 +2232,16 @@
       <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2">
         <v>0.8571428571428571</v>
@@ -2250,21 +2253,24 @@
         <v>924.6400000000001</v>
       </c>
       <c r="F2">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="G2" t="s">
-        <v>53</v>
+        <v>99.40000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3">
         <v>0.7142857142857143</v>
@@ -2276,21 +2282,24 @@
         <v>810.5</v>
       </c>
       <c r="F3">
-        <v>84.89999999999999</v>
-      </c>
-      <c r="G3" t="s">
-        <v>54</v>
+        <v>86.40000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.1</v>
       </c>
       <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>0.5714285714285714</v>
@@ -2302,99 +2311,111 @@
         <v>859.2799999999999</v>
       </c>
       <c r="F4">
-        <v>81</v>
-      </c>
-      <c r="G4" t="s">
-        <v>55</v>
+        <v>83.5</v>
+      </c>
+      <c r="G4">
+        <v>0.5</v>
       </c>
       <c r="H4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
       </c>
       <c r="C5">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D5">
+        <v>114.2371428571429</v>
+      </c>
+      <c r="E5">
+        <v>799.66</v>
+      </c>
+      <c r="F5">
+        <v>73.3</v>
+      </c>
+      <c r="G5">
+        <v>0.4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
         <v>0.4285714285714285</v>
       </c>
-      <c r="D5">
-        <v>128.3885714285714</v>
-      </c>
-      <c r="E5">
-        <v>898.72</v>
-      </c>
-      <c r="F5">
-        <v>73</v>
-      </c>
-      <c r="G5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="D6">
+        <v>123.9114285714286</v>
+      </c>
+      <c r="E6">
+        <v>867.38</v>
+      </c>
+      <c r="F6">
+        <v>69.89999999999999</v>
+      </c>
+      <c r="G6">
+        <v>1.1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="D6">
-        <v>114.2371428571429</v>
-      </c>
-      <c r="E6">
-        <v>799.66</v>
-      </c>
-      <c r="F6">
-        <v>71.5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7">
         <v>0.4285714285714285</v>
       </c>
       <c r="D7">
-        <v>123.9114285714286</v>
+        <v>128.3885714285714</v>
       </c>
       <c r="E7">
-        <v>867.38</v>
+        <v>898.72</v>
       </c>
       <c r="F7">
-        <v>66.5</v>
-      </c>
-      <c r="G7" t="s">
+        <v>67.2</v>
+      </c>
+      <c r="G7">
+        <v>1.1</v>
+      </c>
+      <c r="H7" t="s">
         <v>58</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>0.4285714285714285</v>
@@ -2406,21 +2427,24 @@
         <v>851.34</v>
       </c>
       <c r="F8">
-        <v>63.6</v>
-      </c>
-      <c r="G8" t="s">
+        <v>62.1</v>
+      </c>
+      <c r="G8">
+        <v>2.5</v>
+      </c>
+      <c r="H8" t="s">
         <v>59</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>0.4285714285714285</v>
@@ -2432,21 +2456,24 @@
         <v>761.24</v>
       </c>
       <c r="F9">
-        <v>30.6</v>
-      </c>
-      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>7.7</v>
+      </c>
+      <c r="H9" t="s">
         <v>60</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10">
         <v>0.4285714285714285</v>
@@ -2458,21 +2485,24 @@
         <v>744.46</v>
       </c>
       <c r="F10">
-        <v>27.9</v>
-      </c>
-      <c r="G10" t="s">
+        <v>28.4</v>
+      </c>
+      <c r="G10">
+        <v>8.200000000000001</v>
+      </c>
+      <c r="H10" t="s">
         <v>61</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11">
         <v>0.1428571428571428</v>
@@ -2484,12 +2514,15 @@
         <v>692.9399999999999</v>
       </c>
       <c r="F11">
-        <v>1.4</v>
-      </c>
-      <c r="G11" t="s">
+        <v>0.8</v>
+      </c>
+      <c r="G11">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="H11" t="s">
         <v>62</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>67</v>
       </c>
     </row>

--- a/leagues/0755 Fantasy Football 2025.xlsx
+++ b/leagues/0755 Fantasy Football 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="109">
   <si>
     <t>Michael, The Baker</t>
   </si>
@@ -54,22 +54,25 @@
     <t>AJ's Awesome Team</t>
   </si>
   <si>
-    <t>6-1-0</t>
-  </si>
-  <si>
-    <t>5-2-0</t>
-  </si>
-  <si>
-    <t>3-4-0</t>
-  </si>
-  <si>
-    <t>4-3-0</t>
-  </si>
-  <si>
-    <t>2-5-0</t>
-  </si>
-  <si>
-    <t>1-6-0</t>
+    <t>7-1-0</t>
+  </si>
+  <si>
+    <t>5-3-0</t>
+  </si>
+  <si>
+    <t>3-5-0</t>
+  </si>
+  <si>
+    <t>4-4-0</t>
+  </si>
+  <si>
+    <t>2-6-0</t>
+  </si>
+  <si>
+    <t>6-2-0</t>
+  </si>
+  <si>
+    <t>1-7-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -147,6 +150,9 @@
     <t>Week_8</t>
   </si>
   <si>
+    <t>Week_9</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -171,49 +177,58 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>6-1</t>
-  </si>
-  <si>
-    <t>5-2</t>
-  </si>
-  <si>
-    <t>4-3</t>
-  </si>
-  <si>
-    <t>3-4</t>
-  </si>
-  <si>
-    <t>1-6</t>
-  </si>
-  <si>
-    <t>10.2-3.8</t>
+    <t>7-1</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>4-4</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>10.8-3.2</t>
+  </si>
+  <si>
+    <t>8.6-5.4-0.1</t>
   </si>
   <si>
     <t>8.2-5.8-0.1</t>
   </si>
   <si>
-    <t>7.8-6.2</t>
-  </si>
-  <si>
-    <t>7.4-6.5-0.1</t>
-  </si>
-  <si>
-    <t>6.9-7.0</t>
-  </si>
-  <si>
-    <t>6.8-7.1</t>
-  </si>
-  <si>
-    <t>6.0-8.0</t>
-  </si>
-  <si>
-    <t>6.0-7.9</t>
-  </si>
-  <si>
-    <t>3.5-10.4</t>
-  </si>
-  <si>
-    <t>10-4</t>
+    <t>7.2-6.8</t>
+  </si>
+  <si>
+    <t>7.3-6.6</t>
+  </si>
+  <si>
+    <t>6.3-7.7</t>
+  </si>
+  <si>
+    <t>6.7-7.2</t>
+  </si>
+  <si>
+    <t>6.1-7.9</t>
+  </si>
+  <si>
+    <t>5.5-8.5-0.1</t>
+  </si>
+  <si>
+    <t>3.2-10.8</t>
+  </si>
+  <si>
+    <t>11-3</t>
+  </si>
+  <si>
+    <t>9-5</t>
   </si>
   <si>
     <t>8-6</t>
@@ -246,18 +261,18 @@
     <t>Kyle R</t>
   </si>
   <si>
+    <t>Gigi Boguski</t>
+  </si>
+  <si>
     <t>Prahlad Singh</t>
   </si>
   <si>
-    <t>Gigi Boguski</t>
+    <t>Grace Olenzak</t>
   </si>
   <si>
     <t>Jacob Nichols</t>
   </si>
   <si>
-    <t>Grace Olenzak</t>
-  </si>
-  <si>
     <t>Jaime Cunningham</t>
   </si>
   <si>
@@ -267,24 +282,27 @@
     <t>Abhishek Joshi</t>
   </si>
   <si>
-    <t>↑8</t>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓7</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↑10</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
     <t>↓10</t>
   </si>
   <si>
@@ -307,6 +325,9 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
   </si>
   <si>
     <t>Week</t>
@@ -731,28 +752,28 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -766,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -775,7 +796,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -790,7 +811,7 @@
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -801,7 +822,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -833,34 +854,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
         <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -868,28 +889,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -906,7 +927,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -915,7 +936,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -930,7 +951,7 @@
         <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -938,34 +959,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -976,31 +997,31 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1011,22 +1032,22 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
@@ -1035,7 +1056,7 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1049,7 +1070,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1088,13 +1109,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1102,10 +1123,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1116,13 +1137,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1133,7 +1154,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1144,13 +1165,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1158,13 +1179,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1172,13 +1193,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1186,13 +1207,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1203,10 +1224,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1217,10 +1238,10 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1231,7 +1252,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1252,16 +1273,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1272,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>-1</v>
@@ -1289,13 +1310,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="D3">
-        <v>1.2</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1303,16 +1324,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1320,16 +1341,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D5">
-        <v>-1.1</v>
+        <v>1.3</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1337,16 +1358,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D6">
-        <v>-0.2000000000000002</v>
+        <v>-1.8</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1357,13 +1378,13 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="D7">
-        <v>-0.6000000000000001</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1371,16 +1392,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>0.3999999999999999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1388,13 +1409,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D9">
-        <v>0.1000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1425,13 +1446,13 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>0.6000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1449,40 +1470,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1490,28 +1511,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>72.2</v>
+        <v>87.8</v>
       </c>
       <c r="C2">
-        <v>16.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D2">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="F2">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="G2">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="H2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1520,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1528,151 +1549,151 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.5</v>
+        <v>6.1</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>31.5</v>
       </c>
       <c r="D3">
-        <v>20.7</v>
+        <v>21.7</v>
       </c>
       <c r="E3">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="F3">
-        <v>12.1</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>10.4</v>
+        <v>7.4</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="I3">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
       <c r="J3">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="K3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>86.40000000000001</v>
+        <v>93.8</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>7.1</v>
+        <v>2.2</v>
       </c>
       <c r="C4">
-        <v>20.8</v>
+        <v>23.4</v>
       </c>
       <c r="D4">
-        <v>16.4</v>
+        <v>20.7</v>
       </c>
       <c r="E4">
-        <v>14.6</v>
+        <v>18.4</v>
       </c>
       <c r="F4">
-        <v>13.2</v>
+        <v>14.8</v>
       </c>
       <c r="G4">
-        <v>11.4</v>
+        <v>10.4</v>
       </c>
       <c r="H4">
-        <v>7.3</v>
+        <v>5.9</v>
       </c>
       <c r="I4">
-        <v>6.2</v>
+        <v>3.2</v>
       </c>
       <c r="J4">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>83.5</v>
+        <v>89.90000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="C5">
-        <v>9.6</v>
+        <v>12.2</v>
       </c>
       <c r="D5">
-        <v>14.2</v>
+        <v>15.9</v>
       </c>
       <c r="E5">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="F5">
-        <v>15.2</v>
+        <v>14.4</v>
       </c>
       <c r="G5">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="H5">
-        <v>10.7</v>
+        <v>11.6</v>
       </c>
       <c r="I5">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="J5">
-        <v>6.6</v>
+        <v>3.7</v>
       </c>
       <c r="K5">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>73.3</v>
+        <v>76.09999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="C6">
-        <v>8.699999999999999</v>
+        <v>12.4</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>16.9</v>
       </c>
       <c r="E6">
-        <v>14.7</v>
+        <v>17.2</v>
       </c>
       <c r="F6">
-        <v>16.3</v>
+        <v>16.9</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>10.8</v>
       </c>
       <c r="H6">
-        <v>13.5</v>
+        <v>10.9</v>
       </c>
       <c r="I6">
-        <v>9.300000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J6">
-        <v>6.2</v>
+        <v>4.3</v>
       </c>
       <c r="K6">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="L6">
-        <v>69.90000000000001</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1680,151 +1701,151 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.4</v>
+        <v>0.1</v>
       </c>
       <c r="C7">
-        <v>10.4</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>13.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E7">
-        <v>12.9</v>
+        <v>11.4</v>
       </c>
       <c r="F7">
+        <v>14.8</v>
+      </c>
+      <c r="G7">
+        <v>15.4</v>
+      </c>
+      <c r="H7">
+        <v>17.4</v>
+      </c>
+      <c r="I7">
         <v>13.9</v>
       </c>
-      <c r="G7">
-        <v>11.9</v>
-      </c>
-      <c r="H7">
-        <v>14.1</v>
-      </c>
-      <c r="I7">
-        <v>10.3</v>
-      </c>
       <c r="J7">
-        <v>7.3</v>
+        <v>12.3</v>
       </c>
       <c r="K7">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>67.2</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>8.9</v>
+        <v>4.3</v>
       </c>
       <c r="D8">
-        <v>10.7</v>
+        <v>7.3</v>
       </c>
       <c r="E8">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>13.1</v>
+        <v>13.6</v>
       </c>
       <c r="G8">
-        <v>12.7</v>
+        <v>16.7</v>
       </c>
       <c r="H8">
-        <v>14.5</v>
+        <v>17.8</v>
       </c>
       <c r="I8">
-        <v>12.9</v>
+        <v>15.7</v>
       </c>
       <c r="J8">
-        <v>8</v>
+        <v>12.1</v>
       </c>
       <c r="K8">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="L8">
-        <v>62.1</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="D9">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="E9">
-        <v>4.6</v>
+        <v>7</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="G9">
-        <v>10.7</v>
+        <v>15.3</v>
       </c>
       <c r="H9">
-        <v>15.3</v>
+        <v>17.5</v>
       </c>
       <c r="I9">
-        <v>20.9</v>
+        <v>22.4</v>
       </c>
       <c r="J9">
-        <v>27.1</v>
+        <v>16.5</v>
       </c>
       <c r="K9">
-        <v>7.7</v>
+        <v>3.6</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>0.3</v>
       </c>
-      <c r="C10">
-        <v>2.3</v>
-      </c>
       <c r="D10">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="E10">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
       <c r="F10">
-        <v>7.2</v>
+        <v>3.5</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H10">
-        <v>15.6</v>
+        <v>13.7</v>
       </c>
       <c r="I10">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="J10">
-        <v>24.3</v>
+        <v>37.2</v>
       </c>
       <c r="K10">
-        <v>8.199999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="L10">
-        <v>28.4</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1841,28 +1862,28 @@
         <v>0</v>
       </c>
       <c r="E11">
+        <v>0.1</v>
+      </c>
+      <c r="F11">
         <v>0.2</v>
       </c>
-      <c r="F11">
-        <v>0.3</v>
-      </c>
       <c r="G11">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H11">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="J11">
-        <v>15.9</v>
+        <v>12.6</v>
       </c>
       <c r="K11">
-        <v>78.40000000000001</v>
+        <v>82.7</v>
       </c>
       <c r="L11">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -1872,68 +1893,74 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>60.7</v>
+        <v>61.7</v>
       </c>
       <c r="C2">
-        <v>83.8</v>
+        <v>84.3</v>
       </c>
       <c r="D2">
-        <v>92.2</v>
+        <v>91.5</v>
       </c>
       <c r="E2">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="F2">
         <v>99.3</v>
       </c>
       <c r="G2">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="H2">
         <v>99.7</v>
       </c>
-      <c r="H2">
-        <v>99.5</v>
-      </c>
       <c r="I2">
-        <v>99.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1941,257 +1968,284 @@
         <v>100</v>
       </c>
       <c r="C3">
-        <v>96.5</v>
+        <v>97.2</v>
       </c>
       <c r="D3">
-        <v>67.90000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="E3">
-        <v>76.8</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F3">
-        <v>85.7</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="G3">
-        <v>94</v>
+        <v>94.69999999999999</v>
       </c>
       <c r="H3">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="I3">
-        <v>87.09999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="J3">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>93.7</v>
+      </c>
+      <c r="C4">
+        <v>55.90000000000001</v>
+      </c>
+      <c r="D4">
+        <v>73</v>
+      </c>
+      <c r="E4">
+        <v>48.3</v>
+      </c>
+      <c r="F4">
+        <v>61.5</v>
+      </c>
+      <c r="G4">
+        <v>48.5</v>
+      </c>
+      <c r="H4">
+        <v>71.89999999999999</v>
+      </c>
+      <c r="I4">
+        <v>88.2</v>
+      </c>
+      <c r="J4">
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>26.7</v>
+      </c>
+      <c r="C5">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="D5">
+        <v>58.7</v>
+      </c>
+      <c r="E5">
+        <v>72.39999999999999</v>
+      </c>
+      <c r="F5">
+        <v>53.2</v>
+      </c>
+      <c r="G5">
+        <v>77.10000000000001</v>
+      </c>
+      <c r="H5">
+        <v>69</v>
+      </c>
+      <c r="I5">
+        <v>80.80000000000001</v>
+      </c>
+      <c r="J5">
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>89.90000000000001</v>
       </c>
-      <c r="C4">
-        <v>85.2</v>
-      </c>
-      <c r="D4">
+      <c r="C6">
+        <v>84.5</v>
+      </c>
+      <c r="D6">
         <v>97.59999999999999</v>
       </c>
-      <c r="E4">
+      <c r="E6">
+        <v>91</v>
+      </c>
+      <c r="F6">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="G6">
         <v>91.40000000000001</v>
       </c>
-      <c r="F4">
-        <v>97.89999999999999</v>
-      </c>
-      <c r="G4">
-        <v>93.8</v>
-      </c>
-      <c r="H4">
-        <v>80.5</v>
-      </c>
-      <c r="I4">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>94.69999999999999</v>
-      </c>
-      <c r="C5">
-        <v>57.9</v>
-      </c>
-      <c r="D5">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="E5">
-        <v>49</v>
-      </c>
-      <c r="F5">
-        <v>63.2</v>
-      </c>
-      <c r="G5">
-        <v>51.1</v>
-      </c>
-      <c r="H5">
-        <v>72.2</v>
-      </c>
-      <c r="I5">
-        <v>71.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
+      <c r="H6">
+        <v>82</v>
+      </c>
+      <c r="I6">
+        <v>76.3</v>
+      </c>
+      <c r="J6">
+        <v>77.40000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>45.8</v>
-      </c>
-      <c r="C6">
-        <v>46.8</v>
-      </c>
-      <c r="D6">
-        <v>39</v>
-      </c>
-      <c r="E6">
-        <v>54.50000000000001</v>
-      </c>
-      <c r="F6">
-        <v>50.3</v>
-      </c>
-      <c r="G6">
-        <v>77.7</v>
-      </c>
-      <c r="H6">
-        <v>74.5</v>
-      </c>
-      <c r="I6">
-        <v>70.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B7">
-        <v>26.8</v>
+        <v>44.6</v>
       </c>
       <c r="C7">
-        <v>87.7</v>
+        <v>48.6</v>
       </c>
       <c r="D7">
-        <v>55.00000000000001</v>
+        <v>32.7</v>
       </c>
       <c r="E7">
-        <v>71</v>
+        <v>53.8</v>
       </c>
       <c r="F7">
-        <v>57.59999999999999</v>
+        <v>49.5</v>
       </c>
       <c r="G7">
-        <v>74.7</v>
+        <v>78.3</v>
       </c>
       <c r="H7">
-        <v>70.89999999999999</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="I7">
-        <v>67.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>57.8</v>
+      </c>
+      <c r="J7">
+        <v>53.40000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>76</v>
+      </c>
+      <c r="C8">
+        <v>6.7</v>
+      </c>
+      <c r="D8">
+        <v>4.2</v>
+      </c>
+      <c r="E8">
+        <v>22.7</v>
+      </c>
+      <c r="F8">
+        <v>53.7</v>
+      </c>
+      <c r="G8">
+        <v>20.3</v>
+      </c>
+      <c r="H8">
+        <v>29.1</v>
+      </c>
+      <c r="I8">
+        <v>48.9</v>
+      </c>
+      <c r="J8">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>3.8</v>
       </c>
-      <c r="C8">
-        <v>53.90000000000001</v>
-      </c>
-      <c r="D8">
-        <v>84.3</v>
-      </c>
-      <c r="E8">
-        <v>64.8</v>
-      </c>
-      <c r="F8">
-        <v>48.2</v>
-      </c>
-      <c r="G8">
-        <v>34.1</v>
-      </c>
-      <c r="H8">
-        <v>59.9</v>
-      </c>
-      <c r="I8">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
+      <c r="C9">
+        <v>52.3</v>
+      </c>
+      <c r="D9">
+        <v>83.5</v>
+      </c>
+      <c r="E9">
+        <v>63.1</v>
+      </c>
+      <c r="F9">
+        <v>47.7</v>
+      </c>
+      <c r="G9">
+        <v>32.3</v>
+      </c>
+      <c r="H9">
+        <v>61.3</v>
+      </c>
+      <c r="I9">
+        <v>40.7</v>
+      </c>
+      <c r="J9">
+        <v>39.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>7.5</v>
-      </c>
-      <c r="D9">
-        <v>57.2</v>
-      </c>
-      <c r="E9">
-        <v>58.59999999999999</v>
-      </c>
-      <c r="F9">
-        <v>42.7</v>
-      </c>
-      <c r="G9">
-        <v>48.1</v>
-      </c>
-      <c r="H9">
-        <v>30.2</v>
-      </c>
-      <c r="I9">
-        <v>31.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B10">
-        <v>75.5</v>
+        <v>3.6</v>
       </c>
       <c r="C10">
-        <v>5.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D10">
-        <v>3.8</v>
+        <v>53</v>
       </c>
       <c r="E10">
-        <v>25.2</v>
+        <v>61.5</v>
       </c>
       <c r="F10">
-        <v>51.1</v>
+        <v>47.3</v>
       </c>
       <c r="G10">
-        <v>23.1</v>
+        <v>53.7</v>
       </c>
       <c r="H10">
-        <v>25.9</v>
+        <v>25.1</v>
       </c>
       <c r="I10">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>15.6</v>
+      </c>
+      <c r="J10">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="C11">
         <v>75.40000000000001</v>
       </c>
       <c r="D11">
-        <v>32.4</v>
+        <v>34</v>
       </c>
       <c r="E11">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="G11">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="H11">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="I11">
-        <v>1.5</v>
+        <v>0.3</v>
+      </c>
+      <c r="J11">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -2209,31 +2263,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2241,28 +2295,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2">
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="D2">
-        <v>132.0914285714286</v>
+        <v>136.99</v>
       </c>
       <c r="E2">
-        <v>924.6400000000001</v>
+        <v>1095.92</v>
       </c>
       <c r="F2">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2270,115 +2324,115 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="D3">
-        <v>115.7857142857143</v>
+        <v>115.0075</v>
       </c>
       <c r="E3">
-        <v>810.5</v>
+        <v>920.0599999999999</v>
       </c>
       <c r="F3">
-        <v>86.40000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="G3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C4">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="D4">
-        <v>122.7542857142857</v>
+        <v>116.2425</v>
       </c>
       <c r="E4">
-        <v>859.2799999999999</v>
+        <v>929.9399999999999</v>
       </c>
       <c r="F4">
-        <v>83.5</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="G4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C5">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>114.2371428571429</v>
+        <v>124.425</v>
       </c>
       <c r="E5">
-        <v>799.66</v>
+        <v>995.4</v>
       </c>
       <c r="F5">
-        <v>73.3</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="G5">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C6">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>123.9114285714286</v>
+        <v>122.295</v>
       </c>
       <c r="E6">
-        <v>867.38</v>
+        <v>978.3599999999999</v>
       </c>
       <c r="F6">
-        <v>69.89999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="G6">
-        <v>1.1</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2386,115 +2440,115 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C7">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="D7">
-        <v>128.3885714285714</v>
+        <v>126.2475</v>
       </c>
       <c r="E7">
-        <v>898.72</v>
+        <v>1009.98</v>
       </c>
       <c r="F7">
-        <v>67.2</v>
+        <v>55.40000000000001</v>
       </c>
       <c r="G7">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C8">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>121.62</v>
+        <v>111.535</v>
       </c>
       <c r="E8">
-        <v>851.34</v>
+        <v>892.28</v>
       </c>
       <c r="F8">
-        <v>62.1</v>
+        <v>52.8</v>
       </c>
       <c r="G8">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C9">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="D9">
-        <v>108.7485714285714</v>
+        <v>117.4275</v>
       </c>
       <c r="E9">
-        <v>761.24</v>
+        <v>939.4200000000001</v>
       </c>
       <c r="F9">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G9">
-        <v>7.7</v>
+        <v>3.6</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C10">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="D10">
-        <v>106.3514285714286</v>
+        <v>105.5675</v>
       </c>
       <c r="E10">
-        <v>744.46</v>
+        <v>844.54</v>
       </c>
       <c r="F10">
-        <v>28.4</v>
+        <v>15.5</v>
       </c>
       <c r="G10">
-        <v>8.200000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2502,28 +2556,28 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C11">
-        <v>0.1428571428571428</v>
+        <v>0.125</v>
       </c>
       <c r="D11">
-        <v>98.99142857142856</v>
+        <v>101.0425</v>
       </c>
       <c r="E11">
-        <v>692.9399999999999</v>
+        <v>808.3399999999999</v>
       </c>
       <c r="F11">
-        <v>0.8</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="G11">
-        <v>78.40000000000001</v>
+        <v>82.69999999999999</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2541,19 +2595,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2564,16 +2618,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2584,16 +2638,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2604,16 +2658,16 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2621,19 +2675,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2641,19 +2695,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2661,19 +2715,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2681,19 +2735,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D8">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2704,16 +2758,16 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D9">
         <v>-7</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2724,16 +2778,16 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D10">
         <v>-23</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2744,16 +2798,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D11">
-        <v>-24</v>
+        <v>-34</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2763,39 +2817,42 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2820,11 +2877,14 @@
       <c r="H2">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2849,11 +2909,14 @@
       <c r="H3">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2878,127 +2941,142 @@
       <c r="H4">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>-5</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>-4</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>-5</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>-2</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>8</v>
       </c>
-      <c r="I5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
         <v>-1</v>
       </c>
-      <c r="C6">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>-8</v>
+      </c>
+      <c r="H7">
+        <v>-6</v>
+      </c>
+      <c r="I7">
+        <v>-2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>-2</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>-4</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
         <v>-5</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>-1</v>
-      </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>-2</v>
-      </c>
-      <c r="E7">
-        <v>-1</v>
-      </c>
-      <c r="F7">
-        <v>-4</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>-1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>-8</v>
-      </c>
-      <c r="H8">
-        <v>-6</v>
-      </c>
-      <c r="I8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -3023,11 +3101,14 @@
       <c r="H9">
         <v>-7</v>
       </c>
-      <c r="I9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9">
+        <v>-7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3052,11 +3133,14 @@
       <c r="H10">
         <v>-23</v>
       </c>
-      <c r="I10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10">
+        <v>-23</v>
+      </c>
+      <c r="J10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3081,8 +3165,11 @@
       <c r="H11">
         <v>-24</v>
       </c>
-      <c r="I11" t="s">
-        <v>85</v>
+      <c r="I11">
+        <v>-34</v>
+      </c>
+      <c r="J11" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3092,7 +3179,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3100,25 +3187,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3178,25 +3265,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3204,22 +3291,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
       <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
         <v>-7</v>
       </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
       <c r="G5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -3233,22 +3320,22 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>-6</v>
+        <v>20</v>
       </c>
       <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
         <v>2</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-      <c r="H6" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3256,25 +3343,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>-7</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3282,24 +3369,76 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>-6</v>
+      </c>
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E8">
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
         <v>-1</v>
       </c>
-      <c r="F8">
+      <c r="F10">
         <v>-5</v>
       </c>
-      <c r="G8">
+      <c r="G10">
         <v>4</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H10" t="s">
         <v>8</v>
       </c>
     </row>

--- a/leagues/0755 Fantasy Football 2025.xlsx
+++ b/leagues/0755 Fantasy Football 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="114">
   <si>
     <t>Michael, The Baker</t>
   </si>
@@ -54,25 +54,28 @@
     <t>AJ's Awesome Team</t>
   </si>
   <si>
-    <t>7-1-0</t>
-  </si>
-  <si>
-    <t>5-3-0</t>
-  </si>
-  <si>
-    <t>3-5-0</t>
-  </si>
-  <si>
-    <t>4-4-0</t>
-  </si>
-  <si>
-    <t>2-6-0</t>
-  </si>
-  <si>
-    <t>6-2-0</t>
-  </si>
-  <si>
-    <t>1-7-0</t>
+    <t>8-1-0</t>
+  </si>
+  <si>
+    <t>6-3-0</t>
+  </si>
+  <si>
+    <t>3-6-0</t>
+  </si>
+  <si>
+    <t>5-4-0</t>
+  </si>
+  <si>
+    <t>4-5-0</t>
+  </si>
+  <si>
+    <t>7-2-0</t>
+  </si>
+  <si>
+    <t>2-7-0</t>
+  </si>
+  <si>
+    <t>1-8-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -153,6 +156,9 @@
     <t>Week_9</t>
   </si>
   <si>
+    <t>Week_10</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -177,52 +183,52 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>7-1</t>
-  </si>
-  <si>
-    <t>6-2</t>
-  </si>
-  <si>
-    <t>5-3</t>
-  </si>
-  <si>
-    <t>4-4</t>
-  </si>
-  <si>
-    <t>3-5</t>
-  </si>
-  <si>
-    <t>1-7</t>
-  </si>
-  <si>
-    <t>10.8-3.2</t>
-  </si>
-  <si>
-    <t>8.6-5.4-0.1</t>
-  </si>
-  <si>
-    <t>8.2-5.8-0.1</t>
-  </si>
-  <si>
-    <t>7.2-6.8</t>
-  </si>
-  <si>
-    <t>7.3-6.6</t>
-  </si>
-  <si>
-    <t>6.3-7.7</t>
-  </si>
-  <si>
-    <t>6.7-7.2</t>
-  </si>
-  <si>
-    <t>6.1-7.9</t>
-  </si>
-  <si>
-    <t>5.5-8.5-0.1</t>
-  </si>
-  <si>
-    <t>3.2-10.8</t>
+    <t>8-1</t>
+  </si>
+  <si>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>11.0-2.9</t>
+  </si>
+  <si>
+    <t>9.2-4.7</t>
+  </si>
+  <si>
+    <t>7.7-6.3</t>
+  </si>
+  <si>
+    <t>7.8-6.2</t>
+  </si>
+  <si>
+    <t>7.5-6.4</t>
+  </si>
+  <si>
+    <t>5.7-8.3</t>
+  </si>
+  <si>
+    <t>6.2-7.7</t>
+  </si>
+  <si>
+    <t>5.5-8.4</t>
+  </si>
+  <si>
+    <t>5.1-8.9</t>
+  </si>
+  <si>
+    <t>4.0-10.0</t>
   </si>
   <si>
     <t>11-3</t>
@@ -240,7 +246,10 @@
     <t>6-8</t>
   </si>
   <si>
-    <t>3-11</t>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>4-10</t>
   </si>
   <si>
     <t>Owners</t>
@@ -255,55 +264,58 @@
     <t>Robbie Wilston</t>
   </si>
   <si>
+    <t>Gigi Boguski</t>
+  </si>
+  <si>
     <t>Anthony Rizzo</t>
   </si>
   <si>
     <t>Kyle R</t>
   </si>
   <si>
-    <t>Gigi Boguski</t>
+    <t>Jaime Cunningham</t>
   </si>
   <si>
     <t>Prahlad Singh</t>
   </si>
   <si>
+    <t>Jacob Nichols</t>
+  </si>
+  <si>
     <t>Grace Olenzak</t>
   </si>
   <si>
-    <t>Jacob Nichols</t>
-  </si>
-  <si>
-    <t>Jaime Cunningham</t>
-  </si>
-  <si>
     <t>Marvin Ta</t>
   </si>
   <si>
     <t>Abhishek Joshi</t>
   </si>
   <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↑11</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓7</t>
+    <t>↓11</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↓10</t>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑9</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -328,6 +340,9 @@
   </si>
   <si>
     <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
   </si>
   <si>
     <t>Week</t>
@@ -752,31 +767,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -790,28 +805,28 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -822,13 +837,13 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -837,7 +852,7 @@
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -846,7 +861,7 @@
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -857,31 +872,31 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -895,28 +910,28 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -927,7 +942,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -936,22 +951,22 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
       <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
         <v>14</v>
       </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
       <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
         <v>11</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -965,28 +980,28 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
       </c>
       <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
         <v>11</v>
-      </c>
-      <c r="J8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -994,22 +1009,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
         <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
         <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>16</v>
@@ -1018,7 +1033,7 @@
         <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
         <v>12</v>
@@ -1029,13 +1044,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -1064,31 +1079,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
         <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>14</v>
       </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
       <c r="I11" t="s">
         <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
         <v>12</v>
@@ -1109,13 +1124,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1123,13 +1138,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1137,10 +1152,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1151,10 +1166,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1165,13 +1180,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1182,7 +1197,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -1193,13 +1208,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1207,13 +1222,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1221,13 +1236,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1235,13 +1250,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1252,7 +1267,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1273,16 +1288,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1293,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>-1.8</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1310,10 +1325,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="D3">
-        <v>0.9000000000000004</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -1327,7 +1342,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="D4">
         <v>0.2999999999999998</v>
@@ -1341,16 +1356,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="D5">
-        <v>1.3</v>
+        <v>-2.2</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1358,16 +1373,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="D6">
-        <v>-1.8</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1375,16 +1390,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="D7">
-        <v>-0.7999999999999998</v>
+        <v>1.6</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1395,13 +1410,13 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1429,10 +1444,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="D10">
-        <v>-0.3999999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1446,10 +1461,10 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -1470,40 +1485,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1511,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="C2">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="E2">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1549,151 +1564,151 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C3">
-        <v>31.5</v>
+        <v>47.2</v>
       </c>
       <c r="D3">
-        <v>21.7</v>
+        <v>20.7</v>
       </c>
       <c r="E3">
-        <v>16.1</v>
+        <v>13.1</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="G3">
-        <v>7.4</v>
+        <v>2.3</v>
       </c>
       <c r="H3">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="I3">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>93.8</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="C4">
-        <v>23.4</v>
+        <v>15.6</v>
       </c>
       <c r="D4">
-        <v>20.7</v>
+        <v>26.7</v>
       </c>
       <c r="E4">
-        <v>18.4</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>14.8</v>
+        <v>17.3</v>
       </c>
       <c r="G4">
-        <v>10.4</v>
+        <v>10</v>
       </c>
       <c r="H4">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="I4">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>89.90000000000001</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="C5">
-        <v>12.2</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>15.9</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>16.8</v>
+        <v>21.2</v>
       </c>
       <c r="F5">
-        <v>14.4</v>
+        <v>16</v>
       </c>
       <c r="G5">
-        <v>15.5</v>
+        <v>9.4</v>
       </c>
       <c r="H5">
-        <v>11.6</v>
+        <v>5.2</v>
       </c>
       <c r="I5">
-        <v>8.6</v>
+        <v>3.2</v>
       </c>
       <c r="J5">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>76.09999999999999</v>
+        <v>90.7</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="C6">
-        <v>12.4</v>
+        <v>8.4</v>
       </c>
       <c r="D6">
-        <v>16.9</v>
+        <v>15.9</v>
       </c>
       <c r="E6">
-        <v>17.2</v>
+        <v>22.3</v>
       </c>
       <c r="F6">
-        <v>16.9</v>
+        <v>22.6</v>
       </c>
       <c r="G6">
-        <v>10.8</v>
+        <v>17.3</v>
       </c>
       <c r="H6">
-        <v>10.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I6">
-        <v>8.300000000000001</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="K6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>75.8</v>
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1701,37 +1716,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C7">
+        <v>0.9</v>
+      </c>
+      <c r="D7">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>8.699999999999999</v>
-      </c>
       <c r="E7">
-        <v>11.4</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>14.8</v>
+        <v>10.3</v>
       </c>
       <c r="G7">
-        <v>15.4</v>
+        <v>18.7</v>
       </c>
       <c r="H7">
-        <v>17.4</v>
+        <v>20.4</v>
       </c>
       <c r="I7">
-        <v>13.9</v>
+        <v>18.4</v>
       </c>
       <c r="J7">
-        <v>12.3</v>
+        <v>13.8</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="L7">
-        <v>55.4</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1739,37 +1754,37 @@
         <v>3</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>0.9</v>
       </c>
-      <c r="C8">
-        <v>4.3</v>
-      </c>
       <c r="D8">
-        <v>7.3</v>
+        <v>2.9</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="F8">
-        <v>13.6</v>
+        <v>14.1</v>
       </c>
       <c r="G8">
-        <v>16.7</v>
+        <v>17.5</v>
       </c>
       <c r="H8">
-        <v>17.8</v>
+        <v>20.9</v>
       </c>
       <c r="I8">
-        <v>15.7</v>
+        <v>18.6</v>
       </c>
       <c r="J8">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K8">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="L8">
-        <v>52.8</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1780,34 +1795,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>4.7</v>
       </c>
       <c r="F9">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="G9">
-        <v>15.3</v>
+        <v>14.1</v>
       </c>
       <c r="H9">
-        <v>17.5</v>
+        <v>21.4</v>
       </c>
       <c r="I9">
-        <v>22.4</v>
+        <v>21.3</v>
       </c>
       <c r="J9">
-        <v>16.5</v>
+        <v>19.8</v>
       </c>
       <c r="K9">
-        <v>3.6</v>
+        <v>10.1</v>
       </c>
       <c r="L9">
-        <v>40</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1818,34 +1833,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="E10">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="F10">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="H10">
-        <v>13.7</v>
+        <v>13</v>
       </c>
       <c r="I10">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="J10">
-        <v>37.2</v>
+        <v>31.1</v>
       </c>
       <c r="K10">
-        <v>10.4</v>
+        <v>19</v>
       </c>
       <c r="L10">
-        <v>15.5</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1868,22 +1883,22 @@
         <v>0.2</v>
       </c>
       <c r="G11">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="J11">
-        <v>12.6</v>
+        <v>20.9</v>
       </c>
       <c r="K11">
-        <v>82.7</v>
+        <v>62.6</v>
       </c>
       <c r="L11">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
     </row>
   </sheetData>
@@ -1893,56 +1908,59 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>61.7</v>
+        <v>57.3</v>
       </c>
       <c r="C2">
-        <v>84.3</v>
+        <v>85</v>
       </c>
       <c r="D2">
-        <v>91.5</v>
+        <v>92.7</v>
       </c>
       <c r="E2">
-        <v>97</v>
+        <v>97.8</v>
       </c>
       <c r="F2">
         <v>99.3</v>
@@ -1951,7 +1969,7 @@
         <v>99.40000000000001</v>
       </c>
       <c r="H2">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I2">
         <v>100</v>
@@ -1959,8 +1977,11 @@
       <c r="J2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1968,255 +1989,279 @@
         <v>100</v>
       </c>
       <c r="C3">
-        <v>97.2</v>
+        <v>96.2</v>
       </c>
       <c r="D3">
-        <v>71.8</v>
+        <v>70.89999999999999</v>
       </c>
       <c r="E3">
-        <v>78.90000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F3">
-        <v>85.59999999999999</v>
+        <v>84.5</v>
       </c>
       <c r="G3">
-        <v>94.69999999999999</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="H3">
-        <v>85.3</v>
+        <v>86.8</v>
       </c>
       <c r="I3">
-        <v>91.40000000000001</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="J3">
-        <v>93.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>97.8</v>
+      </c>
+      <c r="K3">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>30.1</v>
+      </c>
+      <c r="C4">
+        <v>84.8</v>
+      </c>
+      <c r="D4">
+        <v>56.2</v>
+      </c>
+      <c r="E4">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="F4">
+        <v>58.2</v>
+      </c>
+      <c r="G4">
+        <v>75.7</v>
+      </c>
+      <c r="H4">
+        <v>68.10000000000001</v>
+      </c>
+      <c r="I4">
+        <v>81.3</v>
+      </c>
+      <c r="J4">
+        <v>89</v>
+      </c>
+      <c r="K4">
+        <v>92.30000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>90.60000000000001</v>
+      </c>
+      <c r="C5">
+        <v>83</v>
+      </c>
+      <c r="D5">
+        <v>97.8</v>
+      </c>
+      <c r="E5">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="F5">
+        <v>98</v>
+      </c>
+      <c r="G5">
+        <v>94.3</v>
+      </c>
+      <c r="H5">
+        <v>83.2</v>
+      </c>
+      <c r="I5">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="J5">
+        <v>89.8</v>
+      </c>
+      <c r="K5">
+        <v>90.90000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>93.7</v>
-      </c>
-      <c r="C4">
-        <v>55.90000000000001</v>
-      </c>
-      <c r="D4">
-        <v>73</v>
-      </c>
-      <c r="E4">
-        <v>48.3</v>
-      </c>
-      <c r="F4">
-        <v>61.5</v>
-      </c>
-      <c r="G4">
-        <v>48.5</v>
-      </c>
-      <c r="H4">
-        <v>71.89999999999999</v>
-      </c>
-      <c r="I4">
-        <v>88.2</v>
-      </c>
-      <c r="J4">
-        <v>89.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>26.7</v>
-      </c>
-      <c r="C5">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="D5">
-        <v>58.7</v>
-      </c>
-      <c r="E5">
-        <v>72.39999999999999</v>
-      </c>
-      <c r="F5">
-        <v>53.2</v>
-      </c>
-      <c r="G5">
-        <v>77.10000000000001</v>
-      </c>
-      <c r="H5">
-        <v>69</v>
-      </c>
-      <c r="I5">
-        <v>80.80000000000001</v>
-      </c>
-      <c r="J5">
-        <v>81.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="B6">
-        <v>89.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C6">
-        <v>84.5</v>
+        <v>54.50000000000001</v>
       </c>
       <c r="D6">
-        <v>97.59999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="E6">
-        <v>91</v>
+        <v>48.9</v>
       </c>
       <c r="F6">
-        <v>98.09999999999999</v>
+        <v>58.8</v>
       </c>
       <c r="G6">
-        <v>91.40000000000001</v>
+        <v>49.3</v>
       </c>
       <c r="H6">
-        <v>82</v>
+        <v>68.5</v>
       </c>
       <c r="I6">
-        <v>76.3</v>
+        <v>88</v>
       </c>
       <c r="J6">
-        <v>77.40000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>86.5</v>
+      </c>
+      <c r="K6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="C7">
+        <v>6.4</v>
+      </c>
+      <c r="D7">
+        <v>2.3</v>
+      </c>
+      <c r="E7">
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>52.7</v>
+      </c>
+      <c r="G7">
+        <v>22.6</v>
+      </c>
+      <c r="H7">
+        <v>29.9</v>
+      </c>
+      <c r="I7">
+        <v>48.2</v>
+      </c>
+      <c r="J7">
+        <v>46.7</v>
+      </c>
+      <c r="K7">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>44.6</v>
-      </c>
-      <c r="C7">
-        <v>48.6</v>
-      </c>
-      <c r="D7">
-        <v>32.7</v>
-      </c>
-      <c r="E7">
-        <v>53.8</v>
-      </c>
-      <c r="F7">
-        <v>49.5</v>
-      </c>
-      <c r="G7">
-        <v>78.3</v>
-      </c>
-      <c r="H7">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="I7">
-        <v>57.8</v>
-      </c>
-      <c r="J7">
-        <v>53.40000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B8">
-        <v>76</v>
+        <v>44.2</v>
       </c>
       <c r="C8">
-        <v>6.7</v>
+        <v>48.8</v>
       </c>
       <c r="D8">
-        <v>4.2</v>
+        <v>35.4</v>
       </c>
       <c r="E8">
-        <v>22.7</v>
+        <v>52.5</v>
       </c>
       <c r="F8">
-        <v>53.7</v>
+        <v>47.5</v>
       </c>
       <c r="G8">
-        <v>20.3</v>
+        <v>78</v>
       </c>
       <c r="H8">
-        <v>29.1</v>
+        <v>72.7</v>
       </c>
       <c r="I8">
-        <v>48.9</v>
+        <v>55.7</v>
       </c>
       <c r="J8">
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>45.4</v>
+      </c>
+      <c r="K8">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="C9">
-        <v>52.3</v>
+        <v>55.2</v>
       </c>
       <c r="D9">
-        <v>83.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="E9">
-        <v>63.1</v>
+        <v>63.2</v>
       </c>
       <c r="F9">
-        <v>47.7</v>
+        <v>49.4</v>
       </c>
       <c r="G9">
-        <v>32.3</v>
+        <v>31.9</v>
       </c>
       <c r="H9">
-        <v>61.3</v>
+        <v>62.1</v>
       </c>
       <c r="I9">
-        <v>40.7</v>
+        <v>41.7</v>
       </c>
       <c r="J9">
-        <v>39.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>28.7</v>
+      </c>
+      <c r="K9">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="C10">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="D10">
-        <v>53</v>
+        <v>54.8</v>
       </c>
       <c r="E10">
-        <v>61.5</v>
+        <v>62.4</v>
       </c>
       <c r="F10">
-        <v>47.3</v>
+        <v>47.2</v>
       </c>
       <c r="G10">
-        <v>53.7</v>
+        <v>50.6</v>
       </c>
       <c r="H10">
-        <v>25.1</v>
+        <v>28.3</v>
       </c>
       <c r="I10">
-        <v>15.6</v>
+        <v>17.6</v>
       </c>
       <c r="J10">
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>13.5</v>
+      </c>
+      <c r="K10">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2224,28 +2269,31 @@
         <v>100</v>
       </c>
       <c r="C11">
-        <v>75.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>35.5</v>
       </c>
       <c r="E11">
-        <v>11.3</v>
+        <v>11.8</v>
       </c>
       <c r="F11">
-        <v>4.100000000000001</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="G11">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="H11">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="J11">
-        <v>0.6</v>
+        <v>2.6</v>
+      </c>
+      <c r="K11">
+        <v>2.7</v>
       </c>
     </row>
   </sheetData>
@@ -2263,31 +2311,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2295,16 +2343,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2">
-        <v>0.875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D2">
-        <v>136.99</v>
+        <v>133.1888888888889</v>
       </c>
       <c r="E2">
-        <v>1095.92</v>
+        <v>1198.7</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -2313,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2324,115 +2372,115 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D3">
-        <v>115.0075</v>
+        <v>115.9177777777778</v>
       </c>
       <c r="E3">
-        <v>920.0599999999999</v>
+        <v>1043.26</v>
       </c>
       <c r="F3">
-        <v>93.8</v>
+        <v>99.3</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D4">
-        <v>116.2425</v>
+        <v>124.2044444444445</v>
       </c>
       <c r="E4">
-        <v>929.9399999999999</v>
+        <v>1117.84</v>
       </c>
       <c r="F4">
-        <v>89.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D5">
-        <v>124.425</v>
+        <v>123.4733333333333</v>
       </c>
       <c r="E5">
-        <v>995.4</v>
+        <v>1111.26</v>
       </c>
       <c r="F5">
-        <v>76.09999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D6">
-        <v>122.295</v>
+        <v>117.3511111111111</v>
       </c>
       <c r="E6">
-        <v>978.3599999999999</v>
+        <v>1056.16</v>
       </c>
       <c r="F6">
-        <v>75.8</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="G6">
-        <v>0.7000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2440,28 +2488,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D7">
-        <v>126.2475</v>
+        <v>125.6533333333334</v>
       </c>
       <c r="E7">
-        <v>1009.98</v>
+        <v>1130.88</v>
       </c>
       <c r="F7">
-        <v>55.40000000000001</v>
+        <v>43.9</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2469,28 +2517,28 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D8">
-        <v>111.535</v>
+        <v>112.4422222222222</v>
       </c>
       <c r="E8">
-        <v>892.28</v>
+        <v>1011.98</v>
       </c>
       <c r="F8">
-        <v>52.8</v>
+        <v>43.8</v>
       </c>
       <c r="G8">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2498,28 +2546,28 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D9">
-        <v>117.4275</v>
+        <v>113.8088888888889</v>
       </c>
       <c r="E9">
-        <v>939.4200000000001</v>
+        <v>1024.28</v>
       </c>
       <c r="F9">
-        <v>40</v>
+        <v>27.4</v>
       </c>
       <c r="G9">
-        <v>3.6</v>
+        <v>10.1</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2527,28 +2575,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D10">
-        <v>105.5675</v>
+        <v>108.0822222222222</v>
       </c>
       <c r="E10">
-        <v>844.54</v>
+        <v>972.74</v>
       </c>
       <c r="F10">
-        <v>15.5</v>
+        <v>13.2</v>
       </c>
       <c r="G10">
-        <v>10.4</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2556,28 +2604,28 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C11">
-        <v>0.125</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D11">
-        <v>101.0425</v>
+        <v>104.0333333333333</v>
       </c>
       <c r="E11">
-        <v>808.3399999999999</v>
+        <v>936.3</v>
       </c>
       <c r="F11">
-        <v>0.7000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="G11">
-        <v>82.69999999999999</v>
+        <v>62.6</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2595,19 +2643,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2618,16 +2666,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2635,19 +2683,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2655,19 +2703,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2675,16 +2723,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>89</v>
@@ -2695,19 +2743,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2715,19 +2763,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D7">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2738,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D8">
         <v>-5</v>
@@ -2747,7 +2795,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2755,19 +2803,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D9">
         <v>-7</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2778,16 +2826,16 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D10">
-        <v>-23</v>
+        <v>-17</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2798,16 +2846,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D11">
-        <v>-34</v>
+        <v>-25</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2817,42 +2865,45 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2880,171 +2931,189 @@
       <c r="I2">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>-5</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>11</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>14</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>16</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>16</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
+      <c r="J4">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>-7</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>-1</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>-2</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>6</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>12</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>17</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>10</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>11</v>
       </c>
-      <c r="J4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
+      <c r="J5">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="K5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
         <v>-1</v>
       </c>
-      <c r="C5">
-        <v>-5</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>-1</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
-      <c r="J5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>-4</v>
+      </c>
+      <c r="F6">
+        <v>-6</v>
+      </c>
+      <c r="G6">
+        <v>-7</v>
+      </c>
+      <c r="H6">
+        <v>-7</v>
+      </c>
+      <c r="I6">
+        <v>-7</v>
+      </c>
+      <c r="J6">
+        <v>-4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>-4</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>-5</v>
-      </c>
-      <c r="G6">
-        <v>-2</v>
-      </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
-      <c r="I6">
-        <v>6</v>
-      </c>
-      <c r="J6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>-1</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="G7">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="H7">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>-2</v>
-      </c>
-      <c r="J7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>-5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -3072,43 +3141,49 @@
       <c r="I8">
         <v>-5</v>
       </c>
-      <c r="J8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8">
+        <v>-5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>-1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>-8</v>
+      </c>
+      <c r="H9">
         <v>-6</v>
       </c>
-      <c r="G9">
+      <c r="I9">
+        <v>-2</v>
+      </c>
+      <c r="J9">
         <v>-7</v>
       </c>
-      <c r="H9">
-        <v>-7</v>
-      </c>
-      <c r="I9">
-        <v>-7</v>
-      </c>
-      <c r="J9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3136,11 +3211,14 @@
       <c r="I10">
         <v>-23</v>
       </c>
-      <c r="J10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="J10">
+        <v>-17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3168,8 +3246,11 @@
       <c r="I11">
         <v>-34</v>
       </c>
-      <c r="J11" t="s">
-        <v>93</v>
+      <c r="J11">
+        <v>-25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3179,7 +3260,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3187,25 +3268,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3317,25 +3398,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>-5</v>
       </c>
       <c r="F6">
         <v>8</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3343,25 +3424,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3372,22 +3453,22 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>-6</v>
+        <v>20</v>
       </c>
       <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
         <v>2</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3395,25 +3476,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>-7</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3421,24 +3502,76 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>-6</v>
+      </c>
+      <c r="F10">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
         <v>8</v>
       </c>
-      <c r="E10">
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
         <v>-1</v>
       </c>
-      <c r="F10">
+      <c r="F12">
         <v>-5</v>
       </c>
-      <c r="G10">
+      <c r="G12">
         <v>4</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H12" t="s">
         <v>8</v>
       </c>
     </row>

--- a/leagues/0755 Fantasy Football 2025.xlsx
+++ b/leagues/0755 Fantasy Football 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="116">
   <si>
     <t>Michael, The Baker</t>
   </si>
@@ -54,28 +54,31 @@
     <t>AJ's Awesome Team</t>
   </si>
   <si>
-    <t>8-1-0</t>
-  </si>
-  <si>
-    <t>6-3-0</t>
-  </si>
-  <si>
-    <t>3-6-0</t>
-  </si>
-  <si>
-    <t>5-4-0</t>
-  </si>
-  <si>
-    <t>4-5-0</t>
-  </si>
-  <si>
-    <t>7-2-0</t>
-  </si>
-  <si>
-    <t>2-7-0</t>
-  </si>
-  <si>
-    <t>1-8-0</t>
+    <t>9-1-0</t>
+  </si>
+  <si>
+    <t>6-4-0</t>
+  </si>
+  <si>
+    <t>4-6-0</t>
+  </si>
+  <si>
+    <t>5-5-0</t>
+  </si>
+  <si>
+    <t>7-3-0</t>
+  </si>
+  <si>
+    <t>3-7-0</t>
+  </si>
+  <si>
+    <t>8-2-0</t>
+  </si>
+  <si>
+    <t>2-8-0</t>
+  </si>
+  <si>
+    <t>1-9-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -159,6 +162,9 @@
     <t>Week_10</t>
   </si>
   <si>
+    <t>Week_11</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -183,58 +189,58 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>8-1</t>
-  </si>
-  <si>
-    <t>7-2</t>
-  </si>
-  <si>
-    <t>5-4</t>
-  </si>
-  <si>
-    <t>3-6</t>
-  </si>
-  <si>
-    <t>4-5</t>
-  </si>
-  <si>
-    <t>2-7</t>
-  </si>
-  <si>
-    <t>11.0-2.9</t>
-  </si>
-  <si>
-    <t>9.2-4.7</t>
-  </si>
-  <si>
-    <t>7.7-6.3</t>
-  </si>
-  <si>
-    <t>7.8-6.2</t>
-  </si>
-  <si>
-    <t>7.5-6.4</t>
-  </si>
-  <si>
-    <t>5.7-8.3</t>
-  </si>
-  <si>
-    <t>6.2-7.7</t>
-  </si>
-  <si>
-    <t>5.5-8.4</t>
-  </si>
-  <si>
-    <t>5.1-8.9</t>
-  </si>
-  <si>
-    <t>4.0-10.0</t>
-  </si>
-  <si>
-    <t>11-3</t>
-  </si>
-  <si>
-    <t>9-5</t>
+    <t>9-1</t>
+  </si>
+  <si>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>2-8</t>
+  </si>
+  <si>
+    <t>11.4-2.5</t>
+  </si>
+  <si>
+    <t>8.6-5.3</t>
+  </si>
+  <si>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>8.1-5.9</t>
+  </si>
+  <si>
+    <t>7.4-6.6</t>
+  </si>
+  <si>
+    <t>6.2-7.8</t>
+  </si>
+  <si>
+    <t>5.9-8.0</t>
+  </si>
+  <si>
+    <t>5.8-8.2</t>
+  </si>
+  <si>
+    <t>4.7-9.2</t>
+  </si>
+  <si>
+    <t>3.7-10.3</t>
+  </si>
+  <si>
+    <t>12-2</t>
   </si>
   <si>
     <t>8-6</t>
@@ -261,13 +267,16 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Gigi Boguski</t>
+  </si>
+  <si>
+    <t>Anthony Rizzo</t>
+  </si>
+  <si>
     <t>Robbie Wilston</t>
   </si>
   <si>
-    <t>Gigi Boguski</t>
-  </si>
-  <si>
-    <t>Anthony Rizzo</t>
+    <t>Prahlad Singh</t>
   </si>
   <si>
     <t>Kyle R</t>
@@ -276,48 +285,42 @@
     <t>Jaime Cunningham</t>
   </si>
   <si>
-    <t>Prahlad Singh</t>
+    <t>Grace Olenzak</t>
   </si>
   <si>
     <t>Jacob Nichols</t>
   </si>
   <si>
-    <t>Grace Olenzak</t>
-  </si>
-  <si>
     <t>Marvin Ta</t>
   </si>
   <si>
     <t>Abhishek Joshi</t>
   </si>
   <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↑11</t>
+  </si>
+  <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>↑11</t>
-  </si>
-  <si>
-    <t>↓9</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓8</t>
   </si>
   <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↓11</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑9</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -343,6 +346,9 @@
   </si>
   <si>
     <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
   </si>
   <si>
     <t>Week</t>
@@ -767,31 +773,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -802,10 +808,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -814,16 +820,16 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
@@ -837,13 +843,13 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -852,7 +858,7 @@
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -861,7 +867,7 @@
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -878,22 +884,22 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
         <v>11</v>
@@ -904,34 +910,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -942,16 +948,16 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -960,13 +966,13 @@
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -977,22 +983,22 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
         <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
@@ -1009,31 +1015,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
         <v>12</v>
@@ -1044,34 +1050,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1079,34 +1085,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1124,13 +1130,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1138,10 +1144,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1152,13 +1158,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1166,13 +1172,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1180,13 +1186,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1194,13 +1200,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1211,10 +1217,10 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1225,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1239,10 +1245,10 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1253,10 +1259,10 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1267,10 +1273,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1288,16 +1294,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1308,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>-1.8</v>
+        <v>-2</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1322,13 +1328,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
       <c r="D3">
-        <v>0.4000000000000004</v>
+        <v>1.1</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -1339,16 +1345,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="D4">
-        <v>0.2999999999999998</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1356,16 +1362,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="D5">
-        <v>-2.2</v>
+        <v>-0.5</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1373,16 +1379,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="D6">
-        <v>-0.2000000000000002</v>
+        <v>1.1</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1390,16 +1396,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="D7">
-        <v>1.6</v>
+        <v>-2.2</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1407,16 +1413,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="D8">
-        <v>0.2000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1424,13 +1430,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1444,13 +1450,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D10">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1461,13 +1467,13 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D11">
-        <v>0.7999999999999998</v>
+        <v>1.3</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1485,40 +1491,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1526,19 +1532,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>87.7</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="D2">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="E2">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1564,25 +1570,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.199999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="C3">
-        <v>47.2</v>
+        <v>30.3</v>
       </c>
       <c r="D3">
-        <v>20.7</v>
+        <v>24.8</v>
       </c>
       <c r="E3">
-        <v>13.1</v>
+        <v>20.6</v>
       </c>
       <c r="F3">
-        <v>7.8</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>2.3</v>
+        <v>6.7</v>
       </c>
       <c r="H3">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1594,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>99.3</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1602,118 +1608,118 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="C4">
-        <v>15.6</v>
+        <v>25.4</v>
       </c>
       <c r="D4">
-        <v>26.7</v>
+        <v>25.2</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>19.6</v>
       </c>
       <c r="F4">
-        <v>17.3</v>
+        <v>15.5</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H4">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="I4">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>23.6</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>23.4</v>
       </c>
       <c r="E5">
-        <v>21.2</v>
+        <v>20.5</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5">
-        <v>9.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H5">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I5">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="J5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>90.7</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>8.4</v>
+        <v>15.1</v>
       </c>
       <c r="D6">
-        <v>15.9</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>22.3</v>
+        <v>19.6</v>
       </c>
       <c r="F6">
-        <v>22.6</v>
+        <v>19.4</v>
       </c>
       <c r="G6">
-        <v>17.3</v>
+        <v>14.8</v>
       </c>
       <c r="H6">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J6">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>87.09999999999999</v>
+        <v>86.90000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1722,107 +1728,107 @@
         <v>0.9</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F7">
-        <v>10.3</v>
+        <v>13.7</v>
       </c>
       <c r="G7">
-        <v>18.7</v>
+        <v>22.7</v>
       </c>
       <c r="H7">
-        <v>20.4</v>
+        <v>21.5</v>
       </c>
       <c r="I7">
-        <v>18.4</v>
+        <v>15</v>
       </c>
       <c r="J7">
-        <v>13.8</v>
+        <v>11</v>
       </c>
       <c r="K7">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="L7">
-        <v>43.9</v>
+        <v>49.7</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="D8">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="E8">
-        <v>8.4</v>
+        <v>7.5</v>
       </c>
       <c r="F8">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="G8">
-        <v>17.5</v>
+        <v>19.9</v>
       </c>
       <c r="H8">
-        <v>20.9</v>
+        <v>28.5</v>
       </c>
       <c r="I8">
         <v>18.6</v>
       </c>
       <c r="J8">
-        <v>11.9</v>
+        <v>6.2</v>
       </c>
       <c r="K8">
-        <v>4.8</v>
+        <v>0.5</v>
       </c>
       <c r="L8">
-        <v>43.8</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="E9">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="F9">
-        <v>7.6</v>
+        <v>5.8</v>
       </c>
       <c r="G9">
-        <v>14.1</v>
+        <v>15.1</v>
       </c>
       <c r="H9">
-        <v>21.4</v>
+        <v>19.2</v>
       </c>
       <c r="I9">
-        <v>21.3</v>
+        <v>33.3</v>
       </c>
       <c r="J9">
-        <v>19.8</v>
+        <v>16.1</v>
       </c>
       <c r="K9">
-        <v>10.1</v>
+        <v>5.5</v>
       </c>
       <c r="L9">
-        <v>27.4</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1836,31 +1842,31 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E10">
+        <v>0.1</v>
+      </c>
+      <c r="F10">
         <v>0.7</v>
       </c>
-      <c r="F10">
-        <v>3.9</v>
-      </c>
       <c r="G10">
-        <v>8.4</v>
+        <v>3.5</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>8.1</v>
       </c>
       <c r="I10">
-        <v>23.7</v>
+        <v>19.1</v>
       </c>
       <c r="J10">
-        <v>31.1</v>
+        <v>44.2</v>
       </c>
       <c r="K10">
-        <v>19</v>
+        <v>24.3</v>
       </c>
       <c r="L10">
-        <v>13.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1877,28 +1883,28 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H11">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="I11">
-        <v>9.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J11">
-        <v>20.9</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>62.6</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="L11">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -1908,68 +1914,71 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>57.3</v>
+        <v>60.7</v>
       </c>
       <c r="C2">
-        <v>85</v>
+        <v>85.39999999999999</v>
       </c>
       <c r="D2">
-        <v>92.7</v>
+        <v>91.7</v>
       </c>
       <c r="E2">
-        <v>97.8</v>
+        <v>97.2</v>
       </c>
       <c r="F2">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="G2">
-        <v>99.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="H2">
-        <v>99.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="I2">
         <v>100</v>
@@ -1980,302 +1989,329 @@
       <c r="K2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="C3">
-        <v>96.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D3">
-        <v>70.89999999999999</v>
+        <v>68.89999999999999</v>
       </c>
       <c r="E3">
-        <v>76.90000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="F3">
-        <v>84.5</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="G3">
-        <v>93.60000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="H3">
-        <v>86.8</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="I3">
-        <v>93.60000000000001</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="J3">
-        <v>97.8</v>
+        <v>98.5</v>
       </c>
       <c r="K3">
-        <v>98.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>95.39999999999999</v>
+      </c>
+      <c r="L3">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>30.1</v>
+        <v>27.5</v>
       </c>
       <c r="C4">
-        <v>84.8</v>
+        <v>84.5</v>
       </c>
       <c r="D4">
         <v>56.2</v>
       </c>
       <c r="E4">
-        <v>73.09999999999999</v>
+        <v>74.3</v>
       </c>
       <c r="F4">
-        <v>58.2</v>
+        <v>56.59999999999999</v>
       </c>
       <c r="G4">
-        <v>75.7</v>
+        <v>74.8</v>
       </c>
       <c r="H4">
-        <v>68.10000000000001</v>
+        <v>69</v>
       </c>
       <c r="I4">
-        <v>81.3</v>
+        <v>83</v>
       </c>
       <c r="J4">
-        <v>89</v>
+        <v>91.3</v>
       </c>
       <c r="K4">
-        <v>92.30000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>95</v>
+      </c>
+      <c r="L4">
+        <v>94.19999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>94.69999999999999</v>
+      </c>
+      <c r="C5">
+        <v>57.2</v>
+      </c>
+      <c r="D5">
+        <v>70.39999999999999</v>
+      </c>
+      <c r="E5">
+        <v>47.8</v>
+      </c>
+      <c r="F5">
+        <v>60.4</v>
+      </c>
+      <c r="G5">
+        <v>49.6</v>
+      </c>
+      <c r="H5">
+        <v>72.7</v>
+      </c>
+      <c r="I5">
+        <v>87</v>
+      </c>
+      <c r="J5">
+        <v>85.2</v>
+      </c>
+      <c r="K5">
+        <v>94.3</v>
+      </c>
+      <c r="L5">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>90.60000000000001</v>
-      </c>
-      <c r="C5">
-        <v>83</v>
-      </c>
-      <c r="D5">
-        <v>97.8</v>
-      </c>
-      <c r="E5">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="F5">
-        <v>98</v>
-      </c>
-      <c r="G5">
-        <v>94.3</v>
-      </c>
-      <c r="H5">
-        <v>83.2</v>
-      </c>
-      <c r="I5">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="J5">
-        <v>89.8</v>
-      </c>
-      <c r="K5">
+      <c r="B6">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="C6">
+        <v>82.69999999999999</v>
+      </c>
+      <c r="D6">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="E6">
         <v>90.90000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>94.5</v>
-      </c>
-      <c r="C6">
-        <v>54.50000000000001</v>
-      </c>
-      <c r="D6">
-        <v>72.8</v>
-      </c>
-      <c r="E6">
-        <v>48.9</v>
-      </c>
       <c r="F6">
-        <v>58.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="G6">
-        <v>49.3</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="H6">
-        <v>68.5</v>
+        <v>80.80000000000001</v>
       </c>
       <c r="I6">
-        <v>88</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="J6">
-        <v>86.5</v>
+        <v>89.7</v>
       </c>
       <c r="K6">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>81.5</v>
+      </c>
+      <c r="L6">
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="B7">
-        <v>74.90000000000001</v>
-      </c>
       <c r="C7">
-        <v>6.4</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>2.3</v>
+        <v>81.10000000000001</v>
       </c>
       <c r="E7">
-        <v>23</v>
+        <v>66.3</v>
       </c>
       <c r="F7">
-        <v>52.7</v>
+        <v>46.5</v>
       </c>
       <c r="G7">
-        <v>22.6</v>
+        <v>34.1</v>
       </c>
       <c r="H7">
-        <v>29.9</v>
+        <v>64.7</v>
       </c>
       <c r="I7">
-        <v>48.2</v>
+        <v>40.7</v>
       </c>
       <c r="J7">
-        <v>46.7</v>
+        <v>27.9</v>
       </c>
       <c r="K7">
-        <v>47.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>47.3</v>
+      </c>
+      <c r="L7">
+        <v>53.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8">
-        <v>44.2</v>
+        <v>45.3</v>
       </c>
       <c r="C8">
         <v>48.8</v>
       </c>
       <c r="D8">
-        <v>35.4</v>
+        <v>36.4</v>
       </c>
       <c r="E8">
-        <v>52.5</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="F8">
-        <v>47.5</v>
+        <v>51.2</v>
       </c>
       <c r="G8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H8">
-        <v>72.7</v>
+        <v>72.39999999999999</v>
       </c>
       <c r="I8">
-        <v>55.7</v>
+        <v>58.3</v>
       </c>
       <c r="J8">
         <v>45.4</v>
       </c>
       <c r="K8">
-        <v>40.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>55.2</v>
+      </c>
+      <c r="L8">
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>3.5</v>
+        <v>76.5</v>
       </c>
       <c r="C9">
-        <v>55.2</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="D9">
-        <v>81.59999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="E9">
-        <v>63.2</v>
+        <v>21.9</v>
       </c>
       <c r="F9">
+        <v>51.5</v>
+      </c>
+      <c r="G9">
+        <v>23.4</v>
+      </c>
+      <c r="H9">
+        <v>25.8</v>
+      </c>
+      <c r="I9">
         <v>49.4</v>
       </c>
-      <c r="G9">
-        <v>31.9</v>
-      </c>
-      <c r="H9">
-        <v>62.1</v>
-      </c>
-      <c r="I9">
-        <v>41.7</v>
-      </c>
       <c r="J9">
-        <v>28.7</v>
+        <v>45.6</v>
       </c>
       <c r="K9">
-        <v>28.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>25.6</v>
+      </c>
+      <c r="L9">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4.9</v>
+        <v>3.2</v>
       </c>
       <c r="C10">
-        <v>9.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D10">
-        <v>54.8</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="E10">
-        <v>62.4</v>
+        <v>60.9</v>
       </c>
       <c r="F10">
-        <v>47.2</v>
+        <v>44.6</v>
       </c>
       <c r="G10">
-        <v>50.6</v>
+        <v>51.4</v>
       </c>
       <c r="H10">
-        <v>28.3</v>
+        <v>28.1</v>
       </c>
       <c r="I10">
-        <v>17.6</v>
+        <v>13.9</v>
       </c>
       <c r="J10">
-        <v>13.5</v>
+        <v>14.8</v>
       </c>
       <c r="K10">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>5.3</v>
+      </c>
+      <c r="L10">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C11">
-        <v>77</v>
+        <v>77.3</v>
       </c>
       <c r="D11">
-        <v>35.5</v>
+        <v>36</v>
       </c>
       <c r="E11">
-        <v>11.8</v>
+        <v>10.6</v>
       </c>
       <c r="F11">
         <v>4.399999999999999</v>
@@ -2284,16 +2320,19 @@
         <v>4.6</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="I11">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J11">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="K11">
-        <v>2.7</v>
+        <v>0.4</v>
+      </c>
+      <c r="L11">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -2311,31 +2350,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2343,16 +2382,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2">
-        <v>0.8888888888888888</v>
+        <v>0.9</v>
       </c>
       <c r="D2">
-        <v>133.1888888888889</v>
+        <v>133.23</v>
       </c>
       <c r="E2">
-        <v>1198.7</v>
+        <v>1332.3</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -2361,10 +2400,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2372,28 +2411,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3">
-        <v>0.7777777777777778</v>
+        <v>0.7</v>
       </c>
       <c r="D3">
-        <v>115.9177777777778</v>
+        <v>114.048</v>
       </c>
       <c r="E3">
-        <v>1043.26</v>
+        <v>1140.48</v>
       </c>
       <c r="F3">
-        <v>99.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2401,173 +2440,173 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="D4">
-        <v>124.2044444444445</v>
+        <v>122.802</v>
       </c>
       <c r="E4">
-        <v>1117.84</v>
+        <v>1228.02</v>
       </c>
       <c r="F4">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="D5">
-        <v>123.4733333333333</v>
+        <v>118.46</v>
       </c>
       <c r="E5">
-        <v>1111.26</v>
+        <v>1184.6</v>
       </c>
       <c r="F5">
-        <v>90.7</v>
+        <v>93.5</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C6">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>117.3511111111111</v>
+        <v>125.318</v>
       </c>
       <c r="E6">
-        <v>1056.16</v>
+        <v>1253.18</v>
       </c>
       <c r="F6">
-        <v>87.09999999999999</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C7">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="D7">
-        <v>125.6533333333334</v>
+        <v>118.438</v>
       </c>
       <c r="E7">
-        <v>1130.88</v>
+        <v>1184.38</v>
       </c>
       <c r="F7">
-        <v>43.9</v>
+        <v>49.7</v>
       </c>
       <c r="G7">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C8">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="D8">
-        <v>112.4422222222222</v>
+        <v>124.49</v>
       </c>
       <c r="E8">
-        <v>1011.98</v>
+        <v>1244.9</v>
       </c>
       <c r="F8">
-        <v>43.8</v>
+        <v>46.2</v>
       </c>
       <c r="G8">
-        <v>4.8</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C9">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>113.8088888888889</v>
+        <v>112.06</v>
       </c>
       <c r="E9">
-        <v>1024.28</v>
+        <v>1120.6</v>
       </c>
       <c r="F9">
-        <v>27.4</v>
+        <v>25.9</v>
       </c>
       <c r="G9">
-        <v>10.1</v>
+        <v>5.5</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2575,28 +2614,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C10">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="D10">
-        <v>108.0822222222222</v>
+        <v>107.844</v>
       </c>
       <c r="E10">
-        <v>972.74</v>
+        <v>1078.44</v>
       </c>
       <c r="F10">
-        <v>13.2</v>
+        <v>4.3</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>24.3</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2604,28 +2643,28 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C11">
-        <v>0.2222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="D11">
-        <v>104.0333333333333</v>
+        <v>105.324</v>
       </c>
       <c r="E11">
-        <v>936.3</v>
+        <v>1053.24</v>
       </c>
       <c r="F11">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="G11">
-        <v>62.6</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2643,19 +2682,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2663,19 +2702,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2683,19 +2722,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D3">
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2703,19 +2742,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D4">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2723,19 +2762,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2743,19 +2782,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D6">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2763,19 +2802,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D7">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2783,19 +2822,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D8">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2803,19 +2842,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D9">
-        <v>-7</v>
+        <v>-13</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2826,16 +2865,16 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D10">
-        <v>-17</v>
+        <v>-14</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2846,16 +2885,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D11">
-        <v>-25</v>
+        <v>-31</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2865,325 +2904,352 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>108</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>-5</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>11</v>
       </c>
-      <c r="D2">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>20</v>
-      </c>
-      <c r="I2">
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>16</v>
+      </c>
+      <c r="I3">
         <v>23</v>
       </c>
-      <c r="J2">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>-1</v>
-      </c>
-      <c r="C3">
-        <v>-5</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>-1</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-      <c r="G3">
+      <c r="J3">
+        <v>14</v>
+      </c>
+      <c r="K3">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
         <v>11</v>
       </c>
-      <c r="F4">
-        <v>14</v>
-      </c>
       <c r="G4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I4">
         <v>23</v>
       </c>
       <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
         <v>14</v>
       </c>
-      <c r="K4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>-4</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>-5</v>
+      </c>
+      <c r="G5">
+        <v>-2</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>-5</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="L5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>-7</v>
-      </c>
-      <c r="C5">
-        <v>-1</v>
-      </c>
-      <c r="D5">
-        <v>-2</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>17</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5">
-        <v>11</v>
-      </c>
-      <c r="J5">
-        <v>8</v>
-      </c>
-      <c r="K5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
       </c>
       <c r="C6">
         <v>-1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>-4</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>-6</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>-7</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>-7</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>-7</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>-4</v>
       </c>
-      <c r="K6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
+      <c r="K7">
+        <v>-4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>-8</v>
+      </c>
+      <c r="H8">
+        <v>-6</v>
+      </c>
+      <c r="I8">
+        <v>-2</v>
+      </c>
+      <c r="J8">
+        <v>-7</v>
+      </c>
+      <c r="K8">
+        <v>-10</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>-2</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
         <v>-4</v>
       </c>
-      <c r="C7">
+      <c r="G9">
         <v>2</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
         <v>-5</v>
       </c>
-      <c r="G7">
-        <v>-2</v>
-      </c>
-      <c r="H7">
-        <v>8</v>
-      </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-      <c r="J7">
+      <c r="J9">
         <v>-5</v>
       </c>
-      <c r="K7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>-2</v>
-      </c>
-      <c r="E8">
-        <v>-1</v>
-      </c>
-      <c r="F8">
-        <v>-4</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>-5</v>
-      </c>
-      <c r="J8">
-        <v>-5</v>
-      </c>
-      <c r="K8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>-1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>-8</v>
-      </c>
-      <c r="H9">
-        <v>-6</v>
-      </c>
-      <c r="I9">
-        <v>-2</v>
-      </c>
-      <c r="J9">
-        <v>-7</v>
-      </c>
-      <c r="K9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="K9">
+        <v>-13</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3214,11 +3280,14 @@
       <c r="J10">
         <v>-17</v>
       </c>
-      <c r="K10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10">
+        <v>-14</v>
+      </c>
+      <c r="L10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3249,8 +3318,11 @@
       <c r="J11">
         <v>-25</v>
       </c>
-      <c r="K11" t="s">
-        <v>97</v>
+      <c r="K11">
+        <v>-31</v>
+      </c>
+      <c r="L11" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3260,7 +3332,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3268,25 +3340,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3294,25 +3366,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>11</v>
-      </c>
       <c r="F2">
-        <v>-4</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3320,22 +3392,22 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
       <c r="E3">
-        <v>-22</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -3346,25 +3418,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>-22</v>
       </c>
       <c r="F4">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3375,22 +3447,22 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F5">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="G5">
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3398,25 +3470,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>-7</v>
       </c>
       <c r="G6">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3427,22 +3499,22 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F7">
-        <v>-17</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3450,25 +3522,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
       <c r="E8">
-        <v>20</v>
+        <v>-4</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>-17</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3479,22 +3551,22 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
         <v>8</v>
       </c>
-      <c r="E9">
-        <v>-7</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3505,22 +3577,22 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3528,51 +3600,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>-6</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
         <v>8</v>
       </c>
-      <c r="E11">
-        <v>12</v>
-      </c>
-      <c r="F11">
-        <v>7</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
       <c r="H11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>-1</v>
-      </c>
-      <c r="F12">
-        <v>-5</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-      <c r="H12" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/0755 Fantasy Football 2025.xlsx
+++ b/leagues/0755 Fantasy Football 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="120">
   <si>
     <t>Michael, The Baker</t>
   </si>
@@ -54,31 +54,31 @@
     <t>AJ's Awesome Team</t>
   </si>
   <si>
-    <t>9-1-0</t>
-  </si>
-  <si>
-    <t>6-4-0</t>
-  </si>
-  <si>
-    <t>4-6-0</t>
-  </si>
-  <si>
-    <t>5-5-0</t>
-  </si>
-  <si>
-    <t>7-3-0</t>
-  </si>
-  <si>
-    <t>3-7-0</t>
-  </si>
-  <si>
-    <t>8-2-0</t>
-  </si>
-  <si>
-    <t>2-8-0</t>
-  </si>
-  <si>
-    <t>1-9-0</t>
+    <t>10-1-0</t>
+  </si>
+  <si>
+    <t>7-4-0</t>
+  </si>
+  <si>
+    <t>5-6-0</t>
+  </si>
+  <si>
+    <t>8-3-0</t>
+  </si>
+  <si>
+    <t>6-5-0</t>
+  </si>
+  <si>
+    <t>4-7-0</t>
+  </si>
+  <si>
+    <t>3-8-0</t>
+  </si>
+  <si>
+    <t>2-9-0</t>
+  </si>
+  <si>
+    <t>1-10-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -165,6 +165,9 @@
     <t>Week_11</t>
   </si>
   <si>
+    <t>Week_12</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -189,75 +192,75 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>9-1</t>
-  </si>
-  <si>
-    <t>7-3</t>
-  </si>
-  <si>
-    <t>6-4</t>
-  </si>
-  <si>
-    <t>5-5</t>
-  </si>
-  <si>
-    <t>4-6</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>2-8</t>
-  </si>
-  <si>
-    <t>11.4-2.5</t>
-  </si>
-  <si>
-    <t>8.6-5.3</t>
-  </si>
-  <si>
-    <t>8.0-6.0</t>
-  </si>
-  <si>
-    <t>8.1-5.9</t>
-  </si>
-  <si>
-    <t>7.4-6.6</t>
-  </si>
-  <si>
-    <t>6.2-7.8</t>
-  </si>
-  <si>
-    <t>5.9-8.0</t>
-  </si>
-  <si>
-    <t>5.8-8.2</t>
-  </si>
-  <si>
-    <t>4.7-9.2</t>
-  </si>
-  <si>
-    <t>3.7-10.3</t>
+    <t>10-1</t>
+  </si>
+  <si>
+    <t>7-4</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>3-8</t>
+  </si>
+  <si>
+    <t>2-9</t>
+  </si>
+  <si>
+    <t>11.8-2.2</t>
+  </si>
+  <si>
+    <t>8.7-5.3</t>
+  </si>
+  <si>
+    <t>8.4-5.5</t>
+  </si>
+  <si>
+    <t>8.2-5.7</t>
+  </si>
+  <si>
+    <t>7.7-6.3</t>
+  </si>
+  <si>
+    <t>6.7-7.3</t>
+  </si>
+  <si>
+    <t>5.4-8.6</t>
+  </si>
+  <si>
+    <t>4.3-9.7</t>
+  </si>
+  <si>
+    <t>3.3-10.7</t>
   </si>
   <si>
     <t>12-2</t>
   </si>
   <si>
+    <t>9-5</t>
+  </si>
+  <si>
     <t>8-6</t>
   </si>
   <si>
     <t>7-7</t>
   </si>
   <si>
-    <t>6-8</t>
-  </si>
-  <si>
     <t>5-9</t>
   </si>
   <si>
     <t>4-10</t>
   </si>
   <si>
+    <t>3-11</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -273,52 +276,58 @@
     <t>Anthony Rizzo</t>
   </si>
   <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
     <t>Robbie Wilston</t>
   </si>
   <si>
-    <t>Prahlad Singh</t>
+    <t>Jaime Cunningham</t>
   </si>
   <si>
     <t>Kyle R</t>
   </si>
   <si>
-    <t>Jaime Cunningham</t>
+    <t>Jacob Nichols</t>
   </si>
   <si>
     <t>Grace Olenzak</t>
   </si>
   <si>
-    <t>Jacob Nichols</t>
-  </si>
-  <si>
     <t>Marvin Ta</t>
   </si>
   <si>
     <t>Abhishek Joshi</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
     <t>↑9</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↑11</t>
+    <t>↓11</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓1</t>
   </si>
   <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↑3</t>
+    <t>↑2</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -349,6 +358,9 @@
   </si>
   <si>
     <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
   </si>
   <si>
     <t>Week</t>
@@ -773,31 +785,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
       <c r="J2" t="s">
         <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -808,16 +820,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -832,7 +844,7 @@
         <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -843,13 +855,13 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -858,7 +870,7 @@
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -875,19 +887,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -896,13 +908,13 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -910,7 +922,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -919,7 +931,7 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -937,7 +949,7 @@
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -945,34 +957,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -980,34 +992,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
       <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" t="s">
         <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1015,19 +1027,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
         <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -1042,7 +1054,7 @@
         <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1050,10 +1062,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1062,22 +1074,22 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" t="s">
         <v>14</v>
       </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>13</v>
-      </c>
-      <c r="K10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1085,34 +1097,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
         <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1147,10 +1159,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1161,7 +1173,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1175,7 +1187,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -1189,7 +1201,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -1203,10 +1215,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1217,10 +1229,10 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1231,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1245,7 +1257,7 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -1259,10 +1271,10 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1273,10 +1285,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1314,10 +1326,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="D2">
-        <v>-2</v>
+        <v>-2.4</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1331,13 +1343,13 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="D3">
-        <v>1.1</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1345,13 +1357,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="D4">
-        <v>-0.2000000000000002</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -1362,13 +1374,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -1379,16 +1391,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="D6">
-        <v>1.1</v>
+        <v>-1.5</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1396,16 +1408,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="D7">
-        <v>-2.2</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1413,16 +1425,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1433,13 +1445,13 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="D9">
-        <v>0.4000000000000004</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1450,13 +1462,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1467,10 +1479,10 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D11">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
@@ -1532,16 +1544,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>96.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="C2">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="D2">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1567,28 +1579,28 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="C3">
-        <v>30.3</v>
+        <v>40.4</v>
       </c>
       <c r="D3">
-        <v>24.8</v>
+        <v>26.4</v>
       </c>
       <c r="E3">
-        <v>20.6</v>
+        <v>18.8</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>6.7</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1600,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>98.09999999999999</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1608,66 +1620,66 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="C4">
-        <v>25.4</v>
+        <v>29.2</v>
       </c>
       <c r="D4">
-        <v>25.2</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>19.6</v>
+        <v>24.7</v>
       </c>
       <c r="F4">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="G4">
-        <v>8.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="H4">
-        <v>3.8</v>
+        <v>0.3</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>95</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>23.6</v>
+        <v>11.9</v>
       </c>
       <c r="D5">
+        <v>24.1</v>
+      </c>
+      <c r="E5">
+        <v>21.8</v>
+      </c>
+      <c r="F5">
         <v>23.4</v>
       </c>
-      <c r="E5">
-        <v>20.5</v>
-      </c>
-      <c r="F5">
-        <v>17</v>
-      </c>
       <c r="G5">
-        <v>8.699999999999999</v>
+        <v>16.7</v>
       </c>
       <c r="H5">
-        <v>5.3</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1676,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>93.5</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1687,34 +1699,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>15.1</v>
+        <v>16.5</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>20.4</v>
       </c>
       <c r="E6">
-        <v>19.6</v>
+        <v>21.2</v>
       </c>
       <c r="F6">
-        <v>19.4</v>
+        <v>22.7</v>
       </c>
       <c r="G6">
-        <v>14.8</v>
+        <v>13.2</v>
       </c>
       <c r="H6">
-        <v>9.6</v>
+        <v>5.4</v>
       </c>
       <c r="I6">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="J6">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>86.90000000000001</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1725,34 +1737,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="D7">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>8.300000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="F7">
-        <v>13.7</v>
+        <v>19.4</v>
       </c>
       <c r="G7">
-        <v>22.7</v>
+        <v>33.1</v>
       </c>
       <c r="H7">
-        <v>21.5</v>
+        <v>17.2</v>
       </c>
       <c r="I7">
-        <v>15</v>
+        <v>10.3</v>
       </c>
       <c r="J7">
-        <v>11</v>
+        <v>1.3</v>
       </c>
       <c r="K7">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>49.7</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1763,34 +1775,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>2.8</v>
+        <v>0.1</v>
       </c>
       <c r="E8">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="F8">
-        <v>13.9</v>
+        <v>4.2</v>
       </c>
       <c r="G8">
-        <v>19.9</v>
+        <v>15.1</v>
       </c>
       <c r="H8">
-        <v>28.5</v>
+        <v>40.8</v>
       </c>
       <c r="I8">
-        <v>18.6</v>
+        <v>27.1</v>
       </c>
       <c r="J8">
-        <v>6.2</v>
+        <v>10.8</v>
       </c>
       <c r="K8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="L8">
-        <v>46.2</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1801,34 +1813,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
         <v>3.7</v>
       </c>
-      <c r="F9">
-        <v>5.8</v>
-      </c>
       <c r="G9">
-        <v>15.1</v>
+        <v>11.5</v>
       </c>
       <c r="H9">
-        <v>19.2</v>
+        <v>27.2</v>
       </c>
       <c r="I9">
-        <v>33.3</v>
+        <v>39.1</v>
       </c>
       <c r="J9">
-        <v>16.1</v>
+        <v>14.8</v>
       </c>
       <c r="K9">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="L9">
-        <v>25.9</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1845,28 +1857,28 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H10">
-        <v>8.1</v>
+        <v>6.1</v>
       </c>
       <c r="I10">
-        <v>19.1</v>
+        <v>16.8</v>
       </c>
       <c r="J10">
-        <v>44.2</v>
+        <v>51.4</v>
       </c>
       <c r="K10">
-        <v>24.3</v>
+        <v>25.1</v>
       </c>
       <c r="L10">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1889,22 +1901,22 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H11">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="I11">
-        <v>8.6</v>
+        <v>6.1</v>
       </c>
       <c r="J11">
-        <v>22</v>
+        <v>21.6</v>
       </c>
       <c r="K11">
-        <v>66.90000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="L11">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -1914,13 +1926,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1954,34 +1966,37 @@
       <c r="L1" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>60.7</v>
+        <v>59.8</v>
       </c>
       <c r="C2">
-        <v>85.39999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="D2">
-        <v>91.7</v>
+        <v>92.5</v>
       </c>
       <c r="E2">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="F2">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G2">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H2">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -1992,312 +2007,339 @@
       <c r="L2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>99.8</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="C3">
-        <v>96.59999999999999</v>
+        <v>57.3</v>
       </c>
       <c r="D3">
-        <v>68.89999999999999</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="E3">
-        <v>75.09999999999999</v>
+        <v>47.7</v>
       </c>
       <c r="F3">
-        <v>86.90000000000001</v>
+        <v>62.3</v>
       </c>
       <c r="G3">
-        <v>93.5</v>
+        <v>50.2</v>
       </c>
       <c r="H3">
+        <v>70.8</v>
+      </c>
+      <c r="I3">
+        <v>89.60000000000001</v>
+      </c>
+      <c r="J3">
         <v>85.09999999999999</v>
       </c>
-      <c r="I3">
-        <v>93.30000000000001</v>
-      </c>
-      <c r="J3">
-        <v>98.5</v>
-      </c>
       <c r="K3">
-        <v>95.39999999999999</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="L3">
-        <v>97.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="M3">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>27.5</v>
+        <v>31.1</v>
       </c>
       <c r="C4">
-        <v>84.5</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="D4">
-        <v>56.2</v>
+        <v>58.9</v>
       </c>
       <c r="E4">
-        <v>74.3</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="F4">
-        <v>56.59999999999999</v>
+        <v>54.8</v>
       </c>
       <c r="G4">
-        <v>74.8</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="H4">
-        <v>69</v>
+        <v>67.10000000000001</v>
       </c>
       <c r="I4">
-        <v>83</v>
+        <v>79.5</v>
       </c>
       <c r="J4">
-        <v>91.3</v>
+        <v>90.2</v>
       </c>
       <c r="K4">
-        <v>95</v>
+        <v>93.7</v>
       </c>
       <c r="L4">
-        <v>94.19999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>98.3</v>
+      </c>
+      <c r="M4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>94.69999999999999</v>
+        <v>100</v>
       </c>
       <c r="C5">
-        <v>57.2</v>
+        <v>95.3</v>
       </c>
       <c r="D5">
-        <v>70.39999999999999</v>
+        <v>69.89999999999999</v>
       </c>
       <c r="E5">
-        <v>47.8</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F5">
-        <v>60.4</v>
+        <v>84.39999999999999</v>
       </c>
       <c r="G5">
-        <v>49.6</v>
+        <v>94</v>
       </c>
       <c r="H5">
-        <v>72.7</v>
+        <v>86</v>
       </c>
       <c r="I5">
-        <v>87</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="J5">
-        <v>85.2</v>
+        <v>98.3</v>
       </c>
       <c r="K5">
-        <v>94.3</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="L5">
-        <v>93.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>96</v>
+      </c>
+      <c r="M5">
+        <v>97.59999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>89.40000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="C6">
+        <v>83.39999999999999</v>
+      </c>
+      <c r="D6">
+        <v>97.7</v>
+      </c>
+      <c r="E6">
+        <v>91</v>
+      </c>
+      <c r="F6">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="G6">
+        <v>94.89999999999999</v>
+      </c>
+      <c r="H6">
         <v>82.69999999999999</v>
       </c>
-      <c r="D6">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="E6">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="F6">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="G6">
-        <v>91.90000000000001</v>
-      </c>
-      <c r="H6">
-        <v>80.80000000000001</v>
-      </c>
       <c r="I6">
-        <v>74.09999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="J6">
-        <v>89.7</v>
+        <v>91.7</v>
       </c>
       <c r="K6">
-        <v>81.5</v>
+        <v>82.69999999999999</v>
       </c>
       <c r="L6">
-        <v>84.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>93.10000000000001</v>
+      </c>
+      <c r="M6">
+        <v>92.40000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="C7">
-        <v>53</v>
+        <v>53.90000000000001</v>
       </c>
       <c r="D7">
-        <v>81.10000000000001</v>
+        <v>80.30000000000001</v>
       </c>
       <c r="E7">
-        <v>66.3</v>
+        <v>64.60000000000001</v>
       </c>
       <c r="F7">
-        <v>46.5</v>
+        <v>48.7</v>
       </c>
       <c r="G7">
-        <v>34.1</v>
+        <v>32</v>
       </c>
       <c r="H7">
-        <v>64.7</v>
+        <v>62.3</v>
       </c>
       <c r="I7">
-        <v>40.7</v>
+        <v>41.8</v>
       </c>
       <c r="J7">
-        <v>27.9</v>
+        <v>22.8</v>
       </c>
       <c r="K7">
-        <v>47.3</v>
+        <v>48.5</v>
       </c>
       <c r="L7">
-        <v>53.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>73.8</v>
+      </c>
+      <c r="M7">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8">
-        <v>45.3</v>
+        <v>44.3</v>
       </c>
       <c r="C8">
-        <v>48.8</v>
+        <v>51.6</v>
       </c>
       <c r="D8">
-        <v>36.4</v>
+        <v>37</v>
       </c>
       <c r="E8">
-        <v>55.00000000000001</v>
+        <v>51.7</v>
       </c>
       <c r="F8">
-        <v>51.2</v>
+        <v>49.7</v>
       </c>
       <c r="G8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H8">
-        <v>72.39999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="I8">
         <v>58.3</v>
       </c>
       <c r="J8">
-        <v>45.4</v>
+        <v>48</v>
       </c>
       <c r="K8">
-        <v>55.2</v>
+        <v>56.3</v>
       </c>
       <c r="L8">
-        <v>48.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>22.8</v>
+      </c>
+      <c r="M8">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B9">
-        <v>76.5</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C9">
-        <v>5.800000000000001</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="E9">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="F9">
-        <v>51.5</v>
+        <v>51.4</v>
       </c>
       <c r="G9">
-        <v>23.4</v>
+        <v>23</v>
       </c>
       <c r="H9">
-        <v>25.8</v>
+        <v>25.4</v>
       </c>
       <c r="I9">
-        <v>49.4</v>
+        <v>50.1</v>
       </c>
       <c r="J9">
-        <v>45.6</v>
+        <v>46.1</v>
       </c>
       <c r="K9">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="L9">
-        <v>23.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>16.4</v>
+      </c>
+      <c r="M9">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3.2</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="C10">
-        <v>8.699999999999999</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>57.99999999999999</v>
+        <v>56.49999999999999</v>
       </c>
       <c r="E10">
-        <v>60.9</v>
+        <v>63.3</v>
       </c>
       <c r="F10">
-        <v>44.6</v>
+        <v>47</v>
       </c>
       <c r="G10">
-        <v>51.4</v>
+        <v>51</v>
       </c>
       <c r="H10">
-        <v>28.1</v>
+        <v>27.7</v>
       </c>
       <c r="I10">
-        <v>13.9</v>
+        <v>16</v>
       </c>
       <c r="J10">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="K10">
-        <v>5.3</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="L10">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>1.2</v>
+      </c>
+      <c r="M10">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2305,34 +2347,37 @@
         <v>99.90000000000001</v>
       </c>
       <c r="C11">
-        <v>77.3</v>
+        <v>74.7</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>34.2</v>
       </c>
       <c r="E11">
-        <v>10.6</v>
+        <v>12.3</v>
       </c>
       <c r="F11">
-        <v>4.399999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="G11">
-        <v>4.6</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="H11">
-        <v>1.6</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="I11">
+        <v>0.6</v>
+      </c>
+      <c r="J11">
+        <v>2.9</v>
+      </c>
+      <c r="K11">
+        <v>0.5</v>
+      </c>
+      <c r="L11">
         <v>0.3</v>
       </c>
-      <c r="J11">
-        <v>1.6</v>
-      </c>
-      <c r="K11">
-        <v>0.4</v>
-      </c>
-      <c r="L11">
-        <v>0.6</v>
+      <c r="M11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2353,28 +2398,28 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2382,16 +2427,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2">
-        <v>0.9</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="D2">
-        <v>133.23</v>
+        <v>131.4945454545455</v>
       </c>
       <c r="E2">
-        <v>1332.3</v>
+        <v>1446.44</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -2400,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
         <v>72</v>
@@ -2408,28 +2453,28 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3">
-        <v>0.7</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D3">
-        <v>114.048</v>
+        <v>119.5618181818182</v>
       </c>
       <c r="E3">
-        <v>1140.48</v>
+        <v>1315.18</v>
       </c>
       <c r="F3">
-        <v>98.09999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I3" t="s">
         <v>73</v>
@@ -2443,54 +2488,54 @@
         <v>57</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D4">
-        <v>122.802</v>
+        <v>118.8836363636364</v>
       </c>
       <c r="E4">
-        <v>1228.02</v>
+        <v>1307.72</v>
       </c>
       <c r="F4">
-        <v>95</v>
+        <v>99.7</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
       </c>
       <c r="C5">
-        <v>0.6</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D5">
-        <v>118.46</v>
+        <v>115.4163636363636</v>
       </c>
       <c r="E5">
-        <v>1184.6</v>
+        <v>1269.58</v>
       </c>
       <c r="F5">
-        <v>93.5</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2501,22 +2546,22 @@
         <v>58</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D6">
-        <v>125.318</v>
+        <v>124.9545454545455</v>
       </c>
       <c r="E6">
-        <v>1253.18</v>
+        <v>1374.5</v>
       </c>
       <c r="F6">
-        <v>86.90000000000001</v>
+        <v>94</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I6" t="s">
         <v>74</v>
@@ -2530,22 +2575,22 @@
         <v>59</v>
       </c>
       <c r="C7">
-        <v>0.4</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D7">
-        <v>118.438</v>
+        <v>119.9472727272727</v>
       </c>
       <c r="E7">
-        <v>1184.38</v>
+        <v>1319.42</v>
       </c>
       <c r="F7">
-        <v>49.7</v>
+        <v>71.2</v>
       </c>
       <c r="G7">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I7" t="s">
         <v>75</v>
@@ -2556,28 +2601,28 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D8">
+        <v>119.9181818181818</v>
+      </c>
+      <c r="E8">
+        <v>1319.1</v>
+      </c>
+      <c r="F8">
+        <v>20.9</v>
+      </c>
+      <c r="G8">
         <v>0.4</v>
       </c>
-      <c r="D8">
-        <v>124.49</v>
-      </c>
-      <c r="E8">
-        <v>1244.9</v>
-      </c>
-      <c r="F8">
-        <v>46.2</v>
-      </c>
-      <c r="G8">
-        <v>0.5</v>
-      </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2585,28 +2630,28 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D9">
-        <v>112.06</v>
+        <v>112.1836363636364</v>
       </c>
       <c r="E9">
-        <v>1120.6</v>
+        <v>1234.02</v>
       </c>
       <c r="F9">
-        <v>25.9</v>
+        <v>15.7</v>
       </c>
       <c r="G9">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="s">
         <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2614,28 +2659,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10">
-        <v>0.3</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D10">
-        <v>107.844</v>
+        <v>107.4418181818182</v>
       </c>
       <c r="E10">
-        <v>1078.44</v>
+        <v>1181.86</v>
       </c>
       <c r="F10">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="G10">
-        <v>24.3</v>
+        <v>25.1</v>
       </c>
       <c r="H10" t="s">
         <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2643,28 +2688,28 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="D11">
+        <v>104.4418181818182</v>
+      </c>
+      <c r="E11">
+        <v>1148.86</v>
+      </c>
+      <c r="F11">
         <v>0.2</v>
       </c>
-      <c r="D11">
-        <v>105.324</v>
-      </c>
-      <c r="E11">
-        <v>1053.24</v>
-      </c>
-      <c r="F11">
-        <v>0.4</v>
-      </c>
       <c r="G11">
-        <v>66.90000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="H11" t="s">
         <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2685,16 +2730,16 @@
         <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2705,16 +2750,16 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D2">
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2725,16 +2770,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2742,19 +2787,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2762,19 +2807,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D5">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2782,19 +2827,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2802,19 +2847,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D7">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2822,19 +2867,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D8">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2842,19 +2887,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D9">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2865,16 +2910,16 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D10">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2885,16 +2930,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D11">
-        <v>-31</v>
+        <v>-29</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2904,48 +2949,51 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>112</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2979,11 +3027,14 @@
       <c r="K2">
         <v>28</v>
       </c>
-      <c r="L2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3017,239 +3068,260 @@
       <c r="K3">
         <v>19</v>
       </c>
-      <c r="L3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>-4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>-5</v>
+      </c>
+      <c r="G4">
+        <v>-2</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="J4">
+        <v>-5</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>11</v>
-      </c>
-      <c r="E4">
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
         <v>10</v>
       </c>
-      <c r="F4">
-        <v>11</v>
-      </c>
-      <c r="G4">
+      <c r="F5">
+        <v>11</v>
+      </c>
+      <c r="G5">
         <v>12</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>20</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>23</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>20</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>14</v>
       </c>
-      <c r="L4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>-4</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>-5</v>
-      </c>
-      <c r="G5">
-        <v>-2</v>
-      </c>
-      <c r="H5">
-        <v>8</v>
-      </c>
-      <c r="I5">
+      <c r="L5">
         <v>6</v>
       </c>
-      <c r="J5">
-        <v>-5</v>
-      </c>
-      <c r="K5">
-        <v>6</v>
-      </c>
-      <c r="L5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>5</v>
-      </c>
-      <c r="B6">
-        <v>-7</v>
       </c>
       <c r="C6">
         <v>-1</v>
       </c>
       <c r="D6">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>-6</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>-7</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>-7</v>
       </c>
       <c r="I6">
-        <v>11</v>
+        <v>-7</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>-4</v>
       </c>
       <c r="K6">
+        <v>-4</v>
+      </c>
+      <c r="L6">
         <v>5</v>
       </c>
-      <c r="L6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C7">
         <v>-1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>11</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>-6</v>
+      </c>
+      <c r="M7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>-2</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
         <v>-4</v>
       </c>
-      <c r="F7">
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>-5</v>
+      </c>
+      <c r="J8">
+        <v>-5</v>
+      </c>
+      <c r="K8">
+        <v>-13</v>
+      </c>
+      <c r="L8">
+        <v>-7</v>
+      </c>
+      <c r="M8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>-8</v>
+      </c>
+      <c r="H9">
         <v>-6</v>
       </c>
-      <c r="G7">
+      <c r="I9">
+        <v>-2</v>
+      </c>
+      <c r="J9">
         <v>-7</v>
       </c>
-      <c r="H7">
-        <v>-7</v>
-      </c>
-      <c r="I7">
-        <v>-7</v>
-      </c>
-      <c r="J7">
-        <v>-4</v>
-      </c>
-      <c r="K7">
-        <v>-4</v>
-      </c>
-      <c r="L7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>-1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>-8</v>
-      </c>
-      <c r="H8">
-        <v>-6</v>
-      </c>
-      <c r="I8">
-        <v>-2</v>
-      </c>
-      <c r="J8">
-        <v>-7</v>
-      </c>
-      <c r="K8">
+      <c r="K9">
         <v>-10</v>
       </c>
-      <c r="L8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>-2</v>
-      </c>
-      <c r="E9">
-        <v>-1</v>
-      </c>
-      <c r="F9">
-        <v>-4</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>-5</v>
-      </c>
-      <c r="J9">
-        <v>-5</v>
-      </c>
-      <c r="K9">
-        <v>-13</v>
-      </c>
-      <c r="L9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="L9">
+        <v>-11</v>
+      </c>
+      <c r="M9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3283,11 +3355,14 @@
       <c r="K10">
         <v>-14</v>
       </c>
-      <c r="L10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="L10">
+        <v>-17</v>
+      </c>
+      <c r="M10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3321,8 +3396,11 @@
       <c r="K11">
         <v>-31</v>
       </c>
-      <c r="L11" t="s">
-        <v>93</v>
+      <c r="L11">
+        <v>-29</v>
+      </c>
+      <c r="M11" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3332,7 +3410,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3340,25 +3418,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3567,58 +3645,6 @@
       </c>
       <c r="H9" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>-7</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>-6</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>8</v>
-      </c>
-      <c r="H11" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/0755 Fantasy Football 2025.xlsx
+++ b/leagues/0755 Fantasy Football 2025.xlsx
@@ -12,17 +12,18 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
-    <sheet name="Record Odds" sheetId="6" r:id="rId6"/>
-    <sheet name="Louie Power Index" sheetId="7" r:id="rId7"/>
-    <sheet name="LPI By Week" sheetId="8" r:id="rId8"/>
-    <sheet name="Biggest Upsets" sheetId="9" r:id="rId9"/>
+    <sheet name="Remaining Schedule Difficulty" sheetId="6" r:id="rId6"/>
+    <sheet name="Record Odds" sheetId="7" r:id="rId7"/>
+    <sheet name="Louie Power Index" sheetId="8" r:id="rId8"/>
+    <sheet name="LPI By Week" sheetId="9" r:id="rId9"/>
+    <sheet name="Biggest Upsets" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="128">
   <si>
     <t>Michael, The Baker</t>
   </si>
@@ -168,6 +169,57 @@
     <t>Week_12</t>
   </si>
   <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Jacob Nichols</t>
+  </si>
+  <si>
+    <t>Kyle R</t>
+  </si>
+  <si>
+    <t>Grace Olenzak</t>
+  </si>
+  <si>
+    <t>Robbie Wilston</t>
+  </si>
+  <si>
+    <t>Abhishek Joshi</t>
+  </si>
+  <si>
+    <t>Anthony Rizzo</t>
+  </si>
+  <si>
+    <t>Gigi Boguski</t>
+  </si>
+  <si>
+    <t>Jaime Cunningham</t>
+  </si>
+  <si>
+    <t>Marvin Ta</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -216,13 +268,13 @@
     <t>11.8-2.2</t>
   </si>
   <si>
-    <t>8.7-5.3</t>
-  </si>
-  <si>
-    <t>8.4-5.5</t>
-  </si>
-  <si>
-    <t>8.2-5.7</t>
+    <t>8.5-5.5</t>
+  </si>
+  <si>
+    <t>8.6-5.4</t>
+  </si>
+  <si>
+    <t>8.3-5.7</t>
   </si>
   <si>
     <t>7.7-6.3</t>
@@ -231,7 +283,10 @@
     <t>6.7-7.3</t>
   </si>
   <si>
-    <t>5.4-8.6</t>
+    <t>5.3-8.6</t>
+  </si>
+  <si>
+    <t>5.5-8.5</t>
   </si>
   <si>
     <t>4.3-9.7</t>
@@ -268,36 +323,6 @@
   </si>
   <si>
     <t>Change From Last Week</t>
-  </si>
-  <si>
-    <t>Gigi Boguski</t>
-  </si>
-  <si>
-    <t>Anthony Rizzo</t>
-  </si>
-  <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
-    <t>Robbie Wilston</t>
-  </si>
-  <si>
-    <t>Jaime Cunningham</t>
-  </si>
-  <si>
-    <t>Kyle R</t>
-  </si>
-  <si>
-    <t>Jacob Nichols</t>
-  </si>
-  <si>
-    <t>Grace Olenzak</t>
-  </si>
-  <si>
-    <t>Marvin Ta</t>
-  </si>
-  <si>
-    <t>Abhishek Joshi</t>
   </si>
   <si>
     <t>0</t>
@@ -1132,6 +1157,250 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>28</v>
+      </c>
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>-4</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>-22</v>
+      </c>
+      <c r="F4">
+        <v>-8</v>
+      </c>
+      <c r="G4">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>-2</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>-7</v>
+      </c>
+      <c r="G6">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>-5</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>-4</v>
+      </c>
+      <c r="F8">
+        <v>-17</v>
+      </c>
+      <c r="G8">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
@@ -1544,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1579,28 +1848,28 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="C3">
-        <v>40.4</v>
+        <v>33.3</v>
       </c>
       <c r="D3">
-        <v>26.4</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>18.8</v>
+        <v>22.3</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>14.7</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="H3">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1612,33 +1881,33 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>29.2</v>
+        <v>37.1</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>25.5</v>
       </c>
       <c r="E4">
-        <v>24.7</v>
+        <v>21</v>
       </c>
       <c r="F4">
-        <v>15.6</v>
+        <v>11.5</v>
       </c>
       <c r="G4">
-        <v>6.6</v>
+        <v>4.2</v>
       </c>
       <c r="H4">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1650,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>99.7</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1661,22 +1930,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>11.9</v>
+        <v>11.2</v>
       </c>
       <c r="D5">
-        <v>24.1</v>
+        <v>24.6</v>
       </c>
       <c r="E5">
-        <v>21.8</v>
+        <v>23.6</v>
       </c>
       <c r="F5">
-        <v>23.4</v>
+        <v>21.2</v>
       </c>
       <c r="G5">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="I5">
         <v>0.1</v>
@@ -1688,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>97.90000000000001</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1699,34 +1968,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="D6">
-        <v>20.4</v>
+        <v>22.2</v>
       </c>
       <c r="E6">
-        <v>21.2</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="G6">
-        <v>13.2</v>
+        <v>13.7</v>
       </c>
       <c r="H6">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="I6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>94</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1737,34 +2006,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="E7">
-        <v>11.5</v>
+        <v>10.6</v>
       </c>
       <c r="F7">
-        <v>19.4</v>
+        <v>21.7</v>
       </c>
       <c r="G7">
-        <v>33.1</v>
+        <v>33.3</v>
       </c>
       <c r="H7">
-        <v>17.2</v>
+        <v>18</v>
       </c>
       <c r="I7">
-        <v>10.3</v>
+        <v>8.1</v>
       </c>
       <c r="J7">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>71.2</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1778,31 +2047,31 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E8">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="G8">
-        <v>15.1</v>
+        <v>12.7</v>
       </c>
       <c r="H8">
-        <v>40.8</v>
+        <v>38</v>
       </c>
       <c r="I8">
-        <v>27.1</v>
+        <v>30</v>
       </c>
       <c r="J8">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="K8">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="L8">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1822,25 +2091,25 @@
         <v>0.5</v>
       </c>
       <c r="F9">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="G9">
-        <v>11.5</v>
+        <v>12.1</v>
       </c>
       <c r="H9">
-        <v>27.2</v>
+        <v>29</v>
       </c>
       <c r="I9">
-        <v>39.1</v>
+        <v>36.8</v>
       </c>
       <c r="J9">
-        <v>14.8</v>
+        <v>15.8</v>
       </c>
       <c r="K9">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L9">
-        <v>15.7</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1863,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H10">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="I10">
-        <v>16.8</v>
+        <v>18.4</v>
       </c>
       <c r="J10">
-        <v>51.4</v>
+        <v>52.3</v>
       </c>
       <c r="K10">
-        <v>25.1</v>
+        <v>22.5</v>
       </c>
       <c r="L10">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1901,22 +2170,22 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="J11">
-        <v>21.6</v>
+        <v>19.8</v>
       </c>
       <c r="K11">
-        <v>71.3</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="L11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1975,25 +2244,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>59.8</v>
+        <v>59.5</v>
       </c>
       <c r="C2">
-        <v>84.2</v>
+        <v>83.5</v>
       </c>
       <c r="D2">
-        <v>92.5</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="E2">
-        <v>97.3</v>
+        <v>98.2</v>
       </c>
       <c r="F2">
-        <v>99.40000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="G2">
-        <v>99.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="H2">
-        <v>99.59999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="I2">
         <v>99.90000000000001</v>
@@ -2016,40 +2285,40 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>94.39999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C3">
         <v>57.3</v>
       </c>
       <c r="D3">
-        <v>70.09999999999999</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="E3">
-        <v>47.7</v>
+        <v>47.5</v>
       </c>
       <c r="F3">
-        <v>62.3</v>
+        <v>60.9</v>
       </c>
       <c r="G3">
-        <v>50.2</v>
+        <v>48.1</v>
       </c>
       <c r="H3">
-        <v>70.8</v>
+        <v>70.89999999999999</v>
       </c>
       <c r="I3">
-        <v>89.60000000000001</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="J3">
-        <v>85.09999999999999</v>
+        <v>86.8</v>
       </c>
       <c r="K3">
-        <v>92.30000000000001</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="L3">
-        <v>98.09999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="M3">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2057,40 +2326,40 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>31.1</v>
+        <v>28.7</v>
       </c>
       <c r="C4">
-        <v>85.59999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="D4">
-        <v>58.9</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="E4">
-        <v>71.09999999999999</v>
+        <v>69.8</v>
       </c>
       <c r="F4">
-        <v>54.8</v>
+        <v>56.10000000000001</v>
       </c>
       <c r="G4">
-        <v>76.40000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="H4">
-        <v>67.10000000000001</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="I4">
-        <v>79.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="J4">
-        <v>90.2</v>
+        <v>91.5</v>
       </c>
       <c r="K4">
-        <v>93.7</v>
+        <v>93.2</v>
       </c>
       <c r="L4">
-        <v>98.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="M4">
-        <v>99</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2101,37 +2370,37 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="D5">
-        <v>69.89999999999999</v>
+        <v>69.5</v>
       </c>
       <c r="E5">
-        <v>78.90000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F5">
-        <v>84.39999999999999</v>
+        <v>83.39999999999999</v>
       </c>
       <c r="G5">
-        <v>94</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="H5">
-        <v>86</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="I5">
-        <v>91.90000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="J5">
-        <v>98.3</v>
+        <v>97.7</v>
       </c>
       <c r="K5">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L5">
         <v>95.89999999999999</v>
       </c>
-      <c r="L5">
-        <v>96</v>
-      </c>
       <c r="M5">
-        <v>97.59999999999999</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2139,40 +2408,40 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>89.09999999999999</v>
+        <v>89.2</v>
       </c>
       <c r="C6">
-        <v>83.39999999999999</v>
+        <v>85.39999999999999</v>
       </c>
       <c r="D6">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="E6">
-        <v>91</v>
+        <v>91.60000000000001</v>
       </c>
       <c r="F6">
-        <v>97.59999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="G6">
-        <v>94.89999999999999</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="H6">
-        <v>82.69999999999999</v>
+        <v>82.39999999999999</v>
       </c>
       <c r="I6">
-        <v>72.3</v>
+        <v>72.39999999999999</v>
       </c>
       <c r="J6">
-        <v>91.7</v>
+        <v>89.5</v>
       </c>
       <c r="K6">
-        <v>82.69999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="L6">
-        <v>93.10000000000001</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="M6">
-        <v>92.40000000000001</v>
+        <v>95.09999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2180,40 +2449,40 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>1.9</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="C7">
-        <v>53.90000000000001</v>
+        <v>55.60000000000001</v>
       </c>
       <c r="D7">
-        <v>80.30000000000001</v>
+        <v>80.60000000000001</v>
       </c>
       <c r="E7">
-        <v>64.60000000000001</v>
+        <v>66</v>
       </c>
       <c r="F7">
+        <v>47.09999999999999</v>
+      </c>
+      <c r="G7">
+        <v>34.5</v>
+      </c>
+      <c r="H7">
+        <v>62.5</v>
+      </c>
+      <c r="I7">
+        <v>40.2</v>
+      </c>
+      <c r="J7">
+        <v>25.7</v>
+      </c>
+      <c r="K7">
         <v>48.7</v>
       </c>
-      <c r="G7">
-        <v>32</v>
-      </c>
-      <c r="H7">
-        <v>62.3</v>
-      </c>
-      <c r="I7">
-        <v>41.8</v>
-      </c>
-      <c r="J7">
-        <v>22.8</v>
-      </c>
-      <c r="K7">
-        <v>48.5</v>
-      </c>
       <c r="L7">
-        <v>73.8</v>
+        <v>74.2</v>
       </c>
       <c r="M7">
-        <v>73.7</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2221,40 +2490,40 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>44.3</v>
+        <v>44.5</v>
       </c>
       <c r="C8">
-        <v>51.6</v>
+        <v>49.3</v>
       </c>
       <c r="D8">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="E8">
-        <v>51.7</v>
+        <v>52.40000000000001</v>
       </c>
       <c r="F8">
-        <v>49.7</v>
+        <v>50.5</v>
       </c>
       <c r="G8">
-        <v>75</v>
+        <v>75.8</v>
       </c>
       <c r="H8">
-        <v>77.5</v>
+        <v>73.8</v>
       </c>
       <c r="I8">
         <v>58.3</v>
       </c>
       <c r="J8">
-        <v>48</v>
+        <v>47.5</v>
       </c>
       <c r="K8">
-        <v>56.3</v>
+        <v>55.2</v>
       </c>
       <c r="L8">
-        <v>22.8</v>
+        <v>24.1</v>
       </c>
       <c r="M8">
-        <v>22.7</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2262,40 +2531,40 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>75.09999999999999</v>
+        <v>75.5</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D9">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="E9">
         <v>22.1</v>
       </c>
       <c r="F9">
-        <v>51.4</v>
+        <v>52</v>
       </c>
       <c r="G9">
-        <v>23</v>
+        <v>21.5</v>
       </c>
       <c r="H9">
-        <v>25.4</v>
+        <v>27.4</v>
       </c>
       <c r="I9">
-        <v>50.1</v>
+        <v>49.5</v>
       </c>
       <c r="J9">
-        <v>46.1</v>
+        <v>45.4</v>
       </c>
       <c r="K9">
-        <v>25.7</v>
+        <v>26.1</v>
       </c>
       <c r="L9">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="M9">
-        <v>14.3</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2303,40 +2572,40 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4.399999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="D10">
         <v>56.49999999999999</v>
       </c>
       <c r="E10">
-        <v>63.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F10">
-        <v>47</v>
+        <v>46.40000000000001</v>
       </c>
       <c r="G10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10">
-        <v>27.7</v>
+        <v>26.7</v>
       </c>
       <c r="I10">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="J10">
-        <v>14.9</v>
+        <v>13.5</v>
       </c>
       <c r="K10">
-        <v>4.399999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="L10">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="M10">
-        <v>0.6</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2347,37 +2616,37 @@
         <v>99.90000000000001</v>
       </c>
       <c r="C11">
-        <v>74.7</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="D11">
-        <v>34.2</v>
+        <v>32.6</v>
       </c>
       <c r="E11">
-        <v>12.3</v>
+        <v>10.6</v>
       </c>
       <c r="F11">
-        <v>4.7</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="G11">
-        <v>4.100000000000001</v>
+        <v>5</v>
       </c>
       <c r="H11">
-        <v>0.8999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="I11">
-        <v>0.6</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="J11">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="K11">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L11">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -2394,322 +2663,319 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2">
+        <v>115.42</v>
+      </c>
+      <c r="E2">
+        <v>0.636</v>
+      </c>
+      <c r="F2">
+        <v>125.47</v>
+      </c>
+      <c r="G2">
+        <v>0.636</v>
+      </c>
+      <c r="H2">
+        <v>19.7</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>56</v>
       </c>
-      <c r="C2">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="D2">
-        <v>131.4945454545455</v>
-      </c>
-      <c r="E2">
-        <v>1446.44</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D3">
+        <v>119.92</v>
+      </c>
+      <c r="E3">
+        <v>0.364</v>
+      </c>
+      <c r="F3">
+        <v>125.34</v>
+      </c>
+      <c r="G3">
+        <v>0.697</v>
+      </c>
+      <c r="H3">
+        <v>17.7</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4">
+        <v>112.18</v>
+      </c>
+      <c r="E4">
+        <v>0.364</v>
+      </c>
+      <c r="F4">
+        <v>116.45</v>
+      </c>
+      <c r="G4">
+        <v>0.394</v>
+      </c>
+      <c r="H4">
+        <v>7.3</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5">
+        <v>118.88</v>
+      </c>
+      <c r="E5">
+        <v>0.636</v>
+      </c>
+      <c r="F5">
+        <v>119.5</v>
+      </c>
+      <c r="G5">
+        <v>0.606</v>
+      </c>
+      <c r="H5">
+        <v>-1.3</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6">
+        <v>107.44</v>
+      </c>
+      <c r="E6">
+        <v>0.273</v>
+      </c>
+      <c r="F6">
+        <v>114.3</v>
+      </c>
+      <c r="G6">
+        <v>0.485</v>
+      </c>
+      <c r="H6">
+        <v>-2</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7">
+        <v>131.49</v>
+      </c>
+      <c r="E7">
+        <v>0.909</v>
+      </c>
+      <c r="F7">
+        <v>118.07</v>
+      </c>
+      <c r="G7">
+        <v>0.545</v>
+      </c>
+      <c r="H7">
+        <v>-2.3</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8">
+        <v>124.95</v>
+      </c>
+      <c r="E8">
+        <v>0.545</v>
+      </c>
+      <c r="F8">
+        <v>115.84</v>
+      </c>
+      <c r="G8">
+        <v>0.455</v>
+      </c>
+      <c r="H8">
+        <v>-8</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9">
+        <v>119.56</v>
+      </c>
+      <c r="E9">
+        <v>0.636</v>
+      </c>
+      <c r="F9">
+        <v>115.41</v>
+      </c>
+      <c r="G9">
+        <v>0.424</v>
+      </c>
+      <c r="H9">
+        <v>-9.699999999999999</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>63</v>
       </c>
-      <c r="I2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="D3">
-        <v>119.5618181818182</v>
-      </c>
-      <c r="E3">
-        <v>1315.18</v>
-      </c>
-      <c r="F3">
-        <v>99.8</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="D10">
+        <v>104.44</v>
+      </c>
+      <c r="E10">
+        <v>0.182</v>
+      </c>
+      <c r="F10">
+        <v>113.19</v>
+      </c>
+      <c r="G10">
+        <v>0.364</v>
+      </c>
+      <c r="H10">
+        <v>-9.699999999999999</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
         <v>64</v>
       </c>
-      <c r="I3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="D4">
-        <v>118.8836363636364</v>
-      </c>
-      <c r="E4">
-        <v>1307.72</v>
-      </c>
-      <c r="F4">
-        <v>99.7</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="D5">
-        <v>115.4163636363636</v>
-      </c>
-      <c r="E5">
-        <v>1269.58</v>
-      </c>
-      <c r="F5">
-        <v>97.89999999999999</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="D6">
-        <v>124.9545454545455</v>
-      </c>
-      <c r="E6">
-        <v>1374.5</v>
-      </c>
-      <c r="F6">
-        <v>94</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D7">
-        <v>119.9472727272727</v>
-      </c>
-      <c r="E7">
-        <v>1319.42</v>
-      </c>
-      <c r="F7">
-        <v>71.2</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="D8">
-        <v>119.9181818181818</v>
-      </c>
-      <c r="E8">
-        <v>1319.1</v>
-      </c>
-      <c r="F8">
-        <v>20.9</v>
-      </c>
-      <c r="G8">
-        <v>0.4</v>
-      </c>
-      <c r="H8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
+      <c r="D11">
+        <v>119.95</v>
+      </c>
+      <c r="E11">
+        <v>0.455</v>
+      </c>
+      <c r="F11">
+        <v>110.68</v>
+      </c>
+      <c r="G11">
+        <v>0.394</v>
+      </c>
+      <c r="H11">
+        <v>-11.7</v>
+      </c>
+      <c r="I11">
         <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="D9">
-        <v>112.1836363636364</v>
-      </c>
-      <c r="E9">
-        <v>1234.02</v>
-      </c>
-      <c r="F9">
-        <v>15.7</v>
-      </c>
-      <c r="G9">
-        <v>3.2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="D10">
-        <v>107.4418181818182</v>
-      </c>
-      <c r="E10">
-        <v>1181.86</v>
-      </c>
-      <c r="F10">
-        <v>0.6</v>
-      </c>
-      <c r="G10">
-        <v>25.1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="D11">
-        <v>104.4418181818182</v>
-      </c>
-      <c r="E11">
-        <v>1148.86</v>
-      </c>
-      <c r="F11">
-        <v>0.2</v>
-      </c>
-      <c r="G11">
-        <v>71.3</v>
-      </c>
-      <c r="H11" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2718,6 +2984,338 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="D2">
+        <v>131.4945454545455</v>
+      </c>
+      <c r="E2">
+        <v>1446.44</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D3">
+        <v>118.8836363636364</v>
+      </c>
+      <c r="E3">
+        <v>1307.72</v>
+      </c>
+      <c r="F3">
+        <v>99.5</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D4">
+        <v>119.5618181818182</v>
+      </c>
+      <c r="E4">
+        <v>1315.18</v>
+      </c>
+      <c r="F4">
+        <v>99.3</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D5">
+        <v>115.4163636363636</v>
+      </c>
+      <c r="E5">
+        <v>1269.58</v>
+      </c>
+      <c r="F5">
+        <v>97.2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D6">
+        <v>124.9545454545455</v>
+      </c>
+      <c r="E6">
+        <v>1374.5</v>
+      </c>
+      <c r="F6">
+        <v>94.8</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D7">
+        <v>119.9472727272727</v>
+      </c>
+      <c r="E7">
+        <v>1319.42</v>
+      </c>
+      <c r="F7">
+        <v>72.5</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D8">
+        <v>119.9181818181818</v>
+      </c>
+      <c r="E8">
+        <v>1319.1</v>
+      </c>
+      <c r="F8">
+        <v>20.5</v>
+      </c>
+      <c r="G8">
+        <v>0.8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D9">
+        <v>112.1836363636364</v>
+      </c>
+      <c r="E9">
+        <v>1234.02</v>
+      </c>
+      <c r="F9">
+        <v>15.3</v>
+      </c>
+      <c r="G9">
+        <v>3.1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="D10">
+        <v>107.4418181818182</v>
+      </c>
+      <c r="E10">
+        <v>1181.86</v>
+      </c>
+      <c r="F10">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="G10">
+        <v>22.5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="D11">
+        <v>104.4418181818182</v>
+      </c>
+      <c r="E11">
+        <v>1148.86</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="H11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -2730,16 +3328,16 @@
         <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2750,7 +3348,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>28</v>
@@ -2759,7 +3357,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2770,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -2779,7 +3377,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2790,7 +3388,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D4">
         <v>11</v>
@@ -2799,7 +3397,7 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2810,7 +3408,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -2819,7 +3417,7 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2830,7 +3428,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -2839,7 +3437,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2850,7 +3448,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D7">
         <v>-6</v>
@@ -2859,7 +3457,7 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2870,7 +3468,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>-7</v>
@@ -2879,7 +3477,7 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2890,7 +3488,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="D9">
         <v>-11</v>
@@ -2899,7 +3497,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2910,7 +3508,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D10">
         <v>-17</v>
@@ -2919,7 +3517,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2930,7 +3528,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="D11">
         <v>-29</v>
@@ -2939,7 +3537,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2947,7 +3545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M11"/>
   <sheetViews>
@@ -2957,40 +3555,40 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3031,7 +3629,7 @@
         <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3072,7 +3670,7 @@
         <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3113,7 +3711,7 @@
         <v>11</v>
       </c>
       <c r="M4" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3154,7 +3752,7 @@
         <v>6</v>
       </c>
       <c r="M5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3195,7 +3793,7 @@
         <v>5</v>
       </c>
       <c r="M6" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3236,7 +3834,7 @@
         <v>-6</v>
       </c>
       <c r="M7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3277,7 +3875,7 @@
         <v>-7</v>
       </c>
       <c r="M8" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3318,7 +3916,7 @@
         <v>-11</v>
       </c>
       <c r="M9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3359,7 +3957,7 @@
         <v>-17</v>
       </c>
       <c r="M10" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3400,251 +3998,7 @@
         <v>-29</v>
       </c>
       <c r="M11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>28</v>
-      </c>
-      <c r="G2">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>-4</v>
-      </c>
-      <c r="G3">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>-22</v>
-      </c>
-      <c r="F4">
-        <v>-8</v>
-      </c>
-      <c r="G4">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>11</v>
-      </c>
-      <c r="F5">
-        <v>-2</v>
-      </c>
-      <c r="G5">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>-7</v>
-      </c>
-      <c r="G6">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>-5</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
-      <c r="G7">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>-4</v>
-      </c>
-      <c r="F8">
-        <v>-17</v>
-      </c>
-      <c r="G8">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>20</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/0755 Fantasy Football 2025.xlsx
+++ b/leagues/0755 Fantasy Football 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="128">
   <si>
     <t>Michael, The Baker</t>
   </si>
@@ -175,7 +175,7 @@
     <t>Avg_Points_For</t>
   </si>
   <si>
-    <t>Win_Pct</t>
+    <t>Team_Record</t>
   </si>
   <si>
     <t>Avg_Opp_Points_For</t>
@@ -265,16 +265,16 @@
     <t>2-9</t>
   </si>
   <si>
-    <t>11.8-2.2</t>
-  </si>
-  <si>
-    <t>8.5-5.5</t>
+    <t>11.8-2.1</t>
   </si>
   <si>
     <t>8.6-5.4</t>
   </si>
   <si>
-    <t>8.3-5.7</t>
+    <t>8.4-5.5</t>
+  </si>
+  <si>
+    <t>8.2-5.7</t>
   </si>
   <si>
     <t>7.7-6.3</t>
@@ -283,13 +283,13 @@
     <t>6.7-7.3</t>
   </si>
   <si>
-    <t>5.3-8.6</t>
-  </si>
-  <si>
-    <t>5.5-8.5</t>
-  </si>
-  <si>
-    <t>4.3-9.7</t>
+    <t>5.4-8.6</t>
+  </si>
+  <si>
+    <t>5.4-8.5</t>
+  </si>
+  <si>
+    <t>4.3-9.6</t>
   </si>
   <si>
     <t>3.3-10.7</t>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>99.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C2">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1848,28 +1848,28 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="C3">
-        <v>33.3</v>
+        <v>38.2</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>25.8</v>
       </c>
       <c r="E3">
-        <v>22.3</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>14.7</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1881,33 +1881,33 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C4">
-        <v>37.1</v>
+        <v>29.7</v>
       </c>
       <c r="D4">
-        <v>25.5</v>
+        <v>21.2</v>
       </c>
       <c r="E4">
-        <v>21</v>
+        <v>24.6</v>
       </c>
       <c r="F4">
-        <v>11.5</v>
+        <v>16.4</v>
       </c>
       <c r="G4">
-        <v>4.2</v>
+        <v>6.7</v>
       </c>
       <c r="H4">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1930,25 +1930,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>11.2</v>
+        <v>12.9</v>
       </c>
       <c r="D5">
-        <v>24.6</v>
+        <v>23.8</v>
       </c>
       <c r="E5">
-        <v>23.6</v>
+        <v>23.1</v>
       </c>
       <c r="F5">
-        <v>21.2</v>
+        <v>23</v>
       </c>
       <c r="G5">
-        <v>16.6</v>
+        <v>14.7</v>
       </c>
       <c r="H5">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="I5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>97.2</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="D6">
-        <v>22.2</v>
+        <v>22.8</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>20.7</v>
       </c>
       <c r="F6">
-        <v>22.6</v>
+        <v>21.8</v>
       </c>
       <c r="G6">
-        <v>13.7</v>
+        <v>11.5</v>
       </c>
       <c r="H6">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>94.8</v>
+        <v>93.3</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2006,34 +2006,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="D7">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="E7">
-        <v>10.6</v>
+        <v>9.5</v>
       </c>
       <c r="F7">
-        <v>21.7</v>
+        <v>18.5</v>
       </c>
       <c r="G7">
-        <v>33.3</v>
+        <v>34</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>17.2</v>
       </c>
       <c r="I7">
-        <v>8.1</v>
+        <v>11.2</v>
       </c>
       <c r="J7">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L7">
-        <v>72.5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2047,31 +2047,31 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="F8">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="G8">
-        <v>12.7</v>
+        <v>17</v>
       </c>
       <c r="H8">
-        <v>38</v>
+        <v>40.9</v>
       </c>
       <c r="I8">
-        <v>30</v>
+        <v>26.4</v>
       </c>
       <c r="J8">
-        <v>10.7</v>
+        <v>8.9</v>
       </c>
       <c r="K8">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="L8">
-        <v>20.5</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2091,25 +2091,25 @@
         <v>0.5</v>
       </c>
       <c r="F9">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="G9">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="H9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I9">
-        <v>36.8</v>
+        <v>37.2</v>
       </c>
       <c r="J9">
-        <v>15.8</v>
+        <v>16.4</v>
       </c>
       <c r="K9">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="L9">
-        <v>15.3</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H10">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>18.4</v>
+        <v>19.6</v>
       </c>
       <c r="J10">
-        <v>52.3</v>
+        <v>52.5</v>
       </c>
       <c r="K10">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="L10">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2173,16 +2173,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I11">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="J11">
-        <v>19.8</v>
+        <v>20.7</v>
       </c>
       <c r="K11">
-        <v>73.59999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2244,28 +2244,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>59.5</v>
+        <v>58.59999999999999</v>
       </c>
       <c r="C2">
-        <v>83.5</v>
+        <v>85.39999999999999</v>
       </c>
       <c r="D2">
-        <v>93.60000000000001</v>
+        <v>92</v>
       </c>
       <c r="E2">
-        <v>98.2</v>
+        <v>97.8</v>
       </c>
       <c r="F2">
         <v>99.2</v>
       </c>
       <c r="G2">
+        <v>99.3</v>
+      </c>
+      <c r="H2">
         <v>99.8</v>
       </c>
-      <c r="H2">
-        <v>99.2</v>
-      </c>
       <c r="I2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -2285,37 +2285,37 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>94.09999999999999</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="C3">
-        <v>57.3</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="D3">
-        <v>74.09999999999999</v>
+        <v>72.39999999999999</v>
       </c>
       <c r="E3">
-        <v>47.5</v>
+        <v>46.3</v>
       </c>
       <c r="F3">
-        <v>60.9</v>
+        <v>61.9</v>
       </c>
       <c r="G3">
-        <v>48.1</v>
+        <v>51.5</v>
       </c>
       <c r="H3">
-        <v>70.89999999999999</v>
+        <v>70.39999999999999</v>
       </c>
       <c r="I3">
-        <v>86.40000000000001</v>
+        <v>86.5</v>
       </c>
       <c r="J3">
-        <v>86.8</v>
+        <v>85.5</v>
       </c>
       <c r="K3">
-        <v>92.60000000000001</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="L3">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="M3">
         <v>99.59999999999999</v>
@@ -2329,37 +2329,37 @@
         <v>28.7</v>
       </c>
       <c r="C4">
-        <v>83.8</v>
+        <v>86.2</v>
       </c>
       <c r="D4">
+        <v>54.90000000000001</v>
+      </c>
+      <c r="E4">
+        <v>71.8</v>
+      </c>
+      <c r="F4">
         <v>55.00000000000001</v>
       </c>
-      <c r="E4">
-        <v>69.8</v>
-      </c>
-      <c r="F4">
-        <v>56.10000000000001</v>
-      </c>
       <c r="G4">
-        <v>76.59999999999999</v>
+        <v>76.2</v>
       </c>
       <c r="H4">
-        <v>70.09999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="I4">
-        <v>83.59999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="J4">
-        <v>91.5</v>
+        <v>88.3</v>
       </c>
       <c r="K4">
-        <v>93.2</v>
+        <v>95</v>
       </c>
       <c r="L4">
-        <v>97.09999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="M4">
-        <v>99.40000000000001</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2370,37 +2370,37 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>95.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D5">
-        <v>69.5</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="E5">
-        <v>74.40000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F5">
-        <v>83.39999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="G5">
-        <v>95.09999999999999</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="H5">
-        <v>85.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="I5">
-        <v>93.2</v>
+        <v>92.5</v>
       </c>
       <c r="J5">
-        <v>97.7</v>
+        <v>98</v>
       </c>
       <c r="K5">
-        <v>95.59999999999999</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="L5">
-        <v>95.89999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="M5">
-        <v>97.3</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2408,40 +2408,40 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>89.2</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="C6">
-        <v>85.39999999999999</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="D6">
         <v>97.59999999999999</v>
       </c>
       <c r="E6">
-        <v>91.60000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F6">
-        <v>98.59999999999999</v>
+        <v>98</v>
       </c>
       <c r="G6">
-        <v>93.60000000000001</v>
+        <v>91.8</v>
       </c>
       <c r="H6">
-        <v>82.39999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="I6">
-        <v>72.39999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="J6">
-        <v>89.5</v>
+        <v>90.3</v>
       </c>
       <c r="K6">
-        <v>83.2</v>
+        <v>85.2</v>
       </c>
       <c r="L6">
-        <v>93.30000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="M6">
-        <v>95.09999999999999</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2449,40 +2449,40 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>4.399999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="C7">
-        <v>55.60000000000001</v>
+        <v>55.90000000000001</v>
       </c>
       <c r="D7">
-        <v>80.60000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="E7">
-        <v>66</v>
+        <v>64.8</v>
       </c>
       <c r="F7">
-        <v>47.09999999999999</v>
+        <v>48.1</v>
       </c>
       <c r="G7">
-        <v>34.5</v>
+        <v>33.7</v>
       </c>
       <c r="H7">
-        <v>62.5</v>
+        <v>57.8</v>
       </c>
       <c r="I7">
-        <v>40.2</v>
+        <v>40.8</v>
       </c>
       <c r="J7">
-        <v>25.7</v>
+        <v>25.3</v>
       </c>
       <c r="K7">
-        <v>48.7</v>
+        <v>47</v>
       </c>
       <c r="L7">
-        <v>74.2</v>
+        <v>71.7</v>
       </c>
       <c r="M7">
-        <v>71.3</v>
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2490,40 +2490,40 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>44.5</v>
+        <v>41.7</v>
       </c>
       <c r="C8">
-        <v>49.3</v>
+        <v>46</v>
       </c>
       <c r="D8">
-        <v>37.1</v>
+        <v>34.2</v>
       </c>
       <c r="E8">
-        <v>52.40000000000001</v>
+        <v>55.1</v>
       </c>
       <c r="F8">
-        <v>50.5</v>
+        <v>50.9</v>
       </c>
       <c r="G8">
-        <v>75.8</v>
+        <v>77.7</v>
       </c>
       <c r="H8">
-        <v>73.8</v>
+        <v>75.3</v>
       </c>
       <c r="I8">
-        <v>58.3</v>
+        <v>56.7</v>
       </c>
       <c r="J8">
-        <v>47.5</v>
+        <v>50.7</v>
       </c>
       <c r="K8">
-        <v>55.2</v>
+        <v>53.40000000000001</v>
       </c>
       <c r="L8">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="M8">
-        <v>21.3</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2531,40 +2531,40 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>75.5</v>
+        <v>77.10000000000001</v>
       </c>
       <c r="C9">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="D9">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="E9">
-        <v>22.1</v>
+        <v>23.6</v>
       </c>
       <c r="F9">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G9">
-        <v>21.5</v>
+        <v>25.2</v>
       </c>
       <c r="H9">
-        <v>27.4</v>
+        <v>28.9</v>
       </c>
       <c r="I9">
-        <v>49.5</v>
+        <v>50.2</v>
       </c>
       <c r="J9">
-        <v>45.4</v>
+        <v>46.5</v>
       </c>
       <c r="K9">
-        <v>26.1</v>
+        <v>25.3</v>
       </c>
       <c r="L9">
-        <v>15.7</v>
+        <v>14.9</v>
       </c>
       <c r="M9">
-        <v>15.2</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2572,40 +2572,40 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="C10">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="D10">
-        <v>56.49999999999999</v>
+        <v>57.8</v>
       </c>
       <c r="E10">
-        <v>67.40000000000001</v>
+        <v>61.8</v>
       </c>
       <c r="F10">
         <v>46.40000000000001</v>
       </c>
       <c r="G10">
-        <v>50</v>
+        <v>46.8</v>
       </c>
       <c r="H10">
-        <v>26.7</v>
+        <v>29.7</v>
       </c>
       <c r="I10">
-        <v>15.8</v>
+        <v>16.7</v>
       </c>
       <c r="J10">
-        <v>13.5</v>
+        <v>13.1</v>
       </c>
       <c r="K10">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L10">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="M10">
-        <v>0.7000000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2613,37 +2613,37 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C11">
-        <v>75.59999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D11">
-        <v>32.6</v>
+        <v>33.6</v>
       </c>
       <c r="E11">
-        <v>10.6</v>
+        <v>9</v>
       </c>
       <c r="F11">
-        <v>5.800000000000001</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="H11">
-        <v>1.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="I11">
-        <v>0.7000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="J11">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K11">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M11">
         <v>0.1</v>
@@ -2701,8 +2701,8 @@
       <c r="D2">
         <v>115.42</v>
       </c>
-      <c r="E2">
-        <v>0.636</v>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
       <c r="F2">
         <v>125.47</v>
@@ -2730,8 +2730,8 @@
       <c r="D3">
         <v>119.92</v>
       </c>
-      <c r="E3">
-        <v>0.364</v>
+      <c r="E3" t="s">
+        <v>15</v>
       </c>
       <c r="F3">
         <v>125.34</v>
@@ -2759,8 +2759,8 @@
       <c r="D4">
         <v>112.18</v>
       </c>
-      <c r="E4">
-        <v>0.364</v>
+      <c r="E4" t="s">
+        <v>15</v>
       </c>
       <c r="F4">
         <v>116.45</v>
@@ -2788,8 +2788,8 @@
       <c r="D5">
         <v>118.88</v>
       </c>
-      <c r="E5">
-        <v>0.636</v>
+      <c r="E5" t="s">
+        <v>11</v>
       </c>
       <c r="F5">
         <v>119.5</v>
@@ -2817,8 +2817,8 @@
       <c r="D6">
         <v>107.44</v>
       </c>
-      <c r="E6">
-        <v>0.273</v>
+      <c r="E6" t="s">
+        <v>16</v>
       </c>
       <c r="F6">
         <v>114.3</v>
@@ -2846,8 +2846,8 @@
       <c r="D7">
         <v>131.49</v>
       </c>
-      <c r="E7">
-        <v>0.909</v>
+      <c r="E7" t="s">
+        <v>10</v>
       </c>
       <c r="F7">
         <v>118.07</v>
@@ -2875,8 +2875,8 @@
       <c r="D8">
         <v>124.95</v>
       </c>
-      <c r="E8">
-        <v>0.545</v>
+      <c r="E8" t="s">
+        <v>14</v>
       </c>
       <c r="F8">
         <v>115.84</v>
@@ -2904,8 +2904,8 @@
       <c r="D9">
         <v>119.56</v>
       </c>
-      <c r="E9">
-        <v>0.636</v>
+      <c r="E9" t="s">
+        <v>11</v>
       </c>
       <c r="F9">
         <v>115.41</v>
@@ -2933,8 +2933,8 @@
       <c r="D10">
         <v>104.44</v>
       </c>
-      <c r="E10">
-        <v>0.182</v>
+      <c r="E10" t="s">
+        <v>17</v>
       </c>
       <c r="F10">
         <v>113.19</v>
@@ -2962,8 +2962,8 @@
       <c r="D11">
         <v>119.95</v>
       </c>
-      <c r="E11">
-        <v>0.455</v>
+      <c r="E11" t="s">
+        <v>12</v>
       </c>
       <c r="F11">
         <v>110.68</v>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -3060,13 +3060,13 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="D3">
-        <v>118.8836363636364</v>
+        <v>119.5618181818182</v>
       </c>
       <c r="E3">
-        <v>1307.72</v>
+        <v>1315.18</v>
       </c>
       <c r="F3">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
@@ -3089,13 +3089,13 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="D4">
-        <v>119.5618181818182</v>
+        <v>118.8836363636364</v>
       </c>
       <c r="E4">
-        <v>1315.18</v>
+        <v>1307.72</v>
       </c>
       <c r="F4">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3104,7 +3104,7 @@
         <v>82</v>
       </c>
       <c r="I4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3124,7 +3124,7 @@
         <v>1269.58</v>
       </c>
       <c r="F5">
-        <v>97.2</v>
+        <v>97.5</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>1374.5</v>
       </c>
       <c r="F6">
-        <v>94.8</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3182,10 +3182,10 @@
         <v>1319.42</v>
       </c>
       <c r="F7">
-        <v>72.5</v>
+        <v>70</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H7" t="s">
         <v>85</v>
@@ -3211,10 +3211,10 @@
         <v>1319.1</v>
       </c>
       <c r="F8">
-        <v>20.5</v>
+        <v>23.7</v>
       </c>
       <c r="G8">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="H8" t="s">
         <v>86</v>
@@ -3240,10 +3240,10 @@
         <v>1234.02</v>
       </c>
       <c r="F9">
-        <v>15.3</v>
+        <v>15.7</v>
       </c>
       <c r="G9">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="H9" t="s">
         <v>87</v>
@@ -3269,10 +3269,10 @@
         <v>1181.86</v>
       </c>
       <c r="F10">
-        <v>0.8999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="G10">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="H10" t="s">
         <v>88</v>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>73.59999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="H11" t="s">
         <v>89</v>

--- a/leagues/0755 Fantasy Football 2025.xlsx
+++ b/leagues/0755 Fantasy Football 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="128">
   <si>
     <t>Michael, The Baker</t>
   </si>
@@ -55,31 +55,31 @@
     <t>AJ's Awesome Team</t>
   </si>
   <si>
-    <t>10-1-0</t>
-  </si>
-  <si>
-    <t>7-4-0</t>
-  </si>
-  <si>
-    <t>5-6-0</t>
-  </si>
-  <si>
-    <t>8-3-0</t>
-  </si>
-  <si>
-    <t>6-5-0</t>
-  </si>
-  <si>
-    <t>4-7-0</t>
-  </si>
-  <si>
-    <t>3-8-0</t>
-  </si>
-  <si>
-    <t>2-9-0</t>
-  </si>
-  <si>
-    <t>1-10-0</t>
+    <t>11-1-0</t>
+  </si>
+  <si>
+    <t>7-5-0</t>
+  </si>
+  <si>
+    <t>6-6-0</t>
+  </si>
+  <si>
+    <t>5-7-0</t>
+  </si>
+  <si>
+    <t>9-3-0</t>
+  </si>
+  <si>
+    <t>3-9-0</t>
+  </si>
+  <si>
+    <t>8-4-0</t>
+  </si>
+  <si>
+    <t>4-8-0</t>
+  </si>
+  <si>
+    <t>2-10-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -169,6 +169,9 @@
     <t>Week_12</t>
   </si>
   <si>
+    <t>Week_13</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -190,36 +193,36 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Kyle R</t>
+  </si>
+  <si>
     <t>Jacob Nichols</t>
   </si>
   <si>
-    <t>Kyle R</t>
+    <t>Robbie Wilston</t>
   </si>
   <si>
     <t>Grace Olenzak</t>
   </si>
   <si>
-    <t>Robbie Wilston</t>
+    <t>Anthony Rizzo</t>
   </si>
   <si>
     <t>Abhishek Joshi</t>
   </si>
   <si>
-    <t>Anthony Rizzo</t>
-  </si>
-  <si>
     <t>Gigi Boguski</t>
   </si>
   <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
     <t>Jaime Cunningham</t>
   </si>
   <si>
     <t>Marvin Ta</t>
   </si>
   <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -244,55 +247,52 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>10-1</t>
-  </si>
-  <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>4-7</t>
-  </si>
-  <si>
-    <t>3-8</t>
-  </si>
-  <si>
-    <t>2-9</t>
-  </si>
-  <si>
-    <t>11.8-2.1</t>
-  </si>
-  <si>
-    <t>8.6-5.4</t>
-  </si>
-  <si>
-    <t>8.4-5.5</t>
-  </si>
-  <si>
-    <t>8.2-5.7</t>
-  </si>
-  <si>
-    <t>7.7-6.3</t>
-  </si>
-  <si>
-    <t>6.7-7.3</t>
-  </si>
-  <si>
-    <t>5.4-8.6</t>
-  </si>
-  <si>
-    <t>5.4-8.5</t>
-  </si>
-  <si>
-    <t>4.3-9.6</t>
-  </si>
-  <si>
-    <t>3.3-10.7</t>
+    <t>11-1</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>2-10</t>
+  </si>
+  <si>
+    <t>3-9</t>
+  </si>
+  <si>
+    <t>12.1-1.9</t>
+  </si>
+  <si>
+    <t>8.9-5.0</t>
+  </si>
+  <si>
+    <t>8.1-5.9</t>
+  </si>
+  <si>
+    <t>7.9-6.1</t>
+  </si>
+  <si>
+    <t>7.2-6.8</t>
+  </si>
+  <si>
+    <t>7.0-6.9</t>
+  </si>
+  <si>
+    <t>6.0-8.0</t>
+  </si>
+  <si>
+    <t>2.9-11.1</t>
+  </si>
+  <si>
+    <t>3.9-10.1</t>
   </si>
   <si>
     <t>12-2</t>
@@ -307,15 +307,15 @@
     <t>7-7</t>
   </si>
   <si>
-    <t>5-9</t>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>3-11</t>
   </si>
   <si>
     <t>4-10</t>
   </si>
   <si>
-    <t>3-11</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -328,31 +328,28 @@
     <t>0</t>
   </si>
   <si>
-    <t>↑1</t>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑10</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓3</t>
   </si>
   <si>
     <t>↑5</t>
   </si>
   <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↓11</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↑2</t>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓7</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -386,6 +383,9 @@
   </si>
   <si>
     <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
   <si>
     <t>Week</t>
@@ -810,31 +810,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
         <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -848,28 +848,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -880,22 +880,22 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -904,7 +904,7 @@
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -912,34 +912,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -947,16 +947,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -968,13 +968,13 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1017,34 +1017,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
         <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1052,34 +1052,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1087,13 +1087,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -1105,16 +1105,16 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1122,34 +1122,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="K11" t="s">
         <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1193,25 +1193,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>-17</v>
       </c>
       <c r="F2">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1219,25 +1219,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>11</v>
-      </c>
       <c r="F3">
-        <v>-4</v>
+        <v>28</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1245,22 +1245,22 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
       <c r="E4">
-        <v>-22</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -1271,25 +1271,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>-22</v>
       </c>
       <c r="F5">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1300,22 +1300,22 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="G6">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1323,25 +1323,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>-7</v>
       </c>
       <c r="G7">
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1352,22 +1352,22 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F8">
-        <v>-17</v>
+        <v>8</v>
       </c>
       <c r="G8">
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1375,25 +1375,25 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
       <c r="E9">
-        <v>20</v>
+        <v>-4</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>-17</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1425,13 +1425,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1439,13 +1439,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1453,13 +1453,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1467,13 +1467,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1481,13 +1481,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1495,13 +1495,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1523,13 +1523,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1540,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -1554,10 +1554,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1595,10 +1595,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D2">
-        <v>-2.4</v>
+        <v>-2.800000000000001</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1609,16 +1609,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="D3">
-        <v>0.7999999999999998</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1626,16 +1626,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="D4">
-        <v>-0.5999999999999996</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1646,13 +1646,13 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1660,16 +1660,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="D6">
-        <v>-1.5</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1677,16 +1677,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1694,16 +1694,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="D8">
-        <v>1.1</v>
+        <v>-1.2</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1714,13 +1714,13 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="D9">
-        <v>0.7999999999999998</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1728,16 +1728,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D10">
-        <v>0.7999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1745,16 +1745,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D11">
-        <v>1.5</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>98.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1848,28 +1848,28 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>38.2</v>
+        <v>58.8</v>
       </c>
       <c r="D3">
-        <v>25.8</v>
+        <v>18.4</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>17.9</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>4.9</v>
       </c>
       <c r="G3">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1881,34 +1881,34 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>99.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>32.3</v>
+      </c>
+      <c r="D4">
+        <v>21.5</v>
+      </c>
+      <c r="E4">
+        <v>26.1</v>
+      </c>
+      <c r="F4">
+        <v>12.2</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
         <v>0.9</v>
       </c>
-      <c r="C4">
-        <v>29.7</v>
-      </c>
-      <c r="D4">
-        <v>21.2</v>
-      </c>
-      <c r="E4">
-        <v>24.6</v>
-      </c>
-      <c r="F4">
-        <v>16.4</v>
-      </c>
-      <c r="G4">
-        <v>6.7</v>
-      </c>
-      <c r="H4">
-        <v>0.5</v>
-      </c>
       <c r="I4">
         <v>0</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>99.5</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1930,25 +1930,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>12.9</v>
+        <v>3.4</v>
       </c>
       <c r="D5">
-        <v>23.8</v>
+        <v>20.8</v>
       </c>
       <c r="E5">
-        <v>23.1</v>
+        <v>25.9</v>
       </c>
       <c r="F5">
-        <v>23</v>
+        <v>20.4</v>
       </c>
       <c r="G5">
-        <v>14.7</v>
+        <v>19.6</v>
       </c>
       <c r="H5">
-        <v>2.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1957,36 +1957,36 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>97.5</v>
+        <v>90.09999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>16.5</v>
+        <v>2.6</v>
       </c>
       <c r="D6">
-        <v>22.8</v>
+        <v>23.3</v>
       </c>
       <c r="E6">
-        <v>20.7</v>
+        <v>11.6</v>
       </c>
       <c r="F6">
-        <v>21.8</v>
+        <v>23.5</v>
       </c>
       <c r="G6">
-        <v>11.5</v>
+        <v>22.7</v>
       </c>
       <c r="H6">
-        <v>5.8</v>
+        <v>9.6</v>
       </c>
       <c r="I6">
-        <v>0.9</v>
+        <v>6.7</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1995,45 +1995,45 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>93.3</v>
+        <v>83.7</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="D7">
-        <v>6.4</v>
+        <v>15.5</v>
       </c>
       <c r="E7">
-        <v>9.5</v>
+        <v>12.9</v>
       </c>
       <c r="F7">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="G7">
-        <v>34</v>
+        <v>22.1</v>
       </c>
       <c r="H7">
-        <v>17.2</v>
+        <v>18</v>
       </c>
       <c r="I7">
-        <v>11.2</v>
+        <v>3.6</v>
       </c>
       <c r="J7">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>70</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2047,31 +2047,31 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="F8">
-        <v>5.1</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="H8">
-        <v>40.9</v>
+        <v>41.2</v>
       </c>
       <c r="I8">
-        <v>26.4</v>
+        <v>24.2</v>
       </c>
       <c r="J8">
-        <v>8.9</v>
+        <v>0.1</v>
       </c>
       <c r="K8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>23.7</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2088,33 +2088,33 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F9">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="H9">
-        <v>27</v>
+        <v>21.4</v>
       </c>
       <c r="I9">
-        <v>37.2</v>
+        <v>61.7</v>
       </c>
       <c r="J9">
-        <v>16.4</v>
+        <v>2.7</v>
       </c>
       <c r="K9">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>15.7</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2132,27 +2132,27 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>19.6</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>52.5</v>
+        <v>32</v>
       </c>
       <c r="K10">
-        <v>22.3</v>
+        <v>68</v>
       </c>
       <c r="L10">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2173,16 +2173,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="I11">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="J11">
-        <v>20.7</v>
+        <v>65.2</v>
       </c>
       <c r="K11">
-        <v>73.8</v>
+        <v>32</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2195,13 +2195,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
@@ -2238,34 +2238,37 @@
       <c r="M1" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>58.59999999999999</v>
+        <v>60.7</v>
       </c>
       <c r="C2">
-        <v>85.39999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="D2">
-        <v>92</v>
+        <v>90.8</v>
       </c>
       <c r="E2">
-        <v>97.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F2">
-        <v>99.2</v>
+        <v>99.5</v>
       </c>
       <c r="G2">
-        <v>99.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H2">
         <v>99.8</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -2279,374 +2282,404 @@
       <c r="M2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>25.5</v>
+      </c>
+      <c r="C3">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="D3">
+        <v>59.5</v>
+      </c>
+      <c r="E3">
+        <v>73.3</v>
+      </c>
+      <c r="F3">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="G3">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="H3">
+        <v>68.2</v>
+      </c>
+      <c r="I3">
+        <v>80.10000000000001</v>
+      </c>
+      <c r="J3">
+        <v>90.7</v>
+      </c>
+      <c r="K3">
+        <v>93.7</v>
+      </c>
+      <c r="L3">
+        <v>96.2</v>
+      </c>
+      <c r="M3">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>95.19999999999999</v>
-      </c>
-      <c r="C3">
-        <v>56.00000000000001</v>
-      </c>
-      <c r="D3">
-        <v>72.39999999999999</v>
-      </c>
-      <c r="E3">
-        <v>46.3</v>
-      </c>
-      <c r="F3">
-        <v>61.9</v>
-      </c>
-      <c r="G3">
-        <v>51.5</v>
-      </c>
-      <c r="H3">
-        <v>70.39999999999999</v>
-      </c>
-      <c r="I3">
-        <v>86.5</v>
-      </c>
-      <c r="J3">
-        <v>85.5</v>
-      </c>
-      <c r="K3">
-        <v>91.90000000000001</v>
-      </c>
-      <c r="L3">
-        <v>98.5</v>
-      </c>
-      <c r="M3">
-        <v>99.59999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B4">
-        <v>28.7</v>
+        <v>94.3</v>
       </c>
       <c r="C4">
-        <v>86.2</v>
+        <v>56.7</v>
       </c>
       <c r="D4">
-        <v>54.90000000000001</v>
+        <v>70.3</v>
       </c>
       <c r="E4">
-        <v>71.8</v>
+        <v>49</v>
       </c>
       <c r="F4">
-        <v>55.00000000000001</v>
+        <v>60.5</v>
       </c>
       <c r="G4">
-        <v>76.2</v>
+        <v>50.1</v>
       </c>
       <c r="H4">
-        <v>69.09999999999999</v>
+        <v>70.7</v>
       </c>
       <c r="I4">
-        <v>79.2</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="J4">
-        <v>88.3</v>
+        <v>87.3</v>
       </c>
       <c r="K4">
-        <v>95</v>
+        <v>91.7</v>
       </c>
       <c r="L4">
-        <v>97.7</v>
+        <v>98.3</v>
       </c>
       <c r="M4">
-        <v>99.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>97.2</v>
+      </c>
+      <c r="N4">
+        <v>99.90000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C5">
-        <v>97.09999999999999</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="D5">
-        <v>70.59999999999999</v>
+        <v>69.89999999999999</v>
       </c>
       <c r="E5">
-        <v>76.90000000000001</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="F5">
-        <v>85.5</v>
+        <v>83.89999999999999</v>
       </c>
       <c r="G5">
-        <v>94.19999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="H5">
-        <v>87.40000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="I5">
-        <v>92.5</v>
+        <v>93.10000000000001</v>
       </c>
       <c r="J5">
-        <v>98</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="K5">
-        <v>95.89999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="L5">
-        <v>96.3</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="M5">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="N5">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>55.7</v>
+      </c>
+      <c r="D6">
+        <v>81.89999999999999</v>
+      </c>
+      <c r="E6">
+        <v>66.5</v>
+      </c>
+      <c r="F6">
+        <v>48.9</v>
+      </c>
+      <c r="G6">
+        <v>36.3</v>
+      </c>
+      <c r="H6">
+        <v>61.4</v>
+      </c>
+      <c r="I6">
+        <v>41.9</v>
+      </c>
+      <c r="J6">
+        <v>27</v>
+      </c>
+      <c r="K6">
+        <v>47.5</v>
+      </c>
+      <c r="L6">
+        <v>72.8</v>
+      </c>
+      <c r="M6">
+        <v>82.69999999999999</v>
+      </c>
+      <c r="N6">
+        <v>82.69999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>89.8</v>
+      </c>
+      <c r="C7">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="D7">
         <v>97.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="C6">
-        <v>84.09999999999999</v>
-      </c>
-      <c r="D6">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="E6">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="F6">
-        <v>98</v>
-      </c>
-      <c r="G6">
-        <v>91.8</v>
-      </c>
-      <c r="H6">
-        <v>80.7</v>
-      </c>
-      <c r="I6">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="J6">
-        <v>90.3</v>
-      </c>
-      <c r="K6">
-        <v>85.2</v>
-      </c>
-      <c r="L6">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="M6">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>4.2</v>
-      </c>
-      <c r="C7">
-        <v>55.90000000000001</v>
-      </c>
-      <c r="D7">
-        <v>83.8</v>
-      </c>
       <c r="E7">
-        <v>64.8</v>
+        <v>92.7</v>
       </c>
       <c r="F7">
-        <v>48.1</v>
+        <v>98.2</v>
       </c>
       <c r="G7">
-        <v>33.7</v>
+        <v>92.7</v>
       </c>
       <c r="H7">
-        <v>57.8</v>
+        <v>81.89999999999999</v>
       </c>
       <c r="I7">
-        <v>40.8</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="J7">
-        <v>25.3</v>
+        <v>89</v>
       </c>
       <c r="K7">
-        <v>47</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="L7">
-        <v>71.7</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="M7">
-        <v>73.09999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>76.2</v>
+      </c>
+      <c r="N7">
+        <v>81.89999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8">
-        <v>41.7</v>
+        <v>45.9</v>
       </c>
       <c r="C8">
-        <v>46</v>
+        <v>49.1</v>
       </c>
       <c r="D8">
-        <v>34.2</v>
+        <v>36.8</v>
       </c>
       <c r="E8">
-        <v>55.1</v>
+        <v>53.1</v>
       </c>
       <c r="F8">
-        <v>50.9</v>
+        <v>51.2</v>
       </c>
       <c r="G8">
-        <v>77.7</v>
+        <v>77.5</v>
       </c>
       <c r="H8">
-        <v>75.3</v>
+        <v>74.3</v>
       </c>
       <c r="I8">
-        <v>56.7</v>
+        <v>55.2</v>
       </c>
       <c r="J8">
-        <v>50.7</v>
+        <v>47.3</v>
       </c>
       <c r="K8">
-        <v>53.40000000000001</v>
+        <v>52.7</v>
       </c>
       <c r="L8">
-        <v>24.2</v>
+        <v>25.2</v>
       </c>
       <c r="M8">
-        <v>20.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>39.2</v>
+      </c>
+      <c r="N8">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B9">
-        <v>77.10000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="C9">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="E9">
-        <v>23.6</v>
+        <v>21.4</v>
       </c>
       <c r="F9">
-        <v>50</v>
+        <v>50.3</v>
       </c>
       <c r="G9">
-        <v>25.2</v>
+        <v>22.4</v>
       </c>
       <c r="H9">
-        <v>28.9</v>
+        <v>27.1</v>
       </c>
       <c r="I9">
-        <v>50.2</v>
+        <v>48.1</v>
       </c>
       <c r="J9">
-        <v>46.5</v>
+        <v>44.1</v>
       </c>
       <c r="K9">
-        <v>25.3</v>
+        <v>28</v>
       </c>
       <c r="L9">
-        <v>14.9</v>
+        <v>16.1</v>
       </c>
       <c r="M9">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>17.2</v>
+      </c>
+      <c r="N9">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C10">
+        <v>75.8</v>
+      </c>
+      <c r="D10">
+        <v>34.59999999999999</v>
+      </c>
+      <c r="E10">
+        <v>10.5</v>
+      </c>
+      <c r="F10">
+        <v>4.9</v>
+      </c>
+      <c r="G10">
+        <v>3.4</v>
+      </c>
+      <c r="H10">
+        <v>0.8</v>
+      </c>
+      <c r="I10">
+        <v>0.3</v>
+      </c>
+      <c r="J10">
+        <v>3.2</v>
+      </c>
+      <c r="K10">
+        <v>0.6</v>
+      </c>
+      <c r="L10">
+        <v>0.1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>3.6</v>
-      </c>
-      <c r="C10">
-        <v>7.9</v>
-      </c>
-      <c r="D10">
-        <v>57.8</v>
-      </c>
-      <c r="E10">
-        <v>61.8</v>
-      </c>
-      <c r="F10">
-        <v>46.40000000000001</v>
-      </c>
-      <c r="G10">
-        <v>46.8</v>
-      </c>
-      <c r="H10">
-        <v>29.7</v>
-      </c>
-      <c r="I10">
-        <v>16.7</v>
-      </c>
-      <c r="J10">
-        <v>13.1</v>
-      </c>
-      <c r="K10">
-        <v>5.2</v>
-      </c>
-      <c r="L10">
+      <c r="B11">
+        <v>3.5</v>
+      </c>
+      <c r="C11">
+        <v>9.1</v>
+      </c>
+      <c r="D11">
+        <v>54.50000000000001</v>
+      </c>
+      <c r="E11">
+        <v>60.8</v>
+      </c>
+      <c r="F11">
+        <v>44.6</v>
+      </c>
+      <c r="G11">
+        <v>48.4</v>
+      </c>
+      <c r="H11">
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <v>17.8</v>
+      </c>
+      <c r="J11">
+        <v>13.5</v>
+      </c>
+      <c r="K11">
+        <v>5.7</v>
+      </c>
+      <c r="L11">
         <v>1.7</v>
       </c>
-      <c r="M10">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>100</v>
-      </c>
-      <c r="C11">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="D11">
-        <v>33.6</v>
-      </c>
-      <c r="E11">
-        <v>9</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>3.6</v>
-      </c>
-      <c r="H11">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="I11">
-        <v>0.5</v>
-      </c>
-      <c r="J11">
-        <v>2.3</v>
-      </c>
-      <c r="K11">
-        <v>1.1</v>
-      </c>
-      <c r="L11">
-        <v>0.4</v>
-      </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2667,25 +2700,25 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2693,28 +2726,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>115.42</v>
+        <v>123.53</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>125.47</v>
+        <v>126.56</v>
       </c>
       <c r="G2">
-        <v>0.636</v>
+        <v>0.708</v>
       </c>
       <c r="H2">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2722,28 +2755,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3">
-        <v>119.92</v>
+        <v>114.67</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>125.34</v>
+        <v>122.67</v>
       </c>
       <c r="G3">
-        <v>0.697</v>
+        <v>0.5</v>
       </c>
       <c r="H3">
-        <v>17.7</v>
+        <v>18.5</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2751,28 +2784,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4">
-        <v>112.18</v>
+        <v>118.67</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>116.45</v>
+        <v>125.43</v>
       </c>
       <c r="G4">
-        <v>0.394</v>
+        <v>0.75</v>
       </c>
       <c r="H4">
-        <v>7.3</v>
+        <v>16</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2780,28 +2813,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5">
-        <v>118.88</v>
+        <v>111.42</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5">
-        <v>119.5</v>
+        <v>114.21</v>
       </c>
       <c r="G5">
-        <v>0.606</v>
+        <v>0.333</v>
       </c>
       <c r="H5">
-        <v>-1.3</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2809,28 +2842,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>107.44</v>
+        <v>130.46</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>114.3</v>
+        <v>121.1</v>
       </c>
       <c r="G6">
-        <v>0.485</v>
+        <v>0.542</v>
       </c>
       <c r="H6">
-        <v>-2</v>
+        <v>2.5</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2838,28 +2871,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D7">
-        <v>131.49</v>
+        <v>105.92</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>118.07</v>
+        <v>113.07</v>
       </c>
       <c r="G7">
-        <v>0.545</v>
+        <v>0.375</v>
       </c>
       <c r="H7">
-        <v>-2.3</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2870,25 +2903,25 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8">
-        <v>124.95</v>
+        <v>122.66</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F8">
-        <v>115.84</v>
+        <v>119.1</v>
       </c>
       <c r="G8">
-        <v>0.455</v>
+        <v>0.5</v>
       </c>
       <c r="H8">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2896,28 +2929,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D9">
-        <v>119.56</v>
+        <v>122.68</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9">
-        <v>115.41</v>
+        <v>113.04</v>
       </c>
       <c r="G9">
-        <v>0.424</v>
+        <v>0.5</v>
       </c>
       <c r="H9">
-        <v>-9.699999999999999</v>
+        <v>-13.5</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2925,28 +2958,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D10">
-        <v>104.44</v>
+        <v>120.4</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10">
-        <v>113.19</v>
+        <v>112.29</v>
       </c>
       <c r="G10">
-        <v>0.364</v>
+        <v>0.458</v>
       </c>
       <c r="H10">
-        <v>-9.699999999999999</v>
+        <v>-17.5</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2954,28 +2987,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11">
+        <v>105.74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>108.67</v>
+      </c>
+      <c r="G11">
+        <v>0.333</v>
+      </c>
+      <c r="H11">
+        <v>-26.5</v>
+      </c>
+      <c r="I11">
         <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11">
-        <v>119.95</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11">
-        <v>110.68</v>
-      </c>
-      <c r="G11">
-        <v>0.394</v>
-      </c>
-      <c r="H11">
-        <v>-11.7</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2996,28 +3029,28 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3025,16 +3058,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2">
-        <v>0.9090909090909091</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D2">
-        <v>131.4945454545455</v>
+        <v>130.4566666666667</v>
       </c>
       <c r="E2">
-        <v>1446.44</v>
+        <v>1565.48</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3043,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s">
         <v>90</v>
@@ -3051,28 +3084,28 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>119.5618181818182</v>
+        <v>118.665</v>
       </c>
       <c r="E3">
-        <v>1315.18</v>
+        <v>1423.98</v>
       </c>
       <c r="F3">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s">
         <v>91</v>
@@ -3080,28 +3113,28 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4">
-        <v>0.6363636363636364</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D4">
-        <v>118.8836363636364</v>
+        <v>120.4</v>
       </c>
       <c r="E4">
-        <v>1307.72</v>
+        <v>1444.8</v>
       </c>
       <c r="F4">
-        <v>99.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
@@ -3112,25 +3145,25 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5">
-        <v>0.6363636363636364</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D5">
-        <v>115.4163636363636</v>
+        <v>114.6716666666667</v>
       </c>
       <c r="E5">
-        <v>1269.58</v>
+        <v>1376.06</v>
       </c>
       <c r="F5">
-        <v>97.5</v>
+        <v>90.10000000000001</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I5" t="s">
         <v>92</v>
@@ -3138,57 +3171,57 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>124.9545454545455</v>
+        <v>122.6816666666667</v>
       </c>
       <c r="E6">
-        <v>1374.5</v>
+        <v>1472.18</v>
       </c>
       <c r="F6">
-        <v>93.30000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C7">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>119.9472727272727</v>
+        <v>122.6616666666667</v>
       </c>
       <c r="E7">
-        <v>1319.42</v>
+        <v>1471.94</v>
       </c>
       <c r="F7">
-        <v>70</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="G7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I7" t="s">
         <v>93</v>
@@ -3199,25 +3232,25 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C8">
-        <v>0.3636363636363636</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D8">
-        <v>119.9181818181818</v>
+        <v>123.53</v>
       </c>
       <c r="E8">
-        <v>1319.1</v>
+        <v>1482.36</v>
       </c>
       <c r="F8">
-        <v>23.7</v>
+        <v>34.5</v>
       </c>
       <c r="G8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I8" t="s">
         <v>94</v>
@@ -3228,22 +3261,22 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9">
-        <v>0.3636363636363636</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D9">
-        <v>112.1836363636364</v>
+        <v>111.415</v>
       </c>
       <c r="E9">
-        <v>1234.02</v>
+        <v>1336.98</v>
       </c>
       <c r="F9">
-        <v>15.7</v>
+        <v>14.2</v>
       </c>
       <c r="G9">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
         <v>87</v>
@@ -3254,25 +3287,25 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10">
-        <v>0.2727272727272727</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D10">
-        <v>107.4418181818182</v>
+        <v>105.74</v>
       </c>
       <c r="E10">
-        <v>1181.86</v>
+        <v>1268.88</v>
       </c>
       <c r="F10">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>22.3</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
         <v>88</v>
@@ -3283,25 +3316,25 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11">
-        <v>0.1818181818181818</v>
+        <v>0.25</v>
       </c>
       <c r="D11">
-        <v>104.4418181818182</v>
+        <v>105.9183333333334</v>
       </c>
       <c r="E11">
-        <v>1148.86</v>
+        <v>1271.02</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>73.8</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
         <v>89</v>
@@ -3345,16 +3378,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>100</v>
@@ -3365,16 +3398,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>101</v>
@@ -3388,10 +3421,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -3405,19 +3438,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3425,19 +3458,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3445,19 +3478,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D7">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3468,16 +3501,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D8">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3485,19 +3518,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D9">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3505,19 +3538,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D10">
         <v>-17</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3528,16 +3561,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D11">
-        <v>-29</v>
+        <v>-36</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3547,133 +3580,142 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>16</v>
+      </c>
+      <c r="I2">
+        <v>23</v>
+      </c>
+      <c r="J2">
+        <v>14</v>
+      </c>
+      <c r="K2">
+        <v>19</v>
+      </c>
+      <c r="L2">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>-1</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>-5</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>-1</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>7</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>6</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>8</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>19</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>28</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>28</v>
       </c>
-      <c r="M2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>16</v>
-      </c>
-      <c r="H3">
-        <v>16</v>
-      </c>
-      <c r="I3">
-        <v>23</v>
-      </c>
-      <c r="J3">
-        <v>14</v>
-      </c>
-      <c r="K3">
+      <c r="M3">
         <v>19</v>
       </c>
-      <c r="L3">
-        <v>20</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3710,134 +3752,146 @@
       <c r="L4">
         <v>11</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>-4</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>-6</v>
       </c>
       <c r="G5">
+        <v>-7</v>
+      </c>
+      <c r="H5">
+        <v>-7</v>
+      </c>
+      <c r="I5">
+        <v>-7</v>
+      </c>
+      <c r="J5">
+        <v>-4</v>
+      </c>
+      <c r="K5">
+        <v>-4</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
         <v>12</v>
       </c>
-      <c r="H5">
-        <v>20</v>
-      </c>
-      <c r="I5">
-        <v>23</v>
-      </c>
-      <c r="J5">
-        <v>20</v>
-      </c>
-      <c r="K5">
-        <v>14</v>
-      </c>
-      <c r="L5">
-        <v>6</v>
-      </c>
-      <c r="M5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C6">
         <v>-1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E6">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
         <v>-6</v>
       </c>
-      <c r="G6">
-        <v>-7</v>
-      </c>
-      <c r="H6">
-        <v>-7</v>
-      </c>
-      <c r="I6">
-        <v>-7</v>
-      </c>
-      <c r="J6">
-        <v>-4</v>
-      </c>
-      <c r="K6">
-        <v>-4</v>
-      </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>23</v>
+      </c>
+      <c r="J7">
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <v>14</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>-7</v>
-      </c>
-      <c r="C7">
-        <v>-1</v>
-      </c>
-      <c r="D7">
-        <v>-2</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>17</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="I7">
-        <v>11</v>
-      </c>
-      <c r="J7">
-        <v>8</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <v>-6</v>
-      </c>
-      <c r="M7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -3874,93 +3928,102 @@
       <c r="L8">
         <v>-7</v>
       </c>
-      <c r="M8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="M8">
+        <v>-10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>-1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="E9">
+        <v>-13</v>
+      </c>
+      <c r="F9">
+        <v>-17</v>
+      </c>
+      <c r="G9">
+        <v>-13</v>
+      </c>
+      <c r="H9">
+        <v>-23</v>
+      </c>
+      <c r="I9">
+        <v>-23</v>
+      </c>
+      <c r="J9">
+        <v>-17</v>
+      </c>
+      <c r="K9">
+        <v>-14</v>
+      </c>
+      <c r="L9">
+        <v>-17</v>
+      </c>
+      <c r="M9">
+        <v>-12</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
         <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>-8</v>
-      </c>
-      <c r="H9">
-        <v>-6</v>
-      </c>
-      <c r="I9">
-        <v>-2</v>
-      </c>
-      <c r="J9">
-        <v>-7</v>
-      </c>
-      <c r="K9">
-        <v>-10</v>
-      </c>
-      <c r="L9">
-        <v>-11</v>
-      </c>
-      <c r="M9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
       </c>
       <c r="C10">
         <v>-1</v>
       </c>
       <c r="D10">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>-13</v>
+        <v>2</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>-8</v>
+      </c>
+      <c r="H10">
+        <v>-6</v>
+      </c>
+      <c r="I10">
+        <v>-2</v>
+      </c>
+      <c r="J10">
+        <v>-7</v>
+      </c>
+      <c r="K10">
+        <v>-10</v>
+      </c>
+      <c r="L10">
+        <v>-11</v>
+      </c>
+      <c r="M10">
         <v>-17</v>
       </c>
-      <c r="G10">
-        <v>-13</v>
-      </c>
-      <c r="H10">
-        <v>-23</v>
-      </c>
-      <c r="I10">
-        <v>-23</v>
-      </c>
-      <c r="J10">
-        <v>-17</v>
-      </c>
-      <c r="K10">
-        <v>-14</v>
-      </c>
-      <c r="L10">
-        <v>-17</v>
-      </c>
-      <c r="M10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3997,8 +4060,11 @@
       <c r="L11">
         <v>-29</v>
       </c>
-      <c r="M11" t="s">
-        <v>109</v>
+      <c r="M11">
+        <v>-36</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/0755 Fantasy Football 2025.xlsx
+++ b/leagues/0755 Fantasy Football 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="125">
   <si>
     <t>Michael, The Baker</t>
   </si>
@@ -55,31 +55,34 @@
     <t>AJ's Awesome Team</t>
   </si>
   <si>
-    <t>11-1-0</t>
-  </si>
-  <si>
-    <t>7-5-0</t>
-  </si>
-  <si>
-    <t>6-6-0</t>
-  </si>
-  <si>
-    <t>5-7-0</t>
-  </si>
-  <si>
-    <t>9-3-0</t>
-  </si>
-  <si>
-    <t>3-9-0</t>
-  </si>
-  <si>
-    <t>8-4-0</t>
-  </si>
-  <si>
-    <t>4-8-0</t>
-  </si>
-  <si>
-    <t>2-10-0</t>
+    <t>11-2-0</t>
+  </si>
+  <si>
+    <t>8-5-0</t>
+  </si>
+  <si>
+    <t>6-7-0</t>
+  </si>
+  <si>
+    <t>10-3-0</t>
+  </si>
+  <si>
+    <t>7-6-0</t>
+  </si>
+  <si>
+    <t>5-8-0</t>
+  </si>
+  <si>
+    <t>3-10-0</t>
+  </si>
+  <si>
+    <t>9-4-0</t>
+  </si>
+  <si>
+    <t>4-9-0</t>
+  </si>
+  <si>
+    <t>2-11-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -172,6 +175,9 @@
     <t>Week_13</t>
   </si>
   <si>
+    <t>Week_14</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -196,33 +202,33 @@
     <t>Kyle R</t>
   </si>
   <si>
+    <t>Abhishek Joshi</t>
+  </si>
+  <si>
     <t>Jacob Nichols</t>
   </si>
   <si>
     <t>Robbie Wilston</t>
   </si>
   <si>
+    <t>Anthony Rizzo</t>
+  </si>
+  <si>
+    <t>Gigi Boguski</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
+    <t>Marvin Ta</t>
+  </si>
+  <si>
     <t>Grace Olenzak</t>
   </si>
   <si>
-    <t>Anthony Rizzo</t>
-  </si>
-  <si>
-    <t>Abhishek Joshi</t>
-  </si>
-  <si>
-    <t>Gigi Boguski</t>
-  </si>
-  <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
     <t>Jaime Cunningham</t>
   </si>
   <si>
-    <t>Marvin Ta</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -247,63 +253,51 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>11-1</t>
-  </si>
-  <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>7-5</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>2-10</t>
-  </si>
-  <si>
-    <t>3-9</t>
-  </si>
-  <si>
-    <t>12.1-1.9</t>
-  </si>
-  <si>
-    <t>8.9-5.0</t>
-  </si>
-  <si>
-    <t>8.1-5.9</t>
-  </si>
-  <si>
-    <t>7.9-6.1</t>
-  </si>
-  <si>
-    <t>7.2-6.8</t>
-  </si>
-  <si>
-    <t>7.0-6.9</t>
-  </si>
-  <si>
-    <t>6.0-8.0</t>
-  </si>
-  <si>
-    <t>2.9-11.1</t>
-  </si>
-  <si>
-    <t>3.9-10.1</t>
+    <t>11-2</t>
+  </si>
+  <si>
+    <t>8-5</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>3-10</t>
+  </si>
+  <si>
+    <t>11.6-2.4</t>
+  </si>
+  <si>
+    <t>8.4-5.6</t>
+  </si>
+  <si>
+    <t>8.7-5.3</t>
+  </si>
+  <si>
+    <t>6.6-7.4</t>
+  </si>
+  <si>
+    <t>6.5-7.4</t>
+  </si>
+  <si>
+    <t>6.4-7.5</t>
+  </si>
+  <si>
+    <t>3.4-10.6</t>
+  </si>
+  <si>
+    <t>3.3-10.7</t>
   </si>
   <si>
     <t>12-2</t>
   </si>
   <si>
+    <t>8-6</t>
+  </si>
+  <si>
     <t>9-5</t>
   </si>
   <si>
-    <t>8-6</t>
-  </si>
-  <si>
     <t>7-7</t>
   </si>
   <si>
@@ -313,9 +307,6 @@
     <t>3-11</t>
   </si>
   <si>
-    <t>4-10</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -325,33 +316,30 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑10</t>
-  </si>
-  <si>
-    <t>↓5</t>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑6</t>
   </si>
   <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓6</t>
+    <t>↑4</t>
   </si>
   <si>
     <t>↓7</t>
   </si>
   <si>
+    <t>↓10</t>
+  </si>
+  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -386,6 +374,9 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
   <si>
     <t>Week</t>
@@ -810,31 +801,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -848,28 +839,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -886,25 +877,25 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -912,34 +903,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -947,16 +938,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -965,16 +956,16 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -982,34 +973,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" t="s">
         <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1020,25 +1011,25 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -1052,34 +1043,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1090,31 +1081,31 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1122,34 +1113,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1150,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1167,25 +1158,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1219,25 +1210,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F3">
-        <v>28</v>
+        <v>-13</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1245,25 +1236,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1271,25 +1262,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>-22</v>
-      </c>
       <c r="F5">
-        <v>-8</v>
+        <v>28</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1297,25 +1288,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>11</v>
       </c>
       <c r="F6">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1323,25 +1314,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>-7</v>
+        <v>16</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1349,51 +1340,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>-5</v>
+        <v>-22</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
         <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>-4</v>
-      </c>
-      <c r="F9">
-        <v>-17</v>
-      </c>
-      <c r="G9">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1411,13 +1376,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1428,7 +1393,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1439,13 +1404,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1453,13 +1418,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1467,13 +1432,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1481,10 +1446,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -1495,13 +1460,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1512,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1526,10 +1491,10 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1540,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -1554,10 +1519,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1575,16 +1540,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1595,10 +1560,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D2">
-        <v>-2.800000000000001</v>
+        <v>-2.699999999999999</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1612,7 +1577,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>7.1</v>
+        <v>8.1</v>
       </c>
       <c r="D3">
         <v>0.09999999999999964</v>
@@ -1629,10 +1594,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="D4">
-        <v>0.9000000000000004</v>
+        <v>1.2</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1646,13 +1611,13 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="D5">
-        <v>-1.5</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1663,10 +1628,10 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="D6">
-        <v>0.4000000000000004</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1677,16 +1642,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="D7">
-        <v>1.1</v>
+        <v>-1.3</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1694,16 +1659,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
       <c r="D8">
-        <v>-1.2</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1714,13 +1679,13 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="D9">
-        <v>0.09999999999999964</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1731,13 +1696,13 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D10">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1754,7 +1719,7 @@
         <v>0.7999999999999998</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1772,40 +1737,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1848,22 +1813,22 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>58.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D3">
-        <v>18.4</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>17.9</v>
+        <v>61.3</v>
       </c>
       <c r="F3">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1892,22 +1857,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>32.3</v>
+        <v>69.5</v>
       </c>
       <c r="D4">
-        <v>21.5</v>
+        <v>24.3</v>
       </c>
       <c r="E4">
-        <v>26.1</v>
+        <v>6.2</v>
       </c>
       <c r="F4">
-        <v>12.2</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1919,36 +1884,36 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>99.09999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.4</v>
+        <v>21.8</v>
       </c>
       <c r="D5">
-        <v>20.8</v>
+        <v>45.7</v>
       </c>
       <c r="E5">
-        <v>25.9</v>
+        <v>32.5</v>
       </c>
       <c r="F5">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>19.6</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1957,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>90.09999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1968,25 +1933,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>23.3</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>23.5</v>
+        <v>28.4</v>
       </c>
       <c r="G6">
-        <v>22.7</v>
+        <v>35.7</v>
       </c>
       <c r="H6">
-        <v>9.6</v>
+        <v>19.8</v>
       </c>
       <c r="I6">
-        <v>6.7</v>
+        <v>16.1</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1995,36 +1960,36 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>83.7</v>
+        <v>64.09999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>12.9</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>25</v>
+        <v>42.2</v>
       </c>
       <c r="G7">
-        <v>22.1</v>
+        <v>19.3</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>20.2</v>
       </c>
       <c r="I7">
-        <v>3.6</v>
+        <v>18.3</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2033,12 +1998,12 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>78.40000000000001</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2047,31 +2012,31 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>28.8</v>
       </c>
       <c r="G8">
-        <v>16.5</v>
+        <v>21.9</v>
       </c>
       <c r="H8">
-        <v>41.2</v>
+        <v>26</v>
       </c>
       <c r="I8">
-        <v>24.2</v>
+        <v>23.3</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>34.5</v>
+        <v>50.7</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2088,28 +2053,28 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="G9">
-        <v>12.1</v>
+        <v>23.1</v>
       </c>
       <c r="H9">
-        <v>21.4</v>
+        <v>34</v>
       </c>
       <c r="I9">
-        <v>61.7</v>
+        <v>42.3</v>
       </c>
       <c r="J9">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>14.2</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2141,10 +2106,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>32</v>
+        <v>74.8</v>
       </c>
       <c r="K10">
-        <v>68</v>
+        <v>25.2</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -2173,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>65.2</v>
+        <v>25.2</v>
       </c>
       <c r="K11">
-        <v>32</v>
+        <v>74.8</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2195,80 +2160,83 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>49</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>60.7</v>
+        <v>63</v>
       </c>
       <c r="C2">
-        <v>84.3</v>
+        <v>83.89999999999999</v>
       </c>
       <c r="D2">
-        <v>90.8</v>
+        <v>92.10000000000001</v>
       </c>
       <c r="E2">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="F2">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G2">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="H2">
-        <v>99.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I2">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -2285,316 +2253,340 @@
       <c r="N2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>25.5</v>
+        <v>100</v>
       </c>
       <c r="C3">
-        <v>84.59999999999999</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="D3">
-        <v>59.5</v>
+        <v>68.8</v>
       </c>
       <c r="E3">
-        <v>73.3</v>
+        <v>76.8</v>
       </c>
       <c r="F3">
-        <v>57.99999999999999</v>
+        <v>85</v>
       </c>
       <c r="G3">
-        <v>75.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="H3">
-        <v>68.2</v>
+        <v>84.7</v>
       </c>
       <c r="I3">
-        <v>80.10000000000001</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="J3">
-        <v>90.7</v>
+        <v>97.8</v>
       </c>
       <c r="K3">
-        <v>93.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="L3">
-        <v>96.2</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="M3">
-        <v>99.90000000000001</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="N3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>94.3</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="C4">
-        <v>56.7</v>
+        <v>55.1</v>
       </c>
       <c r="D4">
-        <v>70.3</v>
+        <v>72.39999999999999</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>47.9</v>
       </c>
       <c r="F4">
-        <v>60.5</v>
+        <v>61.8</v>
       </c>
       <c r="G4">
-        <v>50.1</v>
+        <v>48.7</v>
       </c>
       <c r="H4">
-        <v>70.7</v>
+        <v>70.19999999999999</v>
       </c>
       <c r="I4">
-        <v>87.90000000000001</v>
+        <v>88</v>
       </c>
       <c r="J4">
-        <v>87.3</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="K4">
-        <v>91.7</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="L4">
-        <v>98.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="M4">
-        <v>97.2</v>
+        <v>96.3</v>
       </c>
       <c r="N4">
+        <v>100</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>26.6</v>
+      </c>
+      <c r="C5">
+        <v>87.8</v>
+      </c>
+      <c r="D5">
+        <v>59.9</v>
+      </c>
+      <c r="E5">
+        <v>72.3</v>
+      </c>
+      <c r="F5">
+        <v>59.4</v>
+      </c>
+      <c r="G5">
+        <v>75.8</v>
+      </c>
+      <c r="H5">
+        <v>67</v>
+      </c>
+      <c r="I5">
+        <v>78.3</v>
+      </c>
+      <c r="J5">
+        <v>90.2</v>
+      </c>
+      <c r="K5">
+        <v>94.5</v>
+      </c>
+      <c r="L5">
+        <v>97.7</v>
+      </c>
+      <c r="M5">
         <v>99.90000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="C5">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="D5">
-        <v>69.89999999999999</v>
-      </c>
-      <c r="E5">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="F5">
-        <v>83.89999999999999</v>
-      </c>
-      <c r="G5">
-        <v>93.7</v>
-      </c>
-      <c r="H5">
-        <v>85.8</v>
-      </c>
-      <c r="I5">
-        <v>93.10000000000001</v>
-      </c>
-      <c r="J5">
-        <v>97.89999999999999</v>
-      </c>
-      <c r="K5">
-        <v>95.5</v>
-      </c>
-      <c r="L5">
-        <v>95.19999999999999</v>
-      </c>
-      <c r="M5">
-        <v>87.59999999999999</v>
-      </c>
       <c r="N5">
-        <v>88.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>100</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="C6">
-        <v>55.7</v>
+        <v>54.3</v>
       </c>
       <c r="D6">
-        <v>81.89999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="E6">
-        <v>66.5</v>
+        <v>64.60000000000001</v>
       </c>
       <c r="F6">
+        <v>45.6</v>
+      </c>
+      <c r="G6">
+        <v>34.5</v>
+      </c>
+      <c r="H6">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="I6">
+        <v>41.5</v>
+      </c>
+      <c r="J6">
+        <v>26.1</v>
+      </c>
+      <c r="K6">
+        <v>46.3</v>
+      </c>
+      <c r="L6">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="M6">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="N6">
+        <v>58.2</v>
+      </c>
+      <c r="O6">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>43.4</v>
+      </c>
+      <c r="C7">
         <v>48.9</v>
       </c>
-      <c r="G6">
-        <v>36.3</v>
-      </c>
-      <c r="H6">
-        <v>61.4</v>
-      </c>
-      <c r="I6">
-        <v>41.9</v>
-      </c>
-      <c r="J6">
-        <v>27</v>
-      </c>
-      <c r="K6">
-        <v>47.5</v>
-      </c>
-      <c r="L6">
-        <v>72.8</v>
-      </c>
-      <c r="M6">
-        <v>82.69999999999999</v>
-      </c>
-      <c r="N6">
-        <v>82.69999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
+      <c r="D7">
+        <v>34.5</v>
+      </c>
+      <c r="E7">
+        <v>54.7</v>
+      </c>
+      <c r="F7">
+        <v>50.7</v>
+      </c>
+      <c r="G7">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="H7">
+        <v>74.7</v>
+      </c>
+      <c r="I7">
+        <v>57.7</v>
+      </c>
+      <c r="J7">
+        <v>47.7</v>
+      </c>
+      <c r="K7">
+        <v>53.90000000000001</v>
+      </c>
+      <c r="L7">
+        <v>24.6</v>
+      </c>
+      <c r="M7">
+        <v>39.8</v>
+      </c>
+      <c r="N7">
+        <v>57.09999999999999</v>
+      </c>
+      <c r="O7">
+        <v>59.09999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>89.8</v>
-      </c>
-      <c r="C7">
+      <c r="B8">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="C8">
+        <v>81</v>
+      </c>
+      <c r="D8">
+        <v>97.89999999999999</v>
+      </c>
+      <c r="E8">
+        <v>91</v>
+      </c>
+      <c r="F8">
+        <v>98</v>
+      </c>
+      <c r="G8">
+        <v>92.7</v>
+      </c>
+      <c r="H8">
         <v>82.59999999999999</v>
       </c>
-      <c r="D7">
-        <v>97.8</v>
-      </c>
-      <c r="E7">
-        <v>92.7</v>
-      </c>
-      <c r="F7">
-        <v>98.2</v>
-      </c>
-      <c r="G7">
-        <v>92.7</v>
-      </c>
-      <c r="H7">
-        <v>81.89999999999999</v>
-      </c>
-      <c r="I7">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="J7">
-        <v>89</v>
-      </c>
-      <c r="K7">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="L7">
-        <v>94.39999999999999</v>
-      </c>
-      <c r="M7">
-        <v>76.2</v>
-      </c>
-      <c r="N7">
-        <v>81.89999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>45.9</v>
-      </c>
-      <c r="C8">
-        <v>49.1</v>
-      </c>
-      <c r="D8">
-        <v>36.8</v>
-      </c>
-      <c r="E8">
-        <v>53.1</v>
-      </c>
-      <c r="F8">
-        <v>51.2</v>
-      </c>
-      <c r="G8">
-        <v>77.5</v>
-      </c>
-      <c r="H8">
-        <v>74.3</v>
-      </c>
       <c r="I8">
-        <v>55.2</v>
+        <v>74.5</v>
       </c>
       <c r="J8">
-        <v>47.3</v>
+        <v>89.3</v>
       </c>
       <c r="K8">
-        <v>52.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="L8">
-        <v>25.2</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="M8">
-        <v>39.2</v>
+        <v>77</v>
       </c>
       <c r="N8">
-        <v>32.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>54</v>
+      </c>
+      <c r="O8">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B9">
-        <v>76.5</v>
+        <v>75.5</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="D9">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="E9">
-        <v>21.4</v>
+        <v>21.8</v>
       </c>
       <c r="F9">
-        <v>50.3</v>
+        <v>51.7</v>
       </c>
       <c r="G9">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="H9">
-        <v>27.1</v>
+        <v>26.4</v>
       </c>
       <c r="I9">
-        <v>48.1</v>
+        <v>51.7</v>
       </c>
       <c r="J9">
-        <v>44.1</v>
+        <v>45.8</v>
       </c>
       <c r="K9">
-        <v>28</v>
+        <v>28.4</v>
       </c>
       <c r="L9">
-        <v>16.1</v>
+        <v>14.3</v>
       </c>
       <c r="M9">
-        <v>17.2</v>
+        <v>18</v>
       </c>
       <c r="N9">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>30.7</v>
+      </c>
+      <c r="O9">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2602,34 +2594,34 @@
         <v>99.90000000000001</v>
       </c>
       <c r="C10">
-        <v>75.8</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="D10">
-        <v>34.59999999999999</v>
+        <v>33.4</v>
       </c>
       <c r="E10">
-        <v>10.5</v>
+        <v>12.8</v>
       </c>
       <c r="F10">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="G10">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="H10">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="I10">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="J10">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="K10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -2637,8 +2629,11 @@
       <c r="N10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2646,39 +2641,42 @@
         <v>3.5</v>
       </c>
       <c r="C11">
-        <v>9.1</v>
+        <v>10.9</v>
       </c>
       <c r="D11">
-        <v>54.50000000000001</v>
+        <v>55.8</v>
       </c>
       <c r="E11">
-        <v>60.8</v>
+        <v>61.1</v>
       </c>
       <c r="F11">
-        <v>44.6</v>
+        <v>43.7</v>
       </c>
       <c r="G11">
-        <v>48.4</v>
+        <v>50.2</v>
       </c>
       <c r="H11">
-        <v>30</v>
+        <v>27.2</v>
       </c>
       <c r="I11">
-        <v>17.8</v>
+        <v>15.9</v>
       </c>
       <c r="J11">
         <v>13.5</v>
       </c>
       <c r="K11">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="L11">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>0</v>
       </c>
     </row>
@@ -2697,28 +2695,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2729,25 +2727,25 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2">
-        <v>123.53</v>
+        <v>122.95</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>126.56</v>
+        <v>121.39</v>
       </c>
       <c r="G2">
-        <v>0.708</v>
+        <v>0.462</v>
       </c>
       <c r="H2">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2755,28 +2753,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3">
+        <v>101.54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>121.51</v>
+      </c>
+      <c r="G3">
+        <v>0.615</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
         <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3">
-        <v>114.67</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>122.67</v>
-      </c>
-      <c r="G3">
-        <v>0.5</v>
-      </c>
-      <c r="H3">
-        <v>18.5</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2784,28 +2782,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4">
-        <v>118.67</v>
+        <v>115.95</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>125.43</v>
+        <v>121.55</v>
       </c>
       <c r="G4">
-        <v>0.75</v>
+        <v>0.462</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2813,28 +2811,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D5">
-        <v>111.42</v>
+        <v>118.75</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5">
-        <v>114.21</v>
+        <v>126.78</v>
       </c>
       <c r="G5">
-        <v>0.333</v>
+        <v>0.846</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2845,25 +2843,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>130.46</v>
+        <v>126.78</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6">
-        <v>121.1</v>
+        <v>118.75</v>
       </c>
       <c r="G6">
-        <v>0.542</v>
+        <v>0.615</v>
       </c>
       <c r="H6">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2871,28 +2869,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D7">
-        <v>105.92</v>
+        <v>121.39</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>113.07</v>
+        <v>122.95</v>
       </c>
       <c r="G7">
-        <v>0.375</v>
+        <v>0.462</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2900,28 +2898,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D8">
-        <v>122.66</v>
+        <v>121.55</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8">
-        <v>119.1</v>
+        <v>115.95</v>
       </c>
       <c r="G8">
-        <v>0.5</v>
+        <v>0.615</v>
       </c>
       <c r="H8">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2929,28 +2927,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D9">
-        <v>122.68</v>
+        <v>105.34</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F9">
-        <v>113.04</v>
+        <v>112.64</v>
       </c>
       <c r="G9">
-        <v>0.5</v>
+        <v>0.462</v>
       </c>
       <c r="H9">
-        <v>-13.5</v>
+        <v>-13</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2958,28 +2956,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D10">
-        <v>120.4</v>
+        <v>112.64</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10">
-        <v>112.29</v>
+        <v>105.34</v>
       </c>
       <c r="G10">
-        <v>0.458</v>
+        <v>0.231</v>
       </c>
       <c r="H10">
-        <v>-17.5</v>
+        <v>-19</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2987,28 +2985,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D11">
-        <v>105.74</v>
+        <v>121.51</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F11">
-        <v>108.67</v>
+        <v>101.54</v>
       </c>
       <c r="G11">
-        <v>0.333</v>
+        <v>0.231</v>
       </c>
       <c r="H11">
-        <v>-26.5</v>
+        <v>-46</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3026,31 +3024,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3058,16 +3056,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2">
-        <v>0.9166666666666666</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="D2">
-        <v>130.4566666666667</v>
+        <v>126.7784615384615</v>
       </c>
       <c r="E2">
-        <v>1565.48</v>
+        <v>1648.12</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3076,27 +3074,27 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D3">
-        <v>118.665</v>
+        <v>115.9461538461538</v>
       </c>
       <c r="E3">
-        <v>1423.98</v>
+        <v>1507.3</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3105,10 +3103,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3116,57 +3114,57 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C4">
-        <v>0.5833333333333334</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D4">
-        <v>120.4</v>
+        <v>121.5092307692308</v>
       </c>
       <c r="E4">
-        <v>1444.8</v>
+        <v>1579.62</v>
       </c>
       <c r="F4">
-        <v>99.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5">
-        <v>0.5833333333333334</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D5">
-        <v>114.6716666666667</v>
+        <v>118.7476923076923</v>
       </c>
       <c r="E5">
-        <v>1376.06</v>
+        <v>1543.72</v>
       </c>
       <c r="F5">
-        <v>90.10000000000001</v>
+        <v>100</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3174,86 +3172,86 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D6">
-        <v>122.6816666666667</v>
+        <v>121.5507692307692</v>
       </c>
       <c r="E6">
-        <v>1472.18</v>
+        <v>1580.16</v>
       </c>
       <c r="F6">
-        <v>83.7</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D7">
-        <v>122.6616666666667</v>
+        <v>122.9507692307692</v>
       </c>
       <c r="E7">
-        <v>1471.94</v>
+        <v>1598.36</v>
       </c>
       <c r="F7">
-        <v>78.40000000000001</v>
+        <v>61.5</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
       </c>
       <c r="C8">
-        <v>0.4166666666666667</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D8">
-        <v>123.53</v>
+        <v>121.3923076923077</v>
       </c>
       <c r="E8">
-        <v>1482.36</v>
+        <v>1578.1</v>
       </c>
       <c r="F8">
-        <v>34.5</v>
+        <v>50.7</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3264,25 +3262,25 @@
         <v>78</v>
       </c>
       <c r="C9">
-        <v>0.4166666666666667</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D9">
-        <v>111.415</v>
+        <v>112.6446153846154</v>
       </c>
       <c r="E9">
-        <v>1336.98</v>
+        <v>1464.38</v>
       </c>
       <c r="F9">
-        <v>14.2</v>
+        <v>23.7</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3293,25 +3291,25 @@
         <v>79</v>
       </c>
       <c r="C10">
-        <v>0.1666666666666667</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D10">
-        <v>105.74</v>
+        <v>105.34</v>
       </c>
       <c r="E10">
-        <v>1268.88</v>
+        <v>1369.42</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>68</v>
+        <v>25.2</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3319,28 +3317,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11">
-        <v>0.25</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D11">
-        <v>105.9183333333334</v>
+        <v>101.5369230769231</v>
       </c>
       <c r="E11">
-        <v>1271.02</v>
+        <v>1319.98</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>32</v>
+        <v>74.8</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3358,19 +3356,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3378,19 +3376,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3398,19 +3396,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3421,16 +3419,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3438,19 +3436,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3458,19 +3456,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3478,7 +3476,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>58</v>
@@ -3487,10 +3485,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3501,16 +3499,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D8">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3518,19 +3516,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3538,19 +3536,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D10">
-        <v>-17</v>
+        <v>-19</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3561,16 +3559,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11">
-        <v>-36</v>
+        <v>-46</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3580,142 +3578,151 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K2">
+        <v>28</v>
+      </c>
+      <c r="L2">
+        <v>28</v>
+      </c>
+      <c r="M2">
         <v>19</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>20</v>
       </c>
-      <c r="M2">
+      <c r="O2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>-4</v>
+      </c>
+      <c r="F3">
+        <v>-6</v>
+      </c>
+      <c r="G3">
+        <v>-7</v>
+      </c>
+      <c r="H3">
+        <v>-7</v>
+      </c>
+      <c r="I3">
+        <v>-7</v>
+      </c>
+      <c r="J3">
+        <v>-4</v>
+      </c>
+      <c r="K3">
+        <v>-4</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+      <c r="N3">
         <v>20</v>
       </c>
-      <c r="N2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>-1</v>
-      </c>
-      <c r="C3">
-        <v>-5</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>-1</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>19</v>
-      </c>
-      <c r="K3">
-        <v>28</v>
-      </c>
-      <c r="L3">
-        <v>28</v>
-      </c>
-      <c r="M3">
-        <v>19</v>
-      </c>
-      <c r="N3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3755,143 +3762,155 @@
       <c r="M4">
         <v>18</v>
       </c>
-      <c r="N4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="N4">
+        <v>19</v>
+      </c>
+      <c r="O4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>23</v>
+      </c>
+      <c r="J5">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>19</v>
+      </c>
+      <c r="L5">
+        <v>20</v>
+      </c>
+      <c r="M5">
+        <v>20</v>
+      </c>
+      <c r="N5">
+        <v>16</v>
+      </c>
+      <c r="O5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>23</v>
+      </c>
+      <c r="J6">
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-7</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>-2</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>11</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>-6</v>
+      </c>
+      <c r="M7">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>-1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>-4</v>
-      </c>
-      <c r="F5">
-        <v>-6</v>
-      </c>
-      <c r="G5">
-        <v>-7</v>
-      </c>
-      <c r="H5">
-        <v>-7</v>
-      </c>
-      <c r="I5">
-        <v>-7</v>
-      </c>
-      <c r="J5">
-        <v>-4</v>
-      </c>
-      <c r="K5">
-        <v>-4</v>
-      </c>
-      <c r="L5">
-        <v>5</v>
-      </c>
-      <c r="M5">
-        <v>12</v>
-      </c>
-      <c r="N5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>-7</v>
-      </c>
-      <c r="C6">
-        <v>-1</v>
-      </c>
-      <c r="D6">
-        <v>-2</v>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>17</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6">
-        <v>11</v>
-      </c>
-      <c r="J6">
-        <v>8</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6">
-        <v>-6</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>11</v>
-      </c>
-      <c r="G7">
-        <v>12</v>
-      </c>
-      <c r="H7">
-        <v>20</v>
-      </c>
-      <c r="I7">
-        <v>23</v>
-      </c>
-      <c r="J7">
-        <v>20</v>
-      </c>
-      <c r="K7">
-        <v>14</v>
-      </c>
-      <c r="L7">
-        <v>6</v>
-      </c>
-      <c r="M7">
+      <c r="N7">
         <v>1</v>
       </c>
-      <c r="N7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -3931,99 +3950,108 @@
       <c r="M8">
         <v>-10</v>
       </c>
-      <c r="N8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="N8">
+        <v>-6</v>
+      </c>
+      <c r="O8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>-1</v>
       </c>
       <c r="D9">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>-8</v>
+      </c>
+      <c r="H9">
+        <v>-6</v>
+      </c>
+      <c r="I9">
+        <v>-2</v>
+      </c>
+      <c r="J9">
+        <v>-7</v>
+      </c>
+      <c r="K9">
+        <v>-10</v>
+      </c>
+      <c r="L9">
+        <v>-11</v>
+      </c>
+      <c r="M9">
+        <v>-17</v>
+      </c>
+      <c r="N9">
         <v>-13</v>
       </c>
-      <c r="F9">
-        <v>-17</v>
-      </c>
-      <c r="G9">
-        <v>-13</v>
-      </c>
-      <c r="H9">
-        <v>-23</v>
-      </c>
-      <c r="I9">
-        <v>-23</v>
-      </c>
-      <c r="J9">
-        <v>-17</v>
-      </c>
-      <c r="K9">
-        <v>-14</v>
-      </c>
-      <c r="L9">
-        <v>-17</v>
-      </c>
-      <c r="M9">
-        <v>-12</v>
-      </c>
-      <c r="N9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>-1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>-17</v>
       </c>
       <c r="G10">
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="H10">
-        <v>-6</v>
+        <v>-23</v>
       </c>
       <c r="I10">
-        <v>-2</v>
+        <v>-23</v>
       </c>
       <c r="J10">
-        <v>-7</v>
+        <v>-17</v>
       </c>
       <c r="K10">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="L10">
-        <v>-11</v>
+        <v>-17</v>
       </c>
       <c r="M10">
-        <v>-17</v>
-      </c>
-      <c r="N10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>-12</v>
+      </c>
+      <c r="N10">
+        <v>-19</v>
+      </c>
+      <c r="O10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -4063,8 +4091,11 @@
       <c r="M11">
         <v>-36</v>
       </c>
-      <c r="N11" t="s">
-        <v>108</v>
+      <c r="N11">
+        <v>-46</v>
+      </c>
+      <c r="O11" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/0755 Fantasy Football 2025.xlsx
+++ b/leagues/0755 Fantasy Football 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="119">
   <si>
     <t>Michael, The Baker</t>
   </si>
@@ -55,34 +55,34 @@
     <t>AJ's Awesome Team</t>
   </si>
   <si>
-    <t>11-2-0</t>
-  </si>
-  <si>
-    <t>8-5-0</t>
-  </si>
-  <si>
-    <t>6-7-0</t>
-  </si>
-  <si>
-    <t>10-3-0</t>
-  </si>
-  <si>
-    <t>7-6-0</t>
-  </si>
-  <si>
-    <t>5-8-0</t>
-  </si>
-  <si>
-    <t>3-10-0</t>
-  </si>
-  <si>
-    <t>9-4-0</t>
-  </si>
-  <si>
-    <t>4-9-0</t>
-  </si>
-  <si>
-    <t>2-11-0</t>
+    <t>12-2-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -178,6 +178,9 @@
     <t>Week_14</t>
   </si>
   <si>
+    <t>Week_15</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -199,36 +202,36 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Anthony Rizzo</t>
+  </si>
+  <si>
+    <t>Jacob Nichols</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
+    <t>Grace Olenzak</t>
+  </si>
+  <si>
+    <t>Jaime Cunningham</t>
+  </si>
+  <si>
     <t>Kyle R</t>
   </si>
   <si>
+    <t>Robbie Wilston</t>
+  </si>
+  <si>
+    <t>Marvin Ta</t>
+  </si>
+  <si>
+    <t>Gigi Boguski</t>
+  </si>
+  <si>
     <t>Abhishek Joshi</t>
   </si>
   <si>
-    <t>Jacob Nichols</t>
-  </si>
-  <si>
-    <t>Robbie Wilston</t>
-  </si>
-  <si>
-    <t>Anthony Rizzo</t>
-  </si>
-  <si>
-    <t>Gigi Boguski</t>
-  </si>
-  <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
-    <t>Marvin Ta</t>
-  </si>
-  <si>
-    <t>Grace Olenzak</t>
-  </si>
-  <si>
-    <t>Jaime Cunningham</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -253,58 +256,40 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>11-2</t>
-  </si>
-  <si>
-    <t>8-5</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>3-10</t>
-  </si>
-  <si>
-    <t>11.6-2.4</t>
-  </si>
-  <si>
-    <t>8.4-5.6</t>
-  </si>
-  <si>
-    <t>8.7-5.3</t>
-  </si>
-  <si>
-    <t>6.6-7.4</t>
-  </si>
-  <si>
-    <t>6.5-7.4</t>
-  </si>
-  <si>
-    <t>6.4-7.5</t>
-  </si>
-  <si>
-    <t>3.4-10.6</t>
-  </si>
-  <si>
-    <t>3.3-10.7</t>
-  </si>
-  <si>
     <t>12-2</t>
   </si>
   <si>
     <t>8-6</t>
   </si>
   <si>
+    <t>7-7</t>
+  </si>
+  <si>
     <t>9-5</t>
   </si>
   <si>
-    <t>7-7</t>
+    <t>3-11</t>
   </si>
   <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>3-11</t>
+    <t>12.0-2.0</t>
+  </si>
+  <si>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>7.0-7.0</t>
+  </si>
+  <si>
+    <t>9.0-5.0</t>
+  </si>
+  <si>
+    <t>3.0-11.0</t>
+  </si>
+  <si>
+    <t>6.0-8.0</t>
   </si>
   <si>
     <t>Owners</t>
@@ -316,28 +301,22 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↓10</t>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↑5</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -377,6 +356,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
   <si>
     <t>Week</t>
@@ -804,28 +786,28 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -839,28 +821,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -871,31 +853,31 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -906,31 +888,31 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -941,28 +923,28 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
         <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" t="s">
-        <v>14</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
@@ -973,34 +955,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1011,25 +993,25 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
         <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -1043,34 +1025,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
       </c>
       <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
         <v>15</v>
       </c>
-      <c r="I9" t="s">
-        <v>16</v>
-      </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1078,19 +1060,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -1099,13 +1081,13 @@
         <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1113,13 +1095,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
@@ -1128,19 +1110,19 @@
         <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
         <v>15</v>
       </c>
-      <c r="J11" t="s">
-        <v>16</v>
-      </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1150,7 +1132,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1158,25 +1140,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1288,25 +1270,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1314,50 +1296,24 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F7">
-        <v>16</v>
+        <v>-4</v>
       </c>
       <c r="G7">
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>-22</v>
-      </c>
-      <c r="F8">
-        <v>-8</v>
-      </c>
-      <c r="G8">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1393,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1407,10 +1363,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1421,10 +1377,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1432,10 +1388,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -1446,13 +1402,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1460,13 +1416,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1474,13 +1430,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1488,13 +1444,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1502,13 +1458,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1519,10 +1475,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1560,10 +1516,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>-2.699999999999999</v>
+        <v>-3</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1577,13 +1533,13 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>8.1</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1591,13 +1547,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="D4">
-        <v>1.2</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1611,10 +1567,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="D5">
-        <v>-0.9000000000000004</v>
+        <v>-0.5</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -1625,16 +1581,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="D6">
-        <v>0.7999999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1642,16 +1598,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="D7">
-        <v>-1.3</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1659,16 +1615,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="D8">
-        <v>0.7000000000000002</v>
+        <v>-1.2</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1679,10 +1635,10 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
       <c r="D9">
-        <v>-0.09999999999999964</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1696,13 +1652,13 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="D10">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1713,13 +1669,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>0.7999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1819,13 +1775,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>61.3</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1851,22 +1807,22 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>69.5</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>24.3</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1889,19 +1845,19 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>21.8</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>45.7</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1927,7 +1883,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1942,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>35.7</v>
+        <v>100</v>
       </c>
       <c r="H6">
-        <v>19.8</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>16.1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1960,12 +1916,12 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>64.09999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1974,22 +1930,22 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>42.2</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>19.3</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>20.2</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>18.3</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1998,12 +1954,12 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>61.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2018,16 +1974,16 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.8</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>21.9</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="I8">
-        <v>23.3</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2036,12 +1992,12 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>50.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2056,30 +2012,30 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>23.1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>42.3</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>23.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2103,13 +2059,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10">
-        <v>74.8</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>25.2</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -2144,10 +2100,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>25.2</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>74.8</v>
+        <v>100</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2160,13 +2116,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -2209,34 +2165,37 @@
       <c r="O1" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>63</v>
+        <v>58.4</v>
       </c>
       <c r="C2">
-        <v>83.89999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="D2">
-        <v>92.10000000000001</v>
+        <v>91.60000000000001</v>
       </c>
       <c r="E2">
-        <v>97</v>
+        <v>96.7</v>
       </c>
       <c r="F2">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G2">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="H2">
-        <v>99.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -2256,8 +2215,11 @@
       <c r="O2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2265,131 +2227,137 @@
         <v>100</v>
       </c>
       <c r="C3">
-        <v>96.39999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="D3">
-        <v>68.8</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="E3">
-        <v>76.8</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F3">
-        <v>85</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="G3">
-        <v>95.5</v>
+        <v>94.3</v>
       </c>
       <c r="H3">
-        <v>84.7</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="I3">
-        <v>91.90000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="J3">
-        <v>97.8</v>
+        <v>98.3</v>
       </c>
       <c r="K3">
-        <v>95.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="L3">
-        <v>95.89999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="M3">
-        <v>87.40000000000001</v>
+        <v>89.60000000000001</v>
       </c>
       <c r="N3">
         <v>100</v>
       </c>
       <c r="O3">
+        <v>87.5</v>
+      </c>
+      <c r="P3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3.8</v>
+      </c>
+      <c r="C4">
+        <v>56.2</v>
+      </c>
+      <c r="D4">
+        <v>82.69999999999999</v>
+      </c>
+      <c r="E4">
+        <v>68.7</v>
+      </c>
+      <c r="F4">
+        <v>49.9</v>
+      </c>
+      <c r="G4">
+        <v>34</v>
+      </c>
+      <c r="H4">
+        <v>62.3</v>
+      </c>
+      <c r="I4">
+        <v>44.3</v>
+      </c>
+      <c r="J4">
+        <v>26.9</v>
+      </c>
+      <c r="K4">
+        <v>45.5</v>
+      </c>
+      <c r="L4">
+        <v>72.3</v>
+      </c>
+      <c r="M4">
+        <v>80.80000000000001</v>
+      </c>
+      <c r="N4">
+        <v>56.49999999999999</v>
+      </c>
+      <c r="O4">
+        <v>79.3</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>95.19999999999999</v>
       </c>
-      <c r="C4">
-        <v>55.1</v>
-      </c>
-      <c r="D4">
-        <v>72.39999999999999</v>
-      </c>
-      <c r="E4">
+      <c r="C5">
+        <v>55.7</v>
+      </c>
+      <c r="D5">
+        <v>71.2</v>
+      </c>
+      <c r="E5">
+        <v>46.40000000000001</v>
+      </c>
+      <c r="F5">
+        <v>60.09999999999999</v>
+      </c>
+      <c r="G5">
         <v>47.9</v>
       </c>
-      <c r="F4">
-        <v>61.8</v>
-      </c>
-      <c r="G4">
-        <v>48.7</v>
-      </c>
-      <c r="H4">
-        <v>70.19999999999999</v>
-      </c>
-      <c r="I4">
+      <c r="H5">
+        <v>71.2</v>
+      </c>
+      <c r="I5">
         <v>88</v>
       </c>
-      <c r="J4">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K4">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="L4">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="M4">
-        <v>96.3</v>
-      </c>
-      <c r="N4">
-        <v>100</v>
-      </c>
-      <c r="O4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>26.6</v>
-      </c>
-      <c r="C5">
-        <v>87.8</v>
-      </c>
-      <c r="D5">
-        <v>59.9</v>
-      </c>
-      <c r="E5">
-        <v>72.3</v>
-      </c>
-      <c r="F5">
-        <v>59.4</v>
-      </c>
-      <c r="G5">
-        <v>75.8</v>
-      </c>
-      <c r="H5">
-        <v>67</v>
-      </c>
-      <c r="I5">
-        <v>78.3</v>
-      </c>
       <c r="J5">
-        <v>90.2</v>
+        <v>86.5</v>
       </c>
       <c r="K5">
-        <v>94.5</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="L5">
-        <v>97.7</v>
+        <v>98.5</v>
       </c>
       <c r="M5">
-        <v>99.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -2397,243 +2365,261 @@
       <c r="O5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>3.8</v>
+        <v>46</v>
       </c>
       <c r="C6">
-        <v>54.3</v>
+        <v>47.4</v>
       </c>
       <c r="D6">
-        <v>82.8</v>
+        <v>32.6</v>
       </c>
       <c r="E6">
-        <v>64.60000000000001</v>
+        <v>56.49999999999999</v>
       </c>
       <c r="F6">
-        <v>45.6</v>
+        <v>49.7</v>
       </c>
       <c r="G6">
-        <v>34.5</v>
+        <v>76.3</v>
       </c>
       <c r="H6">
-        <v>66.40000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="I6">
-        <v>41.5</v>
+        <v>55.60000000000001</v>
       </c>
       <c r="J6">
-        <v>26.1</v>
+        <v>46.6</v>
       </c>
       <c r="K6">
-        <v>46.3</v>
+        <v>52.2</v>
       </c>
       <c r="L6">
-        <v>74.09999999999999</v>
+        <v>23.8</v>
       </c>
       <c r="M6">
-        <v>81.59999999999999</v>
+        <v>41.2</v>
       </c>
       <c r="N6">
-        <v>58.2</v>
+        <v>60.5</v>
       </c>
       <c r="O6">
-        <v>60.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>60.7</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>43.4</v>
+        <v>27.6</v>
       </c>
       <c r="C7">
-        <v>48.9</v>
+        <v>86.2</v>
       </c>
       <c r="D7">
-        <v>34.5</v>
+        <v>58.7</v>
       </c>
       <c r="E7">
-        <v>54.7</v>
+        <v>71.3</v>
       </c>
       <c r="F7">
-        <v>50.7</v>
+        <v>57.4</v>
       </c>
       <c r="G7">
-        <v>75.59999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="H7">
-        <v>74.7</v>
+        <v>67.10000000000001</v>
       </c>
       <c r="I7">
-        <v>57.7</v>
+        <v>81.69999999999999</v>
       </c>
       <c r="J7">
-        <v>47.7</v>
+        <v>91</v>
       </c>
       <c r="K7">
-        <v>53.90000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="L7">
-        <v>24.6</v>
+        <v>97.7</v>
       </c>
       <c r="M7">
-        <v>39.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="N7">
-        <v>57.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="O7">
-        <v>59.09999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>99.5</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>75.3</v>
+      </c>
+      <c r="C8">
+        <v>6.4</v>
+      </c>
+      <c r="D8">
+        <v>3.7</v>
+      </c>
+      <c r="E8">
+        <v>22.9</v>
+      </c>
+      <c r="F8">
+        <v>50.1</v>
+      </c>
+      <c r="G8">
+        <v>23.8</v>
+      </c>
+      <c r="H8">
+        <v>25.4</v>
+      </c>
+      <c r="I8">
+        <v>45.8</v>
+      </c>
+      <c r="J8">
+        <v>44.2</v>
+      </c>
+      <c r="K8">
+        <v>29.5</v>
+      </c>
+      <c r="L8">
+        <v>14.7</v>
+      </c>
+      <c r="M8">
+        <v>15.6</v>
+      </c>
+      <c r="N8">
+        <v>30.2</v>
+      </c>
+      <c r="O8">
+        <v>55.40000000000001</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>99.8</v>
+      </c>
+      <c r="C9">
+        <v>76.2</v>
+      </c>
+      <c r="D9">
+        <v>36.7</v>
+      </c>
+      <c r="E9">
+        <v>12.2</v>
+      </c>
+      <c r="F9">
+        <v>5.2</v>
+      </c>
+      <c r="G9">
+        <v>4.2</v>
+      </c>
+      <c r="H9">
+        <v>1.1</v>
+      </c>
+      <c r="I9">
+        <v>0.6</v>
+      </c>
+      <c r="J9">
+        <v>2.6</v>
+      </c>
+      <c r="K9">
+        <v>0.3</v>
+      </c>
+      <c r="L9">
+        <v>0.2</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="C8">
-        <v>81</v>
-      </c>
-      <c r="D8">
-        <v>97.89999999999999</v>
-      </c>
-      <c r="E8">
-        <v>91</v>
-      </c>
-      <c r="F8">
-        <v>98</v>
-      </c>
-      <c r="G8">
-        <v>92.7</v>
-      </c>
-      <c r="H8">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="I8">
-        <v>74.5</v>
-      </c>
-      <c r="J8">
-        <v>89.3</v>
-      </c>
-      <c r="K8">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="L8">
-        <v>93.30000000000001</v>
-      </c>
-      <c r="M8">
-        <v>77</v>
-      </c>
-      <c r="N8">
-        <v>54</v>
-      </c>
-      <c r="O8">
-        <v>56.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>75.5</v>
-      </c>
-      <c r="C9">
-        <v>6.1</v>
-      </c>
-      <c r="D9">
-        <v>2.4</v>
-      </c>
-      <c r="E9">
-        <v>21.8</v>
-      </c>
-      <c r="F9">
-        <v>51.7</v>
-      </c>
-      <c r="G9">
-        <v>22.5</v>
-      </c>
-      <c r="H9">
-        <v>26.4</v>
-      </c>
-      <c r="I9">
-        <v>51.7</v>
-      </c>
-      <c r="J9">
-        <v>45.8</v>
-      </c>
-      <c r="K9">
-        <v>28.4</v>
-      </c>
-      <c r="L9">
-        <v>14.3</v>
-      </c>
-      <c r="M9">
-        <v>18</v>
-      </c>
-      <c r="N9">
-        <v>30.7</v>
-      </c>
-      <c r="O9">
-        <v>24.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B10">
-        <v>99.90000000000001</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C10">
-        <v>75.59999999999999</v>
+        <v>83.39999999999999</v>
       </c>
       <c r="D10">
-        <v>33.4</v>
+        <v>97.5</v>
       </c>
       <c r="E10">
-        <v>12.8</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="F10">
-        <v>4.7</v>
+        <v>98.3</v>
       </c>
       <c r="G10">
-        <v>4.7</v>
+        <v>92.5</v>
       </c>
       <c r="H10">
-        <v>1.4</v>
+        <v>83.3</v>
       </c>
       <c r="I10">
-        <v>0.5</v>
+        <v>75.7</v>
       </c>
       <c r="J10">
-        <v>2.5</v>
+        <v>90.10000000000001</v>
       </c>
       <c r="K10">
-        <v>0.5</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>52.8</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>17.6</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2641,34 +2627,34 @@
         <v>3.5</v>
       </c>
       <c r="C11">
-        <v>10.9</v>
+        <v>8.9</v>
       </c>
       <c r="D11">
-        <v>55.8</v>
+        <v>55.2</v>
       </c>
       <c r="E11">
-        <v>61.1</v>
+        <v>60</v>
       </c>
       <c r="F11">
-        <v>43.7</v>
+        <v>42.1</v>
       </c>
       <c r="G11">
-        <v>50.2</v>
+        <v>50.6</v>
       </c>
       <c r="H11">
-        <v>27.2</v>
+        <v>29.5</v>
       </c>
       <c r="I11">
-        <v>15.9</v>
+        <v>16.7</v>
       </c>
       <c r="J11">
-        <v>13.5</v>
+        <v>13.8</v>
       </c>
       <c r="K11">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="L11">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2677,6 +2663,9 @@
         <v>0</v>
       </c>
       <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
         <v>0</v>
       </c>
     </row>
@@ -2698,25 +2687,25 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2724,28 +2713,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2">
-        <v>122.95</v>
+        <v>126.8</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>121.39</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2753,28 +2742,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3">
-        <v>101.54</v>
+        <v>114.49</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>121.51</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.615</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2782,28 +2771,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4">
-        <v>115.95</v>
+        <v>123.95</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>121.55</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2811,28 +2800,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>118.75</v>
+        <v>114.54</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>126.78</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.846</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2840,28 +2829,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D6">
-        <v>126.78</v>
+        <v>123.56</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F6">
-        <v>118.75</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.615</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2869,28 +2858,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7">
-        <v>121.39</v>
+        <v>121.54</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7">
-        <v>122.95</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2898,28 +2887,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8">
-        <v>121.55</v>
+        <v>117.82</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>115.95</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.615</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2930,25 +2919,25 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9">
-        <v>105.34</v>
+        <v>105.96</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9">
-        <v>112.64</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2956,28 +2945,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D10">
-        <v>112.64</v>
+        <v>119.42</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>105.34</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.231</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2985,28 +2974,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D11">
-        <v>121.51</v>
+        <v>101.12</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F11">
-        <v>101.54</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.231</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3027,28 +3016,28 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3056,16 +3045,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2">
-        <v>0.8461538461538461</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D2">
-        <v>126.7784615384615</v>
+        <v>126.8028571428572</v>
       </c>
       <c r="E2">
-        <v>1648.12</v>
+        <v>1775.24</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3074,10 +3063,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3085,16 +3074,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3">
-        <v>0.6153846153846154</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D3">
-        <v>115.9461538461538</v>
+        <v>114.4857142857143</v>
       </c>
       <c r="E3">
-        <v>1507.3</v>
+        <v>1602.8</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3103,27 +3092,27 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4">
-        <v>0.6153846153846154</v>
+        <v>0.5</v>
       </c>
       <c r="D4">
-        <v>121.5092307692308</v>
+        <v>123.9457142857143</v>
       </c>
       <c r="E4">
-        <v>1579.62</v>
+        <v>1735.24</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -3132,27 +3121,27 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C5">
-        <v>0.6153846153846154</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D5">
-        <v>118.7476923076923</v>
+        <v>123.5614285714286</v>
       </c>
       <c r="E5">
-        <v>1543.72</v>
+        <v>1729.86</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -3161,59 +3150,59 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>121.5507692307692</v>
+        <v>121.54</v>
       </c>
       <c r="E6">
-        <v>1580.16</v>
+        <v>1701.56</v>
       </c>
       <c r="F6">
-        <v>64.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I6" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
       </c>
       <c r="C7">
-        <v>0.4615384615384616</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D7">
-        <v>122.9507692307692</v>
+        <v>117.82</v>
       </c>
       <c r="E7">
-        <v>1598.36</v>
+        <v>1649.48</v>
       </c>
       <c r="F7">
-        <v>61.5</v>
+        <v>100</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3222,27 +3211,27 @@
         <v>84</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>121.3923076923077</v>
+        <v>114.5371428571429</v>
       </c>
       <c r="E8">
-        <v>1578.1</v>
+        <v>1603.52</v>
       </c>
       <c r="F8">
-        <v>50.7</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3251,65 +3240,65 @@
         <v>85</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C9">
-        <v>0.4615384615384616</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="D9">
-        <v>112.6446153846154</v>
+        <v>105.9557142857143</v>
       </c>
       <c r="E9">
-        <v>1464.38</v>
+        <v>1483.38</v>
       </c>
       <c r="F9">
-        <v>23.7</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C10">
-        <v>0.2307692307692308</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D10">
-        <v>105.34</v>
+        <v>119.4185714285714</v>
       </c>
       <c r="E10">
-        <v>1369.42</v>
+        <v>1671.86</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>25.2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3317,28 +3306,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C11">
-        <v>0.2307692307692308</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="D11">
-        <v>101.5369230769231</v>
+        <v>101.1171428571429</v>
       </c>
       <c r="E11">
-        <v>1319.98</v>
+        <v>1415.64</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>74.8</v>
+        <v>100</v>
       </c>
       <c r="H11" t="s">
         <v>87</v>
       </c>
       <c r="I11" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3359,16 +3348,16 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3376,19 +3365,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>63</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3396,19 +3385,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3416,19 +3405,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3436,19 +3425,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3459,7 +3448,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D6">
         <v>7</v>
@@ -3468,7 +3457,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3479,16 +3468,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3508,7 +3497,7 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3519,16 +3508,16 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D9">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3539,16 +3528,16 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10">
-        <v>-19</v>
+        <v>-17</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3559,16 +3548,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D11">
         <v>-46</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3578,245 +3567,260 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
         <v>-1</v>
       </c>
-      <c r="C2">
-        <v>-5</v>
-      </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>-6</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>-7</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>-7</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>-7</v>
       </c>
       <c r="J2">
-        <v>19</v>
+        <v>-4</v>
       </c>
       <c r="K2">
-        <v>28</v>
+        <v>-4</v>
       </c>
       <c r="L2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="M2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N2">
         <v>20</v>
       </c>
-      <c r="O2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>-4</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>-5</v>
+      </c>
+      <c r="G3">
+        <v>-2</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>-5</v>
+      </c>
+      <c r="K3">
+        <v>6</v>
+      </c>
+      <c r="L3">
+        <v>11</v>
+      </c>
+      <c r="M3">
+        <v>18</v>
+      </c>
+      <c r="N3">
+        <v>19</v>
+      </c>
+      <c r="O3">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>23</v>
+      </c>
+      <c r="J4">
+        <v>14</v>
+      </c>
+      <c r="K4">
+        <v>19</v>
+      </c>
+      <c r="L4">
+        <v>20</v>
+      </c>
+      <c r="M4">
+        <v>20</v>
+      </c>
+      <c r="N4">
+        <v>16</v>
+      </c>
+      <c r="O4">
+        <v>18</v>
+      </c>
+      <c r="P4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>-5</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>-1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>-4</v>
-      </c>
-      <c r="F3">
-        <v>-6</v>
-      </c>
-      <c r="G3">
-        <v>-7</v>
-      </c>
-      <c r="H3">
-        <v>-7</v>
-      </c>
-      <c r="I3">
-        <v>-7</v>
-      </c>
-      <c r="J3">
-        <v>-4</v>
-      </c>
-      <c r="K3">
-        <v>-4</v>
-      </c>
-      <c r="L3">
-        <v>5</v>
-      </c>
-      <c r="M3">
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>19</v>
+      </c>
+      <c r="K5">
+        <v>28</v>
+      </c>
+      <c r="L5">
+        <v>28</v>
+      </c>
+      <c r="M5">
+        <v>19</v>
+      </c>
+      <c r="N5">
+        <v>20</v>
+      </c>
+      <c r="O5">
         <v>12</v>
       </c>
-      <c r="N3">
-        <v>20</v>
-      </c>
-      <c r="O3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>-4</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>-5</v>
-      </c>
-      <c r="G4">
-        <v>-2</v>
-      </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
-      <c r="I4">
-        <v>6</v>
-      </c>
-      <c r="J4">
-        <v>-5</v>
-      </c>
-      <c r="K4">
-        <v>6</v>
-      </c>
-      <c r="L4">
-        <v>11</v>
-      </c>
-      <c r="M4">
-        <v>18</v>
-      </c>
-      <c r="N4">
-        <v>19</v>
-      </c>
-      <c r="O4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>11</v>
-      </c>
-      <c r="F5">
-        <v>14</v>
-      </c>
-      <c r="G5">
-        <v>16</v>
-      </c>
-      <c r="H5">
-        <v>16</v>
-      </c>
-      <c r="I5">
-        <v>23</v>
-      </c>
-      <c r="J5">
-        <v>14</v>
-      </c>
-      <c r="K5">
-        <v>19</v>
-      </c>
-      <c r="L5">
-        <v>20</v>
-      </c>
-      <c r="M5">
-        <v>20</v>
-      </c>
-      <c r="N5">
-        <v>16</v>
-      </c>
-      <c r="O5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -3859,11 +3863,14 @@
       <c r="N6">
         <v>7</v>
       </c>
-      <c r="O6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6">
+        <v>7</v>
+      </c>
+      <c r="P6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3906,11 +3913,14 @@
       <c r="N7">
         <v>1</v>
       </c>
-      <c r="O7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7">
+        <v>-5</v>
+      </c>
+      <c r="P7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -3953,11 +3963,14 @@
       <c r="N8">
         <v>-6</v>
       </c>
-      <c r="O8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="O8">
+        <v>-6</v>
+      </c>
+      <c r="P8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -4000,11 +4013,14 @@
       <c r="N9">
         <v>-13</v>
       </c>
-      <c r="O9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="O9">
+        <v>-8</v>
+      </c>
+      <c r="P9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -4047,11 +4063,14 @@
       <c r="N10">
         <v>-19</v>
       </c>
-      <c r="O10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="O10">
+        <v>-17</v>
+      </c>
+      <c r="P10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -4094,8 +4113,11 @@
       <c r="N11">
         <v>-46</v>
       </c>
-      <c r="O11" t="s">
-        <v>104</v>
+      <c r="O11">
+        <v>-46</v>
+      </c>
+      <c r="P11" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/0755 Fantasy Football 2025.xlsx
+++ b/leagues/0755 Fantasy Football 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="128">
   <si>
     <t>Michael, The Baker</t>
   </si>
@@ -55,6 +55,186 @@
     <t>AJ's Awesome Team</t>
   </si>
   <si>
+    <t>12-2-1</t>
+  </si>
+  <si>
+    <t>9-6-0</t>
+  </si>
+  <si>
+    <t>8-7-0</t>
+  </si>
+  <si>
+    <t>11-4-0</t>
+  </si>
+  <si>
+    <t>7-8-0</t>
+  </si>
+  <si>
+    <t>3-12-0</t>
+  </si>
+  <si>
+    <t>10-5-0</t>
+  </si>
+  <si>
+    <t>6-9-0</t>
+  </si>
+  <si>
+    <t>5-10-0</t>
+  </si>
+  <si>
+    <t>4-11-0</t>
+  </si>
+  <si>
+    <t>9-5-1</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Wins Against Schedule</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Expected Wins</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
+    <t>Week_7</t>
+  </si>
+  <si>
+    <t>Week_8</t>
+  </si>
+  <si>
+    <t>Week_9</t>
+  </si>
+  <si>
+    <t>Week_10</t>
+  </si>
+  <si>
+    <t>Week_11</t>
+  </si>
+  <si>
+    <t>Week_12</t>
+  </si>
+  <si>
+    <t>Week_13</t>
+  </si>
+  <si>
+    <t>Week_14</t>
+  </si>
+  <si>
+    <t>Week_15</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Team_Record</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Anthony Rizzo</t>
+  </si>
+  <si>
+    <t>Jacob Nichols</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
+    <t>Grace Olenzak</t>
+  </si>
+  <si>
+    <t>Jaime Cunningham</t>
+  </si>
+  <si>
+    <t>Kyle R</t>
+  </si>
+  <si>
+    <t>Robbie Wilston</t>
+  </si>
+  <si>
+    <t>Marvin Ta</t>
+  </si>
+  <si>
+    <t>Gigi Boguski</t>
+  </si>
+  <si>
+    <t>Abhishek Joshi</t>
+  </si>
+  <si>
     <t>12-2-0</t>
   </si>
   <si>
@@ -64,174 +244,15 @@
     <t>7-7-0</t>
   </si>
   <si>
-    <t>11-3-0</t>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
   </si>
   <si>
     <t>6-8-0</t>
   </si>
   <si>
-    <t>3-11-0</t>
-  </si>
-  <si>
-    <t>9-5-0</t>
-  </si>
-  <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>4-10-0</t>
-  </si>
-  <si>
-    <t>10-4-0</t>
-  </si>
-  <si>
-    <t>Teams</t>
-  </si>
-  <si>
-    <t>Wins Against Schedule</t>
-  </si>
-  <si>
-    <t>Record</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Expected Wins</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>1st Place</t>
-  </si>
-  <si>
-    <t>2nd Place</t>
-  </si>
-  <si>
-    <t>3rd Place</t>
-  </si>
-  <si>
-    <t>4th Place</t>
-  </si>
-  <si>
-    <t>5th Place</t>
-  </si>
-  <si>
-    <t>6th Place</t>
-  </si>
-  <si>
-    <t>7th Place</t>
-  </si>
-  <si>
-    <t>8th Place</t>
-  </si>
-  <si>
-    <t>9th Place</t>
-  </si>
-  <si>
-    <t>10th Place</t>
-  </si>
-  <si>
-    <t>Chance of Making Playoffs</t>
-  </si>
-  <si>
-    <t>Week_1</t>
-  </si>
-  <si>
-    <t>Week_2</t>
-  </si>
-  <si>
-    <t>Week_3</t>
-  </si>
-  <si>
-    <t>Week_4</t>
-  </si>
-  <si>
-    <t>Week_5</t>
-  </si>
-  <si>
-    <t>Week_6</t>
-  </si>
-  <si>
-    <t>Week_7</t>
-  </si>
-  <si>
-    <t>Week_8</t>
-  </si>
-  <si>
-    <t>Week_9</t>
-  </si>
-  <si>
-    <t>Week_10</t>
-  </si>
-  <si>
-    <t>Week_11</t>
-  </si>
-  <si>
-    <t>Week_12</t>
-  </si>
-  <si>
-    <t>Week_13</t>
-  </si>
-  <si>
-    <t>Week_14</t>
-  </si>
-  <si>
-    <t>Week_15</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Avg_Points_For</t>
-  </si>
-  <si>
-    <t>Team_Record</t>
-  </si>
-  <si>
-    <t>Avg_Opp_Points_For</t>
-  </si>
-  <si>
-    <t>Avg_Opp_Win_Pct</t>
-  </si>
-  <si>
-    <t>Avg_Opp_LPI</t>
-  </si>
-  <si>
-    <t>Games_Remaining</t>
-  </si>
-  <si>
-    <t>Anthony Rizzo</t>
-  </si>
-  <si>
-    <t>Jacob Nichols</t>
-  </si>
-  <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
-    <t>Grace Olenzak</t>
-  </si>
-  <si>
-    <t>Jaime Cunningham</t>
-  </si>
-  <si>
-    <t>Kyle R</t>
-  </si>
-  <si>
-    <t>Robbie Wilston</t>
-  </si>
-  <si>
-    <t>Marvin Ta</t>
-  </si>
-  <si>
-    <t>Gigi Boguski</t>
-  </si>
-  <si>
-    <t>Abhishek Joshi</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -301,24 +322,27 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
     <t>↓8</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -359,6 +383,9 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
   </si>
   <si>
     <t>Week</t>
@@ -783,31 +810,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -818,10 +845,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -833,13 +860,13 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
@@ -868,7 +895,7 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
@@ -877,7 +904,7 @@
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -888,7 +915,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -903,7 +930,7 @@
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -923,28 +950,28 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
@@ -993,10 +1020,10 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -1005,16 +1032,16 @@
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
         <v>11</v>
@@ -1028,25 +1055,25 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
         <v>15</v>
@@ -1063,28 +1090,28 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
         <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -1098,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
         <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>17</v>
       </c>
       <c r="J11" t="s">
         <v>15</v>
@@ -1140,25 +1167,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1270,25 +1297,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
       <c r="E6">
-        <v>12</v>
+        <v>-5</v>
       </c>
       <c r="F6">
-        <v>-5</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1296,25 +1323,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1332,13 +1359,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1349,7 +1376,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1363,10 +1390,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1374,13 +1401,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>6.3</v>
-      </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1388,13 +1415,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1402,13 +1429,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1416,13 +1443,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1430,13 +1457,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1444,13 +1471,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1458,13 +1485,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>7.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1475,7 +1502,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -1496,16 +1523,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1516,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D2">
-        <v>-3</v>
+        <v>-2.800000000000001</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1533,13 +1560,13 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1550,10 +1577,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>7.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D4">
-        <v>0.7999999999999998</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1564,16 +1591,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="D5">
-        <v>-0.5</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1581,16 +1608,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
         <v>8</v>
       </c>
-      <c r="C6">
-        <v>7.2</v>
-      </c>
       <c r="D6">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1598,16 +1625,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="D7">
-        <v>0.09999999999999964</v>
+        <v>1.6</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1615,16 +1642,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="D8">
-        <v>-1.2</v>
+        <v>-0.5</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1632,13 +1659,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="D9">
-        <v>-0.2999999999999998</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1652,13 +1679,13 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="D10">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1693,40 +1720,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2124,49 +2151,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2174,28 +2201,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>58.4</v>
+        <v>57.4</v>
       </c>
       <c r="C2">
-        <v>84.3</v>
+        <v>84.39999999999999</v>
       </c>
       <c r="D2">
-        <v>91.60000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E2">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="F2">
-        <v>99.09999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="G2">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="H2">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -2227,43 +2254,43 @@
         <v>100</v>
       </c>
       <c r="C3">
-        <v>95.3</v>
+        <v>96.5</v>
       </c>
       <c r="D3">
-        <v>70.09999999999999</v>
+        <v>70.39999999999999</v>
       </c>
       <c r="E3">
-        <v>74.90000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="F3">
-        <v>88.09999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="G3">
-        <v>94.3</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="H3">
-        <v>86.90000000000001</v>
+        <v>86.2</v>
       </c>
       <c r="I3">
-        <v>91.7</v>
+        <v>93</v>
       </c>
       <c r="J3">
-        <v>98.3</v>
+        <v>98.5</v>
       </c>
       <c r="K3">
-        <v>96</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="L3">
-        <v>96.7</v>
+        <v>96.5</v>
       </c>
       <c r="M3">
-        <v>89.60000000000001</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="N3">
         <v>100</v>
       </c>
       <c r="O3">
-        <v>87.5</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="P3">
         <v>100</v>
@@ -2274,46 +2301,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="C4">
-        <v>56.2</v>
+        <v>56.59999999999999</v>
       </c>
       <c r="D4">
-        <v>82.69999999999999</v>
+        <v>82.39999999999999</v>
       </c>
       <c r="E4">
-        <v>68.7</v>
+        <v>64.8</v>
       </c>
       <c r="F4">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="G4">
-        <v>34</v>
+        <v>33.4</v>
       </c>
       <c r="H4">
-        <v>62.3</v>
+        <v>61.3</v>
       </c>
       <c r="I4">
-        <v>44.3</v>
+        <v>43.1</v>
       </c>
       <c r="J4">
-        <v>26.9</v>
+        <v>25.5</v>
       </c>
       <c r="K4">
-        <v>45.5</v>
+        <v>45</v>
       </c>
       <c r="L4">
-        <v>72.3</v>
+        <v>74.8</v>
       </c>
       <c r="M4">
-        <v>80.80000000000001</v>
+        <v>82</v>
       </c>
       <c r="N4">
-        <v>56.49999999999999</v>
+        <v>59.2</v>
       </c>
       <c r="O4">
-        <v>79.3</v>
+        <v>80.5</v>
       </c>
       <c r="P4">
         <v>100</v>
@@ -2324,40 +2351,40 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>95.19999999999999</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="C5">
-        <v>55.7</v>
+        <v>56.49999999999999</v>
       </c>
       <c r="D5">
-        <v>71.2</v>
+        <v>70.39999999999999</v>
       </c>
       <c r="E5">
-        <v>46.40000000000001</v>
+        <v>46</v>
       </c>
       <c r="F5">
-        <v>60.09999999999999</v>
+        <v>61.2</v>
       </c>
       <c r="G5">
-        <v>47.9</v>
+        <v>50.4</v>
       </c>
       <c r="H5">
-        <v>71.2</v>
+        <v>70.3</v>
       </c>
       <c r="I5">
-        <v>88</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="J5">
-        <v>86.5</v>
+        <v>87.2</v>
       </c>
       <c r="K5">
-        <v>91.90000000000001</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="L5">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="M5">
-        <v>97</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -2374,46 +2401,46 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="C6">
-        <v>47.4</v>
+        <v>47.09999999999999</v>
       </c>
       <c r="D6">
-        <v>32.6</v>
+        <v>34.3</v>
       </c>
       <c r="E6">
-        <v>56.49999999999999</v>
+        <v>53.40000000000001</v>
       </c>
       <c r="F6">
-        <v>49.7</v>
+        <v>49.9</v>
       </c>
       <c r="G6">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="H6">
-        <v>73.5</v>
+        <v>71.5</v>
       </c>
       <c r="I6">
-        <v>55.60000000000001</v>
+        <v>54</v>
       </c>
       <c r="J6">
-        <v>46.6</v>
+        <v>45.2</v>
       </c>
       <c r="K6">
-        <v>52.2</v>
+        <v>54.6</v>
       </c>
       <c r="L6">
-        <v>23.8</v>
+        <v>24.5</v>
       </c>
       <c r="M6">
-        <v>41.2</v>
+        <v>41.09999999999999</v>
       </c>
       <c r="N6">
-        <v>60.5</v>
+        <v>60.8</v>
       </c>
       <c r="O6">
-        <v>60.7</v>
+        <v>63.1</v>
       </c>
       <c r="P6">
         <v>100</v>
@@ -2424,46 +2451,46 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C7">
-        <v>86.2</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="D7">
-        <v>58.7</v>
+        <v>56.89999999999999</v>
       </c>
       <c r="E7">
-        <v>71.3</v>
+        <v>71.89999999999999</v>
       </c>
       <c r="F7">
-        <v>57.4</v>
+        <v>53.6</v>
       </c>
       <c r="G7">
-        <v>76.90000000000001</v>
+        <v>75.2</v>
       </c>
       <c r="H7">
-        <v>67.10000000000001</v>
+        <v>71</v>
       </c>
       <c r="I7">
-        <v>81.69999999999999</v>
+        <v>80</v>
       </c>
       <c r="J7">
-        <v>91</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="K7">
-        <v>94.8</v>
+        <v>94</v>
       </c>
       <c r="L7">
-        <v>97.7</v>
+        <v>97.3</v>
       </c>
       <c r="M7">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="N7">
         <v>100</v>
       </c>
       <c r="O7">
-        <v>99.5</v>
+        <v>98.7</v>
       </c>
       <c r="P7">
         <v>100</v>
@@ -2474,46 +2501,46 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>75.3</v>
+        <v>76.7</v>
       </c>
       <c r="C8">
-        <v>6.4</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="D8">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>22.9</v>
+        <v>24.8</v>
       </c>
       <c r="F8">
-        <v>50.1</v>
+        <v>55.2</v>
       </c>
       <c r="G8">
-        <v>23.8</v>
+        <v>22.7</v>
       </c>
       <c r="H8">
-        <v>25.4</v>
+        <v>28.9</v>
       </c>
       <c r="I8">
-        <v>45.8</v>
+        <v>53.1</v>
       </c>
       <c r="J8">
-        <v>44.2</v>
+        <v>46.6</v>
       </c>
       <c r="K8">
-        <v>29.5</v>
+        <v>28.9</v>
       </c>
       <c r="L8">
-        <v>14.7</v>
+        <v>12.3</v>
       </c>
       <c r="M8">
-        <v>15.6</v>
+        <v>16.5</v>
       </c>
       <c r="N8">
-        <v>30.2</v>
+        <v>28.6</v>
       </c>
       <c r="O8">
-        <v>55.40000000000001</v>
+        <v>52.8</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2527,34 +2554,34 @@
         <v>99.8</v>
       </c>
       <c r="C9">
-        <v>76.2</v>
+        <v>75.5</v>
       </c>
       <c r="D9">
-        <v>36.7</v>
+        <v>35.9</v>
       </c>
       <c r="E9">
-        <v>12.2</v>
+        <v>10.9</v>
       </c>
       <c r="F9">
-        <v>5.2</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="G9">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="H9">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="I9">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J9">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="K9">
         <v>0.3</v>
       </c>
       <c r="L9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -2574,46 +2601,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>90.40000000000001</v>
+        <v>90.10000000000001</v>
       </c>
       <c r="C10">
-        <v>83.39999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="D10">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="E10">
-        <v>90.40000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="F10">
-        <v>98.3</v>
+        <v>97.3</v>
       </c>
       <c r="G10">
-        <v>92.5</v>
+        <v>92.7</v>
       </c>
       <c r="H10">
+        <v>83.2</v>
+      </c>
+      <c r="I10">
+        <v>72.2</v>
+      </c>
+      <c r="J10">
+        <v>90.7</v>
+      </c>
+      <c r="K10">
         <v>83.3</v>
       </c>
-      <c r="I10">
-        <v>75.7</v>
-      </c>
-      <c r="J10">
-        <v>90.10000000000001</v>
-      </c>
-      <c r="K10">
-        <v>84.09999999999999</v>
-      </c>
       <c r="L10">
-        <v>94.39999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="M10">
-        <v>75.90000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="N10">
-        <v>52.8</v>
+        <v>51.4</v>
       </c>
       <c r="O10">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2624,7 +2651,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.5</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="C11">
         <v>8.9</v>
@@ -2633,25 +2660,25 @@
         <v>55.2</v>
       </c>
       <c r="E11">
-        <v>60</v>
+        <v>62.2</v>
       </c>
       <c r="F11">
-        <v>42.1</v>
+        <v>45.4</v>
       </c>
       <c r="G11">
-        <v>50.6</v>
+        <v>51.6</v>
       </c>
       <c r="H11">
-        <v>29.5</v>
+        <v>27.2</v>
       </c>
       <c r="I11">
-        <v>16.7</v>
+        <v>15.8</v>
       </c>
       <c r="J11">
-        <v>13.8</v>
+        <v>13.2</v>
       </c>
       <c r="K11">
-        <v>5.7</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="L11">
         <v>1.7</v>
@@ -2684,28 +2711,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2716,13 +2743,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>126.8</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2745,13 +2772,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3">
         <v>114.49</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2774,13 +2801,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4">
         <v>123.95</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2803,13 +2830,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5">
         <v>114.54</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2832,13 +2859,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6">
         <v>123.56</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2861,13 +2888,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7">
         <v>121.54</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2890,13 +2917,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D8">
         <v>117.82</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2919,13 +2946,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D9">
         <v>105.96</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2948,13 +2975,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D10">
         <v>119.42</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2977,13 +3004,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D11">
         <v>101.12</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3013,31 +3040,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3045,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C2">
         <v>0.8571428571428571</v>
@@ -3063,10 +3090,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3074,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C3">
         <v>0.5714285714285714</v>
@@ -3092,10 +3119,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3103,7 +3130,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -3121,10 +3148,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3132,7 +3159,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C5">
         <v>0.6428571428571429</v>
@@ -3150,10 +3177,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3161,7 +3188,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C6">
         <v>0.5</v>
@@ -3179,10 +3206,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3190,7 +3217,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C7">
         <v>0.5714285714285714</v>
@@ -3208,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3219,7 +3246,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -3237,10 +3264,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3248,7 +3275,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C9">
         <v>0.2142857142857143</v>
@@ -3266,10 +3293,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3277,7 +3304,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C10">
         <v>0.4285714285714285</v>
@@ -3295,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I10" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3306,7 +3333,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C11">
         <v>0.2142857142857143</v>
@@ -3324,10 +3351,10 @@
         <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3345,19 +3372,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3365,19 +3392,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3385,19 +3412,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3405,19 +3432,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3425,19 +3452,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3448,16 +3475,16 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3468,16 +3495,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3488,16 +3515,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D8">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3508,16 +3535,16 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D9">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3528,16 +3555,16 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D10">
-        <v>-17</v>
+        <v>-23</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3548,16 +3575,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D11">
-        <v>-46</v>
+        <v>-54</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3567,260 +3594,275 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>-4</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>-5</v>
+      </c>
+      <c r="G2">
+        <v>-2</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>-5</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>18</v>
+      </c>
+      <c r="N2">
+        <v>19</v>
+      </c>
+      <c r="O2">
+        <v>22</v>
+      </c>
+      <c r="P2">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>-4</v>
+      </c>
+      <c r="F3">
+        <v>-6</v>
+      </c>
+      <c r="G3">
+        <v>-7</v>
+      </c>
+      <c r="H3">
+        <v>-7</v>
+      </c>
+      <c r="I3">
+        <v>-7</v>
+      </c>
+      <c r="J3">
+        <v>-4</v>
+      </c>
+      <c r="K3">
+        <v>-4</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+      <c r="N3">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <v>23</v>
+      </c>
+      <c r="P3">
+        <v>14</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>-5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>19</v>
+      </c>
+      <c r="K4">
+        <v>28</v>
+      </c>
+      <c r="L4">
+        <v>28</v>
+      </c>
+      <c r="M4">
+        <v>19</v>
+      </c>
+      <c r="N4">
+        <v>20</v>
+      </c>
+      <c r="O4">
+        <v>12</v>
+      </c>
+      <c r="P4">
+        <v>13</v>
+      </c>
+      <c r="Q4" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>23</v>
+      </c>
+      <c r="J5">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>19</v>
+      </c>
+      <c r="L5">
+        <v>20</v>
+      </c>
+      <c r="M5">
+        <v>20</v>
+      </c>
+      <c r="N5">
+        <v>16</v>
+      </c>
+      <c r="O5">
+        <v>18</v>
+      </c>
+      <c r="P5">
+        <v>12</v>
+      </c>
+      <c r="Q5" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>-1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>-4</v>
-      </c>
-      <c r="F2">
-        <v>-6</v>
-      </c>
-      <c r="G2">
-        <v>-7</v>
-      </c>
-      <c r="H2">
-        <v>-7</v>
-      </c>
-      <c r="I2">
-        <v>-7</v>
-      </c>
-      <c r="J2">
-        <v>-4</v>
-      </c>
-      <c r="K2">
-        <v>-4</v>
-      </c>
-      <c r="L2">
-        <v>5</v>
-      </c>
-      <c r="M2">
-        <v>12</v>
-      </c>
-      <c r="N2">
-        <v>20</v>
-      </c>
-      <c r="O2">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>-4</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>-5</v>
-      </c>
-      <c r="G3">
-        <v>-2</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-      <c r="I3">
-        <v>6</v>
-      </c>
-      <c r="J3">
-        <v>-5</v>
-      </c>
-      <c r="K3">
-        <v>6</v>
-      </c>
-      <c r="L3">
-        <v>11</v>
-      </c>
-      <c r="M3">
-        <v>18</v>
-      </c>
-      <c r="N3">
-        <v>19</v>
-      </c>
-      <c r="O3">
-        <v>22</v>
-      </c>
-      <c r="P3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>14</v>
-      </c>
-      <c r="G4">
-        <v>16</v>
-      </c>
-      <c r="H4">
-        <v>16</v>
-      </c>
-      <c r="I4">
-        <v>23</v>
-      </c>
-      <c r="J4">
-        <v>14</v>
-      </c>
-      <c r="K4">
-        <v>19</v>
-      </c>
-      <c r="L4">
-        <v>20</v>
-      </c>
-      <c r="M4">
-        <v>20</v>
-      </c>
-      <c r="N4">
-        <v>16</v>
-      </c>
-      <c r="O4">
-        <v>18</v>
-      </c>
-      <c r="P4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>-1</v>
-      </c>
-      <c r="C5">
-        <v>-5</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>-1</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
-      <c r="J5">
-        <v>19</v>
-      </c>
-      <c r="K5">
-        <v>28</v>
-      </c>
-      <c r="L5">
-        <v>28</v>
-      </c>
-      <c r="M5">
-        <v>19</v>
-      </c>
-      <c r="N5">
-        <v>20</v>
-      </c>
-      <c r="O5">
-        <v>12</v>
-      </c>
-      <c r="P5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -3866,11 +3908,14 @@
       <c r="O6">
         <v>7</v>
       </c>
-      <c r="P6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="P6">
+        <v>12</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3916,11 +3961,14 @@
       <c r="O7">
         <v>-5</v>
       </c>
-      <c r="P7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -3966,11 +4014,14 @@
       <c r="O8">
         <v>-6</v>
       </c>
-      <c r="P8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8">
+        <v>-1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -4016,11 +4067,14 @@
       <c r="O9">
         <v>-8</v>
       </c>
-      <c r="P9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9">
+        <v>-5</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -4066,11 +4120,14 @@
       <c r="O10">
         <v>-17</v>
       </c>
-      <c r="P10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10">
+        <v>-23</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -4116,8 +4173,11 @@
       <c r="O11">
         <v>-46</v>
       </c>
-      <c r="P11" t="s">
-        <v>95</v>
+      <c r="P11">
+        <v>-54</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/0755 Fantasy Football 2025.xlsx
+++ b/leagues/0755 Fantasy Football 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="131">
   <si>
     <t>Michael, The Baker</t>
   </si>
@@ -55,37 +55,40 @@
     <t>AJ's Awesome Team</t>
   </si>
   <si>
-    <t>12-2-1</t>
-  </si>
-  <si>
-    <t>9-6-0</t>
-  </si>
-  <si>
-    <t>8-7-0</t>
-  </si>
-  <si>
-    <t>11-4-0</t>
-  </si>
-  <si>
-    <t>7-8-0</t>
-  </si>
-  <si>
-    <t>3-12-0</t>
-  </si>
-  <si>
-    <t>10-5-0</t>
-  </si>
-  <si>
-    <t>6-9-0</t>
-  </si>
-  <si>
-    <t>5-10-0</t>
-  </si>
-  <si>
-    <t>4-11-0</t>
-  </si>
-  <si>
-    <t>9-5-1</t>
+    <t>13-2-1</t>
+  </si>
+  <si>
+    <t>9-7-0</t>
+  </si>
+  <si>
+    <t>8-8-0</t>
+  </si>
+  <si>
+    <t>11-5-0</t>
+  </si>
+  <si>
+    <t>10-6-0</t>
+  </si>
+  <si>
+    <t>7-9-0</t>
+  </si>
+  <si>
+    <t>3-13-0</t>
+  </si>
+  <si>
+    <t>6-10-0</t>
+  </si>
+  <si>
+    <t>5-11-0</t>
+  </si>
+  <si>
+    <t>4-12-0</t>
+  </si>
+  <si>
+    <t>12-4-0</t>
+  </si>
+  <si>
+    <t>10-5-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -322,25 +325,28 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↑1</t>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑2</t>
   </si>
   <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓8</t>
+    <t>0</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -386,6 +392,9 @@
   </si>
   <si>
     <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
   </si>
   <si>
     <t>Week</t>
@@ -813,28 +822,28 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -851,10 +860,10 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -863,13 +872,13 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -880,31 +889,31 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -921,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -956,25 +965,25 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -991,10 +1000,10 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -1003,13 +1012,13 @@
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1017,34 +1026,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="H8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>12</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>12</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1052,22 +1061,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
         <v>18</v>
@@ -1076,10 +1085,10 @@
         <v>19</v>
       </c>
       <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
         <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1087,19 +1096,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -1108,13 +1117,13 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1122,34 +1131,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" t="s">
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" t="s">
+      <c r="K11" t="s">
         <v>19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1168,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1167,25 +1176,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1193,25 +1202,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>-17</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>19</v>
+        <v>-54</v>
       </c>
       <c r="G2">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1219,22 +1228,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E3">
+        <v>-17</v>
+      </c>
+      <c r="F3">
         <v>19</v>
       </c>
-      <c r="F3">
-        <v>-13</v>
-      </c>
       <c r="G3">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
         <v>3</v>
@@ -1248,22 +1257,22 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4">
-        <v>-6</v>
+        <v>-13</v>
       </c>
       <c r="G4">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1271,25 +1280,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>28</v>
+        <v>-6</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1297,51 +1306,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6">
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <v>-5</v>
-      </c>
-      <c r="G7">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1359,13 +1342,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1376,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1390,7 +1373,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -1401,10 +1384,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1415,13 +1398,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1429,13 +1412,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1443,13 +1426,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>7.9</v>
+        <v>8.4</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1457,13 +1440,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1471,13 +1454,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>7.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1485,13 +1468,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1502,10 +1485,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>8.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1523,16 +1506,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1543,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.199999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="D2">
-        <v>-2.800000000000001</v>
+        <v>-2.9</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1560,13 +1543,13 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>9.1</v>
+        <v>9.6</v>
       </c>
       <c r="D3">
-        <v>0.09999999999999964</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1577,10 +1560,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>8.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="D4">
-        <v>0.6999999999999993</v>
+        <v>1.4</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1591,16 +1574,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>8.1</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1608,13 +1591,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1625,16 +1608,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>7.6</v>
+        <v>8.1</v>
       </c>
       <c r="D7">
-        <v>1.6</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1642,16 +1625,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="D8">
-        <v>-0.5</v>
+        <v>1.8</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1662,10 +1645,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="D9">
-        <v>-0.5999999999999996</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1696,13 +1679,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1720,40 +1703,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2151,49 +2134,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2201,25 +2184,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>57.4</v>
+        <v>57.59999999999999</v>
       </c>
       <c r="C2">
-        <v>84.39999999999999</v>
+        <v>86.2</v>
       </c>
       <c r="D2">
-        <v>92.90000000000001</v>
+        <v>92.10000000000001</v>
       </c>
       <c r="E2">
-        <v>96.8</v>
+        <v>97.5</v>
       </c>
       <c r="F2">
-        <v>99.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G2">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="H2">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I2">
         <v>100</v>
@@ -2251,46 +2234,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C3">
-        <v>96.5</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="D3">
-        <v>70.39999999999999</v>
+        <v>68.10000000000001</v>
       </c>
       <c r="E3">
-        <v>78.7</v>
+        <v>79.7</v>
       </c>
       <c r="F3">
-        <v>82.3</v>
+        <v>86.2</v>
       </c>
       <c r="G3">
-        <v>94.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="H3">
-        <v>86.2</v>
+        <v>84.3</v>
       </c>
       <c r="I3">
-        <v>93</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="J3">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="K3">
-        <v>95.89999999999999</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="L3">
-        <v>96.5</v>
+        <v>94.8</v>
       </c>
       <c r="M3">
-        <v>86.59999999999999</v>
+        <v>87.7</v>
       </c>
       <c r="N3">
         <v>100</v>
       </c>
       <c r="O3">
-        <v>87.40000000000001</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="P3">
         <v>100</v>
@@ -2301,46 +2284,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="C4">
-        <v>56.59999999999999</v>
+        <v>54.7</v>
       </c>
       <c r="D4">
-        <v>82.39999999999999</v>
+        <v>82.69999999999999</v>
       </c>
       <c r="E4">
-        <v>64.8</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="F4">
-        <v>49.5</v>
+        <v>46.8</v>
       </c>
       <c r="G4">
-        <v>33.4</v>
+        <v>32.5</v>
       </c>
       <c r="H4">
-        <v>61.3</v>
+        <v>64.3</v>
       </c>
       <c r="I4">
-        <v>43.1</v>
+        <v>41.09999999999999</v>
       </c>
       <c r="J4">
-        <v>25.5</v>
+        <v>24.1</v>
       </c>
       <c r="K4">
-        <v>45</v>
+        <v>48.6</v>
       </c>
       <c r="L4">
-        <v>74.8</v>
+        <v>69.69999999999999</v>
       </c>
       <c r="M4">
-        <v>82</v>
+        <v>80.5</v>
       </c>
       <c r="N4">
-        <v>59.2</v>
+        <v>57.9</v>
       </c>
       <c r="O4">
-        <v>80.5</v>
+        <v>82.19999999999999</v>
       </c>
       <c r="P4">
         <v>100</v>
@@ -2351,40 +2334,40 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>95.89999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="C5">
-        <v>56.49999999999999</v>
+        <v>59.2</v>
       </c>
       <c r="D5">
-        <v>70.39999999999999</v>
+        <v>71.89999999999999</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>45.3</v>
       </c>
       <c r="F5">
-        <v>61.2</v>
+        <v>61.5</v>
       </c>
       <c r="G5">
-        <v>50.4</v>
+        <v>49</v>
       </c>
       <c r="H5">
-        <v>70.3</v>
+        <v>70.5</v>
       </c>
       <c r="I5">
-        <v>88.40000000000001</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="J5">
-        <v>87.2</v>
+        <v>85.8</v>
       </c>
       <c r="K5">
-        <v>92.40000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="L5">
-        <v>98.40000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="M5">
-        <v>96.89999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -2401,46 +2384,46 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>45.5</v>
+        <v>47.8</v>
       </c>
       <c r="C6">
         <v>47.09999999999999</v>
       </c>
       <c r="D6">
-        <v>34.3</v>
+        <v>35.09999999999999</v>
       </c>
       <c r="E6">
-        <v>53.40000000000001</v>
+        <v>54.1</v>
       </c>
       <c r="F6">
-        <v>49.9</v>
+        <v>51.4</v>
       </c>
       <c r="G6">
-        <v>76.2</v>
+        <v>78.2</v>
       </c>
       <c r="H6">
-        <v>71.5</v>
+        <v>74.5</v>
       </c>
       <c r="I6">
-        <v>54</v>
+        <v>55.1</v>
       </c>
       <c r="J6">
-        <v>45.2</v>
+        <v>46.5</v>
       </c>
       <c r="K6">
-        <v>54.6</v>
+        <v>55.3</v>
       </c>
       <c r="L6">
-        <v>24.5</v>
+        <v>26.2</v>
       </c>
       <c r="M6">
-        <v>41.09999999999999</v>
+        <v>41.6</v>
       </c>
       <c r="N6">
-        <v>60.8</v>
+        <v>61.6</v>
       </c>
       <c r="O6">
-        <v>63.1</v>
+        <v>64</v>
       </c>
       <c r="P6">
         <v>100</v>
@@ -2451,37 +2434,37 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>27.4</v>
+        <v>28.6</v>
       </c>
       <c r="C7">
-        <v>87.40000000000001</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="D7">
-        <v>56.89999999999999</v>
+        <v>59.2</v>
       </c>
       <c r="E7">
-        <v>71.89999999999999</v>
+        <v>72</v>
       </c>
       <c r="F7">
-        <v>53.6</v>
+        <v>58.59999999999999</v>
       </c>
       <c r="G7">
-        <v>75.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="H7">
-        <v>71</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="I7">
-        <v>80</v>
+        <v>79.80000000000001</v>
       </c>
       <c r="J7">
-        <v>90.90000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="K7">
-        <v>94</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="L7">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="M7">
         <v>100</v>
@@ -2490,7 +2473,7 @@
         <v>100</v>
       </c>
       <c r="O7">
-        <v>98.7</v>
+        <v>99.3</v>
       </c>
       <c r="P7">
         <v>100</v>
@@ -2501,46 +2484,46 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>76.7</v>
+        <v>74.8</v>
       </c>
       <c r="C8">
-        <v>5.600000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="E8">
-        <v>24.8</v>
+        <v>23.7</v>
       </c>
       <c r="F8">
-        <v>55.2</v>
+        <v>49.5</v>
       </c>
       <c r="G8">
-        <v>22.7</v>
+        <v>23.1</v>
       </c>
       <c r="H8">
-        <v>28.9</v>
+        <v>26.9</v>
       </c>
       <c r="I8">
-        <v>53.1</v>
+        <v>49.5</v>
       </c>
       <c r="J8">
-        <v>46.6</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>28.9</v>
+        <v>24.6</v>
       </c>
       <c r="L8">
-        <v>12.3</v>
+        <v>16.9</v>
       </c>
       <c r="M8">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="N8">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="O8">
-        <v>52.8</v>
+        <v>50.8</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2551,37 +2534,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="C9">
-        <v>75.5</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="D9">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="E9">
-        <v>10.9</v>
+        <v>11.9</v>
       </c>
       <c r="F9">
-        <v>5.800000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="G9">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="H9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J9">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="K9">
+        <v>0.6</v>
+      </c>
+      <c r="L9">
         <v>0.3</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -2601,46 +2584,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>90.10000000000001</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="C10">
-        <v>81.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="D10">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="E10">
-        <v>90.5</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="F10">
-        <v>97.3</v>
+        <v>97.8</v>
       </c>
       <c r="G10">
-        <v>92.7</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="H10">
-        <v>83.2</v>
+        <v>81.89999999999999</v>
       </c>
       <c r="I10">
-        <v>72.2</v>
+        <v>75.7</v>
       </c>
       <c r="J10">
-        <v>90.7</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K10">
-        <v>83.3</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="L10">
-        <v>94.5</v>
+        <v>94.69999999999999</v>
       </c>
       <c r="M10">
-        <v>76.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="N10">
-        <v>51.4</v>
+        <v>51.5</v>
       </c>
       <c r="O10">
-        <v>17.5</v>
+        <v>18.1</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2651,37 +2634,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.399999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="C11">
-        <v>8.9</v>
+        <v>10.2</v>
       </c>
       <c r="D11">
-        <v>55.2</v>
+        <v>53</v>
       </c>
       <c r="E11">
-        <v>62.2</v>
+        <v>61</v>
       </c>
       <c r="F11">
-        <v>45.4</v>
+        <v>43.4</v>
       </c>
       <c r="G11">
-        <v>51.6</v>
+        <v>50</v>
       </c>
       <c r="H11">
-        <v>27.2</v>
+        <v>29.8</v>
       </c>
       <c r="I11">
-        <v>15.8</v>
+        <v>17.4</v>
       </c>
       <c r="J11">
-        <v>13.2</v>
+        <v>15.3</v>
       </c>
       <c r="K11">
         <v>5.600000000000001</v>
       </c>
       <c r="L11">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2711,28 +2694,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2743,13 +2726,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>126.8</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2772,13 +2755,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3">
         <v>114.49</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2801,13 +2784,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D4">
         <v>123.95</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2830,13 +2813,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5">
         <v>114.54</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2859,13 +2842,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6">
         <v>123.56</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2888,13 +2871,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7">
         <v>121.54</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2917,13 +2900,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8">
         <v>117.82</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2946,13 +2929,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D9">
         <v>105.96</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2975,13 +2958,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D10">
         <v>119.42</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3004,13 +2987,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D11">
         <v>101.12</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3040,31 +3023,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3072,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2">
         <v>0.8571428571428571</v>
@@ -3090,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3101,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3">
         <v>0.5714285714285714</v>
@@ -3119,10 +3102,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3130,7 +3113,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -3148,10 +3131,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3159,7 +3142,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5">
         <v>0.6428571428571429</v>
@@ -3177,10 +3160,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3188,7 +3171,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6">
         <v>0.5</v>
@@ -3206,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3217,7 +3200,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7">
         <v>0.5714285714285714</v>
@@ -3235,10 +3218,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3246,7 +3229,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -3264,10 +3247,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3275,7 +3258,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C9">
         <v>0.2142857142857143</v>
@@ -3293,10 +3276,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3304,7 +3287,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C10">
         <v>0.4285714285714285</v>
@@ -3322,10 +3305,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3333,7 +3316,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C11">
         <v>0.2142857142857143</v>
@@ -3351,10 +3334,10 @@
         <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3372,19 +3355,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3395,16 +3378,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3412,19 +3395,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3432,19 +3415,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3452,19 +3435,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3472,19 +3455,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3492,19 +3475,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3512,19 +3495,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3535,16 +3518,16 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D9">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3555,16 +3538,16 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D10">
-        <v>-23</v>
+        <v>-29</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3575,16 +3558,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D11">
         <v>-54</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3594,63 +3577,66 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>123</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3699,329 +3685,350 @@
       <c r="P2">
         <v>29</v>
       </c>
-      <c r="Q2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="Q2">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>23</v>
+      </c>
+      <c r="J3">
+        <v>14</v>
+      </c>
+      <c r="K3">
+        <v>19</v>
+      </c>
+      <c r="L3">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>20</v>
+      </c>
+      <c r="N3">
+        <v>16</v>
+      </c>
+      <c r="O3">
+        <v>18</v>
+      </c>
+      <c r="P3">
+        <v>12</v>
+      </c>
+      <c r="Q3">
+        <v>20</v>
+      </c>
+      <c r="R3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>23</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>14</v>
+      </c>
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>7</v>
+      </c>
+      <c r="P4">
+        <v>12</v>
+      </c>
+      <c r="Q4">
+        <v>17</v>
+      </c>
+      <c r="R4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B5">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C5">
         <v>-1</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>-4</v>
       </c>
-      <c r="F3">
+      <c r="F5">
         <v>-6</v>
       </c>
-      <c r="G3">
+      <c r="G5">
         <v>-7</v>
       </c>
-      <c r="H3">
+      <c r="H5">
         <v>-7</v>
       </c>
-      <c r="I3">
+      <c r="I5">
         <v>-7</v>
       </c>
-      <c r="J3">
+      <c r="J5">
         <v>-4</v>
       </c>
-      <c r="K3">
+      <c r="K5">
         <v>-4</v>
       </c>
-      <c r="L3">
+      <c r="L5">
         <v>5</v>
       </c>
-      <c r="M3">
+      <c r="M5">
         <v>12</v>
       </c>
-      <c r="N3">
+      <c r="N5">
         <v>20</v>
       </c>
-      <c r="O3">
+      <c r="O5">
         <v>23</v>
       </c>
-      <c r="P3">
+      <c r="P5">
         <v>14</v>
       </c>
-      <c r="Q3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="1" t="s">
+      <c r="Q5">
+        <v>11</v>
+      </c>
+      <c r="R5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>-1</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>-5</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>-1</v>
       </c>
-      <c r="F4">
+      <c r="F6">
         <v>7</v>
       </c>
-      <c r="G4">
+      <c r="G6">
         <v>6</v>
       </c>
-      <c r="H4">
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="I4">
+      <c r="I6">
         <v>8</v>
       </c>
-      <c r="J4">
+      <c r="J6">
         <v>19</v>
       </c>
-      <c r="K4">
+      <c r="K6">
         <v>28</v>
       </c>
-      <c r="L4">
+      <c r="L6">
         <v>28</v>
       </c>
-      <c r="M4">
+      <c r="M6">
         <v>19</v>
       </c>
-      <c r="N4">
+      <c r="N6">
         <v>20</v>
       </c>
-      <c r="O4">
+      <c r="O6">
         <v>12</v>
       </c>
-      <c r="P4">
+      <c r="P6">
         <v>13</v>
       </c>
-      <c r="Q4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
+      <c r="Q6">
+        <v>11</v>
+      </c>
+      <c r="R6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>11</v>
-      </c>
-      <c r="F5">
-        <v>14</v>
-      </c>
-      <c r="G5">
-        <v>16</v>
-      </c>
-      <c r="H5">
-        <v>16</v>
-      </c>
-      <c r="I5">
-        <v>23</v>
-      </c>
-      <c r="J5">
-        <v>14</v>
-      </c>
-      <c r="K5">
-        <v>19</v>
-      </c>
-      <c r="L5">
-        <v>20</v>
-      </c>
-      <c r="M5">
-        <v>20</v>
-      </c>
-      <c r="N5">
-        <v>16</v>
-      </c>
-      <c r="O5">
-        <v>18</v>
-      </c>
-      <c r="P5">
-        <v>12</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>12</v>
-      </c>
-      <c r="H6">
-        <v>20</v>
-      </c>
-      <c r="I6">
-        <v>23</v>
-      </c>
-      <c r="J6">
-        <v>20</v>
-      </c>
-      <c r="K6">
-        <v>14</v>
-      </c>
-      <c r="L6">
-        <v>6</v>
-      </c>
-      <c r="M6">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
         <v>1</v>
-      </c>
-      <c r="N6">
-        <v>7</v>
-      </c>
-      <c r="O6">
-        <v>7</v>
-      </c>
-      <c r="P6">
-        <v>12</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>-7</v>
-      </c>
-      <c r="C7">
-        <v>-1</v>
       </c>
       <c r="D7">
         <v>-2</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>-4</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>11</v>
+        <v>-5</v>
       </c>
       <c r="J7">
-        <v>8</v>
+        <v>-5</v>
       </c>
       <c r="K7">
+        <v>-13</v>
+      </c>
+      <c r="L7">
+        <v>-7</v>
+      </c>
+      <c r="M7">
+        <v>-10</v>
+      </c>
+      <c r="N7">
+        <v>-6</v>
+      </c>
+      <c r="O7">
+        <v>-6</v>
+      </c>
+      <c r="P7">
+        <v>-1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L7">
-        <v>-6</v>
-      </c>
-      <c r="M7">
-        <v>4</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>-5</v>
-      </c>
-      <c r="P7">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="B8">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D8">
         <v>-2</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>11</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>-6</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>-5</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
         <v>-4</v>
       </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>-5</v>
-      </c>
-      <c r="J8">
-        <v>-5</v>
-      </c>
-      <c r="K8">
-        <v>-13</v>
-      </c>
-      <c r="L8">
-        <v>-7</v>
-      </c>
-      <c r="M8">
-        <v>-10</v>
-      </c>
-      <c r="N8">
-        <v>-6</v>
-      </c>
-      <c r="O8">
-        <v>-6</v>
-      </c>
-      <c r="P8">
-        <v>-1</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -4070,11 +4077,14 @@
       <c r="P9">
         <v>-5</v>
       </c>
-      <c r="Q9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="Q9">
+        <v>-8</v>
+      </c>
+      <c r="R9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -4123,11 +4133,14 @@
       <c r="P10">
         <v>-23</v>
       </c>
-      <c r="Q10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="Q10">
+        <v>-29</v>
+      </c>
+      <c r="R10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -4176,8 +4189,11 @@
       <c r="P11">
         <v>-54</v>
       </c>
-      <c r="Q11" t="s">
-        <v>105</v>
+      <c r="Q11">
+        <v>-54</v>
+      </c>
+      <c r="R11" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/0755 Fantasy Football 2025.xlsx
+++ b/leagues/0755 Fantasy Football 2025.xlsx
@@ -2184,28 +2184,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>57.59999999999999</v>
+        <v>60.9</v>
       </c>
       <c r="C2">
-        <v>86.2</v>
+        <v>84.2</v>
       </c>
       <c r="D2">
-        <v>92.10000000000001</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="E2">
-        <v>97.5</v>
+        <v>97.3</v>
       </c>
       <c r="F2">
-        <v>99.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G2">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="H2">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="I2">
         <v>99.90000000000001</v>
-      </c>
-      <c r="I2">
-        <v>100</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -2234,46 +2234,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C3">
-        <v>95.89999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="D3">
-        <v>68.10000000000001</v>
+        <v>70.19999999999999</v>
       </c>
       <c r="E3">
-        <v>79.7</v>
+        <v>75.5</v>
       </c>
       <c r="F3">
-        <v>86.2</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="G3">
-        <v>93.7</v>
+        <v>94.69999999999999</v>
       </c>
       <c r="H3">
-        <v>84.3</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="I3">
-        <v>92.60000000000001</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="J3">
-        <v>98.3</v>
+        <v>97.7</v>
       </c>
       <c r="K3">
-        <v>94.89999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="L3">
-        <v>94.8</v>
+        <v>96.7</v>
       </c>
       <c r="M3">
-        <v>87.7</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="N3">
         <v>100</v>
       </c>
       <c r="O3">
-        <v>85.59999999999999</v>
+        <v>89.2</v>
       </c>
       <c r="P3">
         <v>100</v>
@@ -2284,46 +2284,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>54.7</v>
+        <v>54</v>
       </c>
       <c r="D4">
-        <v>82.69999999999999</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="E4">
-        <v>65.40000000000001</v>
+        <v>64.3</v>
       </c>
       <c r="F4">
-        <v>46.8</v>
+        <v>44.1</v>
       </c>
       <c r="G4">
-        <v>32.5</v>
+        <v>34.3</v>
       </c>
       <c r="H4">
-        <v>64.3</v>
+        <v>60.3</v>
       </c>
       <c r="I4">
-        <v>41.09999999999999</v>
+        <v>41.4</v>
       </c>
       <c r="J4">
-        <v>24.1</v>
+        <v>27.4</v>
       </c>
       <c r="K4">
-        <v>48.6</v>
+        <v>45</v>
       </c>
       <c r="L4">
-        <v>69.69999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="M4">
-        <v>80.5</v>
+        <v>81.69999999999999</v>
       </c>
       <c r="N4">
-        <v>57.9</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="O4">
-        <v>82.19999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="P4">
         <v>100</v>
@@ -2334,40 +2334,40 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="C5">
-        <v>59.2</v>
+        <v>58.2</v>
       </c>
       <c r="D5">
+        <v>71.7</v>
+      </c>
+      <c r="E5">
+        <v>46.8</v>
+      </c>
+      <c r="F5">
+        <v>59.59999999999999</v>
+      </c>
+      <c r="G5">
+        <v>49.3</v>
+      </c>
+      <c r="H5">
         <v>71.89999999999999</v>
       </c>
-      <c r="E5">
-        <v>45.3</v>
-      </c>
-      <c r="F5">
-        <v>61.5</v>
-      </c>
-      <c r="G5">
-        <v>49</v>
-      </c>
-      <c r="H5">
-        <v>70.5</v>
-      </c>
       <c r="I5">
-        <v>88.59999999999999</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="J5">
-        <v>85.8</v>
+        <v>88</v>
       </c>
       <c r="K5">
-        <v>92.7</v>
+        <v>93</v>
       </c>
       <c r="L5">
-        <v>98.90000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="M5">
-        <v>96.5</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -2384,46 +2384,46 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>47.8</v>
+        <v>45.5</v>
       </c>
       <c r="C6">
-        <v>47.09999999999999</v>
+        <v>48.5</v>
       </c>
       <c r="D6">
-        <v>35.09999999999999</v>
+        <v>36.7</v>
       </c>
       <c r="E6">
-        <v>54.1</v>
+        <v>56.8</v>
       </c>
       <c r="F6">
-        <v>51.4</v>
+        <v>50.9</v>
       </c>
       <c r="G6">
-        <v>78.2</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="H6">
-        <v>74.5</v>
+        <v>76.2</v>
       </c>
       <c r="I6">
-        <v>55.1</v>
+        <v>59</v>
       </c>
       <c r="J6">
-        <v>46.5</v>
+        <v>43.9</v>
       </c>
       <c r="K6">
-        <v>55.3</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="L6">
-        <v>26.2</v>
+        <v>23.6</v>
       </c>
       <c r="M6">
-        <v>41.6</v>
+        <v>39.2</v>
       </c>
       <c r="N6">
-        <v>61.6</v>
+        <v>57.7</v>
       </c>
       <c r="O6">
-        <v>64</v>
+        <v>62.9</v>
       </c>
       <c r="P6">
         <v>100</v>
@@ -2434,37 +2434,37 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>28.6</v>
+        <v>25.7</v>
       </c>
       <c r="C7">
-        <v>84.59999999999999</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="D7">
-        <v>59.2</v>
+        <v>56.89999999999999</v>
       </c>
       <c r="E7">
-        <v>72</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="F7">
-        <v>58.59999999999999</v>
+        <v>59</v>
       </c>
       <c r="G7">
-        <v>76.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="H7">
-        <v>66.90000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="I7">
-        <v>79.80000000000001</v>
+        <v>80.60000000000001</v>
       </c>
       <c r="J7">
-        <v>90.3</v>
+        <v>89.60000000000001</v>
       </c>
       <c r="K7">
         <v>94.09999999999999</v>
       </c>
       <c r="L7">
-        <v>97.2</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="M7">
         <v>100</v>
@@ -2473,7 +2473,7 @@
         <v>100</v>
       </c>
       <c r="O7">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="P7">
         <v>100</v>
@@ -2484,46 +2484,46 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>74.8</v>
+        <v>76.7</v>
       </c>
       <c r="C8">
-        <v>5.4</v>
+        <v>6.7</v>
       </c>
       <c r="D8">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="E8">
-        <v>23.7</v>
+        <v>20.6</v>
       </c>
       <c r="F8">
-        <v>49.5</v>
+        <v>52.2</v>
       </c>
       <c r="G8">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="H8">
-        <v>26.9</v>
+        <v>29.6</v>
       </c>
       <c r="I8">
-        <v>49.5</v>
+        <v>45.4</v>
       </c>
       <c r="J8">
-        <v>47</v>
+        <v>47.7</v>
       </c>
       <c r="K8">
-        <v>24.6</v>
+        <v>27.5</v>
       </c>
       <c r="L8">
-        <v>16.9</v>
+        <v>15.5</v>
       </c>
       <c r="M8">
-        <v>16.2</v>
+        <v>18</v>
       </c>
       <c r="N8">
-        <v>29</v>
+        <v>30.6</v>
       </c>
       <c r="O8">
-        <v>50.8</v>
+        <v>52.6</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2534,37 +2534,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C9">
-        <v>75.09999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="D9">
-        <v>36.2</v>
+        <v>35</v>
       </c>
       <c r="E9">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F9">
-        <v>5.7</v>
+        <v>3.5</v>
       </c>
       <c r="G9">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="I9">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="J9">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K9">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="L9">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -2584,46 +2584,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>88.59999999999999</v>
+        <v>89.2</v>
       </c>
       <c r="C10">
-        <v>81.59999999999999</v>
+        <v>82.69999999999999</v>
       </c>
       <c r="D10">
-        <v>97.8</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="E10">
-        <v>89.40000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="F10">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="G10">
-        <v>92.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="H10">
-        <v>81.89999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="I10">
-        <v>75.7</v>
+        <v>77</v>
       </c>
       <c r="J10">
-        <v>89.40000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="K10">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="L10">
-        <v>94.69999999999999</v>
+        <v>94</v>
       </c>
       <c r="M10">
-        <v>77.5</v>
+        <v>77.8</v>
       </c>
       <c r="N10">
-        <v>51.5</v>
+        <v>54.7</v>
       </c>
       <c r="O10">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2634,37 +2634,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="C11">
-        <v>10.2</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="D11">
-        <v>53</v>
+        <v>52.3</v>
       </c>
       <c r="E11">
-        <v>61</v>
+        <v>61.8</v>
       </c>
       <c r="F11">
-        <v>43.4</v>
+        <v>47</v>
       </c>
       <c r="G11">
-        <v>50</v>
+        <v>48.4</v>
       </c>
       <c r="H11">
-        <v>29.8</v>
+        <v>25.8</v>
       </c>
       <c r="I11">
-        <v>17.4</v>
+        <v>15.9</v>
       </c>
       <c r="J11">
-        <v>15.3</v>
+        <v>14.2</v>
       </c>
       <c r="K11">
-        <v>5.600000000000001</v>
+        <v>5</v>
       </c>
       <c r="L11">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="M11">
         <v>0</v>

--- a/leagues/0755 Fantasy Football 2025.xlsx
+++ b/leagues/0755 Fantasy Football 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="132">
   <si>
     <t>Michael, The Baker</t>
   </si>
@@ -55,40 +55,43 @@
     <t>AJ's Awesome Team</t>
   </si>
   <si>
-    <t>13-2-1</t>
-  </si>
-  <si>
-    <t>9-7-0</t>
-  </si>
-  <si>
-    <t>8-8-0</t>
-  </si>
-  <si>
-    <t>11-5-0</t>
-  </si>
-  <si>
-    <t>10-6-0</t>
-  </si>
-  <si>
-    <t>7-9-0</t>
-  </si>
-  <si>
-    <t>3-13-0</t>
-  </si>
-  <si>
-    <t>6-10-0</t>
-  </si>
-  <si>
-    <t>5-11-0</t>
-  </si>
-  <si>
-    <t>4-12-0</t>
-  </si>
-  <si>
-    <t>12-4-0</t>
-  </si>
-  <si>
-    <t>10-5-1</t>
+    <t>14-2-1</t>
+  </si>
+  <si>
+    <t>10-7-0</t>
+  </si>
+  <si>
+    <t>9-8-0</t>
+  </si>
+  <si>
+    <t>8-9-0</t>
+  </si>
+  <si>
+    <t>11-6-0</t>
+  </si>
+  <si>
+    <t>3-14-0</t>
+  </si>
+  <si>
+    <t>6-11-0</t>
+  </si>
+  <si>
+    <t>4-13-0</t>
+  </si>
+  <si>
+    <t>7-10-0</t>
+  </si>
+  <si>
+    <t>12-5-0</t>
+  </si>
+  <si>
+    <t>13-4-0</t>
+  </si>
+  <si>
+    <t>5-12-0</t>
+  </si>
+  <si>
+    <t>10-6-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -316,85 +319,85 @@
     <t>6.0-8.0</t>
   </si>
   <si>
-    <t>Owners</t>
-  </si>
-  <si>
-    <t>Louie Power Index (LPI)</t>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
+  </si>
+  <si>
+    <t>Week 17</t>
   </si>
   <si>
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑8</t>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>↑5</t>
   </si>
   <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↑2</t>
+    <t>↓1</t>
   </si>
   <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>Week 4</t>
-  </si>
-  <si>
-    <t>Week 5</t>
-  </si>
-  <si>
-    <t>Week 6</t>
-  </si>
-  <si>
-    <t>Week 7</t>
-  </si>
-  <si>
-    <t>Week 8</t>
-  </si>
-  <si>
-    <t>Week 9</t>
-  </si>
-  <si>
-    <t>Week 10</t>
-  </si>
-  <si>
-    <t>Week 11</t>
-  </si>
-  <si>
-    <t>Week 12</t>
-  </si>
-  <si>
-    <t>Week 13</t>
-  </si>
-  <si>
-    <t>Week 14</t>
-  </si>
-  <si>
-    <t>Week 15</t>
-  </si>
-  <si>
-    <t>Week 16</t>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓8</t>
   </si>
   <si>
     <t>Week</t>
@@ -825,16 +828,16 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -857,7 +860,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -866,16 +869,16 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
@@ -921,10 +924,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -933,19 +936,19 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
         <v>11</v>
@@ -956,10 +959,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -968,19 +971,19 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
         <v>20</v>
@@ -991,34 +994,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
         <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1029,28 +1032,28 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
@@ -1061,34 +1064,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>18</v>
       </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1096,31 +1099,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
         <v>14</v>
@@ -1131,34 +1134,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="J11" t="s">
         <v>17</v>
       </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>17</v>
-      </c>
-      <c r="J11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1171,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1176,25 +1179,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1228,25 +1231,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>-17</v>
-      </c>
       <c r="F3">
-        <v>19</v>
+        <v>-25</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1254,22 +1257,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E4">
+        <v>-17</v>
+      </c>
+      <c r="F4">
         <v>19</v>
       </c>
-      <c r="F4">
-        <v>-13</v>
-      </c>
       <c r="G4">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
         <v>3</v>
@@ -1283,22 +1286,22 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>-6</v>
+        <v>-13</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1306,24 +1309,50 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>-6</v>
+      </c>
+      <c r="G6">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>28</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>22</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1342,13 +1371,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1356,13 +1385,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1370,13 +1399,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1384,10 +1413,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1398,13 +1427,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>7.6</v>
+        <v>8.1</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1415,10 +1444,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1426,13 +1455,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1440,13 +1469,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1457,10 +1486,10 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>8.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1471,7 +1500,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -1485,10 +1514,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1506,16 +1535,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1526,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.1</v>
+        <v>10.9</v>
       </c>
       <c r="D2">
-        <v>-2.9</v>
+        <v>-3.1</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1540,16 +1569,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>9.6</v>
+        <v>10.4</v>
       </c>
       <c r="D3">
-        <v>-0.4000000000000004</v>
+        <v>1.4</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1557,16 +1586,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>9.4</v>
+        <v>9.9</v>
       </c>
       <c r="D4">
-        <v>1.4</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1577,13 +1606,13 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1591,13 +1620,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="D6">
-        <v>0.1999999999999993</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1611,10 +1640,10 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="D7">
-        <v>-0.9000000000000004</v>
+        <v>-1.6</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1628,13 +1657,13 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D8">
-        <v>1.8</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1642,16 +1671,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>7.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D9">
-        <v>-0.2999999999999998</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1662,13 +1691,13 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1679,13 +1708,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="D11">
-        <v>0.7000000000000002</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1703,40 +1732,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2134,49 +2163,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2184,28 +2213,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>60.9</v>
+        <v>57.9</v>
       </c>
       <c r="C2">
-        <v>84.2</v>
+        <v>83.39999999999999</v>
       </c>
       <c r="D2">
-        <v>93.30000000000001</v>
+        <v>91</v>
       </c>
       <c r="E2">
-        <v>97.3</v>
+        <v>96.8</v>
       </c>
       <c r="F2">
-        <v>99.40000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G2">
         <v>99.7</v>
       </c>
       <c r="H2">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -2237,43 +2266,43 @@
         <v>100</v>
       </c>
       <c r="C3">
-        <v>96.7</v>
+        <v>95.7</v>
       </c>
       <c r="D3">
-        <v>70.19999999999999</v>
+        <v>70</v>
       </c>
       <c r="E3">
-        <v>75.5</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F3">
-        <v>86.59999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="G3">
-        <v>94.69999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="H3">
-        <v>87.09999999999999</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="I3">
-        <v>93.40000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="J3">
-        <v>97.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="K3">
-        <v>95.5</v>
+        <v>95.3</v>
       </c>
       <c r="L3">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="M3">
-        <v>86.40000000000001</v>
+        <v>87.7</v>
       </c>
       <c r="N3">
         <v>100</v>
       </c>
       <c r="O3">
-        <v>89.2</v>
+        <v>88.2</v>
       </c>
       <c r="P3">
         <v>100</v>
@@ -2284,46 +2313,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="C4">
-        <v>54</v>
+        <v>54.6</v>
       </c>
       <c r="D4">
-        <v>82.89999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="E4">
-        <v>64.3</v>
+        <v>64.2</v>
       </c>
       <c r="F4">
-        <v>44.1</v>
+        <v>45.9</v>
       </c>
       <c r="G4">
-        <v>34.3</v>
+        <v>35.6</v>
       </c>
       <c r="H4">
-        <v>60.3</v>
+        <v>62.5</v>
       </c>
       <c r="I4">
-        <v>41.4</v>
+        <v>40.1</v>
       </c>
       <c r="J4">
-        <v>27.4</v>
+        <v>24.9</v>
       </c>
       <c r="K4">
-        <v>45</v>
+        <v>45.4</v>
       </c>
       <c r="L4">
-        <v>72.3</v>
+        <v>73.5</v>
       </c>
       <c r="M4">
-        <v>81.69999999999999</v>
+        <v>79</v>
       </c>
       <c r="N4">
-        <v>56.99999999999999</v>
+        <v>59.5</v>
       </c>
       <c r="O4">
-        <v>77.90000000000001</v>
+        <v>80.80000000000001</v>
       </c>
       <c r="P4">
         <v>100</v>
@@ -2334,40 +2363,40 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>95.5</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C5">
-        <v>58.2</v>
+        <v>57.8</v>
       </c>
       <c r="D5">
-        <v>71.7</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E5">
-        <v>46.8</v>
+        <v>48.7</v>
       </c>
       <c r="F5">
-        <v>59.59999999999999</v>
+        <v>62.4</v>
       </c>
       <c r="G5">
-        <v>49.3</v>
+        <v>50</v>
       </c>
       <c r="H5">
-        <v>71.89999999999999</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="I5">
-        <v>86.59999999999999</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="J5">
-        <v>88</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K5">
-        <v>93</v>
+        <v>92.10000000000001</v>
       </c>
       <c r="L5">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="M5">
-        <v>96.89999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -2384,46 +2413,46 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>45.5</v>
+        <v>46.8</v>
       </c>
       <c r="C6">
-        <v>48.5</v>
+        <v>52.2</v>
       </c>
       <c r="D6">
-        <v>36.7</v>
+        <v>36.3</v>
       </c>
       <c r="E6">
-        <v>56.8</v>
+        <v>54.6</v>
       </c>
       <c r="F6">
-        <v>50.9</v>
+        <v>49.9</v>
       </c>
       <c r="G6">
-        <v>78.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="H6">
-        <v>76.2</v>
+        <v>72.89999999999999</v>
       </c>
       <c r="I6">
-        <v>59</v>
+        <v>57.8</v>
       </c>
       <c r="J6">
-        <v>43.9</v>
+        <v>46.1</v>
       </c>
       <c r="K6">
-        <v>56.00000000000001</v>
+        <v>55.2</v>
       </c>
       <c r="L6">
-        <v>23.6</v>
+        <v>24.9</v>
       </c>
       <c r="M6">
-        <v>39.2</v>
+        <v>41.3</v>
       </c>
       <c r="N6">
-        <v>57.7</v>
+        <v>57.2</v>
       </c>
       <c r="O6">
-        <v>62.9</v>
+        <v>61.8</v>
       </c>
       <c r="P6">
         <v>100</v>
@@ -2434,40 +2463,40 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>25.7</v>
+        <v>30.1</v>
       </c>
       <c r="C7">
-        <v>84.09999999999999</v>
+        <v>84.89999999999999</v>
       </c>
       <c r="D7">
-        <v>56.89999999999999</v>
+        <v>58.2</v>
       </c>
       <c r="E7">
-        <v>73.90000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="F7">
-        <v>59</v>
+        <v>53.8</v>
       </c>
       <c r="G7">
-        <v>75</v>
+        <v>75.7</v>
       </c>
       <c r="H7">
-        <v>66.5</v>
+        <v>67.60000000000001</v>
       </c>
       <c r="I7">
-        <v>80.60000000000001</v>
+        <v>81.2</v>
       </c>
       <c r="J7">
-        <v>89.60000000000001</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="K7">
-        <v>94.09999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="L7">
-        <v>97.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="M7">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="N7">
         <v>100</v>
@@ -2484,46 +2513,46 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>76.7</v>
+        <v>76</v>
       </c>
       <c r="C8">
-        <v>6.7</v>
+        <v>4.8</v>
       </c>
       <c r="D8">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="E8">
-        <v>20.6</v>
+        <v>24.4</v>
       </c>
       <c r="F8">
-        <v>52.2</v>
+        <v>52.5</v>
       </c>
       <c r="G8">
-        <v>23.2</v>
+        <v>21.5</v>
       </c>
       <c r="H8">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="I8">
-        <v>45.4</v>
+        <v>49.2</v>
       </c>
       <c r="J8">
-        <v>47.7</v>
+        <v>47.3</v>
       </c>
       <c r="K8">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="L8">
-        <v>15.5</v>
+        <v>14.6</v>
       </c>
       <c r="M8">
-        <v>18</v>
+        <v>16.9</v>
       </c>
       <c r="N8">
-        <v>30.6</v>
+        <v>29.3</v>
       </c>
       <c r="O8">
-        <v>52.6</v>
+        <v>53.1</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2534,37 +2563,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="C9">
-        <v>76.7</v>
+        <v>75</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>36.4</v>
       </c>
       <c r="E9">
-        <v>11.8</v>
+        <v>11.1</v>
       </c>
       <c r="F9">
-        <v>3.5</v>
+        <v>6.2</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="I9">
         <v>0.8</v>
       </c>
       <c r="J9">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="K9">
-        <v>0.4</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="L9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -2584,46 +2613,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>89.2</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="C10">
-        <v>82.69999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="D10">
-        <v>97.89999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="E10">
-        <v>91.2</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="F10">
-        <v>97.7</v>
+        <v>98.7</v>
       </c>
       <c r="G10">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H10">
-        <v>81.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="I10">
-        <v>77</v>
+        <v>72.2</v>
       </c>
       <c r="J10">
-        <v>88.3</v>
+        <v>90.3</v>
       </c>
       <c r="K10">
-        <v>83.5</v>
+        <v>83.89999999999999</v>
       </c>
       <c r="L10">
-        <v>94</v>
+        <v>93.10000000000001</v>
       </c>
       <c r="M10">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="N10">
-        <v>54.7</v>
+        <v>54</v>
       </c>
       <c r="O10">
-        <v>18.2</v>
+        <v>16.9</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2634,37 +2663,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.1</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="C11">
-        <v>8.200000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="D11">
-        <v>52.3</v>
+        <v>52.8</v>
       </c>
       <c r="E11">
-        <v>61.8</v>
+        <v>62.6</v>
       </c>
       <c r="F11">
-        <v>47</v>
+        <v>46.40000000000001</v>
       </c>
       <c r="G11">
-        <v>48.4</v>
+        <v>47.3</v>
       </c>
       <c r="H11">
-        <v>25.8</v>
+        <v>27.3</v>
       </c>
       <c r="I11">
-        <v>15.9</v>
+        <v>16.7</v>
       </c>
       <c r="J11">
-        <v>14.2</v>
+        <v>14.9</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="L11">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2694,28 +2723,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2726,13 +2755,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2">
         <v>126.8</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2755,13 +2784,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>114.49</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2784,13 +2813,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4">
         <v>123.95</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2813,13 +2842,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5">
         <v>114.54</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2842,13 +2871,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6">
         <v>123.56</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2871,13 +2900,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7">
         <v>121.54</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2900,13 +2929,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D8">
         <v>117.82</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2929,13 +2958,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9">
         <v>105.96</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2958,13 +2987,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D10">
         <v>119.42</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2987,13 +3016,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11">
         <v>101.12</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3023,31 +3052,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3055,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2">
         <v>0.8571428571428571</v>
@@ -3073,10 +3102,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3084,7 +3113,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>0.5714285714285714</v>
@@ -3102,10 +3131,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3113,7 +3142,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -3131,10 +3160,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3142,7 +3171,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5">
         <v>0.6428571428571429</v>
@@ -3160,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3171,7 +3200,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6">
         <v>0.5</v>
@@ -3189,10 +3218,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3200,7 +3229,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7">
         <v>0.5714285714285714</v>
@@ -3218,10 +3247,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3229,7 +3258,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -3247,10 +3276,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3258,7 +3287,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C9">
         <v>0.2142857142857143</v>
@@ -3276,10 +3305,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3287,7 +3316,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C10">
         <v>0.4285714285714285</v>
@@ -3305,10 +3334,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3316,7 +3345,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11">
         <v>0.2142857142857143</v>
@@ -3334,10 +3363,10 @@
         <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3346,236 +3375,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8">
-        <v>-4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9">
-        <v>-8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10">
-        <v>-29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11">
-        <v>-54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R11"/>
   <sheetViews>
@@ -3585,55 +3384,55 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -3688,8 +3487,8 @@
       <c r="Q2">
         <v>35</v>
       </c>
-      <c r="R2" t="s">
-        <v>100</v>
+      <c r="R2">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -3744,8 +3543,8 @@
       <c r="Q3">
         <v>20</v>
       </c>
-      <c r="R3" t="s">
-        <v>101</v>
+      <c r="R3">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -3800,120 +3599,120 @@
       <c r="Q4">
         <v>17</v>
       </c>
-      <c r="R4" t="s">
-        <v>102</v>
+      <c r="R4">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>-5</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>-1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>-4</v>
-      </c>
-      <c r="F5">
-        <v>-6</v>
-      </c>
-      <c r="G5">
-        <v>-7</v>
-      </c>
-      <c r="H5">
-        <v>-7</v>
-      </c>
       <c r="I5">
-        <v>-7</v>
+        <v>8</v>
       </c>
       <c r="J5">
-        <v>-4</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>-4</v>
+        <v>28</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="M5">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N5">
         <v>20</v>
       </c>
       <c r="O5">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="P5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q5">
         <v>11</v>
       </c>
-      <c r="R5" t="s">
-        <v>103</v>
+      <c r="R5">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
         <v>-1</v>
       </c>
-      <c r="C6">
-        <v>-5</v>
-      </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>-6</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>-7</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>-7</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>-7</v>
       </c>
       <c r="J6">
-        <v>19</v>
+        <v>-4</v>
       </c>
       <c r="K6">
-        <v>28</v>
+        <v>-4</v>
       </c>
       <c r="L6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="M6">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N6">
         <v>20</v>
       </c>
       <c r="O6">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="P6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q6">
         <v>11</v>
       </c>
-      <c r="R6" t="s">
-        <v>104</v>
+      <c r="R6">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -3968,8 +3767,8 @@
       <c r="Q7">
         <v>1</v>
       </c>
-      <c r="R7" t="s">
-        <v>105</v>
+      <c r="R7">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -4024,8 +3823,8 @@
       <c r="Q8">
         <v>-4</v>
       </c>
-      <c r="R8" t="s">
-        <v>106</v>
+      <c r="R8">
+        <v>-5</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -4080,8 +3879,8 @@
       <c r="Q9">
         <v>-8</v>
       </c>
-      <c r="R9" t="s">
-        <v>103</v>
+      <c r="R9">
+        <v>-14</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -4136,8 +3935,8 @@
       <c r="Q10">
         <v>-29</v>
       </c>
-      <c r="R10" t="s">
-        <v>106</v>
+      <c r="R10">
+        <v>-25</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4192,8 +3991,667 @@
       <c r="Q11">
         <v>-54</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11">
+        <v>-62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>107</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>-4</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>-5</v>
+      </c>
+      <c r="G2">
+        <v>-2</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>-5</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>18</v>
+      </c>
+      <c r="N2">
+        <v>19</v>
+      </c>
+      <c r="O2">
+        <v>22</v>
+      </c>
+      <c r="P2">
+        <v>29</v>
+      </c>
+      <c r="Q2">
+        <v>35</v>
+      </c>
+      <c r="R2">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>23</v>
+      </c>
+      <c r="J3">
+        <v>14</v>
+      </c>
+      <c r="K3">
+        <v>19</v>
+      </c>
+      <c r="L3">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>20</v>
+      </c>
+      <c r="N3">
+        <v>16</v>
+      </c>
+      <c r="O3">
+        <v>18</v>
+      </c>
+      <c r="P3">
+        <v>12</v>
+      </c>
+      <c r="Q3">
+        <v>20</v>
+      </c>
+      <c r="R3">
+        <v>23</v>
+      </c>
+      <c r="S3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>23</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>14</v>
+      </c>
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>7</v>
+      </c>
+      <c r="P4">
+        <v>12</v>
+      </c>
+      <c r="Q4">
+        <v>17</v>
+      </c>
+      <c r="R4">
+        <v>19</v>
+      </c>
+      <c r="S4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>-5</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>19</v>
+      </c>
+      <c r="K5">
+        <v>28</v>
+      </c>
+      <c r="L5">
+        <v>28</v>
+      </c>
+      <c r="M5">
+        <v>19</v>
+      </c>
+      <c r="N5">
+        <v>20</v>
+      </c>
+      <c r="O5">
+        <v>12</v>
+      </c>
+      <c r="P5">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <v>11</v>
+      </c>
+      <c r="R5">
+        <v>12</v>
+      </c>
+      <c r="S5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>-4</v>
+      </c>
+      <c r="F6">
+        <v>-6</v>
+      </c>
+      <c r="G6">
+        <v>-7</v>
+      </c>
+      <c r="H6">
+        <v>-7</v>
+      </c>
+      <c r="I6">
+        <v>-7</v>
+      </c>
+      <c r="J6">
+        <v>-4</v>
+      </c>
+      <c r="K6">
+        <v>-4</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>12</v>
+      </c>
+      <c r="N6">
+        <v>20</v>
+      </c>
+      <c r="O6">
+        <v>23</v>
+      </c>
+      <c r="P6">
+        <v>14</v>
+      </c>
+      <c r="Q6">
+        <v>11</v>
+      </c>
+      <c r="R6">
+        <v>11</v>
+      </c>
+      <c r="S6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>-2</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>-4</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>-5</v>
+      </c>
+      <c r="J7">
+        <v>-5</v>
+      </c>
+      <c r="K7">
+        <v>-13</v>
+      </c>
+      <c r="L7">
+        <v>-7</v>
+      </c>
+      <c r="M7">
+        <v>-10</v>
+      </c>
+      <c r="N7">
+        <v>-6</v>
+      </c>
+      <c r="O7">
+        <v>-6</v>
+      </c>
+      <c r="P7">
+        <v>-1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>6</v>
+      </c>
+      <c r="S7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>-7</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>-2</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>11</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>-6</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>-5</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>-4</v>
+      </c>
+      <c r="R8">
+        <v>-5</v>
+      </c>
+      <c r="S8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>-8</v>
+      </c>
+      <c r="H9">
+        <v>-6</v>
+      </c>
+      <c r="I9">
+        <v>-2</v>
+      </c>
+      <c r="J9">
+        <v>-7</v>
+      </c>
+      <c r="K9">
+        <v>-10</v>
+      </c>
+      <c r="L9">
+        <v>-11</v>
+      </c>
+      <c r="M9">
+        <v>-17</v>
+      </c>
+      <c r="N9">
+        <v>-13</v>
+      </c>
+      <c r="O9">
+        <v>-8</v>
+      </c>
+      <c r="P9">
+        <v>-5</v>
+      </c>
+      <c r="Q9">
+        <v>-8</v>
+      </c>
+      <c r="R9">
+        <v>-14</v>
+      </c>
+      <c r="S9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <v>-5</v>
+      </c>
+      <c r="E10">
+        <v>-13</v>
+      </c>
+      <c r="F10">
+        <v>-17</v>
+      </c>
+      <c r="G10">
+        <v>-13</v>
+      </c>
+      <c r="H10">
+        <v>-23</v>
+      </c>
+      <c r="I10">
+        <v>-23</v>
+      </c>
+      <c r="J10">
+        <v>-17</v>
+      </c>
+      <c r="K10">
+        <v>-14</v>
+      </c>
+      <c r="L10">
+        <v>-17</v>
+      </c>
+      <c r="M10">
+        <v>-12</v>
+      </c>
+      <c r="N10">
+        <v>-19</v>
+      </c>
+      <c r="O10">
+        <v>-17</v>
+      </c>
+      <c r="P10">
+        <v>-23</v>
+      </c>
+      <c r="Q10">
+        <v>-29</v>
+      </c>
+      <c r="R10">
+        <v>-25</v>
+      </c>
+      <c r="S10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>-10</v>
+      </c>
+      <c r="C11">
+        <v>-6</v>
+      </c>
+      <c r="D11">
+        <v>-4</v>
+      </c>
+      <c r="E11">
+        <v>-10</v>
+      </c>
+      <c r="F11">
+        <v>-14</v>
+      </c>
+      <c r="G11">
+        <v>-22</v>
+      </c>
+      <c r="H11">
+        <v>-24</v>
+      </c>
+      <c r="I11">
+        <v>-34</v>
+      </c>
+      <c r="J11">
+        <v>-25</v>
+      </c>
+      <c r="K11">
+        <v>-31</v>
+      </c>
+      <c r="L11">
+        <v>-29</v>
+      </c>
+      <c r="M11">
+        <v>-36</v>
+      </c>
+      <c r="N11">
+        <v>-46</v>
+      </c>
+      <c r="O11">
+        <v>-46</v>
+      </c>
+      <c r="P11">
+        <v>-54</v>
+      </c>
+      <c r="Q11">
+        <v>-54</v>
+      </c>
+      <c r="R11">
+        <v>-62</v>
+      </c>
+      <c r="S11" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/0755 Fantasy Football 2025.xlsx
+++ b/leagues/0755 Fantasy Football 2025.xlsx
@@ -10,16 +10,20 @@
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
-    <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
-    <sheet name="LPI By Week" sheetId="5" r:id="rId5"/>
-    <sheet name="Biggest Upsets" sheetId="6" r:id="rId6"/>
+    <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
+    <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
+    <sheet name="Remaining Schedule Difficulty" sheetId="6" r:id="rId6"/>
+    <sheet name="Record Odds" sheetId="7" r:id="rId7"/>
+    <sheet name="Louie Power Index" sheetId="8" r:id="rId8"/>
+    <sheet name="LPI By Week" sheetId="9" r:id="rId9"/>
+    <sheet name="Biggest Upsets" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="134">
   <si>
     <t>Michael, The Baker</t>
   </si>
@@ -108,6 +112,213 @@
     <t>Difference</t>
   </si>
   <si>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
+    <t>Week_7</t>
+  </si>
+  <si>
+    <t>Week_8</t>
+  </si>
+  <si>
+    <t>Week_9</t>
+  </si>
+  <si>
+    <t>Week_10</t>
+  </si>
+  <si>
+    <t>Week_11</t>
+  </si>
+  <si>
+    <t>Week_12</t>
+  </si>
+  <si>
+    <t>Week_13</t>
+  </si>
+  <si>
+    <t>Week_14</t>
+  </si>
+  <si>
+    <t>Week_15</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Team_Record</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Anthony Rizzo</t>
+  </si>
+  <si>
+    <t>Jacob Nichols</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
+    <t>Grace Olenzak</t>
+  </si>
+  <si>
+    <t>Jaime Cunningham</t>
+  </si>
+  <si>
+    <t>Kyle R</t>
+  </si>
+  <si>
+    <t>Robbie Wilston</t>
+  </si>
+  <si>
+    <t>Marvin Ta</t>
+  </si>
+  <si>
+    <t>Gigi Boguski</t>
+  </si>
+  <si>
+    <t>Abhishek Joshi</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>Current_Record</t>
+  </si>
+  <si>
+    <t>Current_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Score</t>
+  </si>
+  <si>
+    <t>Total_Points_For</t>
+  </si>
+  <si>
+    <t>Playoff_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Last_Place_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Expected_Final_Record</t>
+  </si>
+  <si>
+    <t>Most_Likely_Record</t>
+  </si>
+  <si>
+    <t>12-2</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>3-11</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>12.0-2.0</t>
+  </si>
+  <si>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>7.0-7.0</t>
+  </si>
+  <si>
+    <t>9.0-5.0</t>
+  </si>
+  <si>
+    <t>3.0-11.0</t>
+  </si>
+  <si>
+    <t>6.0-8.0</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -115,36 +326,6 @@
   </si>
   <si>
     <t>Change From Last Week</t>
-  </si>
-  <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
-    <t>Anthony Rizzo</t>
-  </si>
-  <si>
-    <t>Robbie Wilston</t>
-  </si>
-  <si>
-    <t>Gigi Boguski</t>
-  </si>
-  <si>
-    <t>Jaime Cunningham</t>
-  </si>
-  <si>
-    <t>Jacob Nichols</t>
-  </si>
-  <si>
-    <t>Kyle R</t>
-  </si>
-  <si>
-    <t>Grace Olenzak</t>
-  </si>
-  <si>
-    <t>Marvin Ta</t>
-  </si>
-  <si>
-    <t>Abhishek Joshi</t>
   </si>
   <si>
     <t>↑1</t>
@@ -994,6 +1175,198 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>-54</v>
+      </c>
+      <c r="G2">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>-25</v>
+      </c>
+      <c r="G3">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>-17</v>
+      </c>
+      <c r="F4">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>-13</v>
+      </c>
+      <c r="G5">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>-6</v>
+      </c>
+      <c r="G6">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>28</v>
+      </c>
+      <c r="G7">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
@@ -1357,6 +1730,1658 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>58.2</v>
+      </c>
+      <c r="C2">
+        <v>86</v>
+      </c>
+      <c r="D2">
+        <v>92.80000000000001</v>
+      </c>
+      <c r="E2">
+        <v>96.89999999999999</v>
+      </c>
+      <c r="F2">
+        <v>99.2</v>
+      </c>
+      <c r="G2">
+        <v>99.5</v>
+      </c>
+      <c r="H2">
+        <v>99.5</v>
+      </c>
+      <c r="I2">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+      <c r="P2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>95.39999999999999</v>
+      </c>
+      <c r="D3">
+        <v>69.3</v>
+      </c>
+      <c r="E3">
+        <v>77.60000000000001</v>
+      </c>
+      <c r="F3">
+        <v>83.8</v>
+      </c>
+      <c r="G3">
+        <v>94.89999999999999</v>
+      </c>
+      <c r="H3">
+        <v>86.2</v>
+      </c>
+      <c r="I3">
+        <v>92.30000000000001</v>
+      </c>
+      <c r="J3">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="K3">
+        <v>95.89999999999999</v>
+      </c>
+      <c r="L3">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="M3">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+      <c r="O3">
+        <v>87.7</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.100000000000001</v>
+      </c>
+      <c r="C4">
+        <v>54.40000000000001</v>
+      </c>
+      <c r="D4">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="E4">
+        <v>64.8</v>
+      </c>
+      <c r="F4">
+        <v>46</v>
+      </c>
+      <c r="G4">
+        <v>37</v>
+      </c>
+      <c r="H4">
+        <v>64.60000000000001</v>
+      </c>
+      <c r="I4">
+        <v>43.7</v>
+      </c>
+      <c r="J4">
+        <v>26.7</v>
+      </c>
+      <c r="K4">
+        <v>47</v>
+      </c>
+      <c r="L4">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="M4">
+        <v>80.7</v>
+      </c>
+      <c r="N4">
+        <v>57.9</v>
+      </c>
+      <c r="O4">
+        <v>79</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>94.69999999999999</v>
+      </c>
+      <c r="C5">
+        <v>58.5</v>
+      </c>
+      <c r="D5">
+        <v>70.8</v>
+      </c>
+      <c r="E5">
+        <v>44.9</v>
+      </c>
+      <c r="F5">
+        <v>61.5</v>
+      </c>
+      <c r="G5">
+        <v>51.2</v>
+      </c>
+      <c r="H5">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="I5">
+        <v>88</v>
+      </c>
+      <c r="J5">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="K5">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="L5">
+        <v>98.5</v>
+      </c>
+      <c r="M5">
+        <v>97.39999999999999</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>42.2</v>
+      </c>
+      <c r="C6">
+        <v>46.2</v>
+      </c>
+      <c r="D6">
+        <v>36.9</v>
+      </c>
+      <c r="E6">
+        <v>55.50000000000001</v>
+      </c>
+      <c r="F6">
+        <v>50.1</v>
+      </c>
+      <c r="G6">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="H6">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="I6">
+        <v>57.49999999999999</v>
+      </c>
+      <c r="J6">
+        <v>46.2</v>
+      </c>
+      <c r="K6">
+        <v>53.5</v>
+      </c>
+      <c r="L6">
+        <v>24.7</v>
+      </c>
+      <c r="M6">
+        <v>43.1</v>
+      </c>
+      <c r="N6">
+        <v>58.5</v>
+      </c>
+      <c r="O6">
+        <v>60.9</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>31.6</v>
+      </c>
+      <c r="C7">
+        <v>85.7</v>
+      </c>
+      <c r="D7">
+        <v>59.4</v>
+      </c>
+      <c r="E7">
+        <v>74.3</v>
+      </c>
+      <c r="F7">
+        <v>55.90000000000001</v>
+      </c>
+      <c r="G7">
+        <v>74.5</v>
+      </c>
+      <c r="H7">
+        <v>66</v>
+      </c>
+      <c r="I7">
+        <v>80.30000000000001</v>
+      </c>
+      <c r="J7">
+        <v>91.2</v>
+      </c>
+      <c r="K7">
+        <v>94.39999999999999</v>
+      </c>
+      <c r="L7">
+        <v>96.3</v>
+      </c>
+      <c r="M7">
+        <v>99.8</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="O7">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="C8">
+        <v>4.6</v>
+      </c>
+      <c r="D8">
+        <v>2.5</v>
+      </c>
+      <c r="E8">
+        <v>24.2</v>
+      </c>
+      <c r="F8">
+        <v>52</v>
+      </c>
+      <c r="G8">
+        <v>22.2</v>
+      </c>
+      <c r="H8">
+        <v>25.7</v>
+      </c>
+      <c r="I8">
+        <v>48.3</v>
+      </c>
+      <c r="J8">
+        <v>44.5</v>
+      </c>
+      <c r="K8">
+        <v>29.2</v>
+      </c>
+      <c r="L8">
+        <v>13.2</v>
+      </c>
+      <c r="M8">
+        <v>17</v>
+      </c>
+      <c r="N8">
+        <v>29.8</v>
+      </c>
+      <c r="O8">
+        <v>55.40000000000001</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>99.8</v>
+      </c>
+      <c r="C9">
+        <v>77.10000000000001</v>
+      </c>
+      <c r="D9">
+        <v>34.7</v>
+      </c>
+      <c r="E9">
+        <v>9.6</v>
+      </c>
+      <c r="F9">
+        <v>5.3</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>1.7</v>
+      </c>
+      <c r="I9">
+        <v>0.5</v>
+      </c>
+      <c r="J9">
+        <v>2.3</v>
+      </c>
+      <c r="K9">
+        <v>0.3</v>
+      </c>
+      <c r="L9">
+        <v>0.1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>89.5</v>
+      </c>
+      <c r="C10">
+        <v>83.39999999999999</v>
+      </c>
+      <c r="D10">
+        <v>97.8</v>
+      </c>
+      <c r="E10">
+        <v>91.5</v>
+      </c>
+      <c r="F10">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="G10">
+        <v>93.10000000000001</v>
+      </c>
+      <c r="H10">
+        <v>81.39999999999999</v>
+      </c>
+      <c r="I10">
+        <v>74</v>
+      </c>
+      <c r="J10">
+        <v>90.7</v>
+      </c>
+      <c r="K10">
+        <v>83</v>
+      </c>
+      <c r="L10">
+        <v>94.19999999999999</v>
+      </c>
+      <c r="M10">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="N10">
+        <v>53.8</v>
+      </c>
+      <c r="O10">
+        <v>18.1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3.5</v>
+      </c>
+      <c r="C11">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D11">
+        <v>54.2</v>
+      </c>
+      <c r="E11">
+        <v>60.7</v>
+      </c>
+      <c r="F11">
+        <v>48.6</v>
+      </c>
+      <c r="G11">
+        <v>48.5</v>
+      </c>
+      <c r="H11">
+        <v>28.4</v>
+      </c>
+      <c r="I11">
+        <v>15.5</v>
+      </c>
+      <c r="J11">
+        <v>12.9</v>
+      </c>
+      <c r="K11">
+        <v>4.3</v>
+      </c>
+      <c r="L11">
+        <v>1.8</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2">
+        <v>126.8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3">
+        <v>114.49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4">
+        <v>123.95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5">
+        <v>114.54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6">
+        <v>123.56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7">
+        <v>121.54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8">
+        <v>117.82</v>
+      </c>
+      <c r="E8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9">
+        <v>105.96</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10">
+        <v>119.42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11">
+        <v>101.12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D2">
+        <v>126.8028571428572</v>
+      </c>
+      <c r="E2">
+        <v>1775.24</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D3">
+        <v>114.4857142857143</v>
+      </c>
+      <c r="E3">
+        <v>1602.8</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>123.9457142857143</v>
+      </c>
+      <c r="E4">
+        <v>1735.24</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="D5">
+        <v>123.5614285714286</v>
+      </c>
+      <c r="E5">
+        <v>1729.86</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>121.54</v>
+      </c>
+      <c r="E6">
+        <v>1701.56</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D7">
+        <v>117.82</v>
+      </c>
+      <c r="E7">
+        <v>1649.48</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>114.5371428571429</v>
+      </c>
+      <c r="E8">
+        <v>1603.52</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="D9">
+        <v>105.9557142857143</v>
+      </c>
+      <c r="E9">
+        <v>1483.38</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D10">
+        <v>119.4185714285714</v>
+      </c>
+      <c r="E10">
+        <v>1671.86</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="D11">
+        <v>101.1171428571429</v>
+      </c>
+      <c r="E11">
+        <v>1415.64</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1368,16 +3393,16 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1388,7 +3413,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D2">
         <v>36</v>
@@ -1397,7 +3422,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1408,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D3">
         <v>23</v>
@@ -1417,7 +3442,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1428,7 +3453,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -1437,7 +3462,7 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1448,7 +3473,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <v>12</v>
@@ -1457,7 +3482,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1468,7 +3493,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D6">
         <v>11</v>
@@ -1477,7 +3502,7 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1488,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1497,7 +3522,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1508,7 +3533,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="D8">
         <v>-5</v>
@@ -1517,7 +3542,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1528,7 +3553,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D9">
         <v>-14</v>
@@ -1537,7 +3562,7 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1548,7 +3573,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D10">
         <v>-25</v>
@@ -1557,7 +3582,7 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1568,7 +3593,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D11">
         <v>-62</v>
@@ -1577,7 +3602,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1585,7 +3610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S11"/>
   <sheetViews>
@@ -1595,58 +3620,58 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -1705,7 +3730,7 @@
         <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1764,7 +3789,7 @@
         <v>23</v>
       </c>
       <c r="S3" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1823,7 +3848,7 @@
         <v>19</v>
       </c>
       <c r="S4" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1882,7 +3907,7 @@
         <v>12</v>
       </c>
       <c r="S5" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1941,7 +3966,7 @@
         <v>11</v>
       </c>
       <c r="S6" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -2000,7 +4025,7 @@
         <v>6</v>
       </c>
       <c r="S7" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -2059,7 +4084,7 @@
         <v>-5</v>
       </c>
       <c r="S8" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -2118,7 +4143,7 @@
         <v>-14</v>
       </c>
       <c r="S9" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -2177,7 +4202,7 @@
         <v>-25</v>
       </c>
       <c r="S10" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2236,199 +4261,7 @@
         <v>-62</v>
       </c>
       <c r="S11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>-54</v>
-      </c>
-      <c r="G2">
-        <v>65</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>-25</v>
-      </c>
-      <c r="G3">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>-17</v>
-      </c>
-      <c r="F4">
-        <v>19</v>
-      </c>
-      <c r="G4">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>19</v>
-      </c>
-      <c r="F5">
-        <v>-13</v>
-      </c>
-      <c r="G5">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <v>-6</v>
-      </c>
-      <c r="G6">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>28</v>
-      </c>
-      <c r="G7">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
